--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\项目\0产品数管后台\code\imetadata\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiya/Documents/Develop/imetadata/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFFD65C-8C2F-3C4D-A314-9E2CEAF17F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="95">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,14 +320,70 @@
   <si>
     <t>业务元数据提取
 （mdb提取windows可以，linux未实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat_raster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,32 +833,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.21875" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="48">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -812,934 +871,1118 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="20" customHeight="1">
       <c r="A2" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" customHeight="1">
       <c r="A4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" ht="20" customHeight="1">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" ht="20" customHeight="1">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" ht="20" customHeight="1">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" ht="20" customHeight="1">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" ht="20" customHeight="1">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" ht="20" customHeight="1">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" ht="20" customHeight="1">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="20" customHeight="1">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="20" customHeight="1">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="20" customHeight="1">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="20" customHeight="1">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="20" customHeight="1">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" ht="20" customHeight="1">
       <c r="A22" s="7">
+        <v>31</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" ht="20" customHeight="1">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>56</v>
+      <c r="D23" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="20" customHeight="1">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" ht="20" customHeight="1">
       <c r="A25" s="7">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="20" customHeight="1">
+      <c r="A26" s="7">
         <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" ht="20" customHeight="1">
       <c r="A27" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" ht="20" customHeight="1">
       <c r="A28" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" ht="20" customHeight="1">
       <c r="A29" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>11</v>
+      <c r="H29" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K29" s="8" t="s">
@@ -1748,38 +1991,44 @@
       <c r="L29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" ht="20" customHeight="1">
       <c r="A30" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>11</v>
+      <c r="H30" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K30" s="8" t="s">
@@ -1788,90 +2037,97 @@
       <c r="L30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" ht="20" customHeight="1">
       <c r="A31" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="20" customHeight="1">
       <c r="A32" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{EF2FDAA5-BA06-8D49-9DCC-77823F20B602}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P32">
+      <sortCondition ref="D1:D32"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiya/Documents/Develop/imetadata/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\项目\0产品数管后台\code\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFFD65C-8C2F-3C4D-A314-9E2CEAF17F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="96">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,25 +69,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plugins_2000_mbtiles.py</t>
-  </si>
-  <si>
     <t>√</t>
   </si>
   <si>
     <t>plugins_3000_gdb.py</t>
-  </si>
-  <si>
-    <t>plugins_6001_gf1_wfv.py</t>
-  </si>
-  <si>
-    <t>plugins_6003_gf1_pms1.py</t>
-  </si>
-  <si>
-    <t>plugins_6004_gf1_pms2.py</t>
-  </si>
-  <si>
-    <t>plugins_6005_gf1_B_C_D.py</t>
   </si>
   <si>
     <t>plugins_9001_busdataset_dom.py</t>
@@ -376,14 +360,38 @@
   </si>
   <si>
     <t>sat_raster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4000_mbtiles.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_2001_gf1_wfv.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_2003_gf1_pms1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_2004_gf1_pms2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_2005_gf1_B_C_D.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,36 +841,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="40.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
     <col min="12" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="48">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -871,25 +879,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3</v>
@@ -912,36 +920,36 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1">
+    <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -950,36 +958,36 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1">
+    <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -988,36 +996,36 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1">
+    <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1026,36 +1034,36 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1">
+    <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -1064,36 +1072,36 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1">
+    <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1102,36 +1110,36 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
+    <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1140,36 +1148,36 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+    <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1178,36 +1186,36 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1">
+    <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1216,36 +1224,36 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="20" customHeight="1">
+    <row r="10" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1254,36 +1262,36 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="20" customHeight="1">
+    <row r="11" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1292,36 +1300,36 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="20" customHeight="1">
+    <row r="12" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1330,36 +1338,36 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="20" customHeight="1">
+    <row r="13" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1368,36 +1376,36 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="20" customHeight="1">
+    <row r="14" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1406,36 +1414,36 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="20" customHeight="1">
+    <row r="15" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1444,36 +1452,36 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="20" customHeight="1">
+    <row r="16" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -1482,36 +1490,36 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="20" customHeight="1">
+    <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -1520,36 +1528,36 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="20" customHeight="1">
+    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -1558,36 +1566,36 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="20" customHeight="1">
+    <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -1596,36 +1604,36 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="20" customHeight="1">
+    <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -1634,7 +1642,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="20" customHeight="1">
+    <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>30</v>
       </c>
@@ -1642,28 +1650,28 @@
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1672,7 +1680,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="20" customHeight="1">
+    <row r="22" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>31</v>
       </c>
@@ -1680,28 +1688,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1710,36 +1718,36 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:16" ht="20" customHeight="1">
+    <row r="23" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -1748,36 +1756,36 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" ht="20" customHeight="1">
+    <row r="24" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1786,36 +1794,36 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="20" customHeight="1">
+    <row r="25" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -1824,7 +1832,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="20" customHeight="1">
+    <row r="26" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -1832,28 +1840,28 @@
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1862,220 +1870,220 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:16" ht="20" customHeight="1">
+    <row r="27" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>32</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:16" ht="20" customHeight="1">
+    <row r="28" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>33</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1">
+    <row r="29" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>34</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="I29" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="20" customHeight="1">
+    <row r="30" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="20" customHeight="1">
+    <row r="31" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2084,7 +2092,7 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="20" customHeight="1">
+    <row r="32" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>25</v>
       </c>
@@ -2092,28 +2100,28 @@
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -2123,8 +2131,8 @@
       <c r="P32" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{EF2FDAA5-BA06-8D49-9DCC-77823F20B602}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P32">
+  <autoFilter ref="A1:P1">
+    <sortState ref="A2:P32">
       <sortCondition ref="D1:D32"/>
     </sortState>
   </autoFilter>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -72,9 +72,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>plugins_3000_gdb.py</t>
-  </si>
-  <si>
     <t>plugins_9001_busdataset_dom.py</t>
   </si>
   <si>
@@ -85,20 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plugins_3001_shp.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plugins_4000_img.py</t>
-  </si>
-  <si>
-    <t>plugins_4001_tif.py</t>
-  </si>
-  <si>
-    <t>plugins_4002_tiff.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卫星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +167,6 @@
   </si>
   <si>
     <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单景正射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,27 +342,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plugins_4000_mbtiles.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plugins_2001_gf1_wfv.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plugins_2003_gf1_pms1.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plugins_2004_gf1_pms2.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plugins_2005_gf1_B_C_D.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEM数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单景正射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4001_gf1_wfv.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4003_gf1_pms1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4004_gf1_pms2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4005_gf1_B_C_D.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_6001_shp.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_3001_gdb.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_3002_mbtiles.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_7000_img.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_7001_tif.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_7002_tiff.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,8 +851,8 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -870,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -879,25 +882,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3</v>
@@ -925,19 +928,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>10</v>
@@ -946,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -963,19 +966,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>10</v>
@@ -984,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -1001,19 +1004,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>10</v>
@@ -1022,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -1039,19 +1042,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>10</v>
@@ -1060,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -1077,19 +1080,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>10</v>
@@ -1098,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -1115,19 +1118,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>10</v>
@@ -1136,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -1153,19 +1156,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>10</v>
@@ -1174,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -1191,19 +1194,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>10</v>
@@ -1212,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -1229,19 +1232,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
@@ -1250,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -1267,19 +1270,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -1288,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -1305,19 +1308,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
@@ -1326,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -1343,19 +1346,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>10</v>
@@ -1364,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
@@ -1381,19 +1384,19 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>10</v>
@@ -1402,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
@@ -1419,19 +1422,19 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
@@ -1440,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
@@ -1457,19 +1460,19 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>10</v>
@@ -1478,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>10</v>
@@ -1495,19 +1498,19 @@
         <v>20</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>10</v>
@@ -1516,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>10</v>
@@ -1533,19 +1536,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>10</v>
@@ -1554,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>10</v>
@@ -1571,19 +1574,19 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>10</v>
@@ -1592,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>10</v>
@@ -1609,19 +1612,19 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>10</v>
@@ -1630,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>10</v>
@@ -1650,28 +1653,28 @@
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1688,28 +1691,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1723,19 +1726,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>10</v>
@@ -1744,10 +1747,10 @@
         <v>10</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -1761,19 +1764,19 @@
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>10</v>
@@ -1782,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1799,19 +1802,19 @@
         <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>10</v>
@@ -1820,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -1840,28 +1843,28 @@
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1875,28 +1878,28 @@
         <v>32</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>10</v>
@@ -1921,28 +1924,28 @@
         <v>33</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>10</v>
@@ -1967,28 +1970,28 @@
         <v>34</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>10</v>
@@ -2013,28 +2016,28 @@
         <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="H30" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>10</v>
@@ -2059,19 +2062,19 @@
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>10</v>
@@ -2080,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2100,28 +2103,28 @@
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="96">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -851,8 +851,8 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -955,10 +955,16 @@
         <v>10</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="N2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,10 +999,16 @@
         <v>10</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,10 +1043,16 @@
         <v>10</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,10 +1087,16 @@
         <v>10</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="N5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,10 +1131,16 @@
         <v>10</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="N6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,10 +1175,16 @@
         <v>10</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="N7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,10 +1219,16 @@
         <v>10</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="N8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,10 +1263,16 @@
         <v>10</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="N9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,10 +1307,16 @@
         <v>10</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="N10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,10 +1351,16 @@
         <v>10</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="N11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,10 +1395,16 @@
         <v>10</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,10 +1439,16 @@
         <v>10</v>
       </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="N13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,10 +1483,16 @@
         <v>10</v>
       </c>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,10 +1527,16 @@
         <v>10</v>
       </c>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="N15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,10 +1571,16 @@
         <v>10</v>
       </c>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,10 +1615,16 @@
         <v>10</v>
       </c>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="N17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,10 +1659,16 @@
         <v>10</v>
       </c>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,10 +1703,16 @@
         <v>10</v>
       </c>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="N19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,10 +1747,16 @@
         <v>10</v>
       </c>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="N20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1864,7 @@
         <v>56</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -1788,7 +1902,7 @@
         <v>57</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1826,7 +1940,7 @@
         <v>56</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表" sheetId="1" r:id="rId1"/>
+    <sheet name="同步即时服务插件" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">插件列表!$A$1:$P$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="175">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +388,322 @@
   </si>
   <si>
     <t>plugins_7002_tiff.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_7003_bil.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM非分幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_sdom_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_sdem_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单景正射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_os_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_th3sur_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国情影像-分幅影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_gqdom_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国情影像-整景纠正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_gqos_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单景正射数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_os_whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三调影像数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_th3sur_whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dem.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dem_noframe.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_mosaic.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_ortho.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_third_survey.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_guoqing_frame.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_guoqing_scene.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_custom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dom_dataset.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dem_dataset.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_mosaic_dataset.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_ortho_dataset.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_third_survey_dataset.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_guoqing_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国情影像数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_gq_whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_custom_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据没找到对象类型时候的默认同步类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌影像数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需处理，镶嵌影像没有数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_mosaic_whole</t>
+  </si>
+  <si>
+    <t>ap3_product_rsp_ndem_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_nmosaic_detail</t>
+  </si>
+  <si>
+    <t>ap3_product_rsp_nmosaic_whole</t>
+  </si>
+  <si>
+    <t>ap3_product_rsp_sdom_whole</t>
+  </si>
+  <si>
+    <t>ap3_product_rsp_dem_whole</t>
+  </si>
+  <si>
+    <t>对应object_def表类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dem_noframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ortho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guoqing_scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guoqing_frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosaic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_data_set_dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_data_set_dem
+business_data_set_dem_frame
+business_data_set_dem_noframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_data_set_ortho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_data_set_mosaic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_data_set_guoqing
+business_data_set_guoqing_scene
+business_data_set_guoqing_frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_data_set_third_survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_data_set_custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom
+raster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步目标表-即时服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4006_gf3_kas_wsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4007_gf3_mdj_wsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4009_gf3_say_ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4010_gf4_pmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GF3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +846,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,11 +1171,11 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -958,14 +1281,18 @@
       <c r="L2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="N2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -1002,14 +1329,18 @@
       <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -1046,14 +1377,18 @@
       <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -1090,14 +1425,18 @@
       <c r="L5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1134,14 +1473,18 @@
       <c r="L6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1178,14 +1521,18 @@
       <c r="L7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="8"/>
+      <c r="P7" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1222,14 +1569,18 @@
       <c r="L8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="8"/>
+      <c r="P8" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1266,14 +1617,18 @@
       <c r="L9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="8"/>
+      <c r="P9" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1310,14 +1665,18 @@
       <c r="L10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="8"/>
+      <c r="P10" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1354,14 +1713,18 @@
       <c r="L11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1398,14 +1761,18 @@
       <c r="L12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -1442,14 +1809,18 @@
       <c r="L13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="8"/>
+      <c r="P13" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -1486,14 +1857,18 @@
       <c r="L14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="8"/>
+      <c r="P14" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1530,14 +1905,18 @@
       <c r="L15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -1574,14 +1953,18 @@
       <c r="L16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -1618,14 +2001,18 @@
       <c r="L17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="P17" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -1662,14 +2049,18 @@
       <c r="L18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="8"/>
+      <c r="M18" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -1706,14 +2097,18 @@
       <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="8"/>
+      <c r="P19" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -1750,14 +2145,18 @@
       <c r="L20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="N20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="8"/>
+      <c r="P20" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -1951,13 +2350,13 @@
     </row>
     <row r="26" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>79</v>
@@ -1966,82 +2365,72 @@
         <v>70</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H26" s="8"/>
       <c r="I26" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>83</v>
@@ -2056,7 +2445,7 @@
         <v>53</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>55</v>
@@ -2081,13 +2470,13 @@
     </row>
     <row r="29" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>83</v>
@@ -2099,10 +2488,10 @@
         <v>49</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>55</v>
@@ -2127,13 +2516,13 @@
     </row>
     <row r="30" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>83</v>
@@ -2148,10 +2537,10 @@
         <v>55</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>10</v>
@@ -2173,79 +2562,309 @@
     </row>
     <row r="31" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>37</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>38</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>39</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>25</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1">
@@ -2257,4 +2876,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\项目\0产品数管后台\code\imetadata\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B54C1B-F3B1-42C2-BAC6-EC768B8CED90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="176">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,13 +705,17 @@
   </si>
   <si>
     <t>GF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已基本完成，有待打磨与测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1167,15 +1172,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2872,7 @@
       <c r="P37" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1">
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:P32">
       <sortCondition ref="D1:D32"/>
     </sortState>
@@ -2879,11 +2884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2948,9 @@
       <c r="F2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2965,7 +2972,9 @@
       <c r="F3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,7 +2996,9 @@
       <c r="F4" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,7 +3020,9 @@
       <c r="F5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3044,9 @@
       <c r="F6" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3054,7 +3069,9 @@
         <v>106</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -3076,7 +3093,9 @@
         <v>108</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -3098,7 +3117,9 @@
         <v>110</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -3119,8 +3140,10 @@
       <c r="F10" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\项目\0产品数管后台\code\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B54C1B-F3B1-42C2-BAC6-EC768B8CED90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表" sheetId="1" r:id="rId1"/>
@@ -28,8 +27,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zyf</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zyf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+功能开发完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zyf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+与即时服务库的表记录一样</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="182">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,9 +135,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>plugins_9001_busdataset_dom.py</t>
-  </si>
-  <si>
     <t>plugins_9002_busdataset_dem.py</t>
   </si>
   <si>
@@ -208,23 +266,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOM数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务元数据提取
 （mdb提取windows可以，linux未实现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEM数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单景正射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,114 +486,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自定义影像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOM数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEM数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单景正射数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ap3_product_rsp_os_whole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三调影像数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ap3_product_rsp_th3sur_whole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>distribution_dem.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_dem_noframe.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_dom.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_mosaic.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_ortho.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_third_survey.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_guoqing_frame.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_guoqing_scene.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_custom.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_dom_dataset.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_dem_dataset.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_mosaic_dataset.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_ortho_dataset.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_third_survey_dataset.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distribution_guoqing_dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国情影像数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ap3_product_rsp_gq_whole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>distribution_custom_dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>distribution_default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>镶嵌影像数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无需处理，镶嵌影像没有数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,87 +541,10 @@
     <t>ap3_product_rsp_dem_whole</t>
   </si>
   <si>
-    <t>对应object_def表类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dem_noframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ortho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>third_survey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guoqing_scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guoqing_frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mosaic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_data_set_dom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_data_set_dem
-business_data_set_dem_frame
-business_data_set_dem_noframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_data_set_ortho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_data_set_mosaic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_data_set_guoqing
-business_data_set_guoqing_scene
-business_data_set_guoqing_frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_data_set_third_survey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_data_set_custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom
-raster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同步目标表-即时服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分组说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plugins_4006_gf3_kas_wsc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,14 +570,239 @@
   </si>
   <si>
     <t>已基本完成，有待打磨与测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_vector.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_custom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_guoqing_scene.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_guoqing_frame.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_third_survey.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_ortho.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_mosaic.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_dom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_dem_noframe.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_object_dem.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_dom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_dem.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_mosaic.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_ortho.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_third_survey.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_custom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_guoqing.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_dataset_gdb.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDB数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_vp_ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap3_product_rsp_vp_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shp矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_9001_busdataset_dom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_900201_busdataset_dem_frame.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_900202_busdataset_dem_noframe.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_9003_busdataset_ortho.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_9004_busdataset_mosaic.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_9005_busdataset_third_survey.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_9006_busdataset_guoqing.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_900601_busdataset_guoqing_frame.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_900602_busdataset_guoqing_scene.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_9007_busdataset_custom.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-DOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-DEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-DEM_非分幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-单景正射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-镶嵌影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-三调影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-国情影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-自定义影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-国情影像_分幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-国情影像_整景纠正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-国情影像
+数据集-国情影像_分幅
+数据集-国情影像_整景纠正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-自定义影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-三调影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-镶嵌影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-单景正射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-DEM_分幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-DEM
+数据集-DEM_分幅
+数据集-DEM_非分幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义影像
+通用影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的识别插件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +827,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -810,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +959,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,25 +1276,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="40.109375" customWidth="1"/>
@@ -1201,7 +1305,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1210,25 +1314,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3</v>
@@ -1253,22 +1357,22 @@
     </row>
     <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>10</v>
@@ -1277,17 +1381,19 @@
         <v>10</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L2" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>10</v>
@@ -1301,22 +1407,22 @@
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>10</v>
@@ -1325,12 +1431,14 @@
         <v>10</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1349,22 +1457,22 @@
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>10</v>
@@ -1373,12 +1481,14 @@
         <v>10</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
@@ -1397,22 +1507,22 @@
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>10</v>
@@ -1421,12 +1531,14 @@
         <v>10</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1445,22 +1557,22 @@
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>10</v>
@@ -1469,12 +1581,14 @@
         <v>10</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1493,22 +1607,22 @@
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>10</v>
@@ -1517,12 +1631,14 @@
         <v>10</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1541,22 +1657,22 @@
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>10</v>
@@ -1565,12 +1681,14 @@
         <v>10</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L8" s="12" t="s">
         <v>10</v>
       </c>
@@ -1589,22 +1707,22 @@
     </row>
     <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>10</v>
@@ -1613,12 +1731,14 @@
         <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1637,22 +1757,22 @@
     </row>
     <row r="10" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
@@ -1661,12 +1781,14 @@
         <v>10</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1685,22 +1807,22 @@
     </row>
     <row r="11" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -1709,12 +1831,14 @@
         <v>10</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L11" s="12" t="s">
         <v>10</v>
       </c>
@@ -1733,22 +1857,22 @@
     </row>
     <row r="12" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
@@ -1757,12 +1881,14 @@
         <v>10</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L12" s="12" t="s">
         <v>10</v>
       </c>
@@ -1781,22 +1907,22 @@
     </row>
     <row r="13" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>10</v>
@@ -1805,12 +1931,14 @@
         <v>10</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L13" s="12" t="s">
         <v>10</v>
       </c>
@@ -1829,22 +1957,22 @@
     </row>
     <row r="14" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>10</v>
@@ -1853,12 +1981,14 @@
         <v>10</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L14" s="12" t="s">
         <v>10</v>
       </c>
@@ -1877,22 +2007,22 @@
     </row>
     <row r="15" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
@@ -1901,12 +2031,14 @@
         <v>10</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L15" s="12" t="s">
         <v>10</v>
       </c>
@@ -1925,22 +2057,22 @@
     </row>
     <row r="16" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>10</v>
@@ -1949,12 +2081,14 @@
         <v>10</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L16" s="12" t="s">
         <v>10</v>
       </c>
@@ -1973,22 +2107,22 @@
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>10</v>
@@ -1997,12 +2131,14 @@
         <v>10</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L17" s="12" t="s">
         <v>10</v>
       </c>
@@ -2021,22 +2157,22 @@
     </row>
     <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>10</v>
@@ -2045,12 +2181,14 @@
         <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L18" s="12" t="s">
         <v>10</v>
       </c>
@@ -2069,22 +2207,22 @@
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>10</v>
@@ -2093,12 +2231,14 @@
         <v>10</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L19" s="12" t="s">
         <v>10</v>
       </c>
@@ -2117,22 +2257,22 @@
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>10</v>
@@ -2141,12 +2281,14 @@
         <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="L20" s="12" t="s">
         <v>10</v>
       </c>
@@ -2165,36 +2307,36 @@
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H21" s="8" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -2203,34 +2345,34 @@
     </row>
     <row r="22" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2241,184 +2383,186 @@
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="I26" s="8" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2429,258 +2573,218 @@
     </row>
     <row r="28" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
     </row>
     <row r="33" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>53</v>
@@ -2688,191 +2792,571 @@
       <c r="J33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
     </row>
     <row r="34" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="G34" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
     </row>
     <row r="35" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
+    <row r="38" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+    </row>
+    <row r="45" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:P1">
     <sortState ref="A2:P32">
       <sortCondition ref="D1:D32"/>
     </sortState>
@@ -2884,11 +3368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2896,16 +3380,16 @@
     <col min="1" max="1" width="5.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2914,19 +3398,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,23 +3418,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2958,23 +3440,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2982,23 +3462,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>137</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,23 +3484,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>158</v>
+        <v>136</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3030,23 +3506,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3054,23 +3528,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>155</v>
+        <v>134</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3078,23 +3550,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>157</v>
+        <v>133</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3102,23 +3572,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -3126,204 +3594,228 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>166</v>
+        <v>131</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>146</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>159</v>
+        <v>130</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>149</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>162</v>
+        <v>141</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>144</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>164</v>
+        <v>143</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>118</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>163</v>
+        <v>144</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>135</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>165</v>
+        <v>146</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>147</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="E18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="15" t="s">
-        <v>141</v>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\项目\0产品数管后台\code\imetadata\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835091CA-4EDD-4472-8629-E131CB7E8D25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表" sheetId="1" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zyf</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="183">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,13 +796,17 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本测试完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1276,15 +1281,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3361,7 @@
       <c r="P46" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1">
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:P32">
       <sortCondition ref="D1:D32"/>
     </sortState>
@@ -3368,11 +3373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3432,8 +3437,12 @@
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3454,8 +3463,12 @@
       <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -3476,8 +3489,12 @@
       <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -3498,8 +3515,12 @@
       <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -3520,8 +3541,12 @@
       <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -3539,7 +3564,9 @@
       <c r="E7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
         <v>126</v>
@@ -3561,8 +3588,12 @@
       <c r="E8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>126</v>
       </c>
@@ -3583,7 +3614,9 @@
       <c r="E9" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
         <v>126</v>
@@ -3605,10 +3638,14 @@
       <c r="E10" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="10" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,9 +3664,13 @@
       <c r="E11" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -3647,9 +3688,13 @@
       <c r="E12" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -3667,8 +3712,15 @@
       <c r="E13" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -3686,8 +3738,12 @@
       <c r="E14" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>112</v>
       </c>
@@ -3708,9 +3764,15 @@
       <c r="E15" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -3728,9 +3790,13 @@
       <c r="E16" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -3748,9 +3814,13 @@
       <c r="E17" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -3768,9 +3838,13 @@
       <c r="E18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -3788,9 +3862,13 @@
       <c r="E19" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -3806,7 +3884,7 @@
         <v>109</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="10"/>
       <c r="H20" s="15" t="s">
         <v>111</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表-识别质检" sheetId="1" r:id="rId1"/>
@@ -816,7 +816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,12 +857,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -950,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,9 +994,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1333,9 +1324,9 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1408,10 +1399,10 @@
       <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -1447,8 +1438,8 @@
       <c r="K2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>179</v>
+      <c r="L2" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>50</v>
@@ -1500,8 +1491,8 @@
       <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>179</v>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>10</v>
@@ -1553,8 +1544,8 @@
       <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>179</v>
+      <c r="L4" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>10</v>
@@ -1600,14 +1591,14 @@
       <c r="I5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>179</v>
+      <c r="L5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>10</v>
@@ -1653,14 +1644,14 @@
       <c r="I6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>179</v>
+      <c r="L6" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>10</v>
@@ -1706,14 +1697,14 @@
       <c r="I7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>179</v>
+      <c r="L7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>10</v>
@@ -1759,14 +1750,14 @@
       <c r="I8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>179</v>
+      <c r="L8" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>10</v>
@@ -1812,14 +1803,14 @@
       <c r="I9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>179</v>
+      <c r="L9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>10</v>
@@ -1865,14 +1856,14 @@
       <c r="I10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>179</v>
+      <c r="L10" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>10</v>
@@ -1918,14 +1909,14 @@
       <c r="I11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>179</v>
+      <c r="L11" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>10</v>
@@ -1977,8 +1968,8 @@
       <c r="K12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>179</v>
+      <c r="L12" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>10</v>
@@ -2083,8 +2074,8 @@
       <c r="K14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>179</v>
+      <c r="L14" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>10</v>
@@ -2130,14 +2121,14 @@
       <c r="I15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>179</v>
+      <c r="L15" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>10</v>
@@ -2183,14 +2174,14 @@
       <c r="I16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="16" t="s">
-        <v>179</v>
+      <c r="L16" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>10</v>
@@ -2242,8 +2233,8 @@
       <c r="K17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>179</v>
+      <c r="L17" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>10</v>
@@ -2295,8 +2286,8 @@
       <c r="K18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>179</v>
+      <c r="L18" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>10</v>
@@ -2348,8 +2339,8 @@
       <c r="K19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>179</v>
+      <c r="L19" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>10</v>
@@ -2401,8 +2392,8 @@
       <c r="K20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>179</v>
+      <c r="L20" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>10</v>
@@ -3564,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10510\Documents\WXWork\1688852951197045\Cache\File\2020-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiya/Documents/Develop/tsdb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31545EC-0F80-408D-A33E-F8DF01E51A2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52070B2C-DA08-1D44-A1A1-65FF5C481C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表-识别质检" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -47,7 +48,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -62,7 +64,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -71,7 +74,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -86,7 +90,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -95,7 +100,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -110,7 +116,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -119,7 +126,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -134,7 +142,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -143,7 +152,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -158,7 +168,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -167,7 +178,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -182,7 +194,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -191,7 +204,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -206,7 +220,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -215,7 +230,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -230,7 +246,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -239,7 +256,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -254,7 +272,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -263,7 +282,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
+            <family val="1"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
@@ -277,6 +297,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -285,6 +306,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -299,6 +321,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -307,6 +330,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -321,6 +345,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -329,6 +354,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -342,7 +368,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -350,11 +378,43 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-（mdb多表）</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>mdb</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多表）</t>
         </r>
       </text>
     </comment>
@@ -365,6 +425,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -373,6 +434,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -387,6 +449,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -395,6 +458,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -409,6 +473,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -417,6 +482,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -431,6 +497,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -439,6 +506,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -453,6 +521,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -461,6 +530,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -474,7 +544,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -482,11 +554,33 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-没有找到正确的数据，不知道是不是数据问题
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>没有找到正确的数据，不知道是不是数据问题</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -508,6 +602,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zyf:</t>
@@ -516,6 +611,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -530,6 +626,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zyf:</t>
@@ -538,6 +635,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -550,7 +648,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="176">
   <si>
     <t>序号</t>
   </si>
@@ -1071,13 +1169,29 @@
   </si>
   <si>
     <t>数据没找到对象类型时候的默认同步类</t>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集-其他成果影像</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,11 +1203,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1101,23 +1217,27 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1125,6 +1245,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1132,6 +1253,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1139,31 +1289,23 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1590,27 +1732,27 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="12" customWidth="1"/>
-    <col min="12" max="27" width="21.109375" customWidth="1"/>
+    <col min="8" max="10" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="12" customWidth="1"/>
+    <col min="12" max="27" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="22" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1805,7 @@
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
     </row>
-    <row r="2" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="22" customHeight="1">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1744,7 +1886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="22" customHeight="1">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1811,7 +1953,7 @@
       <c r="AD3" s="23"/>
       <c r="AE3" s="23"/>
     </row>
-    <row r="4" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="22" customHeight="1">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -1878,7 +2020,7 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
     </row>
-    <row r="5" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="22" customHeight="1">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -1945,7 +2087,7 @@
       <c r="AD5" s="23"/>
       <c r="AE5" s="23"/>
     </row>
-    <row r="6" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="22" customHeight="1">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -2012,7 +2154,7 @@
       <c r="AD6" s="23"/>
       <c r="AE6" s="23"/>
     </row>
-    <row r="7" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="22" customHeight="1">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -2079,7 +2221,7 @@
       <c r="AD7" s="23"/>
       <c r="AE7" s="23"/>
     </row>
-    <row r="8" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="22" customHeight="1">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -2146,7 +2288,7 @@
       <c r="AD8" s="23"/>
       <c r="AE8" s="23"/>
     </row>
-    <row r="9" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="22" customHeight="1">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -2213,7 +2355,7 @@
       <c r="AD9" s="23"/>
       <c r="AE9" s="23"/>
     </row>
-    <row r="10" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="22" customHeight="1">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -2280,7 +2422,7 @@
       <c r="AD10" s="23"/>
       <c r="AE10" s="23"/>
     </row>
-    <row r="11" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="22" customHeight="1">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -2347,7 +2489,7 @@
       <c r="AD11" s="23"/>
       <c r="AE11" s="23"/>
     </row>
-    <row r="12" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="22" customHeight="1">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -2414,7 +2556,7 @@
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
     </row>
-    <row r="13" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="22" customHeight="1">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -2481,7 +2623,7 @@
       <c r="AD13" s="23"/>
       <c r="AE13" s="23"/>
     </row>
-    <row r="14" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="22" customHeight="1">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -2548,7 +2690,7 @@
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
     </row>
-    <row r="15" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="22" customHeight="1">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -2615,7 +2757,7 @@
       <c r="AD15" s="23"/>
       <c r="AE15" s="23"/>
     </row>
-    <row r="16" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="22" customHeight="1">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -2682,7 +2824,7 @@
       <c r="AD16" s="23"/>
       <c r="AE16" s="23"/>
     </row>
-    <row r="17" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="22" customHeight="1">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -2749,7 +2891,7 @@
       <c r="AD17" s="23"/>
       <c r="AE17" s="23"/>
     </row>
-    <row r="18" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="22" customHeight="1">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -2816,7 +2958,7 @@
       <c r="AD18" s="23"/>
       <c r="AE18" s="23"/>
     </row>
-    <row r="19" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="22" customHeight="1">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -2883,7 +3025,7 @@
       <c r="AD19" s="23"/>
       <c r="AE19" s="23"/>
     </row>
-    <row r="20" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="22" customHeight="1">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -2950,7 +3092,7 @@
       <c r="AD20" s="23"/>
       <c r="AE20" s="23"/>
     </row>
-    <row r="21" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="22" customHeight="1">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -3017,7 +3159,7 @@
       <c r="AD21" s="23"/>
       <c r="AE21" s="23"/>
     </row>
-    <row r="22" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="22" customHeight="1">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -3084,7 +3226,7 @@
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
     </row>
-    <row r="23" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="22" customHeight="1">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -3151,7 +3293,7 @@
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
     </row>
-    <row r="24" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="22" customHeight="1">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -3218,7 +3360,7 @@
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
     </row>
-    <row r="25" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="22" customHeight="1">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -3285,7 +3427,7 @@
       <c r="AD25" s="23"/>
       <c r="AE25" s="23"/>
     </row>
-    <row r="26" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="22" customHeight="1">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -3352,7 +3494,7 @@
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
     </row>
-    <row r="27" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="22" customHeight="1">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -3419,7 +3561,7 @@
       <c r="AD27" s="23"/>
       <c r="AE27" s="23"/>
     </row>
-    <row r="28" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="22" customHeight="1">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -3486,7 +3628,7 @@
       <c r="AD28" s="23"/>
       <c r="AE28" s="23"/>
     </row>
-    <row r="29" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="22" customHeight="1">
       <c r="A29" s="14">
         <v>27</v>
       </c>
@@ -3553,7 +3695,7 @@
       <c r="AD29" s="23"/>
       <c r="AE29" s="23"/>
     </row>
-    <row r="30" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="22" customHeight="1">
       <c r="A30" s="14">
         <v>28</v>
       </c>
@@ -3620,7 +3762,7 @@
       <c r="AD30" s="23"/>
       <c r="AE30" s="23"/>
     </row>
-    <row r="31" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="22" customHeight="1">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -3637,7 +3779,7 @@
         <v>58</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>29</v>
@@ -3687,7 +3829,7 @@
       <c r="AD31" s="23"/>
       <c r="AE31" s="23"/>
     </row>
-    <row r="32" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="22" customHeight="1">
       <c r="A32" s="14">
         <v>30</v>
       </c>
@@ -3698,10 +3840,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>82</v>
@@ -3715,20 +3857,20 @@
       <c r="I32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>29</v>
+      <c r="J32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>29</v>
@@ -3756,7 +3898,7 @@
       <c r="AD32" s="23"/>
       <c r="AE32" s="23"/>
     </row>
-    <row r="33" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="22" customHeight="1">
       <c r="A33" s="14">
         <v>31</v>
       </c>
@@ -3767,10 +3909,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>82</v>
@@ -3784,20 +3926,20 @@
       <c r="I33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>29</v>
+      <c r="J33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>29</v>
@@ -3825,7 +3967,7 @@
       <c r="AD33" s="23"/>
       <c r="AE33" s="23"/>
     </row>
-    <row r="34" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="22" customHeight="1">
       <c r="A34" s="14">
         <v>32</v>
       </c>
@@ -3836,10 +3978,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>82</v>
@@ -3853,20 +3995,20 @@
       <c r="I34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>29</v>
+      <c r="J34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>29</v>
@@ -3894,7 +4036,7 @@
       <c r="AD34" s="23"/>
       <c r="AE34" s="23"/>
     </row>
-    <row r="35" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="22" customHeight="1">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -3905,10 +4047,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>82</v>
@@ -3922,20 +4064,20 @@
       <c r="I35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>29</v>
+      <c r="J35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>29</v>
@@ -3963,7 +4105,7 @@
       <c r="AD35" s="23"/>
       <c r="AE35" s="23"/>
     </row>
-    <row r="36" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="22" customHeight="1">
       <c r="A36" s="14">
         <v>34</v>
       </c>
@@ -3974,10 +4116,10 @@
         <v>86</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>82</v>
@@ -3991,20 +4133,20 @@
       <c r="I36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>29</v>
+      <c r="J36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O36" s="10" t="s">
         <v>29</v>
@@ -4032,7 +4174,7 @@
       <c r="AD36" s="23"/>
       <c r="AE36" s="23"/>
     </row>
-    <row r="37" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="22" customHeight="1">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -4043,10 +4185,10 @@
         <v>87</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>82</v>
@@ -4060,20 +4202,20 @@
       <c r="I37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>29</v>
+      <c r="J37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="M37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>29</v>
+      <c r="N37" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="O37" s="10" t="s">
         <v>29</v>
@@ -4101,7 +4243,7 @@
       <c r="AD37" s="23"/>
       <c r="AE37" s="23"/>
     </row>
-    <row r="38" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="22" customHeight="1">
       <c r="A38" s="14">
         <v>36</v>
       </c>
@@ -4170,7 +4312,7 @@
       <c r="AD38" s="23"/>
       <c r="AE38" s="23"/>
     </row>
-    <row r="39" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="22" customHeight="1">
       <c r="A39" s="14">
         <v>37</v>
       </c>
@@ -4239,7 +4381,7 @@
       <c r="AD39" s="23"/>
       <c r="AE39" s="23"/>
     </row>
-    <row r="40" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="22" customHeight="1">
       <c r="A40" s="14">
         <v>38</v>
       </c>
@@ -4306,7 +4448,7 @@
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
     </row>
-    <row r="41" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="22" customHeight="1">
       <c r="A41" s="14">
         <v>39</v>
       </c>
@@ -4373,7 +4515,7 @@
       <c r="AD41" s="23"/>
       <c r="AE41" s="23"/>
     </row>
-    <row r="42" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="22" customHeight="1">
       <c r="A42" s="14">
         <v>40</v>
       </c>
@@ -4401,8 +4543,8 @@
       <c r="I42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>29</v>
+      <c r="J42" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>29</v>
@@ -4411,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>29</v>
@@ -4440,7 +4582,7 @@
       <c r="AD42" s="23"/>
       <c r="AE42" s="23"/>
     </row>
-    <row r="43" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="22" customHeight="1">
       <c r="A43" s="14">
         <v>41</v>
       </c>
@@ -4507,7 +4649,7 @@
       <c r="AD43" s="23"/>
       <c r="AE43" s="23"/>
     </row>
-    <row r="44" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="22" customHeight="1">
       <c r="A44" s="14">
         <v>42</v>
       </c>
@@ -4574,7 +4716,7 @@
       <c r="AD44" s="23"/>
       <c r="AE44" s="23"/>
     </row>
-    <row r="45" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="22" customHeight="1">
       <c r="A45" s="14">
         <v>43</v>
       </c>
@@ -4641,7 +4783,7 @@
       <c r="AD45" s="23"/>
       <c r="AE45" s="23"/>
     </row>
-    <row r="46" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="22" customHeight="1">
       <c r="A46" s="14">
         <v>44</v>
       </c>
@@ -4708,7 +4850,7 @@
       <c r="AD46" s="23"/>
       <c r="AE46" s="23"/>
     </row>
-    <row r="47" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="22" customHeight="1">
       <c r="A47" s="14">
         <v>45</v>
       </c>
@@ -4775,7 +4917,7 @@
       <c r="AD47" s="23"/>
       <c r="AE47" s="23"/>
     </row>
-    <row r="48" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="22" customHeight="1">
       <c r="A48" s="14">
         <v>46</v>
       </c>
@@ -4842,7 +4984,7 @@
       <c r="AD48" s="23"/>
       <c r="AE48" s="23"/>
     </row>
-    <row r="49" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="22" customHeight="1">
       <c r="A49" s="14">
         <v>47</v>
       </c>
@@ -4909,7 +5051,7 @@
       <c r="AD49" s="23"/>
       <c r="AE49" s="23"/>
     </row>
-    <row r="50" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="22" customHeight="1">
       <c r="A50" s="14">
         <v>48</v>
       </c>
@@ -4976,7 +5118,7 @@
       <c r="AD50" s="23"/>
       <c r="AE50" s="23"/>
     </row>
-    <row r="51" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="22" customHeight="1">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -5045,7 +5187,7 @@
       <c r="AD51" s="23"/>
       <c r="AE51" s="23"/>
     </row>
-    <row r="52" spans="1:31" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="22" customHeight="1">
       <c r="A52" s="14">
         <v>50</v>
       </c>
@@ -5073,8 +5215,8 @@
       <c r="I52" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>29</v>
+      <c r="J52" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>29</v>
@@ -5127,7 +5269,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
@@ -5142,19 +5284,19 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +5322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5206,7 +5348,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5232,7 +5374,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5258,7 +5400,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5284,7 +5426,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5310,7 +5452,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5336,7 +5478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5362,7 +5504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5388,7 +5530,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5414,7 +5556,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5440,7 +5582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5466,7 +5608,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="48">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5492,7 +5634,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5518,7 +5660,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5544,7 +5686,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5570,7 +5712,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="48">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5596,7 +5738,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5622,7 +5764,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5648,7 +5790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="32">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5669,7 +5811,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiya/Documents/Develop/tsdb/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52070B2C-DA08-1D44-A1A1-65FF5C481C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表-识别质检" sheetId="1" r:id="rId1"/>
@@ -24,13 +18,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>王西亚</author>
     <author>MIRACLE</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,8 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -48,15 +41,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,8 +56,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -74,15 +65,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,8 +80,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -100,15 +89,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,8 +104,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -126,15 +113,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,8 +128,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -152,15 +137,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,8 +152,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -178,15 +161,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,8 +176,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -204,15 +185,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,8 +200,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -230,15 +209,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,8 +224,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -256,15 +233,14 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,8 +248,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>王西亚:</t>
         </r>
@@ -282,22 +257,20 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="1"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 （mdb单表/mat/xls/xlsx）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="J13" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -306,7 +279,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -314,14 +286,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="J14" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -330,7 +301,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -338,14 +308,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="J15" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -354,7 +323,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -362,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="J16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -370,7 +338,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -380,52 +347,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>mdb</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>多表）</t>
+（mdb多表）</t>
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="J17" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -434,7 +369,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -442,14 +376,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="J18" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -458,7 +391,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -466,14 +398,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="J19" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -482,7 +413,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -490,14 +420,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="J20" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -506,7 +435,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -514,14 +442,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="J21" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>MIRACLE:</t>
@@ -530,58 +457,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 (***_21at.xml)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N40" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>MIRACLE:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>没有找到正确的数据，不知道是不是数据问题</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
         </r>
       </text>
     </comment>
@@ -590,19 +469,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zyf</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zyf:</t>
@@ -611,7 +489,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -619,14 +496,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zyf:</t>
@@ -635,7 +511,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -648,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="221">
   <si>
     <t>序号</t>
   </si>
@@ -884,39 +759,45 @@
     <t>plugins_9007_busdataset_custom</t>
   </si>
   <si>
-    <t>数据集-自定义影像</t>
+    <t>数据集-其他成果影像</t>
   </si>
   <si>
     <t>plugins_5001_doc</t>
   </si>
   <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>plugins_5002_docx</t>
+  </si>
+  <si>
+    <t>plugins_5003_xls</t>
+  </si>
+  <si>
+    <t>plugins_5004_xlsx</t>
+  </si>
+  <si>
+    <t>plugins_5005_pdf</t>
+  </si>
+  <si>
+    <t>plugins_5006_jpg</t>
+  </si>
+  <si>
+    <t>plugins_7000_img</t>
+  </si>
+  <si>
     <t>raster</t>
   </si>
   <si>
     <t>影像</t>
   </si>
   <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>plugins_5002_docx</t>
-  </si>
-  <si>
-    <t>plugins_5003_xls</t>
-  </si>
-  <si>
-    <t>plugins_5004_xlsx</t>
-  </si>
-  <si>
-    <t>plugins_5005_pdf</t>
-  </si>
-  <si>
-    <t>plugins_5006_jpg</t>
-  </si>
-  <si>
-    <t>plugins_7000_img</t>
-  </si>
-  <si>
     <t>plugins_7001_tif</t>
   </si>
   <si>
@@ -974,6 +855,138 @@
     <t>GF4</t>
   </si>
   <si>
+    <t>plugins_4011_gf5_ahsi</t>
+  </si>
+  <si>
+    <t>GF5</t>
+  </si>
+  <si>
+    <t>plugins_4012_gf5_gmi</t>
+  </si>
+  <si>
+    <t>plugins_4013_gf5_vims</t>
+  </si>
+  <si>
+    <t>plugins_4014_gf6_pms</t>
+  </si>
+  <si>
+    <t>GF6</t>
+  </si>
+  <si>
+    <t>plugins_4015_gf6_wfv</t>
+  </si>
+  <si>
+    <t>plugins_4017_hj1a_ccd1</t>
+  </si>
+  <si>
+    <t>HJ1A</t>
+  </si>
+  <si>
+    <t>plugins_4018_hj1a_ccd2</t>
+  </si>
+  <si>
+    <t>plugins_4019_hj1b_ccd1</t>
+  </si>
+  <si>
+    <t>HJ1B</t>
+  </si>
+  <si>
+    <t>plugins_4020_hj1b_ccd2</t>
+  </si>
+  <si>
+    <t>plugins_4021_jl101a_pms</t>
+  </si>
+  <si>
+    <t>JL101A</t>
+  </si>
+  <si>
+    <t>plugins_4022_k3</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>plugins_4023_ls8_c</t>
+  </si>
+  <si>
+    <t>LS8</t>
+  </si>
+  <si>
+    <t>plugins_4024_msc</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>plugins_4025_sj9a_pms</t>
+  </si>
+  <si>
+    <t>SJ9A</t>
+  </si>
+  <si>
+    <t>plugins_4026_sv1-01</t>
+  </si>
+  <si>
+    <t>SV1-01</t>
+  </si>
+  <si>
+    <t>plugins_4027_triplesat_1_pms</t>
+  </si>
+  <si>
+    <t>TRIPLESAT1</t>
+  </si>
+  <si>
+    <t>plugins_4028_triplesat_2_pms</t>
+  </si>
+  <si>
+    <t>TRIPLESAT2</t>
+  </si>
+  <si>
+    <t>plugins_4029_triplesat_3_pms</t>
+  </si>
+  <si>
+    <t>TRIPLESAT3</t>
+  </si>
+  <si>
+    <t>plugins_4030_triplesat_4_pms</t>
+  </si>
+  <si>
+    <t>TRIPLESAT4</t>
+  </si>
+  <si>
+    <t>plugins_4031_yg24-1_ccd-a</t>
+  </si>
+  <si>
+    <t>YG24-1</t>
+  </si>
+  <si>
+    <t>plugins_4032_zy02c_hrc</t>
+  </si>
+  <si>
+    <t>ZY02C</t>
+  </si>
+  <si>
+    <t>plugins_4033_zy02c_pms</t>
+  </si>
+  <si>
+    <t>plugins_4034_zy3_mux</t>
+  </si>
+  <si>
+    <t>ZY3</t>
+  </si>
+  <si>
+    <t>plugins_4035_zy3_nad</t>
+  </si>
+  <si>
+    <t>plugins_4036_zy3_tms</t>
+  </si>
+  <si>
+    <t>J50G015010CP001(未知)</t>
+  </si>
+  <si>
+    <t>PHR_TPP1600569668(未知)</t>
+  </si>
+  <si>
     <t>plugins_6001_shp</t>
   </si>
   <si>
@@ -981,6 +994,12 @@
   </si>
   <si>
     <t>矢量</t>
+  </si>
+  <si>
+    <t>plugins_6002_mdb</t>
+  </si>
+  <si>
+    <t>plugins_6050_layer_vector</t>
   </si>
   <si>
     <t>plugins_3001_gdb</t>
@@ -1147,6 +1166,9 @@
     <t>distribution_dataset_custom.py</t>
   </si>
   <si>
+    <t>数据集-自定义影像</t>
+  </si>
+  <si>
     <t>ap3_product_rsp_nmosaic_whole</t>
   </si>
   <si>
@@ -1169,29 +1191,19 @@
   </si>
   <si>
     <t>数据没找到对象类型时候的默认同步类</t>
-  </si>
-  <si>
-    <t>document</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据集-其他成果影像</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,13 +1215,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1217,27 +1227,23 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1245,7 +1251,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1253,62 +1258,192 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1317,7 +1452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,18 +1464,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39991454817346722"/>
+        <fgColor theme="8" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1363,13 +1684,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,6 +1972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,10 +1990,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,27 +2008,62 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1720,201 +2321,201 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor theme="7" tint="0.79992065187536243"/>
+    <tabColor theme="7" tint="0.799920651875362"/>
   </sheetPr>
-  <dimension ref="A1:AE52"/>
+  <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71:H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.8333333333333" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="47.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="10" width="21.1640625" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="12" customWidth="1"/>
-    <col min="12" max="27" width="21.1640625" customWidth="1"/>
+    <col min="8" max="10" width="21.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="21.1666666666667" style="12" customWidth="1"/>
+    <col min="12" max="27" width="21.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" ht="22" customHeight="1" spans="1:31">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-    </row>
-    <row r="2" spans="1:31" ht="22" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="13" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:31">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="22" customHeight="1">
-      <c r="A3" s="14">
+    <row r="3" ht="22" customHeight="1" spans="1:31">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="H3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="19" t="s">
@@ -1938,9 +2539,9 @@
       <c r="Q3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
@@ -1948,40 +2549,40 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-    </row>
-    <row r="4" spans="1:31" ht="22" customHeight="1">
-      <c r="A4" s="14">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="1:31">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="H4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="19" t="s">
@@ -2005,9 +2606,9 @@
       <c r="Q4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
@@ -2015,40 +2616,40 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-    </row>
-    <row r="5" spans="1:31" ht="22" customHeight="1">
-      <c r="A5" s="14">
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:31">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="19" t="s">
@@ -2072,9 +2673,9 @@
       <c r="Q5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
@@ -2082,40 +2683,40 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-    </row>
-    <row r="6" spans="1:31" ht="22" customHeight="1">
-      <c r="A6" s="14">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:31">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="H6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="19" t="s">
@@ -2139,9 +2740,9 @@
       <c r="Q6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
@@ -2149,40 +2750,40 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-    </row>
-    <row r="7" spans="1:31" ht="22" customHeight="1">
-      <c r="A7" s="14">
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="1:31">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="H7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="19" t="s">
@@ -2206,9 +2807,9 @@
       <c r="Q7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
@@ -2216,40 +2817,40 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-    </row>
-    <row r="8" spans="1:31" ht="22" customHeight="1">
-      <c r="A8" s="14">
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:31">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="H8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="19" t="s">
@@ -2273,9 +2874,9 @@
       <c r="Q8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
@@ -2283,40 +2884,40 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-    </row>
-    <row r="9" spans="1:31" ht="22" customHeight="1">
-      <c r="A9" s="14">
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="1:31">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="H9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="19" t="s">
@@ -2340,9 +2941,9 @@
       <c r="Q9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
@@ -2350,40 +2951,40 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-    </row>
-    <row r="10" spans="1:31" ht="22" customHeight="1">
-      <c r="A10" s="14">
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+    </row>
+    <row r="10" ht="22" customHeight="1" spans="1:31">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="H10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="19" t="s">
@@ -2407,9 +3008,9 @@
       <c r="Q10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
@@ -2417,40 +3018,40 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-    </row>
-    <row r="11" spans="1:31" ht="22" customHeight="1">
-      <c r="A11" s="14">
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="11" ht="22" customHeight="1" spans="1:31">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="H11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="19" t="s">
@@ -2474,9 +3075,9 @@
       <c r="Q11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
@@ -2484,40 +3085,40 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-    </row>
-    <row r="12" spans="1:31" ht="22" customHeight="1">
-      <c r="A12" s="14">
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+    </row>
+    <row r="12" ht="22" customHeight="1" spans="1:31">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="H12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -2541,9 +3142,9 @@
       <c r="Q12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -2551,40 +3152,40 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-    </row>
-    <row r="13" spans="1:31" ht="22" customHeight="1">
-      <c r="A13" s="14">
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+    </row>
+    <row r="13" ht="22" customHeight="1" spans="1:31">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="H13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -2608,9 +3209,9 @@
       <c r="Q13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
@@ -2618,40 +3219,40 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-    </row>
-    <row r="14" spans="1:31" ht="22" customHeight="1">
-      <c r="A14" s="14">
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:31">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="17" t="s">
+      <c r="H14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="19" t="s">
@@ -2675,9 +3276,9 @@
       <c r="Q14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
@@ -2685,40 +3286,40 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-    </row>
-    <row r="15" spans="1:31" ht="22" customHeight="1">
-      <c r="A15" s="14">
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+    </row>
+    <row r="15" ht="22" customHeight="1" spans="1:31">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17" t="s">
+      <c r="H15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="19" t="s">
@@ -2742,9 +3343,9 @@
       <c r="Q15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
@@ -2752,40 +3353,40 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-    </row>
-    <row r="16" spans="1:31" ht="22" customHeight="1">
-      <c r="A16" s="14">
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+    </row>
+    <row r="16" ht="22" customHeight="1" spans="1:31">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="H16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="19" t="s">
@@ -2809,9 +3410,9 @@
       <c r="Q16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
@@ -2819,40 +3420,40 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-    </row>
-    <row r="17" spans="1:31" ht="22" customHeight="1">
-      <c r="A17" s="14">
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="1:31">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="H17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -2876,9 +3477,9 @@
       <c r="Q17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
@@ -2886,40 +3487,40 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-    </row>
-    <row r="18" spans="1:31" ht="22" customHeight="1">
-      <c r="A18" s="14">
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="18" ht="22" customHeight="1" spans="1:31">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="H18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="19" t="s">
@@ -2943,9 +3544,9 @@
       <c r="Q18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
@@ -2953,40 +3554,40 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-    </row>
-    <row r="19" spans="1:31" ht="22" customHeight="1">
-      <c r="A19" s="14">
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+    </row>
+    <row r="19" ht="22" customHeight="1" spans="1:31">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="H19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="19" t="s">
@@ -3010,9 +3611,9 @@
       <c r="Q19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
@@ -3020,40 +3621,40 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-    </row>
-    <row r="20" spans="1:31" ht="22" customHeight="1">
-      <c r="A20" s="14">
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+    </row>
+    <row r="20" ht="22" customHeight="1" spans="1:31">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="17" t="s">
+      <c r="H20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K20" s="19" t="s">
@@ -3077,9 +3678,9 @@
       <c r="Q20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
@@ -3087,40 +3688,40 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-    </row>
-    <row r="21" spans="1:31" ht="22" customHeight="1">
-      <c r="A21" s="14">
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+    </row>
+    <row r="21" ht="22" customHeight="1" spans="1:31">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="H21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K21" s="19" t="s">
@@ -3144,9 +3745,9 @@
       <c r="Q21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
@@ -3154,1043 +3755,1043 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-    </row>
-    <row r="22" spans="1:31" ht="22" customHeight="1">
-      <c r="A22" s="14">
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="1:31">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="H22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="17" t="s">
+      <c r="L22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-    </row>
-    <row r="23" spans="1:31" ht="22" customHeight="1">
-      <c r="A23" s="14">
+      <c r="V22" s="18"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+    </row>
+    <row r="23" ht="22" customHeight="1" spans="1:31">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="17" t="s">
+      <c r="H23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="17" t="s">
+      <c r="L23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-    </row>
-    <row r="24" spans="1:31" ht="22" customHeight="1">
-      <c r="A24" s="14">
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:31">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="H24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="17" t="s">
+      <c r="L24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="P24" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="19"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-    </row>
-    <row r="25" spans="1:31" ht="22" customHeight="1">
-      <c r="A25" s="14">
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+    </row>
+    <row r="25" ht="22" customHeight="1" spans="1:31">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="H25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="17" t="s">
+      <c r="L25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
       <c r="U25" s="19"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-    </row>
-    <row r="26" spans="1:31" ht="22" customHeight="1">
-      <c r="A26" s="14">
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+    </row>
+    <row r="26" ht="22" customHeight="1" spans="1:31">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="17" t="s">
+      <c r="H26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="17" t="s">
+      <c r="L26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P26" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="19"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-    </row>
-    <row r="27" spans="1:31" ht="22" customHeight="1">
-      <c r="A27" s="14">
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+    </row>
+    <row r="27" ht="22" customHeight="1" spans="1:31">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="16" t="s">
         <v>70</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="H27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="17" t="s">
+      <c r="L27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P27" s="17" t="s">
+      <c r="P27" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-    </row>
-    <row r="28" spans="1:31" ht="22" customHeight="1">
-      <c r="A28" s="14">
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+    </row>
+    <row r="28" ht="22" customHeight="1" spans="1:31">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="17" t="s">
+      <c r="H28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="17" t="s">
+      <c r="L28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P28" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
       <c r="U28" s="19"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-    </row>
-    <row r="29" spans="1:31" ht="22" customHeight="1">
-      <c r="A29" s="14">
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+    </row>
+    <row r="29" ht="22" customHeight="1" spans="1:31">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="16" t="s">
         <v>74</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="17" t="s">
+      <c r="H29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="17" t="s">
+      <c r="L29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="P29" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
       <c r="U29" s="19"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-    </row>
-    <row r="30" spans="1:31" ht="22" customHeight="1">
-      <c r="A30" s="14">
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+    </row>
+    <row r="30" ht="22" customHeight="1" spans="1:31">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="17" t="s">
+      <c r="H30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="17" t="s">
+      <c r="L30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-    </row>
-    <row r="31" spans="1:31" ht="22" customHeight="1">
-      <c r="A31" s="14">
-        <v>29</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+    </row>
+    <row r="31" ht="22" customHeight="1" spans="1:31">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>175</v>
+      <c r="F31" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" s="17" t="s">
+      <c r="H31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N31" s="17" t="s">
+      <c r="L31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="P31" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="19"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-    </row>
-    <row r="32" spans="1:31" ht="22" customHeight="1">
-      <c r="A32" s="14">
-        <v>30</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+    </row>
+    <row r="32" ht="22" customHeight="1" spans="1:31">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="D32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>29</v>
+      <c r="H32" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="J32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-    </row>
-    <row r="33" spans="1:31" ht="22" customHeight="1">
-      <c r="A33" s="14">
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+    </row>
+    <row r="33" ht="22" customHeight="1" spans="1:31">
+      <c r="A33" s="15">
         <v>31</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="D33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>29</v>
+      <c r="H33" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
+      <c r="J33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
       <c r="U33" s="19"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-    </row>
-    <row r="34" spans="1:31" ht="22" customHeight="1">
-      <c r="A34" s="14">
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+    </row>
+    <row r="34" ht="22" customHeight="1" spans="1:31">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="D34" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>29</v>
+      <c r="H34" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="J34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
       <c r="U34" s="19"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-    </row>
-    <row r="35" spans="1:31" ht="22" customHeight="1">
-      <c r="A35" s="14">
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+    </row>
+    <row r="35" ht="22" customHeight="1" spans="1:31">
+      <c r="A35" s="15">
         <v>33</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F35" s="15" t="s">
+      <c r="D35" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>29</v>
+      <c r="H35" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
+      <c r="J35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
       <c r="U35" s="19"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-    </row>
-    <row r="36" spans="1:31" ht="22" customHeight="1">
-      <c r="A36" s="14">
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+    </row>
+    <row r="36" ht="22" customHeight="1" spans="1:31">
+      <c r="A36" s="15">
         <v>34</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="15" t="s">
+      <c r="D36" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>29</v>
+      <c r="H36" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
+      <c r="J36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
       <c r="U36" s="19"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-    </row>
-    <row r="37" spans="1:31" ht="22" customHeight="1">
-      <c r="A37" s="14">
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+    </row>
+    <row r="37" ht="22" customHeight="1" spans="1:31">
+      <c r="A37" s="15">
         <v>35</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="D37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -4202,19 +4803,19 @@
       <c r="I37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="17" t="s">
+      <c r="J37" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="18" t="s">
         <v>60</v>
       </c>
       <c r="M37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O37" s="10" t="s">
@@ -4223,55 +4824,55 @@
       <c r="P37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
+      <c r="Q37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
       <c r="U37" s="19"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-    </row>
-    <row r="38" spans="1:31" ht="22" customHeight="1">
-      <c r="A38" s="14">
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+    </row>
+    <row r="38" ht="22" customHeight="1" spans="1:31">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="D38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="17" t="s">
+      <c r="H38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K38" s="10" t="s">
@@ -4283,64 +4884,64 @@
       <c r="M38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P38" s="17" t="s">
+      <c r="N38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="18" t="s">
         <v>30</v>
       </c>
       <c r="Q38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
       <c r="U38" s="19"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
       <c r="AB38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-    </row>
-    <row r="39" spans="1:31" ht="22" customHeight="1">
-      <c r="A39" s="14">
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+    </row>
+    <row r="39" ht="22" customHeight="1" spans="1:31">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="17" t="s">
+      <c r="H39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K39" s="10" t="s">
@@ -4352,64 +4953,64 @@
       <c r="M39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P39" s="17" t="s">
+      <c r="N39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="18" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="19"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
       <c r="AB39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="23"/>
-    </row>
-    <row r="40" spans="1:31" ht="22" customHeight="1">
-      <c r="A40" s="14">
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="1:31">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="17" t="s">
+      <c r="H40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K40" s="10" t="s">
@@ -4421,62 +5022,62 @@
       <c r="M40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" s="17" t="s">
+      <c r="N40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="18" t="s">
         <v>30</v>
       </c>
       <c r="Q40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
       <c r="U40" s="19"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-    </row>
-    <row r="41" spans="1:31" ht="22" customHeight="1">
-      <c r="A41" s="14">
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+    </row>
+    <row r="41" ht="22" customHeight="1" spans="1:31">
+      <c r="A41" s="15">
         <v>39</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="15" t="s">
+      <c r="C41" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="17" t="s">
+      <c r="H41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K41" s="10" t="s">
@@ -4488,51 +5089,51 @@
       <c r="M41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P41" s="17" t="s">
+      <c r="N41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="18" t="s">
         <v>30</v>
       </c>
       <c r="Q41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="19"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="23"/>
-      <c r="AE41" s="23"/>
-    </row>
-    <row r="42" spans="1:31" ht="22" customHeight="1">
-      <c r="A42" s="14">
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+    </row>
+    <row r="42" ht="22" customHeight="1" spans="1:31">
+      <c r="A42" s="15">
         <v>40</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>93</v>
+      <c r="C42" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>29</v>
@@ -4543,7 +5144,7 @@
       <c r="I42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="18" t="s">
         <v>60</v>
       </c>
       <c r="K42" s="10" t="s">
@@ -4553,708 +5154,2635 @@
         <v>29</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P42" s="17" t="s">
+      <c r="O42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="18" t="s">
         <v>60</v>
       </c>
       <c r="Q42" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
       <c r="U42" s="19"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-    </row>
-    <row r="43" spans="1:31" ht="22" customHeight="1">
-      <c r="A43" s="14">
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+    </row>
+    <row r="43" ht="22" customHeight="1" spans="1:31">
+      <c r="A43" s="15">
         <v>41</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="C43" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="D43" s="16" t="s">
         <v>98</v>
       </c>
+      <c r="E43" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="G43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J43" s="17" t="s">
+      <c r="H43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" s="17" t="s">
+      <c r="L43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="18" t="s">
         <v>30</v>
       </c>
       <c r="Q43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
       <c r="U43" s="19"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
-    </row>
-    <row r="44" spans="1:31" ht="22" customHeight="1">
-      <c r="A44" s="14">
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+    </row>
+    <row r="44" ht="22" customHeight="1" spans="1:31">
+      <c r="A44" s="15">
         <v>42</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="F44" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+    </row>
+    <row r="45" ht="22" customHeight="1" spans="1:31">
+      <c r="A45" s="15">
+        <v>43</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="15" t="s">
+      <c r="C45" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="23"/>
-      <c r="AE44" s="23"/>
-    </row>
-    <row r="45" spans="1:31" ht="22" customHeight="1">
-      <c r="A45" s="14">
-        <v>43</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="16" t="s">
+      <c r="E45" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="G45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+    </row>
+    <row r="46" ht="22" customHeight="1" spans="1:31">
+      <c r="A46" s="15">
+        <v>44</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="15" t="s">
+      <c r="C46" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="23"/>
-      <c r="AD45" s="23"/>
-      <c r="AE45" s="23"/>
-    </row>
-    <row r="46" spans="1:31" ht="22" customHeight="1">
-      <c r="A46" s="14">
-        <v>44</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="E46" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+    </row>
+    <row r="47" ht="22" customHeight="1" spans="1:31">
+      <c r="A47" s="15">
+        <v>45</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="15" t="s">
+      <c r="C47" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="23"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="23"/>
-    </row>
-    <row r="47" spans="1:31" ht="22" customHeight="1">
-      <c r="A47" s="14">
-        <v>45</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="E47" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+    </row>
+    <row r="48" ht="22" customHeight="1" spans="1:31">
+      <c r="A48" s="15">
+        <v>46</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
-      <c r="AE47" s="23"/>
-    </row>
-    <row r="48" spans="1:31" ht="22" customHeight="1">
-      <c r="A48" s="14">
-        <v>46</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="C48" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+    </row>
+    <row r="49" ht="22" customHeight="1" spans="1:31">
+      <c r="A49" s="15">
+        <v>47</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="23"/>
-      <c r="AE48" s="23"/>
-    </row>
-    <row r="49" spans="1:31" ht="22" customHeight="1">
-      <c r="A49" s="14">
-        <v>47</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="G49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+    </row>
+    <row r="50" ht="22" customHeight="1" spans="1:31">
+      <c r="A50" s="15">
+        <v>48</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="23"/>
-      <c r="AE49" s="23"/>
-    </row>
-    <row r="50" spans="1:31" ht="22" customHeight="1">
-      <c r="A50" s="14">
-        <v>48</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+    </row>
+    <row r="51" ht="22" customHeight="1" spans="1:31">
+      <c r="A51" s="15">
+        <v>49</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="23"/>
-      <c r="AE50" s="23"/>
-    </row>
-    <row r="51" spans="1:31" ht="22" customHeight="1">
-      <c r="A51" s="14">
-        <v>49</v>
-      </c>
-      <c r="B51" s="15" t="s">
+      <c r="C51" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="24"/>
+    </row>
+    <row r="52" ht="22" customHeight="1" spans="1:31">
+      <c r="A52" s="15">
+        <v>50</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+    </row>
+    <row r="53" ht="22" customHeight="1" spans="1:31">
+      <c r="A53" s="15">
+        <v>51</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+    </row>
+    <row r="54" ht="22" customHeight="1" spans="1:31">
+      <c r="A54" s="15">
+        <v>52</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+    </row>
+    <row r="55" ht="22" customHeight="1" spans="1:31">
+      <c r="A55" s="15">
+        <v>53</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+    </row>
+    <row r="56" ht="22" customHeight="1" spans="1:31">
+      <c r="A56" s="15">
+        <v>54</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+    </row>
+    <row r="57" ht="22" customHeight="1" spans="1:31">
+      <c r="A57" s="15">
+        <v>55</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+    </row>
+    <row r="58" ht="22" customHeight="1" spans="1:31">
+      <c r="A58" s="15">
+        <v>56</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="24"/>
+    </row>
+    <row r="59" ht="22" customHeight="1" spans="1:31">
+      <c r="A59" s="15">
+        <v>57</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+    </row>
+    <row r="60" ht="22" customHeight="1" spans="1:31">
+      <c r="A60" s="15">
+        <v>58</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="24"/>
+      <c r="AE60" s="24"/>
+    </row>
+    <row r="61" ht="22" customHeight="1" spans="1:31">
+      <c r="A61" s="15">
+        <v>59</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+    </row>
+    <row r="62" ht="22" customHeight="1" spans="1:31">
+      <c r="A62" s="15">
+        <v>60</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+    </row>
+    <row r="63" ht="22" customHeight="1" spans="1:31">
+      <c r="A63" s="15">
+        <v>61</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+    </row>
+    <row r="64" ht="22" customHeight="1" spans="1:31">
+      <c r="A64" s="15">
+        <v>62</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+    </row>
+    <row r="65" ht="22" customHeight="1" spans="1:31">
+      <c r="A65" s="15">
+        <v>63</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+    </row>
+    <row r="66" ht="22" customHeight="1" spans="1:31">
+      <c r="A66" s="15">
+        <v>64</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+    </row>
+    <row r="67" ht="22" customHeight="1" spans="1:31">
+      <c r="A67" s="15">
+        <v>65</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="23"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+    </row>
+    <row r="68" ht="22" customHeight="1" spans="1:31">
+      <c r="A68" s="15">
+        <v>66</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+    </row>
+    <row r="69" ht="22" customHeight="1" spans="1:31">
+      <c r="A69" s="15">
+        <v>67</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+    </row>
+    <row r="70" ht="22" customHeight="1" spans="1:31">
+      <c r="A70" s="15">
+        <v>68</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+    </row>
+    <row r="71" ht="22" customHeight="1" spans="1:31">
+      <c r="A71" s="15">
+        <v>69</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+    </row>
+    <row r="72" ht="22" customHeight="1" spans="1:31">
+      <c r="A72" s="15">
+        <v>70</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+    </row>
+    <row r="73" ht="22" customHeight="1" spans="1:31">
+      <c r="A73" s="15">
+        <v>71</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="18"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+    </row>
+    <row r="74" ht="22" customHeight="1" spans="1:31">
+      <c r="A74" s="15">
+        <v>72</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
+    </row>
+    <row r="75" ht="22" customHeight="1" spans="1:31">
+      <c r="A75" s="15">
+        <v>73</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="23"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+    </row>
+    <row r="76" ht="22" customHeight="1" spans="1:31">
+      <c r="A76" s="15">
+        <v>74</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="18"/>
+      <c r="Y76" s="18"/>
+      <c r="Z76" s="23"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="24"/>
+      <c r="AC76" s="24"/>
+      <c r="AD76" s="24"/>
+      <c r="AE76" s="24"/>
+    </row>
+    <row r="77" ht="22" customHeight="1" spans="1:31">
+      <c r="A77" s="15">
+        <v>75</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="18"/>
+      <c r="W77" s="18"/>
+      <c r="X77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="24"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="24"/>
+    </row>
+    <row r="78" ht="22" customHeight="1" spans="1:31">
+      <c r="A78" s="15">
+        <v>76</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="15" t="s">
+      <c r="C78" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="23"/>
-      <c r="AE51" s="23"/>
-    </row>
-    <row r="52" spans="1:31" ht="22" customHeight="1">
-      <c r="A52" s="14">
-        <v>50</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="G78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P78" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
+      <c r="AA78" s="18"/>
+      <c r="AB78" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+    </row>
+    <row r="79" ht="22" customHeight="1" spans="1:31">
+      <c r="A79" s="15">
+        <v>77</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M79" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N79" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O79" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P79" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q79" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="18"/>
+      <c r="AA79" s="18"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="24"/>
+      <c r="AE79" s="24"/>
+    </row>
+    <row r="80" ht="22" customHeight="1" spans="1:31">
+      <c r="A80" s="15">
+        <v>78</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q80" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="18"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="24"/>
+      <c r="AD80" s="24"/>
+      <c r="AE80" s="24"/>
+    </row>
+    <row r="81" ht="22" customHeight="1" spans="1:31">
+      <c r="A81" s="15">
+        <v>79</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC52" s="23"/>
-      <c r="AD52" s="23"/>
-      <c r="AE52" s="23"/>
+      <c r="C81" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q81" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="23"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC81" s="24"/>
+      <c r="AD81" s="24"/>
+      <c r="AE81" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5269,34 +7797,35 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="31" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83333333333333" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" customHeight="1">
+    <row r="1" ht="26.5" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5307,36 +7836,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>30</v>
@@ -5345,24 +7874,24 @@
         <v>30</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:8">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>30</v>
@@ -5371,24 +7900,24 @@
         <v>30</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:8">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>30</v>
@@ -5397,24 +7926,24 @@
         <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>30</v>
@@ -5423,24 +7952,24 @@
         <v>30</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>30</v>
@@ -5449,24 +7978,24 @@
         <v>30</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>30</v>
@@ -5475,24 +8004,24 @@
         <v>30</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>30</v>
@@ -5501,24 +8030,24 @@
         <v>30</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:8">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>30</v>
@@ -5527,24 +8056,24 @@
         <v>30</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" ht="27.6" spans="1:8">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>30</v>
@@ -5553,24 +8082,24 @@
         <v>30</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:8">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>29</v>
@@ -5579,24 +8108,24 @@
         <v>29</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:8">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>30</v>
@@ -5605,24 +8134,24 @@
         <v>30</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="48">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" ht="41.4" spans="1:8">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>30</v>
@@ -5631,24 +8160,24 @@
         <v>30</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>30</v>
@@ -5657,24 +8186,24 @@
         <v>30</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>30</v>
@@ -5683,24 +8212,24 @@
         <v>30</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:8">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
@@ -5709,24 +8238,24 @@
         <v>30</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="48">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" ht="41.4" spans="1:8">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>30</v>
@@ -5735,24 +8264,24 @@
         <v>30</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:8">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
@@ -5761,24 +8290,24 @@
         <v>30</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:8">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>29</v>
@@ -5787,33 +8316,33 @@
         <v>29</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="32">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" ht="27.6" spans="1:8">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB8CC0-B96A-443F-A088-1E4F77E7BBD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="插件列表-识别质检" sheetId="1" r:id="rId1"/>
@@ -18,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>王西亚</author>
     <author>MIRACLE</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="1">
+    <comment ref="J13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="1">
+    <comment ref="J14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="1">
+    <comment ref="J15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="1">
+    <comment ref="J16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="1">
+    <comment ref="J17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="1">
+    <comment ref="J18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -398,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1">
+    <comment ref="J19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="1">
+    <comment ref="J20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="1">
+    <comment ref="J21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -469,12 +475,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zyf</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -496,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1196,14 +1202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,148 +1262,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1420,19 +1289,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1442,8 +1298,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,7 +1314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,204 +1326,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1684,255 +1360,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,9 +1406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2008,62 +1439,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2321,2477 +1717,2477 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="7" tint="0.799920651875362"/>
+    <tabColor theme="7" tint="0.79989013336588644"/>
   </sheetPr>
   <dimension ref="A1:AE81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H71" sqref="H71:H72"/>
+      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.8333333333333" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="47.8333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="10" width="21.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="21.1666666666667" style="12" customWidth="1"/>
-    <col min="12" max="27" width="21.1666666666667" customWidth="1"/>
+    <col min="8" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="12" customWidth="1"/>
+    <col min="12" max="27" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:31">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="21" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-    </row>
-    <row r="2" ht="22" customHeight="1" spans="1:31">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+    </row>
+    <row r="2" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:31">
-      <c r="A3" s="15">
+    <row r="3" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-    </row>
-    <row r="4" ht="22" customHeight="1" spans="1:31">
-      <c r="A4" s="15">
+      <c r="H3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+    </row>
+    <row r="4" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-    </row>
-    <row r="5" ht="22" customHeight="1" spans="1:31">
-      <c r="A5" s="15">
+      <c r="H4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+    </row>
+    <row r="5" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:31">
-      <c r="A6" s="15">
+      <c r="H5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+    </row>
+    <row r="6" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-    </row>
-    <row r="7" ht="22" customHeight="1" spans="1:31">
-      <c r="A7" s="15">
+      <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+    </row>
+    <row r="7" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-    </row>
-    <row r="8" ht="22" customHeight="1" spans="1:31">
-      <c r="A8" s="15">
+      <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+    </row>
+    <row r="8" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-    </row>
-    <row r="9" ht="22" customHeight="1" spans="1:31">
-      <c r="A9" s="15">
+      <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+    </row>
+    <row r="9" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-    </row>
-    <row r="10" ht="22" customHeight="1" spans="1:31">
-      <c r="A10" s="15">
+      <c r="H9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+    </row>
+    <row r="10" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-    </row>
-    <row r="11" ht="22" customHeight="1" spans="1:31">
-      <c r="A11" s="15">
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+    </row>
+    <row r="11" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-    </row>
-    <row r="12" ht="22" customHeight="1" spans="1:31">
-      <c r="A12" s="15">
+      <c r="H11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+    </row>
+    <row r="12" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-    </row>
-    <row r="13" ht="22" customHeight="1" spans="1:31">
-      <c r="A13" s="15">
+      <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+    </row>
+    <row r="13" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="1:31">
-      <c r="A14" s="15">
+      <c r="H13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+    </row>
+    <row r="14" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-    </row>
-    <row r="15" ht="22" customHeight="1" spans="1:31">
-      <c r="A15" s="15">
+      <c r="G14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+    </row>
+    <row r="15" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-    </row>
-    <row r="16" ht="22" customHeight="1" spans="1:31">
-      <c r="A16" s="15">
+      <c r="H15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+    </row>
+    <row r="16" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="1:31">
-      <c r="A17" s="15">
+      <c r="G16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+    </row>
+    <row r="17" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-    </row>
-    <row r="18" ht="22" customHeight="1" spans="1:31">
-      <c r="A18" s="15">
+      <c r="G17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+    </row>
+    <row r="18" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-    </row>
-    <row r="19" ht="22" customHeight="1" spans="1:31">
-      <c r="A19" s="15">
+      <c r="H18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+    </row>
+    <row r="19" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-    </row>
-    <row r="20" ht="22" customHeight="1" spans="1:31">
-      <c r="A20" s="15">
+      <c r="H19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+    </row>
+    <row r="20" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-    </row>
-    <row r="21" ht="22" customHeight="1" spans="1:31">
-      <c r="A21" s="15">
+      <c r="H20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+    </row>
+    <row r="21" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-    </row>
-    <row r="22" ht="22" customHeight="1" spans="1:31">
-      <c r="A22" s="15">
+      <c r="H21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+    </row>
+    <row r="22" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="18" t="s">
+      <c r="H22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-    </row>
-    <row r="23" ht="22" customHeight="1" spans="1:31">
-      <c r="A23" s="15">
+      <c r="L22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+    </row>
+    <row r="23" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="18" t="s">
+      <c r="H23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-    </row>
-    <row r="24" ht="22" customHeight="1" spans="1:31">
-      <c r="A24" s="15">
+      <c r="L23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+    </row>
+    <row r="24" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="18" t="s">
+      <c r="H24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-    </row>
-    <row r="25" ht="22" customHeight="1" spans="1:31">
-      <c r="A25" s="15">
+      <c r="L24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+    </row>
+    <row r="25" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="18" t="s">
+      <c r="H25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-    </row>
-    <row r="26" ht="22" customHeight="1" spans="1:31">
-      <c r="A26" s="15">
+      <c r="L25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+    </row>
+    <row r="26" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="18" t="s">
+      <c r="H26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-    </row>
-    <row r="27" ht="22" customHeight="1" spans="1:31">
-      <c r="A27" s="15">
+      <c r="L26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+    </row>
+    <row r="27" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>70</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="18" t="s">
+      <c r="H27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-    </row>
-    <row r="28" ht="22" customHeight="1" spans="1:31">
-      <c r="A28" s="15">
+      <c r="L27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+    </row>
+    <row r="28" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="18" t="s">
+      <c r="H28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-    </row>
-    <row r="29" ht="22" customHeight="1" spans="1:31">
-      <c r="A29" s="15">
+      <c r="L28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+    </row>
+    <row r="29" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>74</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="18" t="s">
+      <c r="H29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-    </row>
-    <row r="30" ht="22" customHeight="1" spans="1:31">
-      <c r="A30" s="15">
+      <c r="L29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+    </row>
+    <row r="30" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="18" t="s">
+      <c r="H30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-    </row>
-    <row r="31" ht="22" customHeight="1" spans="1:31">
-      <c r="A31" s="15">
-        <v>29</v>
-      </c>
-      <c r="B31" s="16" t="s">
+      <c r="L30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+    </row>
+    <row r="31" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>78</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" s="18" t="s">
+      <c r="H31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="17" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-    </row>
-    <row r="32" ht="22" customHeight="1" spans="1:31">
-      <c r="A32" s="15">
-        <v>30</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="L31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+    </row>
+    <row r="32" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-    </row>
-    <row r="33" ht="22" customHeight="1" spans="1:31">
-      <c r="A33" s="15">
+      <c r="H32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+    </row>
+    <row r="33" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-    </row>
-    <row r="34" ht="22" customHeight="1" spans="1:31">
-      <c r="A34" s="15">
+      <c r="H33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+    </row>
+    <row r="34" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-    </row>
-    <row r="35" ht="22" customHeight="1" spans="1:31">
-      <c r="A35" s="15">
+      <c r="H34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+    </row>
+    <row r="35" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-    </row>
-    <row r="36" ht="22" customHeight="1" spans="1:31">
-      <c r="A36" s="15">
+      <c r="H35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+    </row>
+    <row r="36" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-    </row>
-    <row r="37" ht="22" customHeight="1" spans="1:31">
-      <c r="A37" s="15">
+      <c r="H36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+    </row>
+    <row r="37" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -4803,19 +4199,19 @@
       <c r="I37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="18" t="s">
+      <c r="J37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="17" t="s">
         <v>60</v>
       </c>
       <c r="M37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="17" t="s">
         <v>60</v>
       </c>
       <c r="O37" s="10" t="s">
@@ -4824,315 +4220,315 @@
       <c r="P37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-    </row>
-    <row r="38" ht="22" customHeight="1" spans="1:31">
-      <c r="A38" s="15">
+      <c r="Q37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+    </row>
+    <row r="38" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="18" t="s">
+      <c r="H38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-    </row>
-    <row r="39" ht="22" customHeight="1" spans="1:31">
-      <c r="A39" s="15">
+      <c r="L38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+    </row>
+    <row r="39" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>37</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="18" t="s">
+      <c r="H39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-    </row>
-    <row r="40" ht="22" customHeight="1" spans="1:31">
-      <c r="A40" s="15">
+      <c r="L39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+    </row>
+    <row r="40" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="18" t="s">
+      <c r="H40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-    </row>
-    <row r="41" ht="22" customHeight="1" spans="1:31">
-      <c r="A41" s="15">
+      <c r="L40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+    </row>
+    <row r="41" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="18" t="s">
+      <c r="H41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="24"/>
-    </row>
-    <row r="42" ht="22" customHeight="1" spans="1:31">
-      <c r="A42" s="15">
+      <c r="L41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+    </row>
+    <row r="42" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>95</v>
       </c>
       <c r="G42" s="10" t="s">
@@ -5144,7 +4540,7 @@
       <c r="I42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K42" s="10" t="s">
@@ -5159,583 +4555,583 @@
       <c r="N42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q42" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-    </row>
-    <row r="43" ht="22" customHeight="1" spans="1:31">
-      <c r="A43" s="15">
+      <c r="O42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+    </row>
+    <row r="43" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
         <v>41</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>100</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="24"/>
-    </row>
-    <row r="44" ht="22" customHeight="1" spans="1:31">
-      <c r="A44" s="15">
+      <c r="H43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+    </row>
+    <row r="44" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>100</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="24"/>
-      <c r="AD44" s="24"/>
-      <c r="AE44" s="24"/>
-    </row>
-    <row r="45" ht="22" customHeight="1" spans="1:31">
-      <c r="A45" s="15">
+      <c r="H44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+    </row>
+    <row r="45" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
         <v>43</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>100</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-    </row>
-    <row r="46" ht="22" customHeight="1" spans="1:31">
-      <c r="A46" s="15">
+      <c r="H45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+    </row>
+    <row r="46" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>100</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-    </row>
-    <row r="47" ht="22" customHeight="1" spans="1:31">
-      <c r="A47" s="15">
+      <c r="H46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+    </row>
+    <row r="47" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>45</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="15" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-    </row>
-    <row r="48" ht="22" customHeight="1" spans="1:31">
-      <c r="A48" s="15">
+      <c r="H47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+    </row>
+    <row r="48" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
         <v>46</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>105</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-    </row>
-    <row r="49" ht="22" customHeight="1" spans="1:31">
-      <c r="A49" s="15">
+      <c r="H48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+    </row>
+    <row r="49" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
         <v>47</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-    </row>
-    <row r="50" ht="22" customHeight="1" spans="1:31">
-      <c r="A50" s="15">
+      <c r="H49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
+    </row>
+    <row r="50" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>48</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-    </row>
-    <row r="51" ht="22" customHeight="1" spans="1:31">
-      <c r="A51" s="15">
+      <c r="H50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="23"/>
+      <c r="AE50" s="23"/>
+    </row>
+    <row r="51" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>49</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G51" s="10" t="s">
@@ -5771,38 +5167,38 @@
       <c r="Q51" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-    </row>
-    <row r="52" ht="22" customHeight="1" spans="1:31">
-      <c r="A52" s="15">
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="23"/>
+    </row>
+    <row r="52" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>50</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G52" s="10" t="s">
@@ -5838,38 +5234,38 @@
       <c r="Q52" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="24"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="24"/>
-    </row>
-    <row r="53" ht="22" customHeight="1" spans="1:31">
-      <c r="A53" s="15">
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
+    </row>
+    <row r="53" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>51</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G53" s="10" t="s">
@@ -5905,38 +5301,38 @@
       <c r="Q53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="24"/>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="24"/>
-    </row>
-    <row r="54" ht="22" customHeight="1" spans="1:31">
-      <c r="A54" s="15">
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+    </row>
+    <row r="54" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>52</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G54" s="10" t="s">
@@ -5972,38 +5368,38 @@
       <c r="Q54" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
-    </row>
-    <row r="55" ht="22" customHeight="1" spans="1:31">
-      <c r="A55" s="15">
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+    </row>
+    <row r="55" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>53</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G55" s="10" t="s">
@@ -6039,38 +5435,38 @@
       <c r="Q55" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="24"/>
-    </row>
-    <row r="56" ht="22" customHeight="1" spans="1:31">
-      <c r="A56" s="15">
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
+    </row>
+    <row r="56" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
         <v>54</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G56" s="10" t="s">
@@ -6106,38 +5502,38 @@
       <c r="Q56" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="24"/>
-    </row>
-    <row r="57" ht="22" customHeight="1" spans="1:31">
-      <c r="A57" s="15">
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
+    </row>
+    <row r="57" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>55</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G57" s="10" t="s">
@@ -6173,38 +5569,38 @@
       <c r="Q57" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="23"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="24"/>
-      <c r="AC57" s="24"/>
-      <c r="AD57" s="24"/>
-      <c r="AE57" s="24"/>
-    </row>
-    <row r="58" ht="22" customHeight="1" spans="1:31">
-      <c r="A58" s="15">
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="23"/>
+      <c r="AE57" s="23"/>
+    </row>
+    <row r="58" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>56</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>121</v>
       </c>
       <c r="G58" s="10" t="s">
@@ -6240,38 +5636,38 @@
       <c r="Q58" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="23"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="24"/>
-      <c r="AE58" s="24"/>
-    </row>
-    <row r="59" ht="22" customHeight="1" spans="1:31">
-      <c r="A59" s="15">
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="23"/>
+      <c r="AE58" s="23"/>
+    </row>
+    <row r="59" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
         <v>57</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>121</v>
       </c>
       <c r="G59" s="10" t="s">
@@ -6307,38 +5703,38 @@
       <c r="Q59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="23"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="24"/>
-      <c r="AC59" s="24"/>
-      <c r="AD59" s="24"/>
-      <c r="AE59" s="24"/>
-    </row>
-    <row r="60" ht="22" customHeight="1" spans="1:31">
-      <c r="A60" s="15">
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="23"/>
+      <c r="AE59" s="23"/>
+    </row>
+    <row r="60" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>58</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>124</v>
       </c>
       <c r="G60" s="10" t="s">
@@ -6374,38 +5770,38 @@
       <c r="Q60" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="24"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="24"/>
-      <c r="AE60" s="24"/>
-    </row>
-    <row r="61" ht="22" customHeight="1" spans="1:31">
-      <c r="A61" s="15">
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="23"/>
+      <c r="AD60" s="23"/>
+      <c r="AE60" s="23"/>
+    </row>
+    <row r="61" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>59</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>126</v>
       </c>
       <c r="G61" s="10" t="s">
@@ -6441,38 +5837,38 @@
       <c r="Q61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-    </row>
-    <row r="62" ht="22" customHeight="1" spans="1:31">
-      <c r="A62" s="15">
-        <v>60</v>
-      </c>
-      <c r="B62" s="16" t="s">
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="23"/>
+      <c r="AD61" s="23"/>
+      <c r="AE61" s="23"/>
+    </row>
+    <row r="62" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>60</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G62" s="10" t="s">
@@ -6508,38 +5904,38 @@
       <c r="Q62" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="24"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="24"/>
-      <c r="AE62" s="24"/>
-    </row>
-    <row r="63" ht="22" customHeight="1" spans="1:31">
-      <c r="A63" s="15">
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="23"/>
+      <c r="AD62" s="23"/>
+      <c r="AE62" s="23"/>
+    </row>
+    <row r="63" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>61</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="15" t="s">
         <v>130</v>
       </c>
       <c r="G63" s="10" t="s">
@@ -6575,38 +5971,38 @@
       <c r="Q63" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-    </row>
-    <row r="64" ht="22" customHeight="1" spans="1:31">
-      <c r="A64" s="15">
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="23"/>
+    </row>
+    <row r="64" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
         <v>62</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="15" t="s">
         <v>132</v>
       </c>
       <c r="G64" s="10" t="s">
@@ -6642,38 +6038,38 @@
       <c r="Q64" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-    </row>
-    <row r="65" ht="22" customHeight="1" spans="1:31">
-      <c r="A65" s="15">
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="23"/>
+    </row>
+    <row r="65" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>63</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="15" t="s">
         <v>134</v>
       </c>
       <c r="G65" s="10" t="s">
@@ -6709,38 +6105,38 @@
       <c r="Q65" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="23"/>
-      <c r="AA65" s="23"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-    </row>
-    <row r="66" ht="22" customHeight="1" spans="1:31">
-      <c r="A66" s="15">
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="23"/>
+      <c r="AE65" s="23"/>
+    </row>
+    <row r="66" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
         <v>64</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="15" t="s">
         <v>136</v>
       </c>
       <c r="G66" s="10" t="s">
@@ -6776,38 +6172,38 @@
       <c r="Q66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="23"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-    </row>
-    <row r="67" ht="22" customHeight="1" spans="1:31">
-      <c r="A67" s="15">
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="23"/>
+    </row>
+    <row r="67" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
         <v>65</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="15" t="s">
         <v>138</v>
       </c>
       <c r="G67" s="10" t="s">
@@ -6843,38 +6239,38 @@
       <c r="Q67" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="23"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-    </row>
-    <row r="68" ht="22" customHeight="1" spans="1:31">
-      <c r="A68" s="15">
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="23"/>
+      <c r="AE67" s="23"/>
+    </row>
+    <row r="68" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
         <v>66</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="15" t="s">
         <v>140</v>
       </c>
       <c r="G68" s="10" t="s">
@@ -6910,38 +6306,38 @@
       <c r="Q68" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="24"/>
-    </row>
-    <row r="69" ht="22" customHeight="1" spans="1:31">
-      <c r="A69" s="15">
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="23"/>
+      <c r="AD68" s="23"/>
+      <c r="AE68" s="23"/>
+    </row>
+    <row r="69" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
         <v>67</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="15" t="s">
         <v>142</v>
       </c>
       <c r="G69" s="10" t="s">
@@ -6977,38 +6373,38 @@
       <c r="Q69" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-    </row>
-    <row r="70" ht="22" customHeight="1" spans="1:31">
-      <c r="A70" s="15">
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="23"/>
+      <c r="AE69" s="23"/>
+    </row>
+    <row r="70" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
         <v>68</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="15" t="s">
         <v>144</v>
       </c>
       <c r="G70" s="10" t="s">
@@ -7044,38 +6440,38 @@
       <c r="Q70" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="23"/>
-      <c r="AA70" s="23"/>
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-    </row>
-    <row r="71" ht="22" customHeight="1" spans="1:31">
-      <c r="A71" s="15">
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="23"/>
+      <c r="AD70" s="23"/>
+      <c r="AE70" s="23"/>
+    </row>
+    <row r="71" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
         <v>69</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>146</v>
       </c>
       <c r="G71" s="10" t="s">
@@ -7111,38 +6507,38 @@
       <c r="Q71" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="18"/>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="23"/>
-      <c r="AA71" s="23"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-    </row>
-    <row r="72" ht="22" customHeight="1" spans="1:31">
-      <c r="A72" s="15">
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="23"/>
+      <c r="AE71" s="23"/>
+    </row>
+    <row r="72" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
         <v>70</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="15" t="s">
         <v>146</v>
       </c>
       <c r="G72" s="10" t="s">
@@ -7178,38 +6574,38 @@
       <c r="Q72" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="23"/>
-      <c r="AA72" s="23"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-    </row>
-    <row r="73" ht="22" customHeight="1" spans="1:31">
-      <c r="A73" s="15">
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="23"/>
+      <c r="AE72" s="23"/>
+    </row>
+    <row r="73" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
         <v>71</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G73" s="10" t="s">
@@ -7245,38 +6641,38 @@
       <c r="Q73" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="23"/>
-      <c r="AA73" s="23"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-    </row>
-    <row r="74" ht="22" customHeight="1" spans="1:31">
-      <c r="A74" s="15">
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="23"/>
+      <c r="AD73" s="23"/>
+      <c r="AE73" s="23"/>
+    </row>
+    <row r="74" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
         <v>72</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G74" s="10" t="s">
@@ -7312,38 +6708,38 @@
       <c r="Q74" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="23"/>
-      <c r="AA74" s="23"/>
-      <c r="AB74" s="24"/>
-      <c r="AC74" s="24"/>
-      <c r="AD74" s="24"/>
-      <c r="AE74" s="24"/>
-    </row>
-    <row r="75" ht="22" customHeight="1" spans="1:31">
-      <c r="A75" s="15">
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="23"/>
+      <c r="AE74" s="23"/>
+    </row>
+    <row r="75" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
         <v>73</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G75" s="10" t="s">
@@ -7379,32 +6775,32 @@
       <c r="Q75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="23"/>
-      <c r="AA75" s="23"/>
-      <c r="AB75" s="24"/>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="24"/>
-      <c r="AE75" s="24"/>
-    </row>
-    <row r="76" ht="22" customHeight="1" spans="1:31">
-      <c r="A76" s="15">
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="23"/>
+      <c r="AC75" s="23"/>
+      <c r="AD75" s="23"/>
+      <c r="AE75" s="23"/>
+    </row>
+    <row r="76" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
         <v>74</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17" t="s">
+      <c r="B76" s="15"/>
+      <c r="C76" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
       <c r="G76" s="10" t="s">
         <v>29</v>
       </c>
@@ -7438,32 +6834,32 @@
       <c r="Q76" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="23"/>
-      <c r="AA76" s="23"/>
-      <c r="AB76" s="24"/>
-      <c r="AC76" s="24"/>
-      <c r="AD76" s="24"/>
-      <c r="AE76" s="24"/>
-    </row>
-    <row r="77" ht="22" customHeight="1" spans="1:31">
-      <c r="A77" s="15">
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="23"/>
+      <c r="AE76" s="23"/>
+    </row>
+    <row r="77" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
         <v>75</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17" t="s">
+      <c r="B77" s="15"/>
+      <c r="C77" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
       <c r="G77" s="10" t="s">
         <v>29</v>
       </c>
@@ -7497,38 +6893,38 @@
       <c r="Q77" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="18"/>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="23"/>
-      <c r="AA77" s="23"/>
-      <c r="AB77" s="24"/>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="24"/>
-      <c r="AE77" s="24"/>
-    </row>
-    <row r="78" ht="22" customHeight="1" spans="1:31">
-      <c r="A78" s="15">
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="18"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="23"/>
+    </row>
+    <row r="78" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
         <v>76</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G78" s="10" t="s">
@@ -7537,201 +6933,201 @@
       <c r="H78" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I78" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J78" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K78" s="19" t="s">
+      <c r="I78" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="18" t="s">
         <v>30</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M78" s="18" t="s">
+      <c r="M78" s="17" t="s">
         <v>30</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O78" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P78" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q78" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="18"/>
-      <c r="AA78" s="18"/>
-      <c r="AB78" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-    </row>
-    <row r="79" ht="22" customHeight="1" spans="1:31">
-      <c r="A79" s="15">
+      <c r="O78" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P78" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="23"/>
+      <c r="AE78" s="23"/>
+    </row>
+    <row r="79" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
         <v>77</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H79" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="18" t="s">
+      <c r="H79" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L79" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M79" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N79" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O79" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P79" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q79" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="24"/>
-      <c r="AD79" s="24"/>
-      <c r="AE79" s="24"/>
-    </row>
-    <row r="80" ht="22" customHeight="1" spans="1:31">
-      <c r="A80" s="15">
+      <c r="L79" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N79" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O79" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P79" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q79" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="18"/>
+      <c r="AC79" s="23"/>
+      <c r="AD79" s="23"/>
+      <c r="AE79" s="23"/>
+    </row>
+    <row r="80" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
         <v>78</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J80" s="18" t="s">
+      <c r="H80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="19"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-    </row>
-    <row r="81" ht="22" customHeight="1" spans="1:31">
-      <c r="A81" s="15">
+      <c r="L80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="18"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="23"/>
+      <c r="AE80" s="23"/>
+    </row>
+    <row r="81" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
         <v>79</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="15" t="s">
         <v>162</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -7740,10 +7136,10 @@
       <c r="H81" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I81" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" s="18" t="s">
+      <c r="I81" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="17" t="s">
         <v>60</v>
       </c>
       <c r="K81" s="10" t="s">
@@ -7758,31 +7154,31 @@
       <c r="N81" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O81" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P81" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q81" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="23"/>
-      <c r="Z81" s="23"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC81" s="24"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="24"/>
+      <c r="O81" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC81" s="23"/>
+      <c r="AD81" s="23"/>
+      <c r="AE81" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7797,35 +7193,34 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.83333333333333" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7851,7 +7246,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -7877,7 +7272,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -7903,7 +7298,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -7929,7 +7324,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -7955,7 +7350,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -7981,7 +7376,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -8007,7 +7402,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -8033,7 +7428,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -8059,7 +7454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" ht="27.6" spans="1:8">
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -8085,7 +7480,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -8111,7 +7506,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -8137,7 +7532,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" ht="41.4" spans="1:8">
+    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -8163,7 +7558,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -8189,7 +7584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -8215,7 +7610,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -8241,7 +7636,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" ht="41.4" spans="1:8">
+    <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8267,7 +7662,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8293,7 +7688,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8319,7 +7714,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" ht="27.6" spans="1:8">
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8340,9 +7735,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0377779-FBF9-4BE9-B44A-FC3F4B0A7DBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5B52D-FA36-4419-9757-A2FE7014CDA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1995,8 +1995,11 @@
   </sheetPr>
   <dimension ref="A1:AF122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2271,8 +2274,8 @@
       <c r="R4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>31</v>
+      <c r="S4" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T4" s="22" t="s">
         <v>32</v>
@@ -2404,20 +2407,20 @@
       <c r="Q6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>31</v>
+      <c r="R6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="U6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="10" t="s">
-        <v>31</v>
+      <c r="V6" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1384,10 +1384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1456,6 +1456,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1464,6 +1471,99 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,111 +1584,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1681,7 +1681,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,49 +1807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,25 +1831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,25 +1843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,55 +1855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,6 +1927,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1936,41 +1951,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1996,31 +1987,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2032,10 +2032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2044,133 +2044,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2588,12 +2588,12 @@
   </sheetPr>
   <dimension ref="A1:AF122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P74" sqref="P74"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="19.95" customHeight="1"/>
@@ -3065,8 +3065,8 @@
       <c r="O7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>31</v>
+      <c r="P7" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>32</v>
@@ -3135,8 +3135,8 @@
       <c r="O8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>31</v>
+      <c r="P8" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>32</v>
@@ -3203,8 +3203,8 @@
       <c r="O9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>31</v>
+      <c r="P9" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>32</v>
@@ -3271,8 +3271,8 @@
       <c r="O10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="10" t="s">
-        <v>31</v>
+      <c r="P10" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>32</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1386,8 +1386,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1448,8 +1448,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,7 +1486,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,21 +1563,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1508,87 +1585,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1681,7 +1681,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,13 +1723,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,13 +1837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,127 +1855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,6 +1951,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1985,45 +2024,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2032,10 +2032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2044,19 +2044,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2065,112 +2065,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2589,11 +2589,11 @@
   <dimension ref="A1:AF122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="19.95" customHeight="1"/>
@@ -3330,8 +3330,8 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="10" t="s">
-        <v>31</v>
+      <c r="M11" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>31</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -720,13 +720,13 @@
     <t>plugins_3001_gdb</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>矢量</t>
@@ -1385,8 +1385,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -1448,26 +1448,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1485,8 +1484,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,16 +1523,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,8 +1546,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,23 +1556,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,7 +1577,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1584,19 +1592,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1609,19 +1622,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1681,7 +1681,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,13 +1771,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,25 +1819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,37 +1837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,7 +1849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,73 +1861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,26 +1927,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1975,17 +1975,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2004,26 +2024,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2032,10 +2032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2044,7 +2044,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2053,124 +2053,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2241,6 +2241,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2249,9 +2252,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2589,11 +2589,11 @@
   <dimension ref="A1:AF122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="19.95" customHeight="1"/>
@@ -2628,18 +2628,18 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
@@ -2690,34 +2690,34 @@
       <c r="L2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="W2" s="27" t="s">
@@ -2770,49 +2770,49 @@
       <c r="F3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>33</v>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
@@ -2840,56 +2840,56 @@
       <c r="F4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>33</v>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
       <c r="Z4" s="21"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
     </row>
     <row r="5" ht="22.05" customHeight="1" spans="1:32">
       <c r="A5" s="18">
@@ -2910,54 +2910,54 @@
       <c r="F5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>33</v>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
     </row>
     <row r="6" ht="22.05" customHeight="1" spans="1:32">
       <c r="A6" s="18">
@@ -2978,54 +2978,54 @@
       <c r="F6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>31</v>
+      <c r="G6" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>33</v>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
       <c r="Z6" s="21"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
     </row>
     <row r="7" ht="22.05" customHeight="1" spans="1:32">
       <c r="A7" s="18">
@@ -3047,55 +3047,55 @@
         <v>43</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>33</v>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
       <c r="Z7" s="21"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
     </row>
     <row r="8" ht="22.05" customHeight="1" spans="1:32">
       <c r="A8" s="18">
@@ -3117,55 +3117,55 @@
         <v>44</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>33</v>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
       <c r="Z8" s="21"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
     </row>
     <row r="9" ht="22.05" customHeight="1" spans="1:32">
       <c r="A9" s="18">
@@ -3187,53 +3187,53 @@
         <v>45</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
       <c r="Z9" s="21"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
     </row>
     <row r="10" ht="22.05" customHeight="1" spans="1:32">
       <c r="A10" s="18">
@@ -3255,53 +3255,53 @@
         <v>46</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
       <c r="Z10" s="21"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
     </row>
     <row r="11" ht="22.05" customHeight="1" spans="1:32">
       <c r="A11" s="18">
@@ -3322,47 +3322,47 @@
       <c r="F11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>33</v>
+      <c r="G11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="29"/>
       <c r="AB11" s="29"/>
@@ -3391,48 +3391,48 @@
         <v>51</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>33</v>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="29"/>
@@ -3461,48 +3461,48 @@
         <v>52</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>33</v>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="29"/>
       <c r="AB13" s="29"/>
@@ -3531,48 +3531,48 @@
         <v>53</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>33</v>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="29"/>
       <c r="AB14" s="29"/>
@@ -3601,48 +3601,48 @@
         <v>54</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="25" t="s">
-        <v>33</v>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="29"/>
       <c r="AB15" s="29"/>
@@ -3671,48 +3671,48 @@
         <v>55</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>33</v>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29"/>
@@ -3741,48 +3741,48 @@
         <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="25" t="s">
-        <v>33</v>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
@@ -3811,53 +3811,53 @@
         <v>61</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
       <c r="Z18" s="21"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
     </row>
@@ -3881,53 +3881,53 @@
         <v>62</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
       <c r="Z19" s="21"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
     </row>
@@ -3951,53 +3951,53 @@
         <v>63</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
       <c r="Z20" s="21"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
     </row>
@@ -4021,53 +4021,53 @@
         <v>64</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
       <c r="Z21" s="21"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
     </row>
@@ -4091,53 +4091,53 @@
         <v>66</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
       <c r="Z22" s="21"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
     </row>
@@ -4161,53 +4161,53 @@
         <v>67</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
       <c r="Z23" s="21"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
     </row>
@@ -4231,53 +4231,53 @@
         <v>68</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
       <c r="Z24" s="21"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
     </row>
@@ -4301,53 +4301,53 @@
         <v>70</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
       <c r="Z25" s="21"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
     </row>
@@ -4371,53 +4371,53 @@
         <v>72</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V26" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
       <c r="Z26" s="21"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
       <c r="AE26" s="29"/>
       <c r="AF26" s="29"/>
     </row>
@@ -4441,53 +4441,53 @@
         <v>73</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
       <c r="Z27" s="21"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
       <c r="AE27" s="29"/>
       <c r="AF27" s="29"/>
     </row>
@@ -4511,53 +4511,53 @@
         <v>74</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V28" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
       <c r="Z28" s="21"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="29"/>
       <c r="AF28" s="29"/>
     </row>
@@ -4581,53 +4581,53 @@
         <v>76</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V29" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
       <c r="AE29" s="29"/>
       <c r="AF29" s="29"/>
     </row>
@@ -4651,53 +4651,53 @@
         <v>77</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V30" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
       <c r="Z30" s="21"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
       <c r="AE30" s="29"/>
       <c r="AF30" s="29"/>
     </row>
@@ -4721,53 +4721,53 @@
         <v>79</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U31" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V31" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
       <c r="Z31" s="21"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
       <c r="AE31" s="29"/>
       <c r="AF31" s="29"/>
     </row>
@@ -4791,53 +4791,53 @@
         <v>80</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U32" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V32" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
       <c r="Z32" s="21"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
       <c r="AE32" s="29"/>
       <c r="AF32" s="29"/>
     </row>
@@ -4861,53 +4861,53 @@
         <v>82</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U33" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
       <c r="Z33" s="21"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
       <c r="AE33" s="29"/>
       <c r="AF33" s="29"/>
     </row>
@@ -4931,53 +4931,53 @@
         <v>83</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U34" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V34" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
       <c r="Z34" s="21"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
       <c r="AE34" s="29"/>
       <c r="AF34" s="29"/>
     </row>
@@ -5001,53 +5001,53 @@
         <v>85</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U35" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V35" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
       <c r="Z35" s="21"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
       <c r="AE35" s="29"/>
       <c r="AF35" s="29"/>
     </row>
@@ -5071,53 +5071,53 @@
         <v>87</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U36" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
       <c r="Z36" s="21"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
       <c r="AE36" s="29"/>
       <c r="AF36" s="29"/>
     </row>
@@ -5141,53 +5141,53 @@
         <v>89</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U37" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V37" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
       <c r="Z37" s="21"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
       <c r="AE37" s="29"/>
       <c r="AF37" s="29"/>
     </row>
@@ -5211,53 +5211,53 @@
         <v>91</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
       <c r="M38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U38" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V38" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
       <c r="Z38" s="21"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
       <c r="AE38" s="29"/>
       <c r="AF38" s="29"/>
     </row>
@@ -5281,53 +5281,53 @@
         <v>93</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U39" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V39" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
       <c r="Z39" s="21"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
       <c r="AE39" s="29"/>
       <c r="AF39" s="29"/>
     </row>
@@ -5351,53 +5351,53 @@
         <v>95</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U40" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V40" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
       <c r="Z40" s="21"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
       <c r="AE40" s="29"/>
       <c r="AF40" s="29"/>
     </row>
@@ -5421,53 +5421,53 @@
         <v>97</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V41" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
       <c r="Z41" s="21"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
       <c r="AE41" s="29"/>
       <c r="AF41" s="29"/>
     </row>
@@ -5491,53 +5491,53 @@
         <v>99</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
       <c r="M42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U42" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V42" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
       <c r="Z42" s="21"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
       <c r="AE42" s="29"/>
       <c r="AF42" s="29"/>
     </row>
@@ -5561,53 +5561,53 @@
         <v>101</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V43" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
       <c r="Z43" s="21"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
       <c r="AE43" s="29"/>
       <c r="AF43" s="29"/>
     </row>
@@ -5631,53 +5631,53 @@
         <v>103</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U44" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V44" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
       <c r="Z44" s="21"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
       <c r="AE44" s="29"/>
       <c r="AF44" s="29"/>
     </row>
@@ -5701,53 +5701,53 @@
         <v>105</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
       <c r="M45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U45" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V45" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
       <c r="Z45" s="21"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
       <c r="AE45" s="29"/>
       <c r="AF45" s="29"/>
     </row>
@@ -5771,53 +5771,53 @@
         <v>107</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
       <c r="M46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U46" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V46" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
       <c r="Z46" s="21"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
       <c r="AE46" s="29"/>
       <c r="AF46" s="29"/>
     </row>
@@ -5841,53 +5841,53 @@
         <v>108</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
       <c r="M47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U47" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V47" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
       <c r="Z47" s="21"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
       <c r="AE47" s="29"/>
       <c r="AF47" s="29"/>
     </row>
@@ -5911,53 +5911,53 @@
         <v>110</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H48" s="23"/>
+      <c r="I48" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
       <c r="M48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V48" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
       <c r="Z48" s="21"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
       <c r="AE48" s="29"/>
       <c r="AF48" s="29"/>
     </row>
@@ -5981,53 +5981,53 @@
         <v>111</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
       <c r="M49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U49" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V49" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
       <c r="Z49" s="21"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
       <c r="AE49" s="29"/>
       <c r="AF49" s="29"/>
     </row>
@@ -6051,53 +6051,53 @@
         <v>112</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H50" s="23"/>
+      <c r="I50" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
       <c r="M50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U50" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V50" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
       <c r="Z50" s="21"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="25"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
       <c r="AE50" s="29"/>
       <c r="AF50" s="29"/>
     </row>
@@ -6121,51 +6121,51 @@
         <v>114</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
       <c r="M51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U51" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V51" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
       <c r="Z51" s="21"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
       <c r="AE51" s="29"/>
       <c r="AF51" s="29"/>
     </row>
@@ -6189,51 +6189,51 @@
         <v>115</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="H52" s="23"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
       <c r="M52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U52" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V52" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
       <c r="Z52" s="21"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
-      <c r="AD52" s="25"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
       <c r="AE52" s="29"/>
       <c r="AF52" s="29"/>
     </row>
@@ -6253,13 +6253,13 @@
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
       <c r="M53" s="26"/>
       <c r="N53" s="26"/>
       <c r="O53" s="26"/>
@@ -6270,14 +6270,14 @@
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
       <c r="V53" s="26"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
       <c r="Z53" s="21"/>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="25"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
       <c r="AE53" s="29"/>
       <c r="AF53" s="29"/>
     </row>
@@ -6297,13 +6297,13 @@
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
       <c r="M54" s="26"/>
       <c r="N54" s="26"/>
       <c r="O54" s="26"/>
@@ -6314,14 +6314,14 @@
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="26"/>
-      <c r="W54" s="25"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
       <c r="Z54" s="21"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
-      <c r="AD54" s="25"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
       <c r="AE54" s="29"/>
       <c r="AF54" s="29"/>
     </row>
@@ -6345,46 +6345,46 @@
         <v>123</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T55" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V55" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
@@ -6413,46 +6413,46 @@
         <v>124</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R56" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T56" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V56" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W56" s="25"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
@@ -6481,46 +6481,46 @@
         <v>125</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N57" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R57" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T57" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V57" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
@@ -6549,46 +6549,46 @@
         <v>126</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q58" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R58" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S58" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T58" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V58" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W58" s="25"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
@@ -6617,46 +6617,46 @@
         <v>127</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R59" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T59" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V59" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
       <c r="Z59" s="21"/>
       <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
@@ -6685,46 +6685,46 @@
         <v>129</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P60" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q60" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R60" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T60" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V60" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
@@ -6753,46 +6753,46 @@
         <v>130</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R61" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T61" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V61" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
@@ -6821,46 +6821,46 @@
         <v>131</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P62" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R62" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T62" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V62" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
       <c r="Z62" s="21"/>
       <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
@@ -6889,46 +6889,46 @@
         <v>132</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R63" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T63" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V63" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
       <c r="Z63" s="21"/>
       <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
@@ -6957,46 +6957,46 @@
         <v>133</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O64" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P64" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q64" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R64" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S64" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T64" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V64" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W64" s="25"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
       <c r="Z64" s="21"/>
       <c r="AA64" s="21"/>
       <c r="AB64" s="21"/>
@@ -7025,46 +7025,46 @@
         <v>134</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P65" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R65" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T65" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V65" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W65" s="25"/>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
       <c r="Z65" s="21"/>
       <c r="AA65" s="21"/>
       <c r="AB65" s="21"/>
@@ -7093,46 +7093,46 @@
         <v>136</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P66" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q66" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R66" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T66" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V66" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
       <c r="Z66" s="21"/>
       <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
@@ -7161,46 +7161,46 @@
         <v>138</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P67" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R67" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T67" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V67" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="21"/>
@@ -7229,46 +7229,46 @@
         <v>140</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N68" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P68" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R68" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T68" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V68" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W68" s="25"/>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
       <c r="Z68" s="21"/>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21"/>
@@ -7297,46 +7297,46 @@
         <v>141</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N69" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P69" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R69" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S69" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T69" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V69" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
       <c r="Z69" s="21"/>
       <c r="AA69" s="21"/>
       <c r="AB69" s="21"/>
@@ -7365,46 +7365,46 @@
         <v>143</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N70" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O70" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P70" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R70" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S70" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T70" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V70" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
       <c r="Z70" s="21"/>
       <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
@@ -7433,46 +7433,46 @@
         <v>144</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N71" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O71" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P71" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R71" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T71" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V71" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W71" s="25"/>
-      <c r="X71" s="25"/>
-      <c r="Y71" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
       <c r="Z71" s="21"/>
       <c r="AA71" s="21"/>
       <c r="AB71" s="21"/>
@@ -7501,46 +7501,46 @@
         <v>145</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R72" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T72" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V72" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W72" s="25"/>
-      <c r="X72" s="25"/>
-      <c r="Y72" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
       <c r="Z72" s="21"/>
       <c r="AA72" s="21"/>
       <c r="AB72" s="21"/>
@@ -7569,46 +7569,46 @@
         <v>147</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O73" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P73" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R73" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S73" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T73" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V73" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W73" s="25"/>
-      <c r="X73" s="25"/>
-      <c r="Y73" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
+      <c r="Y73" s="22"/>
       <c r="Z73" s="21"/>
       <c r="AA73" s="21"/>
       <c r="AB73" s="21"/>
@@ -7637,48 +7637,48 @@
         <v>151</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P74" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q74" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R74" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S74" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q74" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S74" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T74" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U74" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U74" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V74" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W74" s="25"/>
-      <c r="X74" s="25"/>
-      <c r="Y74" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
       <c r="Z74" s="21"/>
-      <c r="AA74" s="25"/>
+      <c r="AA74" s="22"/>
       <c r="AB74" s="29"/>
       <c r="AC74" s="29"/>
       <c r="AD74" s="29"/>
@@ -7705,46 +7705,46 @@
         <v>153</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O75" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P75" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q75" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R75" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S75" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q75" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R75" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S75" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T75" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U75" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U75" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V75" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W75" s="25"/>
-      <c r="X75" s="25"/>
-      <c r="Y75" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W75" s="22"/>
+      <c r="X75" s="22"/>
+      <c r="Y75" s="22"/>
       <c r="Z75" s="21"/>
       <c r="AA75" s="29"/>
       <c r="AB75" s="29"/>
@@ -7773,46 +7773,46 @@
         <v>155</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O76" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P76" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q76" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R76" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S76" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q76" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R76" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S76" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T76" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U76" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U76" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V76" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W76" s="25"/>
-      <c r="X76" s="25"/>
-      <c r="Y76" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
       <c r="Z76" s="21"/>
       <c r="AA76" s="29"/>
       <c r="AB76" s="29"/>
@@ -7841,46 +7841,46 @@
         <v>157</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O77" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q77" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R77" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S77" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q77" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R77" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S77" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T77" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U77" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U77" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V77" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W77" s="25"/>
-      <c r="X77" s="25"/>
-      <c r="Y77" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
       <c r="Z77" s="21"/>
       <c r="AA77" s="29"/>
       <c r="AB77" s="29"/>
@@ -7909,46 +7909,46 @@
         <v>159</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O78" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O78" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P78" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q78" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R78" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S78" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S78" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T78" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U78" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V78" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W78" s="25"/>
-      <c r="X78" s="25"/>
-      <c r="Y78" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22"/>
       <c r="Z78" s="21"/>
       <c r="AA78" s="29"/>
       <c r="AB78" s="29"/>
@@ -7977,46 +7977,46 @@
         <v>161</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O79" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P79" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q79" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R79" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S79" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q79" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R79" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S79" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T79" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U79" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U79" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V79" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W79" s="25"/>
-      <c r="X79" s="25"/>
-      <c r="Y79" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W79" s="22"/>
+      <c r="X79" s="22"/>
+      <c r="Y79" s="22"/>
       <c r="Z79" s="21"/>
       <c r="AA79" s="29"/>
       <c r="AB79" s="29"/>
@@ -8045,46 +8045,46 @@
         <v>163</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O80" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P80" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q80" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R80" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S80" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q80" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S80" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T80" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U80" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U80" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V80" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W80" s="25"/>
-      <c r="X80" s="25"/>
-      <c r="Y80" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
       <c r="Z80" s="21"/>
       <c r="AA80" s="29"/>
       <c r="AB80" s="29"/>
@@ -8113,46 +8113,46 @@
         <v>165</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O81" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P81" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q81" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R81" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S81" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q81" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R81" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T81" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U81" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U81" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V81" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W81" s="25"/>
-      <c r="X81" s="25"/>
-      <c r="Y81" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
       <c r="Z81" s="21"/>
       <c r="AA81" s="29"/>
       <c r="AB81" s="29"/>
@@ -8181,46 +8181,46 @@
         <v>167</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O82" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P82" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q82" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R82" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S82" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S82" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T82" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U82" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U82" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V82" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W82" s="25"/>
-      <c r="X82" s="25"/>
-      <c r="Y82" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
       <c r="Z82" s="21"/>
       <c r="AA82" s="29"/>
       <c r="AB82" s="29"/>
@@ -8249,46 +8249,46 @@
         <v>169</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N83" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O83" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="P83" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q83" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R83" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S83" s="25" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="Q83" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R83" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S83" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="T83" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U83" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U83" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="V83" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W83" s="25"/>
-      <c r="X83" s="25"/>
-      <c r="Y83" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
       <c r="Z83" s="21"/>
       <c r="AA83" s="29"/>
       <c r="AB83" s="29"/>
@@ -8316,8 +8316,8 @@
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="25" t="s">
-        <v>32</v>
+      <c r="I84" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
@@ -8362,8 +8362,8 @@
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="25" t="s">
-        <v>32</v>
+      <c r="I85" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
@@ -8408,8 +8408,8 @@
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="25" t="s">
-        <v>32</v>
+      <c r="I86" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
@@ -8454,8 +8454,8 @@
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="25" t="s">
-        <v>32</v>
+      <c r="I87" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
@@ -8500,8 +8500,8 @@
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="25" t="s">
-        <v>32</v>
+      <c r="I88" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
@@ -8546,8 +8546,8 @@
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="25" t="s">
-        <v>32</v>
+      <c r="I89" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
@@ -8592,8 +8592,8 @@
       </c>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="25" t="s">
-        <v>32</v>
+      <c r="I90" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
@@ -8638,8 +8638,8 @@
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="25" t="s">
-        <v>32</v>
+      <c r="I91" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
@@ -8684,8 +8684,8 @@
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="25" t="s">
-        <v>32</v>
+      <c r="I92" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
@@ -8730,8 +8730,8 @@
       </c>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
-      <c r="I93" s="25" t="s">
-        <v>32</v>
+      <c r="I93" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
@@ -8774,8 +8774,8 @@
       <c r="F94" s="20"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="25" t="s">
-        <v>32</v>
+      <c r="I94" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
@@ -8818,8 +8818,8 @@
       <c r="F95" s="20"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
-      <c r="I95" s="25" t="s">
-        <v>32</v>
+      <c r="I95" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J95" s="19"/>
       <c r="K95" s="19"/>
@@ -8862,8 +8862,8 @@
       <c r="F96" s="20"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="25" t="s">
-        <v>32</v>
+      <c r="I96" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
@@ -9914,10 +9914,10 @@
         <v>198</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>199</v>
@@ -9940,10 +9940,10 @@
         <v>202</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>199</v>
@@ -9966,10 +9966,10 @@
         <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>199</v>
@@ -9992,10 +9992,10 @@
         <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>199</v>
@@ -10018,10 +10018,10 @@
         <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>199</v>
@@ -10044,10 +10044,10 @@
         <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>199</v>
@@ -10070,10 +10070,10 @@
         <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>199</v>
@@ -10096,10 +10096,10 @@
         <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>199</v>
@@ -10122,10 +10122,10 @@
         <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>199</v>
@@ -10148,10 +10148,10 @@
         <v>222</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>223</v>
@@ -10174,10 +10174,10 @@
         <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>199</v>
@@ -10200,10 +10200,10 @@
         <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>199</v>
@@ -10226,10 +10226,10 @@
         <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>231</v>
@@ -10252,10 +10252,10 @@
         <v>233</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>199</v>
@@ -10278,10 +10278,10 @@
         <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>199</v>
@@ -10304,10 +10304,10 @@
         <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>199</v>
@@ -10330,10 +10330,10 @@
         <v>241</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>199</v>
@@ -10356,10 +10356,10 @@
         <v>243</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>244</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1021,37 +1021,37 @@
     <t>-</t>
   </si>
   <si>
+    <t>矢量</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>plugins_6001_shp</t>
+  </si>
+  <si>
+    <t>plugins_6002_mdb</t>
+  </si>
+  <si>
+    <t>plugins_6050_layer_vector</t>
+  </si>
+  <si>
+    <t>影像</t>
+  </si>
+  <si>
+    <t>raster</t>
+  </si>
+  <si>
+    <t>plugins_7000_img</t>
+  </si>
+  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>矢量</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>文件</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>plugins_6001_shp</t>
-  </si>
-  <si>
-    <t>plugins_6002_mdb</t>
-  </si>
-  <si>
-    <t>plugins_6050_layer_vector</t>
-  </si>
-  <si>
-    <t>影像</t>
-  </si>
-  <si>
-    <t>raster</t>
-  </si>
-  <si>
-    <t>plugins_7000_img</t>
   </si>
   <si>
     <t>plugins_7001_tif</t>
@@ -2072,10 +2072,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2149,6 +2149,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2156,16 +2186,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2176,11 +2246,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2201,22 +2270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2238,55 +2292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2295,8 +2302,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2320,25 +2339,6 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2387,7 +2387,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,13 +2483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2423,19 +2507,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,127 +2561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,11 +2596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2609,7 +2615,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2625,6 +2631,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2654,45 +2693,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2701,10 +2701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2713,133 +2713,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3264,11 +3264,11 @@
   <dimension ref="A1:AO155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="Q3:R3"/>
+      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.8333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -3521,8 +3521,8 @@
       <c r="U3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="10" t="s">
-        <v>42</v>
+      <c r="V3" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>40</v>
@@ -3554,19 +3554,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>40</v>
@@ -3602,8 +3602,8 @@
       <c r="U4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>42</v>
+      <c r="V4" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>40</v>
@@ -3635,19 +3635,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>40</v>
@@ -3681,8 +3681,8 @@
       <c r="U5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>42</v>
+      <c r="V5" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W5" s="18" t="s">
         <v>40</v>
@@ -3714,19 +3714,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>41</v>
@@ -3793,22 +3793,22 @@
         <v>34</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="H7" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>40</v>
@@ -3841,8 +3841,8 @@
       <c r="U7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="10" t="s">
-        <v>42</v>
+      <c r="V7" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>40</v>
@@ -3874,22 +3874,22 @@
         <v>34</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>40</v>
@@ -3922,8 +3922,8 @@
       <c r="U8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="10" t="s">
-        <v>42</v>
+      <c r="V8" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>40</v>
@@ -3955,22 +3955,22 @@
         <v>34</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -4001,8 +4001,8 @@
       <c r="U9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="10" t="s">
-        <v>42</v>
+      <c r="V9" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>40</v>
@@ -4034,22 +4034,22 @@
         <v>34</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -4080,8 +4080,8 @@
       <c r="U10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="10" t="s">
-        <v>42</v>
+      <c r="V10" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W10" s="17" t="s">
         <v>40</v>
@@ -4113,10 +4113,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>37</v>
@@ -4144,17 +4144,17 @@
       <c r="P11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>42</v>
+      <c r="Q11" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>42</v>
+      <c r="S11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="U11" s="18" t="s">
         <v>40</v>
@@ -4198,16 +4198,16 @@
         <v>59</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>40</v>
@@ -4240,8 +4240,8 @@
       <c r="U12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="10" t="s">
-        <v>42</v>
+      <c r="V12" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>40</v>
@@ -4279,16 +4279,16 @@
         <v>59</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>40</v>
@@ -4321,8 +4321,8 @@
       <c r="U13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="10" t="s">
-        <v>42</v>
+      <c r="V13" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>40</v>
@@ -4360,16 +4360,16 @@
         <v>59</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>40</v>
@@ -4402,8 +4402,8 @@
       <c r="U14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V14" s="10" t="s">
-        <v>42</v>
+      <c r="V14" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W14" s="17" t="s">
         <v>40</v>
@@ -4441,16 +4441,16 @@
         <v>59</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>40</v>
@@ -4483,8 +4483,8 @@
       <c r="U15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>42</v>
+      <c r="V15" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>40</v>
@@ -4522,16 +4522,16 @@
         <v>59</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>64</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>40</v>
@@ -4564,8 +4564,8 @@
       <c r="U16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>42</v>
+      <c r="V16" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W16" s="17" t="s">
         <v>40</v>
@@ -4603,16 +4603,16 @@
         <v>59</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>40</v>
@@ -4645,8 +4645,8 @@
       <c r="U17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>42</v>
+      <c r="V17" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>40</v>
@@ -4684,7 +4684,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>69</v>
@@ -4693,7 +4693,7 @@
         <v>70</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -4724,8 +4724,8 @@
       <c r="U18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="10" t="s">
-        <v>42</v>
+      <c r="V18" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W18" s="17" t="s">
         <v>40</v>
@@ -4763,7 +4763,7 @@
         <v>68</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>69</v>
@@ -4772,7 +4772,7 @@
         <v>71</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -4803,8 +4803,8 @@
       <c r="U19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="10" t="s">
-        <v>42</v>
+      <c r="V19" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>40</v>
@@ -4842,7 +4842,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>69</v>
@@ -4851,7 +4851,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -4882,8 +4882,8 @@
       <c r="U20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="10" t="s">
-        <v>42</v>
+      <c r="V20" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W20" s="17" t="s">
         <v>40</v>
@@ -4921,7 +4921,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>69</v>
@@ -4930,7 +4930,7 @@
         <v>73</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -4961,8 +4961,8 @@
       <c r="U21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="10" t="s">
-        <v>42</v>
+      <c r="V21" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>40</v>
@@ -5000,7 +5000,7 @@
         <v>68</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>69</v>
@@ -5009,7 +5009,7 @@
         <v>74</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -5040,8 +5040,8 @@
       <c r="U22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="10" t="s">
-        <v>42</v>
+      <c r="V22" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W22" s="17" t="s">
         <v>40</v>
@@ -5079,7 +5079,7 @@
         <v>68</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>75</v>
@@ -5088,7 +5088,7 @@
         <v>76</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -5119,8 +5119,8 @@
       <c r="U23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="10" t="s">
-        <v>42</v>
+      <c r="V23" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>40</v>
@@ -5158,7 +5158,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>75</v>
@@ -5167,7 +5167,7 @@
         <v>77</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -5198,8 +5198,8 @@
       <c r="U24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V24" s="10" t="s">
-        <v>42</v>
+      <c r="V24" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W24" s="17" t="s">
         <v>40</v>
@@ -5237,7 +5237,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>75</v>
@@ -5246,7 +5246,7 @@
         <v>78</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -5277,8 +5277,8 @@
       <c r="U25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="10" t="s">
-        <v>42</v>
+      <c r="V25" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>40</v>
@@ -5316,7 +5316,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>75</v>
@@ -5325,7 +5325,7 @@
         <v>79</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -5356,8 +5356,8 @@
       <c r="U26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="10" t="s">
-        <v>42</v>
+      <c r="V26" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W26" s="17" t="s">
         <v>40</v>
@@ -5395,7 +5395,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>75</v>
@@ -5404,7 +5404,7 @@
         <v>80</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -5435,8 +5435,8 @@
       <c r="U27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="10" t="s">
-        <v>42</v>
+      <c r="V27" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W27" s="17" t="s">
         <v>40</v>
@@ -5474,7 +5474,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>75</v>
@@ -5483,7 +5483,7 @@
         <v>81</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -5514,8 +5514,8 @@
       <c r="U28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V28" s="10" t="s">
-        <v>42</v>
+      <c r="V28" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W28" s="17" t="s">
         <v>40</v>
@@ -5553,7 +5553,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>82</v>
@@ -5593,8 +5593,8 @@
       <c r="U29" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V29" s="10" t="s">
-        <v>42</v>
+      <c r="V29" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>40</v>
@@ -5632,7 +5632,7 @@
         <v>68</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>84</v>
@@ -5641,7 +5641,7 @@
         <v>85</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -5672,8 +5672,8 @@
       <c r="U30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V30" s="10" t="s">
-        <v>42</v>
+      <c r="V30" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W30" s="17" t="s">
         <v>40</v>
@@ -5711,7 +5711,7 @@
         <v>68</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>86</v>
@@ -5751,8 +5751,8 @@
       <c r="U31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="10" t="s">
-        <v>42</v>
+      <c r="V31" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W31" s="17" t="s">
         <v>40</v>
@@ -5790,7 +5790,7 @@
         <v>68</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>86</v>
@@ -5830,8 +5830,8 @@
       <c r="U32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V32" s="10" t="s">
-        <v>42</v>
+      <c r="V32" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W32" s="17" t="s">
         <v>40</v>
@@ -5869,7 +5869,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>89</v>
@@ -5878,7 +5878,7 @@
         <v>90</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -5909,8 +5909,8 @@
       <c r="U33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V33" s="10" t="s">
-        <v>42</v>
+      <c r="V33" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W33" s="17" t="s">
         <v>40</v>
@@ -5948,7 +5948,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>89</v>
@@ -5957,7 +5957,7 @@
         <v>91</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -5988,8 +5988,8 @@
       <c r="U34" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V34" s="10" t="s">
-        <v>42</v>
+      <c r="V34" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W34" s="17" t="s">
         <v>40</v>
@@ -6027,7 +6027,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>89</v>
@@ -6036,7 +6036,7 @@
         <v>92</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
@@ -6067,8 +6067,8 @@
       <c r="U35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V35" s="10" t="s">
-        <v>42</v>
+      <c r="V35" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W35" s="17" t="s">
         <v>40</v>
@@ -6106,7 +6106,7 @@
         <v>68</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>93</v>
@@ -6115,7 +6115,7 @@
         <v>94</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -6146,8 +6146,8 @@
       <c r="U36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V36" s="10" t="s">
-        <v>42</v>
+      <c r="V36" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W36" s="17" t="s">
         <v>40</v>
@@ -6194,7 +6194,7 @@
         <v>98</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
@@ -6211,7 +6211,7 @@
         <v>40</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R37" s="18" t="s">
         <v>41</v>
@@ -6225,8 +6225,8 @@
       <c r="U37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="18" t="s">
-        <v>41</v>
+      <c r="V37" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W37" s="17" t="s">
         <v>40</v>
@@ -6273,7 +6273,7 @@
         <v>100</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
@@ -6290,7 +6290,7 @@
         <v>40</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R38" s="18" t="s">
         <v>41</v>
@@ -6304,8 +6304,8 @@
       <c r="U38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V38" s="18" t="s">
-        <v>41</v>
+      <c r="V38" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>40</v>
@@ -6352,7 +6352,7 @@
         <v>102</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
@@ -6369,7 +6369,7 @@
         <v>40</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R39" s="18" t="s">
         <v>41</v>
@@ -6383,8 +6383,8 @@
       <c r="U39" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V39" s="18" t="s">
-        <v>41</v>
+      <c r="V39" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W39" s="17" t="s">
         <v>40</v>
@@ -6431,7 +6431,7 @@
         <v>104</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
@@ -6448,7 +6448,7 @@
         <v>40</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R40" s="18" t="s">
         <v>41</v>
@@ -6462,8 +6462,8 @@
       <c r="U40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V40" s="18" t="s">
-        <v>41</v>
+      <c r="V40" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W40" s="17" t="s">
         <v>40</v>
@@ -6510,7 +6510,7 @@
         <v>106</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
@@ -6527,7 +6527,7 @@
         <v>40</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R41" s="18" t="s">
         <v>41</v>
@@ -6541,8 +6541,8 @@
       <c r="U41" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V41" s="18" t="s">
-        <v>41</v>
+      <c r="V41" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W41" s="17" t="s">
         <v>40</v>
@@ -6589,7 +6589,7 @@
         <v>108</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
@@ -6606,7 +6606,7 @@
         <v>40</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R42" s="18" t="s">
         <v>41</v>
@@ -6620,8 +6620,8 @@
       <c r="U42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V42" s="18" t="s">
-        <v>41</v>
+      <c r="V42" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W42" s="17" t="s">
         <v>40</v>
@@ -6668,7 +6668,7 @@
         <v>110</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
@@ -6685,7 +6685,7 @@
         <v>40</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R43" s="18" t="s">
         <v>41</v>
@@ -6699,8 +6699,8 @@
       <c r="U43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="18" t="s">
-        <v>41</v>
+      <c r="V43" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W43" s="17" t="s">
         <v>40</v>
@@ -6747,7 +6747,7 @@
         <v>112</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
@@ -6764,7 +6764,7 @@
         <v>40</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R44" s="18" t="s">
         <v>41</v>
@@ -6778,8 +6778,8 @@
       <c r="U44" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V44" s="18" t="s">
-        <v>41</v>
+      <c r="V44" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W44" s="17" t="s">
         <v>40</v>
@@ -6826,7 +6826,7 @@
         <v>114</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
@@ -6843,7 +6843,7 @@
         <v>40</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R45" s="18" t="s">
         <v>41</v>
@@ -6857,8 +6857,8 @@
       <c r="U45" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V45" s="18" t="s">
-        <v>41</v>
+      <c r="V45" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W45" s="17" t="s">
         <v>40</v>
@@ -6905,7 +6905,7 @@
         <v>116</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
@@ -6922,7 +6922,7 @@
         <v>40</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R46" s="18" t="s">
         <v>41</v>
@@ -6936,8 +6936,8 @@
       <c r="U46" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V46" s="18" t="s">
-        <v>41</v>
+      <c r="V46" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="W46" s="17" t="s">
         <v>40</v>
@@ -6990,7 +6990,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O47" s="18" t="s">
         <v>41</v>
@@ -6999,7 +6999,7 @@
         <v>41</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R47" s="18" t="s">
         <v>41</v>
@@ -7011,13 +7011,13 @@
         <v>41</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
@@ -7067,7 +7067,7 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O48" s="18" t="s">
         <v>41</v>
@@ -7076,7 +7076,7 @@
         <v>41</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R48" s="18" t="s">
         <v>41</v>
@@ -7088,13 +7088,13 @@
         <v>41</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
@@ -7144,7 +7144,7 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O49" s="18" t="s">
         <v>41</v>
@@ -7153,7 +7153,7 @@
         <v>41</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R49" s="18" t="s">
         <v>41</v>
@@ -7165,13 +7165,13 @@
         <v>41</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
@@ -7221,7 +7221,7 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O50" s="18" t="s">
         <v>41</v>
@@ -7230,7 +7230,7 @@
         <v>41</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R50" s="18" t="s">
         <v>41</v>
@@ -7242,13 +7242,13 @@
         <v>41</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="15"/>
@@ -7298,7 +7298,7 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O51" s="18" t="s">
         <v>41</v>
@@ -7307,7 +7307,7 @@
         <v>41</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R51" s="18" t="s">
         <v>41</v>
@@ -7319,13 +7319,13 @@
         <v>41</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V51" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
@@ -7375,7 +7375,7 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O52" s="18" t="s">
         <v>41</v>
@@ -7384,7 +7384,7 @@
         <v>41</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R52" s="18" t="s">
         <v>41</v>
@@ -7396,13 +7396,13 @@
         <v>41</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X52" s="15"/>
       <c r="Y52" s="15"/>
@@ -7452,7 +7452,7 @@
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
       <c r="N53" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O53" s="18" t="s">
         <v>41</v>
@@ -7461,7 +7461,7 @@
         <v>41</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R53" s="18" t="s">
         <v>41</v>
@@ -7473,13 +7473,13 @@
         <v>41</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V53" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
@@ -7529,7 +7529,7 @@
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
       <c r="N54" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O54" s="18" t="s">
         <v>41</v>
@@ -7538,7 +7538,7 @@
         <v>41</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R54" s="18" t="s">
         <v>41</v>
@@ -7550,13 +7550,13 @@
         <v>41</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X54" s="15"/>
       <c r="Y54" s="15"/>
@@ -7606,7 +7606,7 @@
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O55" s="18" t="s">
         <v>41</v>
@@ -7615,7 +7615,7 @@
         <v>41</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R55" s="18" t="s">
         <v>41</v>
@@ -7627,13 +7627,13 @@
         <v>41</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
@@ -7683,7 +7683,7 @@
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
       <c r="N56" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O56" s="18" t="s">
         <v>41</v>
@@ -7692,7 +7692,7 @@
         <v>41</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R56" s="18" t="s">
         <v>41</v>
@@ -7704,13 +7704,13 @@
         <v>41</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X56" s="15"/>
       <c r="Y56" s="15"/>
@@ -7760,7 +7760,7 @@
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
       <c r="N57" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O57" s="18" t="s">
         <v>41</v>
@@ -7769,7 +7769,7 @@
         <v>41</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R57" s="18" t="s">
         <v>41</v>
@@ -7781,13 +7781,13 @@
         <v>41</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V57" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X57" s="15"/>
       <c r="Y57" s="15"/>
@@ -7837,34 +7837,34 @@
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
       <c r="N58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P58" s="18" t="s">
         <v>41</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X58" s="15"/>
       <c r="Y58" s="15"/>
@@ -7914,34 +7914,34 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P59" s="18" t="s">
         <v>41</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X59" s="15"/>
       <c r="Y59" s="15"/>
@@ -7991,34 +7991,34 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P60" s="18" t="s">
         <v>41</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W60" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X60" s="15"/>
       <c r="Y60" s="15"/>
@@ -8068,34 +8068,34 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
       <c r="N61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P61" s="18" t="s">
         <v>41</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W61" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X61" s="15"/>
       <c r="Y61" s="15"/>
@@ -8140,7 +8140,7 @@
         <v>151</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I62" s="22"/>
       <c r="J62" s="18" t="s">
@@ -8174,7 +8174,7 @@
         <v>40</v>
       </c>
       <c r="V62" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W62" s="17" t="s">
         <v>40</v>
@@ -8238,7 +8238,7 @@
         <v>159</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="18" t="s">
@@ -8272,7 +8272,7 @@
         <v>40</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>40</v>
@@ -8336,7 +8336,7 @@
         <v>161</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="18" t="s">
@@ -8370,7 +8370,7 @@
         <v>40</v>
       </c>
       <c r="V64" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W64" s="17" t="s">
         <v>40</v>
@@ -8434,7 +8434,7 @@
         <v>162</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="18" t="s">
@@ -8468,7 +8468,7 @@
         <v>40</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W65" s="17" t="s">
         <v>40</v>
@@ -8520,7 +8520,7 @@
         <v>164</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I66" s="22"/>
       <c r="J66" s="18" t="s">
@@ -8554,7 +8554,7 @@
         <v>40</v>
       </c>
       <c r="V66" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W66" s="17" t="s">
         <v>40</v>
@@ -8618,7 +8618,7 @@
         <v>170</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="18" t="s">
@@ -8652,7 +8652,7 @@
         <v>40</v>
       </c>
       <c r="V67" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W67" s="17" t="s">
         <v>40</v>
@@ -8716,7 +8716,7 @@
         <v>171</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I68" s="22"/>
       <c r="J68" s="18" t="s">
@@ -8750,7 +8750,7 @@
         <v>40</v>
       </c>
       <c r="V68" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W68" s="17" t="s">
         <v>40</v>
@@ -8814,7 +8814,7 @@
         <v>174</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="18" t="s">
@@ -8848,7 +8848,7 @@
         <v>40</v>
       </c>
       <c r="V69" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W69" s="17" t="s">
         <v>40</v>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="18" t="s">
@@ -8920,34 +8920,34 @@
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W70" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X70" s="18"/>
       <c r="Y70" s="18"/>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="18" t="s">
@@ -9016,34 +9016,34 @@
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W71" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X71" s="18"/>
       <c r="Y71" s="18"/>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="18" t="s">
@@ -9112,34 +9112,34 @@
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W72" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X72" s="18"/>
       <c r="Y72" s="18"/>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="G73" s="16"/>
       <c r="H73" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="18" t="s">
@@ -9208,34 +9208,34 @@
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W73" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X73" s="18"/>
       <c r="Y73" s="18"/>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="18" t="s">
@@ -9304,34 +9304,34 @@
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W74" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X74" s="18"/>
       <c r="Y74" s="18"/>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="18" t="s">
@@ -9400,34 +9400,34 @@
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W75" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X75" s="18"/>
       <c r="Y75" s="18"/>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="18" t="s">
@@ -9496,34 +9496,34 @@
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W76" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X76" s="18"/>
       <c r="Y76" s="18"/>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="18" t="s">
@@ -9592,34 +9592,34 @@
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W77" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X77" s="18"/>
       <c r="Y77" s="18"/>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I78" s="22"/>
       <c r="J78" s="18" t="s">
@@ -9688,34 +9688,34 @@
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W78" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X78" s="18"/>
       <c r="Y78" s="18"/>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="18" t="s">
@@ -9784,34 +9784,34 @@
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W79" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X79" s="18"/>
       <c r="Y79" s="18"/>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I80" s="22"/>
       <c r="J80" s="18" t="s">
@@ -9880,34 +9880,34 @@
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W80" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X80" s="18"/>
       <c r="Y80" s="18"/>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="18" t="s">
@@ -9976,34 +9976,34 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W81" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X81" s="18"/>
       <c r="Y81" s="18"/>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="G82" s="16"/>
       <c r="H82" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I82" s="22"/>
       <c r="J82" s="18" t="s">
@@ -10072,34 +10072,34 @@
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W82" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X82" s="18"/>
       <c r="Y82" s="18"/>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I83" s="22"/>
       <c r="J83" s="18" t="s">
@@ -10168,34 +10168,34 @@
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W83" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X83" s="18"/>
       <c r="Y83" s="18"/>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="G84" s="16"/>
       <c r="H84" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I84" s="22"/>
       <c r="J84" s="18" t="s">
@@ -10264,34 +10264,34 @@
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W84" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X84" s="18"/>
       <c r="Y84" s="18"/>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I85" s="22"/>
       <c r="J85" s="18" t="s">
@@ -10360,34 +10360,34 @@
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W85" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X85" s="18"/>
       <c r="Y85" s="18"/>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I86" s="22"/>
       <c r="J86" s="18" t="s">
@@ -10456,34 +10456,34 @@
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
       <c r="N86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W86" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X86" s="18"/>
       <c r="Y86" s="18"/>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I87" s="22"/>
       <c r="J87" s="18" t="s">
@@ -10552,34 +10552,34 @@
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W87" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X87" s="18"/>
       <c r="Y87" s="18"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I88" s="22"/>
       <c r="J88" s="18" t="s">
@@ -10648,34 +10648,34 @@
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W88" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X88" s="18"/>
       <c r="Y88" s="18"/>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I89" s="22"/>
       <c r="J89" s="18" t="s">
@@ -10744,34 +10744,34 @@
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W89" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X89" s="18"/>
       <c r="Y89" s="18"/>
@@ -10830,7 +10830,7 @@
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I90" s="22"/>
       <c r="J90" s="18" t="s">
@@ -10840,34 +10840,34 @@
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
       <c r="N90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W90" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X90" s="18"/>
       <c r="Y90" s="18"/>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I91" s="22"/>
       <c r="J91" s="18" t="s">
@@ -10936,34 +10936,34 @@
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W91" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X91" s="18"/>
       <c r="Y91" s="18"/>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I92" s="22"/>
       <c r="J92" s="18" t="s">
@@ -11032,34 +11032,34 @@
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
       <c r="N92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W92" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X92" s="18"/>
       <c r="Y92" s="18"/>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I93" s="22"/>
       <c r="J93" s="18" t="s">
@@ -11128,34 +11128,34 @@
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
       <c r="N93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W93" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X93" s="18"/>
       <c r="Y93" s="18"/>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I94" s="22"/>
       <c r="J94" s="18" t="s">
@@ -11224,34 +11224,34 @@
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
       <c r="N94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W94" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X94" s="18"/>
       <c r="Y94" s="18"/>
@@ -11310,7 +11310,7 @@
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I95" s="22"/>
       <c r="J95" s="18" t="s">
@@ -11320,34 +11320,34 @@
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W95" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X95" s="18"/>
       <c r="Y95" s="18"/>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I96" s="22"/>
       <c r="J96" s="18" t="s">
@@ -11416,34 +11416,34 @@
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
       <c r="N96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W96" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X96" s="18"/>
       <c r="Y96" s="18"/>
@@ -11510,34 +11510,34 @@
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
       <c r="N97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W97" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X97" s="18"/>
       <c r="Y97" s="18"/>
@@ -11604,34 +11604,34 @@
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
       <c r="N98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W98" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X98" s="18"/>
       <c r="Y98" s="18"/>
@@ -11698,34 +11698,34 @@
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
       <c r="N99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W99" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X99" s="15"/>
       <c r="Y99" s="15"/>
@@ -11792,34 +11792,34 @@
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
       <c r="N100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W100" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X100" s="15"/>
       <c r="Y100" s="15"/>
@@ -11886,34 +11886,34 @@
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
       <c r="N101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W101" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X101" s="15"/>
       <c r="Y101" s="15"/>
@@ -11980,34 +11980,34 @@
       <c r="L102" s="15"/>
       <c r="M102" s="15"/>
       <c r="N102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W102" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X102" s="15"/>
       <c r="Y102" s="15"/>
@@ -12074,34 +12074,34 @@
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
       <c r="N103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W103" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
@@ -12168,34 +12168,34 @@
       <c r="L104" s="15"/>
       <c r="M104" s="15"/>
       <c r="N104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W104" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X104" s="15"/>
       <c r="Y104" s="15"/>
@@ -12262,34 +12262,34 @@
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
       <c r="N105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W105" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X105" s="15"/>
       <c r="Y105" s="15"/>
@@ -12356,34 +12356,34 @@
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
       <c r="N106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W106" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X106" s="15"/>
       <c r="Y106" s="15"/>
@@ -12450,34 +12450,34 @@
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
       <c r="N107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W107" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X107" s="15"/>
       <c r="Y107" s="15"/>
@@ -12544,34 +12544,34 @@
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
       <c r="N108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W108" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X108" s="15"/>
       <c r="Y108" s="15"/>
@@ -12638,34 +12638,34 @@
       <c r="L109" s="15"/>
       <c r="M109" s="15"/>
       <c r="N109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W109" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X109" s="15"/>
       <c r="Y109" s="15"/>
@@ -12732,34 +12732,34 @@
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
       <c r="N110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W110" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X110" s="15"/>
       <c r="Y110" s="15"/>
@@ -12826,34 +12826,34 @@
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
       <c r="N111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W111" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X111" s="15"/>
       <c r="Y111" s="15"/>
@@ -12916,34 +12916,34 @@
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
       <c r="N112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W112" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X112" s="15"/>
       <c r="Y112" s="15"/>
@@ -13006,34 +13006,34 @@
       <c r="L113" s="15"/>
       <c r="M113" s="15"/>
       <c r="N113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W113" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X113" s="15"/>
       <c r="Y113" s="15"/>
@@ -13100,34 +13100,34 @@
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
       <c r="N114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W114" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X114" s="15"/>
       <c r="Y114" s="15"/>
@@ -13194,34 +13194,34 @@
       <c r="L115" s="15"/>
       <c r="M115" s="15"/>
       <c r="N115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W115" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X115" s="15"/>
       <c r="Y115" s="15"/>
@@ -13288,34 +13288,34 @@
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
       <c r="N116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W116" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X116" s="15"/>
       <c r="Y116" s="15"/>
@@ -13382,34 +13382,34 @@
       <c r="L117" s="15"/>
       <c r="M117" s="15"/>
       <c r="N117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W117" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X117" s="15"/>
       <c r="Y117" s="15"/>
@@ -13476,34 +13476,34 @@
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
       <c r="N118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W118" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X118" s="15"/>
       <c r="Y118" s="15"/>
@@ -13570,34 +13570,34 @@
       <c r="L119" s="15"/>
       <c r="M119" s="15"/>
       <c r="N119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W119" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X119" s="15"/>
       <c r="Y119" s="15"/>
@@ -13664,34 +13664,34 @@
       <c r="L120" s="15"/>
       <c r="M120" s="15"/>
       <c r="N120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W120" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X120" s="15"/>
       <c r="Y120" s="15"/>
@@ -13758,34 +13758,34 @@
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
       <c r="N121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W121" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
@@ -13852,34 +13852,34 @@
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
       <c r="N122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W122" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
@@ -13946,34 +13946,34 @@
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
       <c r="N123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W123" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
@@ -14040,34 +14040,34 @@
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W124" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
@@ -14134,34 +14134,34 @@
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W125" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
@@ -14228,34 +14228,34 @@
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W126" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
@@ -14320,34 +14320,34 @@
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
       <c r="N127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W127" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
@@ -14414,34 +14414,34 @@
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W128" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
@@ -14508,34 +14508,34 @@
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
       <c r="N129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W129" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
@@ -14602,34 +14602,34 @@
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W130" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
@@ -14696,34 +14696,34 @@
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
       <c r="N131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W131" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
@@ -14790,34 +14790,34 @@
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W132" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
@@ -14884,34 +14884,34 @@
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
       <c r="N133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W133" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
@@ -14978,34 +14978,34 @@
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
       <c r="N134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W134" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
@@ -15072,34 +15072,34 @@
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
       <c r="N135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W135" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
@@ -15166,34 +15166,34 @@
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
       <c r="N136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W136" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
@@ -15260,34 +15260,34 @@
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
       <c r="N137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W137" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
@@ -15354,34 +15354,34 @@
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
       <c r="N138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W138" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
@@ -15448,34 +15448,34 @@
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W139" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
@@ -15538,34 +15538,34 @@
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
       <c r="N140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W140" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
@@ -15630,34 +15630,34 @@
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
       <c r="N141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W141" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
@@ -15720,34 +15720,34 @@
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
       <c r="N142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W142" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
@@ -15814,34 +15814,34 @@
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
       <c r="N143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W143" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
@@ -15908,34 +15908,34 @@
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
       <c r="N144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W144" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
@@ -16002,34 +16002,34 @@
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
       <c r="N145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W145" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
@@ -16096,34 +16096,34 @@
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
       <c r="N146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W146" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
@@ -16190,34 +16190,34 @@
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W147" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
@@ -16284,34 +16284,34 @@
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W148" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
@@ -16378,34 +16378,34 @@
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
       <c r="N149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W149" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
@@ -16468,34 +16468,34 @@
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
       <c r="N150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W150" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
@@ -16556,34 +16556,34 @@
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
       <c r="N151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W151" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
@@ -16644,34 +16644,34 @@
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
       <c r="N152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W152" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
@@ -16732,34 +16732,34 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W153" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
@@ -16816,34 +16816,34 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
       <c r="N154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W154" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
@@ -17237,10 +17237,10 @@
         <v>362</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>363</v>
@@ -17445,10 +17445,10 @@
         <v>383</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>384</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1066,7 +1066,7 @@
     <t>切片</t>
   </si>
   <si>
-    <t>plugins_3002_mbtiles</t>
+    <t>plugins_7901_mbtiles</t>
   </si>
   <si>
     <t>文档</t>
@@ -2072,10 +2072,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2157,22 +2157,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2186,14 +2178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2223,9 +2208,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2236,20 +2258,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2270,7 +2278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2278,15 +2286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2387,6 +2387,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2399,7 +2495,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,37 +2531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2453,79 +2555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,37 +2567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,6 +2596,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2611,26 +2622,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2653,15 +2664,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2670,25 +2672,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2701,10 +2701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2713,133 +2713,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3263,12 +3263,12 @@
   </sheetPr>
   <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
+      <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.8333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -5640,8 +5640,8 @@
       <c r="G30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>52</v>
+      <c r="H30" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -6210,8 +6210,8 @@
       <c r="P37" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="10" t="s">
-        <v>52</v>
+      <c r="Q37" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R37" s="18" t="s">
         <v>41</v>
@@ -6289,8 +6289,8 @@
       <c r="P38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="10" t="s">
-        <v>52</v>
+      <c r="Q38" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R38" s="18" t="s">
         <v>41</v>
@@ -6368,8 +6368,8 @@
       <c r="P39" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" s="10" t="s">
-        <v>52</v>
+      <c r="Q39" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R39" s="18" t="s">
         <v>41</v>
@@ -6447,8 +6447,8 @@
       <c r="P40" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="10" t="s">
-        <v>52</v>
+      <c r="Q40" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R40" s="18" t="s">
         <v>41</v>
@@ -6526,8 +6526,8 @@
       <c r="P41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="10" t="s">
-        <v>52</v>
+      <c r="Q41" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R41" s="18" t="s">
         <v>41</v>
@@ -6605,8 +6605,8 @@
       <c r="P42" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" s="10" t="s">
-        <v>52</v>
+      <c r="Q42" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R42" s="18" t="s">
         <v>41</v>
@@ -6684,8 +6684,8 @@
       <c r="P43" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q43" s="10" t="s">
-        <v>52</v>
+      <c r="Q43" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R43" s="18" t="s">
         <v>41</v>
@@ -6763,8 +6763,8 @@
       <c r="P44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q44" s="10" t="s">
-        <v>52</v>
+      <c r="Q44" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R44" s="18" t="s">
         <v>41</v>
@@ -6842,8 +6842,8 @@
       <c r="P45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q45" s="10" t="s">
-        <v>52</v>
+      <c r="Q45" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R45" s="18" t="s">
         <v>41</v>
@@ -6921,8 +6921,8 @@
       <c r="P46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q46" s="10" t="s">
-        <v>52</v>
+      <c r="Q46" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="R46" s="18" t="s">
         <v>41</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -20,11 +20,33 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>MIRACLE</author>
     <author>王西亚</author>
-    <author>MIRACLE</author>
   </authors>
   <commentList>
-    <comment ref="Q18" authorId="0">
+    <comment ref="AR2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MIRACLE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+通用模式是传感器通用？还是质检插件通用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -48,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q19" authorId="0">
+    <comment ref="Q19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -72,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q20" authorId="0">
+    <comment ref="Q20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -96,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q21" authorId="0">
+    <comment ref="Q21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -120,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="0">
+    <comment ref="Q22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -144,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0">
+    <comment ref="Q23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -168,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q24" authorId="0">
+    <comment ref="Q24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -192,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q25" authorId="0">
+    <comment ref="Q25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -216,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0">
+    <comment ref="Q26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -240,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0">
+    <comment ref="Q27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -264,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q28" authorId="1">
+    <comment ref="Q28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q29" authorId="1">
+    <comment ref="Q29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q30" authorId="1">
+    <comment ref="Q30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q31" authorId="1">
+    <comment ref="Q31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q32" authorId="1">
+    <comment ref="Q32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="1">
+    <comment ref="Q33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q34" authorId="1">
+    <comment ref="Q34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q35" authorId="1">
+    <comment ref="Q35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q36" authorId="1">
+    <comment ref="Q36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0">
+    <comment ref="E47" authorId="1">
       <text>
         <r>
           <rPr>
@@ -499,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
+    <comment ref="E48" authorId="1">
       <text>
         <r>
           <rPr>
@@ -532,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0">
+    <comment ref="E49" authorId="1">
       <text>
         <r>
           <rPr>
@@ -565,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="E50" authorId="1">
       <text>
         <r>
           <rPr>
@@ -599,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -633,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="E52" authorId="1">
       <text>
         <r>
           <rPr>
@@ -667,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0">
+    <comment ref="E53" authorId="1">
       <text>
         <r>
           <rPr>
@@ -700,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E54" authorId="1">
       <text>
         <r>
           <rPr>
@@ -734,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="E55" authorId="1">
       <text>
         <r>
           <rPr>
@@ -768,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0">
+    <comment ref="E56" authorId="1">
       <text>
         <r>
           <rPr>
@@ -802,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E57" authorId="0">
+    <comment ref="E57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -836,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ62" authorId="1">
+    <comment ref="AQ62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -858,7 +880,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI79" authorId="1">
+    <comment ref="G65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MIRACLE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+标黄的是已有插件，插件序号可能不对，等之后所有插件确定后再定序号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MIRACLE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+标绿的是拆分已有插件plugins_4005_gf1_B_C_D后的插件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI93" authorId="1">
+    <comment ref="AI93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -903,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI98" authorId="1">
+    <comment ref="AI98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO111" authorId="1">
+    <comment ref="AO111" authorId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI129" authorId="1">
+    <comment ref="AI129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2463,9 +2529,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2553,6 +2619,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2560,7 +2655,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2575,59 +2725,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2641,17 +2747,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2659,38 +2756,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2723,6 +2789,17 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2734,19 +2811,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2791,13 +2857,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2815,84 +2947,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2905,37 +2959,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2947,7 +3007,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2965,13 +3037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3037,17 +3115,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3067,11 +3157,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3092,16 +3188,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3116,24 +3212,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3142,10 +3220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3154,137 +3232,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3388,6 +3466,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3725,12 +3809,12 @@
   </sheetPr>
   <dimension ref="A1:AR153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="AN42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="AI79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.8333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -9102,7 +9186,7 @@
       <c r="F65" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="35" t="s">
         <v>174</v>
       </c>
       <c r="H65" s="10" t="s">
@@ -9207,7 +9291,7 @@
       <c r="F66" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="35" t="s">
         <v>180</v>
       </c>
       <c r="H66" s="10" t="s">
@@ -9312,7 +9396,7 @@
       <c r="F67" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="35" t="s">
         <v>181</v>
       </c>
       <c r="H67" s="10" t="s">
@@ -9417,7 +9501,7 @@
       <c r="F68" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="36" t="s">
         <v>182</v>
       </c>
       <c r="H68" s="10" t="s">
@@ -9522,7 +9606,7 @@
       <c r="F69" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="36" t="s">
         <v>184</v>
       </c>
       <c r="H69" s="10" t="s">
@@ -9581,7 +9665,7 @@
       <c r="AI69" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AJ69" s="35" t="s">
+      <c r="AJ69" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK69" s="14" t="s">
@@ -9627,7 +9711,7 @@
       <c r="F70" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="36" t="s">
         <v>185</v>
       </c>
       <c r="H70" s="10" t="s">
@@ -9732,7 +9816,7 @@
       <c r="F71" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" s="36" t="s">
         <v>187</v>
       </c>
       <c r="H71" s="10" t="s">
@@ -9791,7 +9875,7 @@
       <c r="AI71" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AJ71" s="35" t="s">
+      <c r="AJ71" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK71" s="14" t="s">
@@ -9837,7 +9921,7 @@
       <c r="F72" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="36" t="s">
         <v>188</v>
       </c>
       <c r="H72" s="10" t="s">
@@ -9942,7 +10026,7 @@
       <c r="F73" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="36" t="s">
         <v>190</v>
       </c>
       <c r="H73" s="10" t="s">
@@ -10001,7 +10085,7 @@
       <c r="AI73" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AJ73" s="35" t="s">
+      <c r="AJ73" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK73" s="14" t="s">
@@ -10106,7 +10190,7 @@
       <c r="AI74" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="AJ74" s="35" t="s">
+      <c r="AJ74" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK74" s="14" t="s">
@@ -10211,7 +10295,7 @@
       <c r="AI75" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="AJ75" s="35" t="s">
+      <c r="AJ75" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK75" s="14" t="s">
@@ -10257,7 +10341,7 @@
       <c r="F76" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="35" t="s">
         <v>197</v>
       </c>
       <c r="H76" s="10" t="s">
@@ -10362,7 +10446,7 @@
       <c r="F77" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="35" t="s">
         <v>203</v>
       </c>
       <c r="H77" s="10" t="s">
@@ -10467,7 +10551,7 @@
       <c r="F78" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="35" t="s">
         <v>204</v>
       </c>
       <c r="H78" s="10" t="s">
@@ -10631,7 +10715,7 @@
       <c r="AI79" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ79" s="35" t="s">
+      <c r="AJ79" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK79" s="14" t="s">
@@ -10736,7 +10820,7 @@
       <c r="AI80" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ80" s="35" t="s">
+      <c r="AJ80" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK80" s="14" t="s">
@@ -10841,7 +10925,7 @@
       <c r="AI81" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ81" s="35" t="s">
+      <c r="AJ81" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK81" s="14" t="s">
@@ -10946,7 +11030,7 @@
       <c r="AI82" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ82" s="35" t="s">
+      <c r="AJ82" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK82" s="14" t="s">
@@ -11051,7 +11135,7 @@
       <c r="AI83" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ83" s="35" t="s">
+      <c r="AJ83" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK83" s="14" t="s">
@@ -11156,7 +11240,7 @@
       <c r="AI84" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ84" s="35" t="s">
+      <c r="AJ84" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK84" s="14" t="s">
@@ -11261,7 +11345,7 @@
       <c r="AI85" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ85" s="35" t="s">
+      <c r="AJ85" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK85" s="14" t="s">
@@ -11366,7 +11450,7 @@
       <c r="AI86" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ86" s="35" t="s">
+      <c r="AJ86" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK86" s="14" t="s">
@@ -11471,7 +11555,7 @@
       <c r="AI87" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ87" s="35" t="s">
+      <c r="AJ87" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
@@ -11576,7 +11660,7 @@
       <c r="AI88" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ88" s="35" t="s">
+      <c r="AJ88" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
@@ -11622,7 +11706,7 @@
       <c r="F89" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="35" t="s">
         <v>225</v>
       </c>
       <c r="H89" s="10" t="s">
@@ -11786,7 +11870,7 @@
       <c r="AI90" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="AJ90" s="35" t="s">
+      <c r="AJ90" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK90" s="14" t="s">
@@ -11891,7 +11975,7 @@
       <c r="AI91" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="AJ91" s="35" t="s">
+      <c r="AJ91" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK91" s="14" t="s">
@@ -11996,7 +12080,7 @@
       <c r="AI92" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="AJ92" s="35" t="s">
+      <c r="AJ92" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
@@ -12626,7 +12710,7 @@
       <c r="AI98" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="AJ98" s="35" t="s">
+      <c r="AJ98" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK98" s="14" t="s">
@@ -12731,7 +12815,7 @@
       <c r="AI99" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="AJ99" s="35" t="s">
+      <c r="AJ99" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK99" s="14" t="s">
@@ -13256,7 +13340,7 @@
       <c r="AI104" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="AJ104" s="35" t="s">
+      <c r="AJ104" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
@@ -13361,7 +13445,7 @@
       <c r="AI105" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="AJ105" s="35" t="s">
+      <c r="AJ105" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
@@ -13571,7 +13655,7 @@
       <c r="AI107" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="AJ107" s="35" t="s">
+      <c r="AJ107" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
@@ -13676,7 +13760,7 @@
       <c r="AI108" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="AJ108" s="35" t="s">
+      <c r="AJ108" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK108" s="14" t="s">
@@ -13779,7 +13863,7 @@
       <c r="AI109" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="AJ109" s="35" t="s">
+      <c r="AJ109" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK109" s="14"/>
@@ -13878,7 +13962,7 @@
       <c r="AI110" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AJ110" s="35" t="s">
+      <c r="AJ110" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK110" s="14"/>
@@ -13979,7 +14063,7 @@
       <c r="AI111" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="AJ111" s="35" t="s">
+      <c r="AJ111" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
@@ -14084,7 +14168,7 @@
       <c r="AI112" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="AJ112" s="35" t="s">
+      <c r="AJ112" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
@@ -14189,7 +14273,7 @@
       <c r="AI113" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="AJ113" s="35" t="s">
+      <c r="AJ113" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
@@ -14294,7 +14378,7 @@
       <c r="AI114" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="AJ114" s="35" t="s">
+      <c r="AJ114" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
@@ -14399,7 +14483,7 @@
       <c r="AI115" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="AJ115" s="35" t="s">
+      <c r="AJ115" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
@@ -14501,10 +14585,10 @@
       <c r="AF116" s="15"/>
       <c r="AG116" s="15"/>
       <c r="AH116" s="15"/>
-      <c r="AI116" s="36" t="s">
+      <c r="AI116" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="AJ116" s="37" t="s">
+      <c r="AJ116" s="39" t="s">
         <v>43</v>
       </c>
       <c r="AK116" s="14" t="s">
@@ -14606,10 +14690,10 @@
       <c r="AF117" s="15"/>
       <c r="AG117" s="15"/>
       <c r="AH117" s="15"/>
-      <c r="AI117" s="36" t="s">
+      <c r="AI117" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="AJ117" s="35" t="s">
+      <c r="AJ117" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
@@ -14714,7 +14798,7 @@
       <c r="AI118" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="AJ118" s="35" t="s">
+      <c r="AJ118" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK118" s="14" t="s">
@@ -14819,7 +14903,7 @@
       <c r="AI119" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="AJ119" s="35" t="s">
+      <c r="AJ119" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK119" s="14" t="s">
@@ -14924,7 +15008,7 @@
       <c r="AI120" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="AJ120" s="35" t="s">
+      <c r="AJ120" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK120" s="14" t="s">
@@ -15029,7 +15113,7 @@
       <c r="AI121" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="AJ121" s="35" t="s">
+      <c r="AJ121" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK121" s="14" t="s">
@@ -15134,7 +15218,7 @@
       <c r="AI122" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="AJ122" s="35" t="s">
+      <c r="AJ122" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK122" s="14" t="s">
@@ -15239,7 +15323,7 @@
       <c r="AI123" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="AJ123" s="35" t="s">
+      <c r="AJ123" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK123" s="14" t="s">
@@ -15342,7 +15426,7 @@
       <c r="AI124" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="AJ124" s="35" t="s">
+      <c r="AJ124" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
@@ -15445,7 +15529,7 @@
       <c r="AI125" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="AJ125" s="37" t="s">
+      <c r="AJ125" s="39" t="s">
         <v>43</v>
       </c>
       <c r="AK125" s="14" t="s">
@@ -15550,7 +15634,7 @@
       <c r="AI126" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="AJ126" s="35" t="s">
+      <c r="AJ126" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK126" s="14" t="s">
@@ -15655,7 +15739,7 @@
       <c r="AI127" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="AJ127" s="35" t="s">
+      <c r="AJ127" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK127" s="14" t="s">
@@ -15760,7 +15844,7 @@
       <c r="AI128" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="AJ128" s="35" t="s">
+      <c r="AJ128" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK128" s="14" t="s">
@@ -15865,7 +15949,7 @@
       <c r="AI129" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="AJ129" s="35" t="s">
+      <c r="AJ129" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK129" s="14" t="s">
@@ -15970,7 +16054,7 @@
       <c r="AI130" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="AJ130" s="35" t="s">
+      <c r="AJ130" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK130" s="14" t="s">
@@ -16075,7 +16159,7 @@
       <c r="AI131" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="AJ131" s="35" t="s">
+      <c r="AJ131" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK131" s="14" t="s">
@@ -16180,7 +16264,7 @@
       <c r="AI132" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="AJ132" s="35" t="s">
+      <c r="AJ132" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK132" s="14" t="s">
@@ -16285,7 +16369,7 @@
       <c r="AI133" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="AJ133" s="35" t="s">
+      <c r="AJ133" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK133" s="14" t="s">
@@ -16390,7 +16474,7 @@
       <c r="AI134" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="AJ134" s="35" t="s">
+      <c r="AJ134" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK134" s="14" t="s">
@@ -16495,7 +16579,7 @@
       <c r="AI135" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="AJ135" s="35" t="s">
+      <c r="AJ135" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK135" s="14" t="s">
@@ -16600,7 +16684,7 @@
       <c r="AI136" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="AJ136" s="35" t="s">
+      <c r="AJ136" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK136" s="14" t="s">
@@ -16703,10 +16787,10 @@
       <c r="AI137" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="AJ137" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK137" s="36"/>
+      <c r="AJ137" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK137" s="38"/>
       <c r="AL137" s="33" t="s">
         <v>156</v>
       </c>
@@ -16716,7 +16800,7 @@
       <c r="AN137" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="AO137" s="36"/>
+      <c r="AO137" s="38"/>
       <c r="AP137" s="34" t="s">
         <v>286</v>
       </c>
@@ -16804,7 +16888,7 @@
       <c r="AI138" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="AJ138" s="35" t="s">
+      <c r="AJ138" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK138" s="14" t="s">
@@ -16819,7 +16903,7 @@
       <c r="AN138" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="AO138" s="36"/>
+      <c r="AO138" s="38"/>
       <c r="AP138" s="34" t="s">
         <v>376</v>
       </c>
@@ -16905,10 +16989,10 @@
       <c r="AI139" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="AJ139" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK139" s="36"/>
+      <c r="AJ139" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK139" s="38"/>
       <c r="AL139" s="33" t="s">
         <v>156</v>
       </c>
@@ -16918,7 +17002,7 @@
       <c r="AN139" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="AO139" s="36"/>
+      <c r="AO139" s="38"/>
       <c r="AP139" s="34" t="s">
         <v>286</v>
       </c>
@@ -17006,7 +17090,7 @@
       <c r="AI140" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="AJ140" s="35" t="s">
+      <c r="AJ140" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK140" s="14" t="s">
@@ -17111,7 +17195,7 @@
       <c r="AI141" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="AJ141" s="35" t="s">
+      <c r="AJ141" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK141" s="14" t="s">
@@ -17216,7 +17300,7 @@
       <c r="AI142" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="AJ142" s="35" t="s">
+      <c r="AJ142" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK142" s="14" t="s">
@@ -17321,7 +17405,7 @@
       <c r="AI143" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="AJ143" s="35" t="s">
+      <c r="AJ143" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK143" s="14" t="s">
@@ -17426,7 +17510,7 @@
       <c r="AI144" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="AJ144" s="35" t="s">
+      <c r="AJ144" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK144" s="14" t="s">
@@ -17531,7 +17615,7 @@
       <c r="AI145" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="AJ145" s="35" t="s">
+      <c r="AJ145" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK145" s="14" t="s">
@@ -17636,7 +17720,7 @@
       <c r="AI146" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="AJ146" s="35" t="s">
+      <c r="AJ146" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK146" s="14" t="s">
@@ -17739,7 +17823,7 @@
       <c r="AI147" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="AJ147" s="35" t="s">
+      <c r="AJ147" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK147" s="33"/>
@@ -17840,7 +17924,7 @@
       <c r="AI148" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="AJ148" s="35" t="s">
+      <c r="AJ148" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK148" s="14" t="s">
@@ -17851,7 +17935,7 @@
       </c>
       <c r="AM148" s="8"/>
       <c r="AN148" s="8"/>
-      <c r="AO148" s="38"/>
+      <c r="AO148" s="40"/>
       <c r="AP148" s="34" t="s">
         <v>401</v>
       </c>
@@ -17939,7 +18023,7 @@
       <c r="AI149" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="AJ149" s="35" t="s">
+      <c r="AJ149" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK149" s="14" t="s">
@@ -18038,7 +18122,7 @@
       <c r="AI150" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="AJ150" s="35" t="s">
+      <c r="AJ150" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK150" s="14" t="s">
@@ -18135,7 +18219,7 @@
       <c r="AI151" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="AJ151" s="35" t="s">
+      <c r="AJ151" s="37" t="s">
         <v>55</v>
       </c>
       <c r="AK151" s="8"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="同步插件-即时服务" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'插件列表-识别质检'!$A$2:$AH$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'插件列表-识别质检'!$A$2:$AH$128</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -902,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI77" authorId="0">
+    <comment ref="AR88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -920,29 +920,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-缺少emi传感器</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI83" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>MIRACLE:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-数管入库规范没内没有</t>
+txt转xml</t>
         </r>
       </text>
     </comment>
@@ -1072,7 +1050,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="425">
   <si>
     <t>插件</t>
   </si>
@@ -1740,424 +1718,421 @@
     <t>NDI_GF6</t>
   </si>
   <si>
+    <t>plugins_4009_GF6_WFV</t>
+  </si>
+  <si>
+    <t>GF-7</t>
+  </si>
+  <si>
+    <t>plugins_4010_GF7_FWD</t>
+  </si>
+  <si>
+    <t>高分七号</t>
+  </si>
+  <si>
+    <t>NDI_GF7</t>
+  </si>
+  <si>
+    <t>plugins_4010_GF7_GF701</t>
+  </si>
+  <si>
+    <t>HJ-1A</t>
+  </si>
+  <si>
+    <t>plugins_4011_HJ</t>
+  </si>
+  <si>
+    <t>环境一号A/B/C星</t>
+  </si>
+  <si>
+    <t>CCD1/CCD2</t>
+  </si>
+  <si>
+    <t>NDI_HJ</t>
+  </si>
+  <si>
+    <t>Jinlin-1</t>
+  </si>
+  <si>
+    <t>plugins_4012_JL-1_PMS</t>
+  </si>
+  <si>
+    <t>吉林一号</t>
+  </si>
+  <si>
+    <t>NDI_JL1</t>
+  </si>
+  <si>
+    <t>plugins_4012_JL-1_PMS1</t>
+  </si>
+  <si>
+    <t>KOMPSAT-2</t>
+  </si>
+  <si>
+    <t>plugins_4013_K2</t>
+  </si>
+  <si>
+    <t>Kompsat-2</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>NDI_K2</t>
+  </si>
+  <si>
+    <t>KOMPSAT-3</t>
+  </si>
+  <si>
+    <t>plugins_4013_K3_PMS</t>
+  </si>
+  <si>
+    <t>Kompsat-3</t>
+  </si>
+  <si>
+    <t>NDI_K3</t>
+  </si>
+  <si>
+    <t>KOMPSAT-3A</t>
+  </si>
+  <si>
+    <t>plugins_4013_kompast-3a</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LANDSAT-5</t>
+  </si>
+  <si>
+    <t>plugins_4014_LANDSAT-5</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>LANDSAT-7</t>
+  </si>
+  <si>
+    <t>plugins_4014_LANDSAT_le7</t>
+  </si>
+  <si>
+    <t>LandSat7</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>NDI_LANDSAT</t>
+  </si>
+  <si>
+    <t>LANDSAT-8</t>
+  </si>
+  <si>
+    <t>plugins_4014_LANDSAT_ld8</t>
+  </si>
+  <si>
+    <t>LandSat8</t>
+  </si>
+  <si>
+    <t>OLI_TIRS</t>
+  </si>
+  <si>
+    <t>Pleiades</t>
+  </si>
+  <si>
+    <t>plugins_4015_PL</t>
+  </si>
+  <si>
+    <t>Pleiades1A</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>NDI_PL</t>
+  </si>
+  <si>
+    <t>plugins_4015_pleiades1b_PMS</t>
+  </si>
+  <si>
+    <t>Pleiades1B</t>
+  </si>
+  <si>
+    <t>Planet Lab</t>
+  </si>
+  <si>
+    <t>plugins_4016_Planet_CCD</t>
+  </si>
+  <si>
+    <t>Dove微小卫星群</t>
+  </si>
+  <si>
+    <t>NDI_Planet</t>
+  </si>
+  <si>
+    <t>RapidEye</t>
+  </si>
+  <si>
+    <t>plugins_4017_RAPIDEYE_rapid</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>OPTICAL</t>
+  </si>
+  <si>
+    <t>NDI_RAPIDEYE</t>
+  </si>
+  <si>
+    <t>S2A</t>
+  </si>
+  <si>
+    <t>plugins_4017_S2A_S2MSI1C</t>
+  </si>
+  <si>
+    <t>哨兵二号</t>
+  </si>
+  <si>
+    <t>NDI_S2A</t>
+  </si>
+  <si>
+    <t>SJ9A</t>
+  </si>
+  <si>
+    <t>plugins_4018_SJ9A_PMS</t>
+  </si>
+  <si>
+    <t>实践九号</t>
+  </si>
+  <si>
+    <t>NDI_SJ9A</t>
+  </si>
+  <si>
+    <t>plugins_4018_SJ9A_PMN</t>
+  </si>
+  <si>
+    <t>PMN</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>plugins_4019_SPOT_SPOT</t>
+  </si>
+  <si>
+    <t>NDI_SPOT</t>
+  </si>
+  <si>
+    <t>SuperView-1</t>
+  </si>
+  <si>
+    <t>plugins_4020_SV_sv1</t>
+  </si>
+  <si>
+    <t>高景一号</t>
+  </si>
+  <si>
+    <t>NDI_SV</t>
+  </si>
+  <si>
+    <t>TH-01</t>
+  </si>
+  <si>
+    <t>plugins_4021_TH_th</t>
+  </si>
+  <si>
+    <t>天绘一号</t>
+  </si>
+  <si>
+    <t>GFB</t>
+  </si>
+  <si>
+    <t>NDI_TH</t>
+  </si>
+  <si>
+    <t>plugins_4021_TH_th01</t>
+  </si>
+  <si>
+    <t>DGP</t>
+  </si>
+  <si>
+    <t>WorldView-1</t>
+  </si>
+  <si>
+    <t>plugins_4022_WV_wv</t>
+  </si>
+  <si>
+    <t>WordView01</t>
+  </si>
+  <si>
+    <t>NDI_WV</t>
+  </si>
+  <si>
+    <t>WorldView-2</t>
+  </si>
+  <si>
+    <t>plugins_4022_wordview-2_PMS</t>
+  </si>
+  <si>
+    <t>WordView02</t>
+  </si>
+  <si>
+    <t>WorldView-3</t>
+  </si>
+  <si>
+    <t>plugins_4022_wordview-3_PMS</t>
+  </si>
+  <si>
+    <t>WordView03</t>
+  </si>
+  <si>
+    <t>WorldView-4</t>
+  </si>
+  <si>
+    <t>plugins_4022_wordview-4_PMS</t>
+  </si>
+  <si>
+    <t>WordView04</t>
+  </si>
+  <si>
+    <t>YG</t>
+  </si>
+  <si>
+    <t>plugins_4023_YG_yg</t>
+  </si>
+  <si>
+    <t>中国遥感系列卫星</t>
+  </si>
+  <si>
+    <t>CCD</t>
+  </si>
+  <si>
+    <t>NDI_YG</t>
+  </si>
+  <si>
+    <t>ZY1E</t>
+  </si>
+  <si>
+    <t>plugins_4024_ZY1E_AHSI</t>
+  </si>
+  <si>
+    <t>资源一号E星</t>
+  </si>
+  <si>
+    <t>NDI_ZY1E</t>
+  </si>
+  <si>
+    <t>plugins_4024_ZY1E_VNIC</t>
+  </si>
+  <si>
+    <t>ZY-02C</t>
+  </si>
+  <si>
+    <t>plugins_4025_ZY02C_PMS</t>
+  </si>
+  <si>
+    <t>资源三号02星</t>
+  </si>
+  <si>
+    <t>NDI_ZY02C</t>
+  </si>
+  <si>
+    <t>plugins_4025_zy-02c_hr2</t>
+  </si>
+  <si>
+    <t>HR2</t>
+  </si>
+  <si>
+    <t>plugins_4025_ZY02C_HRC</t>
+  </si>
+  <si>
+    <t>HRC</t>
+  </si>
+  <si>
+    <t>ZY3-01</t>
+  </si>
+  <si>
+    <t>plugins_4026_ZY3_ZY3</t>
+  </si>
+  <si>
+    <t>资源一号01星</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>NDI_ZY3</t>
+  </si>
+  <si>
+    <t>plugins_4026_ZY3_ZY3_01a</t>
+  </si>
+  <si>
+    <t>FWD</t>
+  </si>
+  <si>
+    <t>plugins_4026_ZY3_zy301a</t>
+  </si>
+  <si>
+    <t>BWD</t>
+  </si>
+  <si>
+    <t>plugins_4026_ZY3_ZY302</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>ZY3-02</t>
+  </si>
+  <si>
+    <t>plugins_4026_ZY3_ZY303</t>
+  </si>
+  <si>
+    <t>资源一号02星</t>
+  </si>
+  <si>
+    <t>IKONOS</t>
+  </si>
+  <si>
+    <t>plugins_4027_ikonos</t>
+  </si>
+  <si>
+    <t>QuickBird</t>
+  </si>
+  <si>
+    <t>plugins_4029_quickbrid</t>
+  </si>
+  <si>
+    <t>ALOS</t>
+  </si>
+  <si>
+    <t>plugins_4030_alos</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>HY1</t>
+  </si>
+  <si>
+    <t>plugins_4031_HY1_SCAL1</t>
+  </si>
+  <si>
+    <t>海洋一号</t>
+  </si>
+  <si>
+    <t>NDI_HY1</t>
+  </si>
+  <si>
+    <t>plugins_4031_HY1_SCAL2OCT</t>
+  </si>
+  <si>
     <t>Sat</t>
-  </si>
-  <si>
-    <t>plugins_4009_GF6_WFV</t>
-  </si>
-  <si>
-    <t>GF-7</t>
-  </si>
-  <si>
-    <t>plugins_4010_GF7_FWD</t>
-  </si>
-  <si>
-    <t>高分七号</t>
-  </si>
-  <si>
-    <t>NDI_GF7</t>
-  </si>
-  <si>
-    <t>plugins_4010_GF7_GF701</t>
-  </si>
-  <si>
-    <t>HJ-1A</t>
-  </si>
-  <si>
-    <t>plugins_4011_HJ</t>
-  </si>
-  <si>
-    <t>环境一号A/B/C星</t>
-  </si>
-  <si>
-    <t>CCD1/CCD2</t>
-  </si>
-  <si>
-    <t>NDI_HJ</t>
-  </si>
-  <si>
-    <t>Jinlin-1</t>
-  </si>
-  <si>
-    <t>plugins_4012_JL-1_PMS</t>
-  </si>
-  <si>
-    <t>吉林一号</t>
-  </si>
-  <si>
-    <t>NDI_JL1</t>
-  </si>
-  <si>
-    <t>plugins_4012_JL-1_PMS1</t>
-  </si>
-  <si>
-    <t>KOMPSAT-2</t>
-  </si>
-  <si>
-    <t>plugins_4013_K2</t>
-  </si>
-  <si>
-    <t>Kompsat-2</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>NDI_K2</t>
-  </si>
-  <si>
-    <t>KOMPSAT-3</t>
-  </si>
-  <si>
-    <t>plugins_4013_K3_PMS</t>
-  </si>
-  <si>
-    <t>Kompsat-3</t>
-  </si>
-  <si>
-    <t>NDI_K3</t>
-  </si>
-  <si>
-    <t>KOMPSAT-3A</t>
-  </si>
-  <si>
-    <t>plugins_4013_kompast-3a</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LANDSAT-5</t>
-  </si>
-  <si>
-    <t>plugins_4014_LANDSAT-5</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>LANDSAT-7</t>
-  </si>
-  <si>
-    <t>plugins_4014_LANDSAT_le7</t>
-  </si>
-  <si>
-    <t>LandSat7</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>NDI_LANDSAT</t>
-  </si>
-  <si>
-    <t>LANDSAT-8</t>
-  </si>
-  <si>
-    <t>plugins_4014_LANDSAT_ld8</t>
-  </si>
-  <si>
-    <t>LandSat8</t>
-  </si>
-  <si>
-    <t>OLI_TIRS</t>
-  </si>
-  <si>
-    <t>Pleiades</t>
-  </si>
-  <si>
-    <t>plugins_4015_PL</t>
-  </si>
-  <si>
-    <t>Pleiades1A</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>NDI_PL</t>
-  </si>
-  <si>
-    <t>plugins_4015_pleiades1b_PMS</t>
-  </si>
-  <si>
-    <t>Pleiades1B</t>
-  </si>
-  <si>
-    <t>plugins_4016_Planet_CCD</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>CCD</t>
-  </si>
-  <si>
-    <t>NDI_Planet</t>
-  </si>
-  <si>
-    <t>RapidEye</t>
-  </si>
-  <si>
-    <t>plugins_4017_RAPIDEYE_rapid</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>OPTICAL</t>
-  </si>
-  <si>
-    <t>NDI_RAPIDEYE</t>
-  </si>
-  <si>
-    <t>plugins_4017_S2A_S2MSI1C</t>
-  </si>
-  <si>
-    <t>S2A</t>
-  </si>
-  <si>
-    <t>哨兵二号</t>
-  </si>
-  <si>
-    <t>NDI_S2A</t>
-  </si>
-  <si>
-    <t>SJ9A</t>
-  </si>
-  <si>
-    <t>plugins_4018_SJ9A_PMS</t>
-  </si>
-  <si>
-    <t>实践九号</t>
-  </si>
-  <si>
-    <t>NDI_SJ9A</t>
-  </si>
-  <si>
-    <t>plugins_4018_SJ9A_PMN</t>
-  </si>
-  <si>
-    <t>PMN</t>
-  </si>
-  <si>
-    <t>plugins_4019_SPOT_SPOT</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>NDI_SPOT</t>
-  </si>
-  <si>
-    <t>SuperView-1</t>
-  </si>
-  <si>
-    <t>plugins_4020_SV_sv1</t>
-  </si>
-  <si>
-    <t>高景一号</t>
-  </si>
-  <si>
-    <t>NDI_SV</t>
-  </si>
-  <si>
-    <t>TH-01</t>
-  </si>
-  <si>
-    <t>plugins_4021_TH_th</t>
-  </si>
-  <si>
-    <t>天绘一号</t>
-  </si>
-  <si>
-    <t>GFB</t>
-  </si>
-  <si>
-    <t>NDI_TH</t>
-  </si>
-  <si>
-    <t>plugins_4021_TH_th01</t>
-  </si>
-  <si>
-    <t>DGP</t>
-  </si>
-  <si>
-    <t>WorldView-1</t>
-  </si>
-  <si>
-    <t>plugins_4022_WV_wv</t>
-  </si>
-  <si>
-    <t>WordView01</t>
-  </si>
-  <si>
-    <t>NDI_WV</t>
-  </si>
-  <si>
-    <t>WorldView-2</t>
-  </si>
-  <si>
-    <t>plugins_4022_wordview-2_PMS</t>
-  </si>
-  <si>
-    <t>WordView02</t>
-  </si>
-  <si>
-    <t>WorldView-3</t>
-  </si>
-  <si>
-    <t>plugins_4022_wordview-3_PMS</t>
-  </si>
-  <si>
-    <t>WordView03</t>
-  </si>
-  <si>
-    <t>WorldView-4</t>
-  </si>
-  <si>
-    <t>plugins_4022_wordview-4_PMS</t>
-  </si>
-  <si>
-    <t>WordView04</t>
-  </si>
-  <si>
-    <t>YG</t>
-  </si>
-  <si>
-    <t>plugins_4023_YG_yg</t>
-  </si>
-  <si>
-    <t>中国遥感系列卫星</t>
-  </si>
-  <si>
-    <t>NDI_YG</t>
-  </si>
-  <si>
-    <t>plugins_4024_ZY1E_AHSI</t>
-  </si>
-  <si>
-    <t>ZY1E</t>
-  </si>
-  <si>
-    <t>资源一号E星</t>
-  </si>
-  <si>
-    <t>NDI_ZY1E</t>
-  </si>
-  <si>
-    <t>plugins_4024_ZY1E_VNIC</t>
-  </si>
-  <si>
-    <t>ZY-02C</t>
-  </si>
-  <si>
-    <t>plugins_4025_ZY02C_PMS</t>
-  </si>
-  <si>
-    <t>资源三号02星</t>
-  </si>
-  <si>
-    <t>NDI_ZY02C</t>
-  </si>
-  <si>
-    <t>plugins_4025_zy-02c_hr2</t>
-  </si>
-  <si>
-    <t>HR2</t>
-  </si>
-  <si>
-    <t>plugins_4025_ZY02C_HRC</t>
-  </si>
-  <si>
-    <t>HRC</t>
-  </si>
-  <si>
-    <t>ZY3-01</t>
-  </si>
-  <si>
-    <t>plugins_4026_ZY3_ZY3</t>
-  </si>
-  <si>
-    <t>资源一号01星</t>
-  </si>
-  <si>
-    <t>MUX</t>
-  </si>
-  <si>
-    <t>NDI_ZY3</t>
-  </si>
-  <si>
-    <t>plugins_4026_ZY3_ZY3_01a</t>
-  </si>
-  <si>
-    <t>FWD</t>
-  </si>
-  <si>
-    <t>plugins_4026_ZY3_zy301a</t>
-  </si>
-  <si>
-    <t>BWD</t>
-  </si>
-  <si>
-    <t>plugins_4026_ZY3_ZY302</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>ZY3-02</t>
-  </si>
-  <si>
-    <t>plugins_4026_ZY3_ZY303</t>
-  </si>
-  <si>
-    <t>资源一号02星</t>
-  </si>
-  <si>
-    <t>IKONOS</t>
-  </si>
-  <si>
-    <t>plugins_4027_ikonos</t>
-  </si>
-  <si>
-    <t>Planet Lab</t>
-  </si>
-  <si>
-    <t>plugins_4028_plantlab</t>
-  </si>
-  <si>
-    <t>Dove微小卫星群</t>
-  </si>
-  <si>
-    <t>QuickBird</t>
-  </si>
-  <si>
-    <t>plugins_4029_quickbrid</t>
-  </si>
-  <si>
-    <t>ALOS</t>
-  </si>
-  <si>
-    <t>plugins_4030_alos</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>HY1</t>
-  </si>
-  <si>
-    <t>plugins_4031_hy1</t>
-  </si>
-  <si>
-    <t>海洋一号</t>
-  </si>
-  <si>
-    <t>NDI_HY1</t>
   </si>
   <si>
     <t>TerraSAR</t>
@@ -2363,8 +2338,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2458,16 +2433,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2481,15 +2462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2526,8 +2501,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2556,6 +2539,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2574,22 +2565,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2645,7 +2620,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2696,37 +2671,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,7 +2701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2756,13 +2731,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2774,43 +2791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,7 +2809,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2841,54 +2852,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2954,30 +2917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2995,9 +2934,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3026,6 +2967,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3040,17 +3014,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3059,10 +3022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3071,16 +3034,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3089,119 +3052,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3310,20 +3273,17 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3652,14 +3612,14 @@
   <sheetPr>
     <tabColor theme="7" tint="0.799768059327982"/>
   </sheetPr>
-  <dimension ref="A1:AR127"/>
+  <dimension ref="A1:AR128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="F1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS86" sqref="AS86"/>
+      <selection pane="bottomRight" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.8333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -3667,10 +3627,11 @@
     <col min="1" max="2" width="11.1666666666667" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.3333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="18.1666666666667" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1666666666667" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1111111111111" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="30.4444444444444" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5277777777778" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
     <col min="11" max="14" width="20.8333333333333" customWidth="1"/>
     <col min="15" max="17" width="21.1666666666667" customWidth="1"/>
@@ -8704,7 +8665,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="15" t="str">
-        <f t="shared" ref="C62:C70" si="0">AL62</f>
+        <f t="shared" ref="C62:C74" si="0">AL62</f>
         <v>光学</v>
       </c>
       <c r="D62" s="15" t="s">
@@ -8797,7 +8758,7 @@
         <v>160</v>
       </c>
       <c r="AQ62" s="8">
-        <v>4009</v>
+        <v>4001</v>
       </c>
       <c r="AR62" s="8"/>
     </row>
@@ -8902,7 +8863,7 @@
         <v>167</v>
       </c>
       <c r="AQ63" s="8">
-        <v>4010</v>
+        <v>4002</v>
       </c>
       <c r="AR63" s="8"/>
     </row>
@@ -9007,7 +8968,7 @@
         <v>172</v>
       </c>
       <c r="AQ64" s="8">
-        <v>4011</v>
+        <v>4003</v>
       </c>
       <c r="AR64" s="8"/>
     </row>
@@ -9112,7 +9073,7 @@
         <v>179</v>
       </c>
       <c r="AQ65" s="8">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="AR65" s="8"/>
     </row>
@@ -9217,7 +9178,7 @@
         <v>179</v>
       </c>
       <c r="AQ66" s="8">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="AR66" s="8"/>
     </row>
@@ -9322,19 +9283,19 @@
         <v>179</v>
       </c>
       <c r="AQ67" s="8">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="AR67" s="8"/>
     </row>
     <row r="68" ht="22" customHeight="1" spans="1:44">
       <c r="A68" s="14">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="15" t="str">
-        <f>AL68</f>
+        <f t="shared" si="0"/>
         <v>光学</v>
       </c>
       <c r="D68" s="15" t="s">
@@ -9427,13 +9388,13 @@
         <v>185</v>
       </c>
       <c r="AQ68" s="8">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="AR68" s="8"/>
     </row>
     <row r="69" ht="22" customHeight="1" spans="1:44">
       <c r="A69" s="14">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>37</v>
@@ -9532,19 +9493,19 @@
         <v>185</v>
       </c>
       <c r="AQ69" s="8">
-        <v>4020</v>
+        <v>4008</v>
       </c>
       <c r="AR69" s="8"/>
     </row>
     <row r="70" ht="22" customHeight="1" spans="1:44">
       <c r="A70" s="14">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="15" t="str">
-        <f>AL70</f>
+        <f t="shared" si="0"/>
         <v>雷达</v>
       </c>
       <c r="D70" s="15" t="s">
@@ -9637,19 +9598,19 @@
         <v>193</v>
       </c>
       <c r="AQ70" s="8">
-        <v>4005</v>
+        <v>4009</v>
       </c>
       <c r="AR70" s="8"/>
     </row>
     <row r="71" ht="22" customHeight="1" spans="1:44">
       <c r="A71" s="14">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="15" t="str">
-        <f>AL71</f>
+        <f t="shared" si="0"/>
         <v>雷达</v>
       </c>
       <c r="D71" s="15" t="s">
@@ -9742,19 +9703,19 @@
         <v>193</v>
       </c>
       <c r="AQ71" s="8">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="AR71" s="8"/>
     </row>
     <row r="72" ht="22" customHeight="1" spans="1:44">
       <c r="A72" s="14">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C72" s="15" t="str">
-        <f>AL72</f>
+        <f t="shared" si="0"/>
         <v>雷达</v>
       </c>
       <c r="D72" s="15" t="s">
@@ -9847,19 +9808,19 @@
         <v>193</v>
       </c>
       <c r="AQ72" s="8">
-        <v>4007</v>
+        <v>4011</v>
       </c>
       <c r="AR72" s="8"/>
     </row>
     <row r="73" ht="22" customHeight="1" spans="1:44">
       <c r="A73" s="14">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="15" t="str">
-        <f>AL73</f>
+        <f t="shared" si="0"/>
         <v>光学</v>
       </c>
       <c r="D73" s="15" t="s">
@@ -9952,19 +9913,19 @@
         <v>202</v>
       </c>
       <c r="AQ73" s="8">
-        <v>4008</v>
+        <v>4012</v>
       </c>
       <c r="AR73" s="8"/>
     </row>
     <row r="74" ht="22" customHeight="1" spans="1:44">
       <c r="A74" s="14">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="15" t="str">
-        <f>AL74</f>
+        <f t="shared" si="0"/>
         <v>光学</v>
       </c>
       <c r="D74" s="15" t="s">
@@ -10057,19 +10018,19 @@
         <v>202</v>
       </c>
       <c r="AQ74" s="8">
-        <v>4031</v>
+        <v>4013</v>
       </c>
       <c r="AR74" s="8"/>
     </row>
     <row r="75" ht="22" customHeight="1" spans="1:44">
       <c r="A75" s="14">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="15" t="str">
-        <f t="shared" ref="C75:C80" si="1">AL75</f>
+        <f t="shared" ref="C75:C95" si="1">AL75</f>
         <v>光学</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -10162,13 +10123,13 @@
         <v>202</v>
       </c>
       <c r="AQ75" s="8">
-        <v>4032</v>
+        <v>4014</v>
       </c>
       <c r="AR75" s="8"/>
     </row>
     <row r="76" ht="22" customHeight="1" spans="1:44">
       <c r="A76" s="14">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>37</v>
@@ -10267,13 +10228,13 @@
         <v>202</v>
       </c>
       <c r="AQ76" s="8">
-        <v>4033</v>
+        <v>4015</v>
       </c>
       <c r="AR76" s="8"/>
     </row>
     <row r="77" ht="22" customHeight="1" spans="1:44">
       <c r="A77" s="14">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>37</v>
@@ -10372,13 +10333,13 @@
         <v>212</v>
       </c>
       <c r="AQ77" s="8">
-        <v>4034</v>
+        <v>4016</v>
       </c>
       <c r="AR77" s="8"/>
     </row>
     <row r="78" ht="22" customHeight="1" spans="1:44">
       <c r="A78" s="14">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>37</v>
@@ -10477,13 +10438,13 @@
         <v>212</v>
       </c>
       <c r="AQ78" s="8">
-        <v>4035</v>
+        <v>4017</v>
       </c>
       <c r="AR78" s="8"/>
     </row>
     <row r="79" ht="22" customHeight="1" spans="1:44">
       <c r="A79" s="14">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>37</v>
@@ -10582,13 +10543,13 @@
         <v>212</v>
       </c>
       <c r="AQ79" s="8">
-        <v>4036</v>
+        <v>4018</v>
       </c>
       <c r="AR79" s="8"/>
     </row>
     <row r="80" ht="22" customHeight="1" spans="1:44">
       <c r="A80" s="14">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>37</v>
@@ -10687,19 +10648,19 @@
         <v>212</v>
       </c>
       <c r="AQ80" s="8">
-        <v>4036</v>
+        <v>4019</v>
       </c>
       <c r="AR80" s="8"/>
     </row>
     <row r="81" ht="22" customHeight="1" spans="1:44">
       <c r="A81" s="14">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C81" s="15" t="str">
-        <f>AL81</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -10792,23 +10753,23 @@
         <v>221</v>
       </c>
       <c r="AQ81" s="8">
-        <v>4037</v>
+        <v>4020</v>
       </c>
       <c r="AR81" s="8"/>
     </row>
     <row r="82" customHeight="1" spans="1:44">
       <c r="A82" s="14">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="15" t="str">
-        <f>AL82</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>152</v>
@@ -10817,7 +10778,7 @@
         <v>218</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>55</v>
@@ -10897,32 +10858,32 @@
         <v>221</v>
       </c>
       <c r="AQ82" s="8">
-        <v>4038</v>
+        <v>4021</v>
       </c>
       <c r="AR82" s="8"/>
     </row>
     <row r="83" customHeight="1" spans="1:44">
       <c r="A83" s="14">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C83" s="15" t="str">
-        <f>AL83</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F83" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>225</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>55</v>
@@ -10978,13 +10939,13 @@
       <c r="AG83" s="15"/>
       <c r="AH83" s="15"/>
       <c r="AI83" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AJ83" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK83" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL83" s="33" t="s">
         <v>156</v>
@@ -10999,35 +10960,35 @@
         <v>159</v>
       </c>
       <c r="AP83" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AQ83" s="8">
-        <v>4039</v>
+        <v>4022</v>
       </c>
       <c r="AR83" s="8"/>
     </row>
     <row r="84" customHeight="1" spans="1:44">
       <c r="A84" s="14">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C84" s="15" t="str">
-        <f>AL84</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>55</v>
@@ -11083,13 +11044,13 @@
       <c r="AG84" s="15"/>
       <c r="AH84" s="15"/>
       <c r="AI84" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AJ84" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK84" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL84" s="33" t="s">
         <v>156</v>
@@ -11104,35 +11065,35 @@
         <v>178</v>
       </c>
       <c r="AP84" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AQ84" s="8">
-        <v>4040</v>
+        <v>4023</v>
       </c>
       <c r="AR84" s="8"/>
     </row>
     <row r="85" customHeight="1" spans="1:44">
       <c r="A85" s="14">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C85" s="15" t="str">
-        <f>AL85</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F85" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G85" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>55</v>
@@ -11188,13 +11149,13 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AJ85" s="29" t="s">
         <v>43</v>
       </c>
       <c r="AK85" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL85" s="33" t="s">
         <v>156</v>
@@ -11206,38 +11167,38 @@
         <v>158</v>
       </c>
       <c r="AO85" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP85" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="AP85" s="34" t="s">
-        <v>233</v>
-      </c>
       <c r="AQ85" s="8">
-        <v>4041</v>
+        <v>4024</v>
       </c>
       <c r="AR85" s="8"/>
     </row>
     <row r="86" customHeight="1" spans="1:44">
       <c r="A86" s="14">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="15" t="str">
-        <f>AL86</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F86" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G86" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>55</v>
@@ -11293,13 +11254,13 @@
       <c r="AG86" s="15"/>
       <c r="AH86" s="15"/>
       <c r="AI86" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ86" s="29" t="s">
         <v>43</v>
       </c>
       <c r="AK86" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL86" s="33" t="s">
         <v>156</v>
@@ -11314,35 +11275,35 @@
         <v>159</v>
       </c>
       <c r="AP86" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AQ86" s="8">
-        <v>4047</v>
+        <v>4025</v>
       </c>
       <c r="AR86" s="8"/>
     </row>
     <row r="87" customHeight="1" spans="1:44">
       <c r="A87" s="14">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C87" s="15" t="str">
-        <f>AL87</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>55</v>
@@ -11398,13 +11359,13 @@
       <c r="AG87" s="15"/>
       <c r="AH87" s="15"/>
       <c r="AI87" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ87" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL87" s="33" t="s">
         <v>156</v>
@@ -11419,35 +11380,35 @@
         <v>159</v>
       </c>
       <c r="AP87" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AQ87" s="8">
-        <v>4047</v>
+        <v>4026</v>
       </c>
       <c r="AR87" s="8"/>
     </row>
     <row r="88" customHeight="1" spans="1:44">
       <c r="A88" s="14">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C88" s="15" t="str">
-        <f>AL88</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F88" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>55</v>
@@ -11503,13 +11464,13 @@
       <c r="AG88" s="15"/>
       <c r="AH88" s="15"/>
       <c r="AI88" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ88" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL88" s="33" t="s">
         <v>156</v>
@@ -11518,16 +11479,16 @@
         <v>164</v>
       </c>
       <c r="AN88" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO88" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="AO88" s="14" t="s">
+      <c r="AP88" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="AP88" s="34" t="s">
-        <v>244</v>
-      </c>
       <c r="AQ88" s="8">
-        <v>4048</v>
+        <v>4027</v>
       </c>
       <c r="AR88" s="39" t="s">
         <v>55</v>
@@ -11535,26 +11496,26 @@
     </row>
     <row r="89" customHeight="1" spans="1:44">
       <c r="A89" s="14">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C89" s="15" t="str">
-        <f>AL89</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F89" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>55</v>
@@ -11610,13 +11571,13 @@
       <c r="AG89" s="15"/>
       <c r="AH89" s="15"/>
       <c r="AI89" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ89" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK89" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL89" s="33" t="s">
         <v>156</v>
@@ -11625,22 +11586,22 @@
         <v>164</v>
       </c>
       <c r="AN89" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO89" s="14" t="s">
         <v>159</v>
       </c>
       <c r="AP89" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ89" s="8">
-        <v>4049</v>
+        <v>4028</v>
       </c>
       <c r="AR89" s="39"/>
     </row>
     <row r="90" customHeight="1" spans="1:44">
       <c r="A90" s="14">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>37</v>
@@ -11650,16 +11611,16 @@
         <v>光学</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F90" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G90" s="36" t="s">
         <v>249</v>
-      </c>
-      <c r="G90" s="36" t="s">
-        <v>250</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>55</v>
@@ -11713,7 +11674,7 @@
       <c r="AG90" s="15"/>
       <c r="AH90" s="15"/>
       <c r="AI90" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AJ90" s="39" t="s">
         <v>55</v>
@@ -11726,39 +11687,39 @@
         <v>164</v>
       </c>
       <c r="AN90" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO90" s="14"/>
       <c r="AP90" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ90" s="8">
-        <v>4050</v>
+        <v>4029</v>
       </c>
       <c r="AR90" s="8"/>
     </row>
     <row r="91" customHeight="1" spans="1:44">
       <c r="A91" s="14">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C91" s="15" t="str">
-        <f>AL91</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F91" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="G91" s="36" t="s">
         <v>252</v>
-      </c>
-      <c r="G91" s="36" t="s">
-        <v>253</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>55</v>
@@ -11812,7 +11773,7 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ91" s="39" t="s">
         <v>55</v>
@@ -11825,14 +11786,14 @@
         <v>164</v>
       </c>
       <c r="AN91" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO91" s="14"/>
       <c r="AP91" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ91" s="8">
-        <v>4051</v>
+        <v>4030</v>
       </c>
       <c r="AR91" s="39" t="s">
         <v>55</v>
@@ -11840,26 +11801,26 @@
     </row>
     <row r="92" customHeight="1" spans="1:44">
       <c r="A92" s="14">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="15" t="str">
-        <f>AL92</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F92" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G92" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>55</v>
@@ -11915,13 +11876,13 @@
       <c r="AG92" s="15"/>
       <c r="AH92" s="15"/>
       <c r="AI92" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ92" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL92" s="33" t="s">
         <v>156</v>
@@ -11930,41 +11891,41 @@
         <v>164</v>
       </c>
       <c r="AN92" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO92" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP92" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="AP92" s="34" t="s">
-        <v>259</v>
-      </c>
       <c r="AQ92" s="8">
-        <v>4052</v>
+        <v>4031</v>
       </c>
       <c r="AR92" s="8"/>
     </row>
     <row r="93" customHeight="1" spans="1:44">
       <c r="A93" s="14">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C93" s="15" t="str">
-        <f>AL93</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F93" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G93" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>55</v>
@@ -12020,13 +11981,13 @@
       <c r="AG93" s="15"/>
       <c r="AH93" s="15"/>
       <c r="AI93" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ93" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK93" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL93" s="33" t="s">
         <v>156</v>
@@ -12035,22 +11996,22 @@
         <v>164</v>
       </c>
       <c r="AN93" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO93" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AP93" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AQ93" s="8">
-        <v>4053</v>
+        <v>4032</v>
       </c>
       <c r="AR93" s="8"/>
     </row>
     <row r="94" customHeight="1" spans="1:44">
       <c r="A94" s="14">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>37</v>
@@ -12060,16 +12021,16 @@
         <v>光学</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F94" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>55</v>
@@ -12125,13 +12086,13 @@
       <c r="AG94" s="15"/>
       <c r="AH94" s="15"/>
       <c r="AI94" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AJ94" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL94" s="33" t="s">
         <v>156</v>
@@ -12140,41 +12101,41 @@
         <v>164</v>
       </c>
       <c r="AN94" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AO94" s="14" t="s">
         <v>159</v>
       </c>
       <c r="AP94" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AQ94" s="8">
-        <v>4054</v>
+        <v>4033</v>
       </c>
       <c r="AR94" s="8"/>
     </row>
     <row r="95" customHeight="1" spans="1:44">
       <c r="A95" s="14">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C95" s="15" t="str">
-        <f>AL95</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>55</v>
@@ -12230,13 +12191,13 @@
       <c r="AG95" s="15"/>
       <c r="AH95" s="15"/>
       <c r="AI95" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AJ95" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL95" s="33" t="s">
         <v>156</v>
@@ -12245,30 +12206,43 @@
         <v>164</v>
       </c>
       <c r="AN95" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AO95" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AP95" s="34" t="s">
-        <v>268</v>
-      </c>
+      <c r="AP95" s="34"/>
       <c r="AQ95" s="8">
-        <v>4055</v>
+        <v>4034</v>
       </c>
       <c r="AR95" s="8"/>
     </row>
     <row r="96" customHeight="1" spans="1:44">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="16"/>
+      <c r="A96" s="14">
+        <v>94</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="15" t="str">
+        <f>AL96</f>
+        <v>光学</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>270</v>
+      </c>
       <c r="G96" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="H96" s="10"/>
+      <c r="H96" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="I96" s="17"/>
       <c r="J96" s="15"/>
       <c r="K96" s="18"/>
@@ -12295,8 +12269,8 @@
       <c r="AF96" s="15"/>
       <c r="AG96" s="15"/>
       <c r="AH96" s="15"/>
-      <c r="AI96" s="34" t="s">
-        <v>272</v>
+      <c r="AI96" s="32" t="s">
+        <v>270</v>
       </c>
       <c r="AJ96" s="39" t="s">
         <v>55</v>
@@ -12308,23 +12282,23 @@
         <v>156</v>
       </c>
       <c r="AM96" s="33" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AN96" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO96" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO96" s="38"/>
+      <c r="AP96" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="AP96" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ96" s="8"/>
+      <c r="AQ96" s="8">
+        <v>4035</v>
+      </c>
       <c r="AR96" s="8"/>
     </row>
     <row r="97" customHeight="1" spans="1:44">
       <c r="A97" s="14">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>37</v>
@@ -12334,16 +12308,16 @@
         <v>光学</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F97" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G97" s="37" t="s">
         <v>275</v>
-      </c>
-      <c r="G97" s="37" t="s">
-        <v>276</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>55</v>
@@ -12399,13 +12373,13 @@
       <c r="AG97" s="15"/>
       <c r="AH97" s="15"/>
       <c r="AI97" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AJ97" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK97" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL97" s="33" t="s">
         <v>156</v>
@@ -12414,30 +12388,45 @@
         <v>164</v>
       </c>
       <c r="AN97" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO97" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="AO97" s="14" t="s">
+      <c r="AP97" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="AP97" s="34" t="s">
-        <v>279</v>
-      </c>
       <c r="AQ97" s="8">
-        <v>4056</v>
+        <v>4036</v>
       </c>
       <c r="AR97" s="8"/>
     </row>
     <row r="98" customHeight="1" spans="1:44">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="38" t="s">
+      <c r="A98" s="14">
+        <v>96</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="15" t="str">
+        <f>AL98</f>
+        <v>光学</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G98" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="H98" s="10"/>
+      <c r="H98" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="I98" s="17"/>
       <c r="J98" s="15"/>
       <c r="K98" s="18"/>
@@ -12465,13 +12454,13 @@
       <c r="AG98" s="15"/>
       <c r="AH98" s="15"/>
       <c r="AI98" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ98" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK98" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="AJ98" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK98" s="14" t="s">
-        <v>282</v>
       </c>
       <c r="AL98" s="33" t="s">
         <v>156</v>
@@ -12480,14 +12469,16 @@
       <c r="AN98" s="8"/>
       <c r="AO98" s="8"/>
       <c r="AP98" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ98" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="AQ98" s="8">
+        <v>4037</v>
+      </c>
       <c r="AR98" s="8"/>
     </row>
     <row r="99" customHeight="1" spans="1:44">
       <c r="A99" s="14">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>37</v>
@@ -12497,16 +12488,16 @@
         <v>光学</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F99" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G99" s="16" t="s">
         <v>284</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>285</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>55</v>
@@ -12561,14 +12552,14 @@
       <c r="AF99" s="15"/>
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
-      <c r="AI99" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ99" s="41" t="s">
+      <c r="AI99" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ99" s="40" t="s">
         <v>43</v>
       </c>
       <c r="AK99" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL99" s="33" t="s">
         <v>156</v>
@@ -12583,16 +12574,16 @@
         <v>159</v>
       </c>
       <c r="AP99" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AQ99" s="8">
-        <v>4057</v>
+        <v>4038</v>
       </c>
       <c r="AR99" s="8"/>
     </row>
     <row r="100" customHeight="1" spans="1:44">
       <c r="A100" s="14">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>37</v>
@@ -12602,16 +12593,16 @@
         <v>光学</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E100" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>55</v>
@@ -12666,14 +12657,14 @@
       <c r="AF100" s="15"/>
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
-      <c r="AI100" s="40" t="s">
-        <v>284</v>
+      <c r="AI100" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="AJ100" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK100" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL100" s="33" t="s">
         <v>156</v>
@@ -12685,27 +12676,42 @@
         <v>158</v>
       </c>
       <c r="AO100" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AP100" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AQ100" s="8">
-        <v>4058</v>
+        <v>4039</v>
       </c>
       <c r="AR100" s="8"/>
     </row>
     <row r="101" customHeight="1" spans="1:44">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="38" t="s">
+      <c r="A101" s="14">
+        <v>99</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="15" t="str">
+        <f>C69</f>
+        <v>光学</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F101" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G101" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="H101" s="10"/>
+      <c r="H101" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="I101" s="17"/>
       <c r="J101" s="15"/>
       <c r="K101" s="18"/>
@@ -12732,47 +12738,49 @@
       <c r="AF101" s="15"/>
       <c r="AG101" s="15"/>
       <c r="AH101" s="15"/>
-      <c r="AI101" s="40" t="s">
-        <v>291</v>
+      <c r="AI101" s="38" t="s">
+        <v>289</v>
       </c>
       <c r="AJ101" s="39"/>
       <c r="AK101" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AL101" s="33"/>
       <c r="AM101" s="33"/>
       <c r="AN101" s="33"/>
       <c r="AO101" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP101" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="AP101" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ101" s="8"/>
+      <c r="AQ101" s="8">
+        <v>4040</v>
+      </c>
       <c r="AR101" s="8"/>
     </row>
     <row r="102" customHeight="1" spans="1:44">
       <c r="A102" s="14">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="15" t="str">
-        <f t="shared" ref="C102:C108" si="2">AL102</f>
+        <f t="shared" ref="C102:C109" si="2">AL102</f>
         <v>光学</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E102" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F102" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G102" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>294</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>55</v>
@@ -12828,13 +12836,13 @@
       <c r="AG102" s="15"/>
       <c r="AH102" s="15"/>
       <c r="AI102" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AJ102" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL102" s="33" t="s">
         <v>156</v>
@@ -12849,16 +12857,16 @@
         <v>159</v>
       </c>
       <c r="AP102" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AQ102" s="8">
-        <v>4059</v>
+        <v>4041</v>
       </c>
       <c r="AR102" s="8"/>
     </row>
     <row r="103" customHeight="1" spans="1:44">
       <c r="A103" s="14">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>37</v>
@@ -12868,16 +12876,16 @@
         <v>光学</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E103" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F103" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G103" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>55</v>
@@ -12933,13 +12941,13 @@
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AJ103" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL103" s="33" t="s">
         <v>156</v>
@@ -12951,19 +12959,19 @@
         <v>158</v>
       </c>
       <c r="AO103" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP103" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="AP103" s="34" t="s">
-        <v>301</v>
-      </c>
       <c r="AQ103" s="8">
-        <v>4060</v>
+        <v>4042</v>
       </c>
       <c r="AR103" s="8"/>
     </row>
     <row r="104" customHeight="1" spans="1:44">
       <c r="A104" s="14">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>37</v>
@@ -12973,16 +12981,16 @@
         <v>光学</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E104" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>55</v>
@@ -13038,13 +13046,13 @@
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AJ104" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL104" s="33" t="s">
         <v>156</v>
@@ -13056,19 +13064,19 @@
         <v>158</v>
       </c>
       <c r="AO104" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AP104" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AQ104" s="8">
-        <v>4061</v>
+        <v>4043</v>
       </c>
       <c r="AR104" s="8"/>
     </row>
     <row r="105" customHeight="1" spans="1:44">
       <c r="A105" s="14">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>37</v>
@@ -13078,16 +13086,16 @@
         <v>光学</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E105" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F105" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G105" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>305</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>55</v>
@@ -13143,13 +13151,13 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AJ105" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AL105" s="33" t="s">
         <v>156</v>
@@ -13158,22 +13166,22 @@
         <v>164</v>
       </c>
       <c r="AN105" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO105" s="14" t="s">
         <v>159</v>
       </c>
       <c r="AP105" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AQ105" s="8">
-        <v>4062</v>
+        <v>4044</v>
       </c>
       <c r="AR105" s="8"/>
     </row>
     <row r="106" customHeight="1" spans="1:44">
       <c r="A106" s="14">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>37</v>
@@ -13183,16 +13191,16 @@
         <v>光学</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E106" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F106" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G106" s="36" t="s">
         <v>308</v>
-      </c>
-      <c r="G106" s="36" t="s">
-        <v>309</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>55</v>
@@ -13248,13 +13256,13 @@
       <c r="AG106" s="8"/>
       <c r="AH106" s="8"/>
       <c r="AI106" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ106" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK106" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL106" s="33" t="s">
         <v>156</v>
@@ -13263,22 +13271,20 @@
         <v>164</v>
       </c>
       <c r="AN106" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO106" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AP106" s="34" t="s">
-        <v>307</v>
-      </c>
+      <c r="AP106" s="34"/>
       <c r="AQ106" s="8">
-        <v>4063</v>
+        <v>4045</v>
       </c>
       <c r="AR106" s="8"/>
     </row>
     <row r="107" customHeight="1" spans="1:44">
       <c r="A107" s="14">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>37</v>
@@ -13288,16 +13294,16 @@
         <v>光学</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F107" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G107" s="36" t="s">
         <v>311</v>
-      </c>
-      <c r="G107" s="36" t="s">
-        <v>312</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>55</v>
@@ -13353,13 +13359,13 @@
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
       <c r="AI107" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AJ107" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL107" s="33" t="s">
         <v>156</v>
@@ -13368,22 +13374,20 @@
         <v>164</v>
       </c>
       <c r="AN107" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO107" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AP107" s="34" t="s">
-        <v>307</v>
-      </c>
+      <c r="AP107" s="34"/>
       <c r="AQ107" s="8">
-        <v>4064</v>
+        <v>4046</v>
       </c>
       <c r="AR107" s="8"/>
     </row>
     <row r="108" customHeight="1" spans="1:44">
       <c r="A108" s="14">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>37</v>
@@ -13393,16 +13397,16 @@
         <v>光学</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E108" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F108" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="G108" s="36" t="s">
         <v>314</v>
-      </c>
-      <c r="G108" s="36" t="s">
-        <v>315</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>55</v>
@@ -13456,13 +13460,13 @@
       <c r="AG108" s="8"/>
       <c r="AH108" s="8"/>
       <c r="AI108" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ108" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK108" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL108" s="33" t="s">
         <v>156</v>
@@ -13471,39 +13475,39 @@
         <v>164</v>
       </c>
       <c r="AN108" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO108" s="14"/>
       <c r="AP108" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ108" s="8">
-        <v>4065</v>
+        <v>4047</v>
       </c>
       <c r="AR108" s="8"/>
     </row>
     <row r="109" customHeight="1" spans="1:44">
       <c r="A109" s="14">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C109" s="15" t="str">
-        <f>AL109</f>
+        <f t="shared" si="2"/>
         <v>光学</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E109" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F109" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G109" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>55</v>
@@ -13559,13 +13563,13 @@
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
       <c r="AI109" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ109" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ109" s="40" t="s">
         <v>43</v>
       </c>
       <c r="AK109" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AL109" s="33" t="s">
         <v>156</v>
@@ -13577,27 +13581,42 @@
         <v>158</v>
       </c>
       <c r="AO109" s="14" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="AP109" s="34" t="s">
         <v>320</v>
       </c>
       <c r="AQ109" s="8">
-        <v>4066</v>
+        <v>4048</v>
       </c>
       <c r="AR109" s="8"/>
     </row>
     <row r="110" customHeight="1" spans="1:44">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="16"/>
+      <c r="A110" s="14">
+        <v>108</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="15" t="str">
+        <f>AL110</f>
+        <v>光学</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F110" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="G110" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="H110" s="10"/>
+        <v>322</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="I110" s="17"/>
       <c r="J110" s="8"/>
       <c r="K110" s="18"/>
@@ -13625,7 +13644,7 @@
       <c r="AG110" s="8"/>
       <c r="AH110" s="8"/>
       <c r="AI110" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AJ110" s="39" t="s">
         <v>55</v>
@@ -13642,20 +13661,37 @@
       <c r="AP110" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="AQ110" s="8"/>
+      <c r="AQ110" s="8">
+        <v>4049</v>
+      </c>
       <c r="AR110" s="8"/>
     </row>
     <row r="111" customHeight="1" spans="1:44">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="16"/>
+      <c r="A111" s="14">
+        <v>109</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="15" t="str">
+        <f>AL111</f>
+        <v>光学</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="G111" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="H111" s="10"/>
+      <c r="H111" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="I111" s="17"/>
       <c r="J111" s="8"/>
       <c r="K111" s="18"/>
@@ -13683,7 +13719,7 @@
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AJ111" s="39" t="s">
         <v>55</v>
@@ -13700,22 +13736,24 @@
       <c r="AP111" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="AQ111" s="8"/>
+      <c r="AQ111" s="8">
+        <v>4050</v>
+      </c>
       <c r="AR111" s="8"/>
     </row>
     <row r="112" customHeight="1" spans="1:44">
       <c r="A112" s="14">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C112" s="15" t="str">
-        <f>AL112</f>
+        <f t="shared" ref="C112:C126" si="3">AL112</f>
         <v>光学</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>152</v>
@@ -13804,23 +13842,23 @@
         <v>329</v>
       </c>
       <c r="AQ112" s="8">
-        <v>4067</v>
+        <v>4051</v>
       </c>
       <c r="AR112" s="8"/>
     </row>
     <row r="113" customHeight="1" spans="1:44">
       <c r="A113" s="14">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C113" s="15" t="str">
-        <f>AL113</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E113" s="15" t="s">
         <v>152</v>
@@ -13905,27 +13943,25 @@
       <c r="AO113" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="AP113" s="34" t="s">
-        <v>329</v>
-      </c>
+      <c r="AP113" s="34"/>
       <c r="AQ113" s="8">
-        <v>4068</v>
+        <v>4052</v>
       </c>
       <c r="AR113" s="8"/>
     </row>
     <row r="114" customHeight="1" spans="1:44">
       <c r="A114" s="14">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C114" s="15" t="str">
-        <f>AL114</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E114" s="15" t="s">
         <v>152</v>
@@ -14014,23 +14050,23 @@
         <v>329</v>
       </c>
       <c r="AQ114" s="8">
-        <v>4069</v>
+        <v>4053</v>
       </c>
       <c r="AR114" s="8"/>
     </row>
     <row r="115" customHeight="1" spans="1:44">
       <c r="A115" s="14">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C115" s="15" t="str">
-        <f>AL115</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>152</v>
@@ -14119,23 +14155,23 @@
         <v>338</v>
       </c>
       <c r="AQ115" s="8">
-        <v>4070</v>
+        <v>4054</v>
       </c>
       <c r="AR115" s="8"/>
     </row>
     <row r="116" customHeight="1" spans="1:44">
       <c r="A116" s="14">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C116" s="15" t="str">
-        <f>AL116</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E116" s="15" t="s">
         <v>152</v>
@@ -14224,23 +14260,23 @@
         <v>338</v>
       </c>
       <c r="AQ116" s="8">
-        <v>4071</v>
+        <v>4055</v>
       </c>
       <c r="AR116" s="8"/>
     </row>
     <row r="117" customHeight="1" spans="1:44">
       <c r="A117" s="14">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C117" s="15" t="str">
-        <f>AL117</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E117" s="15" t="s">
         <v>152</v>
@@ -14329,23 +14365,23 @@
         <v>338</v>
       </c>
       <c r="AQ117" s="8">
-        <v>4072</v>
+        <v>4056</v>
       </c>
       <c r="AR117" s="8"/>
     </row>
     <row r="118" customHeight="1" spans="1:44">
       <c r="A118" s="14">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C118" s="15" t="str">
-        <f>AL118</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E118" s="15" t="s">
         <v>152</v>
@@ -14434,23 +14470,23 @@
         <v>338</v>
       </c>
       <c r="AQ118" s="8">
-        <v>4073</v>
+        <v>4057</v>
       </c>
       <c r="AR118" s="8"/>
     </row>
     <row r="119" customHeight="1" spans="1:44">
       <c r="A119" s="14">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C119" s="15" t="str">
-        <f>AL119</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E119" s="15" t="s">
         <v>152</v>
@@ -14539,23 +14575,23 @@
         <v>338</v>
       </c>
       <c r="AQ119" s="8">
-        <v>4074</v>
+        <v>4058</v>
       </c>
       <c r="AR119" s="8"/>
     </row>
     <row r="120" customHeight="1" spans="1:44">
       <c r="A120" s="14">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C120" s="15" t="str">
-        <f>AL120</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E120" s="15" t="s">
         <v>152</v>
@@ -14623,7 +14659,7 @@
       <c r="AJ120" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AK120" s="40"/>
+      <c r="AK120" s="38"/>
       <c r="AL120" s="33" t="s">
         <v>156</v>
       </c>
@@ -14631,20 +14667,20 @@
         <v>164</v>
       </c>
       <c r="AN120" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="AO120" s="40"/>
+        <v>253</v>
+      </c>
+      <c r="AO120" s="38"/>
       <c r="AP120" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ120" s="8">
-        <v>4078</v>
+        <v>4059</v>
       </c>
       <c r="AR120" s="8"/>
     </row>
     <row r="121" customHeight="1" spans="1:44">
       <c r="A121" s="14">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>37</v>
@@ -14654,7 +14690,7 @@
         <v>光学</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E121" s="15" t="s">
         <v>152</v>
@@ -14668,9 +14704,7 @@
       <c r="H121" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I121" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I121" s="5"/>
       <c r="J121" s="8"/>
       <c r="K121" s="18" t="s">
         <v>43</v>
@@ -14724,9 +14758,7 @@
       <c r="AJ121" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AK121" s="14" t="s">
-        <v>352</v>
-      </c>
+      <c r="AK121" s="38"/>
       <c r="AL121" s="33" t="s">
         <v>156</v>
       </c>
@@ -14734,20 +14766,20 @@
         <v>164</v>
       </c>
       <c r="AN121" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="AO121" s="40"/>
+        <v>253</v>
+      </c>
+      <c r="AO121" s="38"/>
       <c r="AP121" s="34" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="AQ121" s="8">
-        <v>4079</v>
+        <v>4060</v>
       </c>
       <c r="AR121" s="8"/>
     </row>
     <row r="122" customHeight="1" spans="1:44">
       <c r="A122" s="14">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>37</v>
@@ -14757,16 +14789,16 @@
         <v>光学</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E122" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F122" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G122" s="36" t="s">
         <v>353</v>
-      </c>
-      <c r="G122" s="36" t="s">
-        <v>354</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>55</v>
@@ -14820,12 +14852,12 @@
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
       <c r="AI122" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AJ122" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AK122" s="40"/>
+      <c r="AK122" s="33"/>
       <c r="AL122" s="33" t="s">
         <v>156</v>
       </c>
@@ -14833,20 +14865,20 @@
         <v>164</v>
       </c>
       <c r="AN122" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="AO122" s="40"/>
+        <v>354</v>
+      </c>
+      <c r="AO122" s="33"/>
       <c r="AP122" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ122" s="8">
-        <v>4080</v>
+        <v>4061</v>
       </c>
       <c r="AR122" s="8"/>
     </row>
     <row r="123" customHeight="1" spans="1:44">
       <c r="A123" s="14">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>37</v>
@@ -14856,7 +14888,7 @@
         <v>光学</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E123" s="15" t="s">
         <v>152</v>
@@ -14870,7 +14902,9 @@
       <c r="H123" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I123" s="5"/>
+      <c r="I123" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J123" s="8"/>
       <c r="K123" s="18" t="s">
         <v>43</v>
@@ -14924,28 +14958,26 @@
       <c r="AJ123" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AK123" s="33"/>
+      <c r="AK123" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="AL123" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="AM123" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN123" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="AO123" s="33"/>
+      <c r="AM123" s="8"/>
+      <c r="AN123" s="8"/>
+      <c r="AO123" s="41"/>
       <c r="AP123" s="34" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="AQ123" s="8">
-        <v>4088</v>
+        <v>4062</v>
       </c>
       <c r="AR123" s="8"/>
     </row>
     <row r="124" customHeight="1" spans="1:44">
       <c r="A124" s="14">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>37</v>
@@ -14955,13 +14987,13 @@
         <v>光学</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E124" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F124" s="16" t="s">
-        <v>358</v>
+      <c r="F124" s="32" t="s">
+        <v>355</v>
       </c>
       <c r="G124" s="36" t="s">
         <v>359</v>
@@ -14969,46 +15001,22 @@
       <c r="H124" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I124" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I124" s="17"/>
       <c r="J124" s="8"/>
-      <c r="K124" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K124" s="18"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
-      <c r="O124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="R124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="S124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="T124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="U124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="V124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="W124" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="X124" s="25" t="s">
-        <v>55</v>
-      </c>
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="25"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="25"/>
+      <c r="T124" s="25"/>
+      <c r="U124" s="25"/>
+      <c r="V124" s="25"/>
+      <c r="W124" s="25"/>
+      <c r="X124" s="25"/>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
       <c r="AA124" s="8"/>
@@ -15020,92 +15028,70 @@
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
       <c r="AI124" s="32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AJ124" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AL124" s="33" t="s">
         <v>156</v>
       </c>
       <c r="AM124" s="8"/>
       <c r="AN124" s="8"/>
-      <c r="AO124" s="42"/>
+      <c r="AO124" s="41"/>
       <c r="AP124" s="34" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AQ124" s="8">
-        <v>4089</v>
+        <v>4063</v>
       </c>
       <c r="AR124" s="8"/>
     </row>
     <row r="125" customHeight="1" spans="1:44">
       <c r="A125" s="14">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C125" s="15" t="str">
         <f>AL125</f>
-        <v>雷达卫星</v>
+        <v>光学</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F125" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>363</v>
+      <c r="F125" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="G125" s="36" t="s">
+        <v>359</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I125" s="5"/>
+      <c r="I125" s="17"/>
       <c r="J125" s="8"/>
-      <c r="K125" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K125" s="18"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
-      <c r="O125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="R125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="S125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="T125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="U125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="V125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="W125" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="X125" s="25" t="s">
-        <v>55</v>
-      </c>
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+      <c r="Q125" s="25"/>
+      <c r="R125" s="25"/>
+      <c r="S125" s="25"/>
+      <c r="T125" s="25"/>
+      <c r="U125" s="25"/>
+      <c r="V125" s="25"/>
+      <c r="W125" s="25"/>
+      <c r="X125" s="25"/>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
       <c r="AA125" s="8"/>
@@ -15116,28 +15102,32 @@
       <c r="AF125" s="8"/>
       <c r="AG125" s="8"/>
       <c r="AH125" s="8"/>
-      <c r="AI125" s="16" t="s">
-        <v>362</v>
+      <c r="AI125" s="32" t="s">
+        <v>355</v>
       </c>
       <c r="AJ125" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AK125" s="8"/>
-      <c r="AL125" s="15" t="s">
-        <v>364</v>
+      <c r="AK125" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL125" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="AM125" s="8"/>
       <c r="AN125" s="8"/>
-      <c r="AO125" s="8"/>
-      <c r="AP125" s="8"/>
+      <c r="AO125" s="41"/>
+      <c r="AP125" s="34" t="s">
+        <v>358</v>
+      </c>
       <c r="AQ125" s="8">
-        <v>4092</v>
+        <v>4064</v>
       </c>
       <c r="AR125" s="8"/>
     </row>
     <row r="126" customHeight="1" spans="1:44">
       <c r="A126" s="14">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>37</v>
@@ -15147,16 +15137,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>55</v>
@@ -15210,51 +15200,88 @@
       <c r="AG126" s="8"/>
       <c r="AH126" s="8"/>
       <c r="AI126" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="AJ126" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ126" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AK126" s="8"/>
       <c r="AL126" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AM126" s="8"/>
       <c r="AN126" s="8"/>
       <c r="AO126" s="8"/>
       <c r="AP126" s="8"/>
       <c r="AQ126" s="8">
-        <v>4093</v>
+        <v>4065</v>
       </c>
       <c r="AR126" s="8"/>
     </row>
     <row r="127" customHeight="1" spans="1:44">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="6"/>
+      <c r="A127" s="14">
+        <v>125</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" s="15" t="str">
+        <f>AL127</f>
+        <v>雷达卫星</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>365</v>
+      </c>
       <c r="H127" s="10" t="s">
         <v>55</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
+      <c r="K127" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="11"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="8"/>
-      <c r="X127" s="8"/>
+      <c r="O127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="T127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="W127" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="X127" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
       <c r="AA127" s="8"/>
@@ -15265,20 +15292,78 @@
       <c r="AF127" s="8"/>
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
-      <c r="AI127" s="8"/>
-      <c r="AJ127" s="8"/>
+      <c r="AI127" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ127" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="AK127" s="8"/>
-      <c r="AL127" s="8"/>
+      <c r="AL127" s="15" t="s">
+        <v>363</v>
+      </c>
       <c r="AM127" s="8"/>
       <c r="AN127" s="8"/>
       <c r="AO127" s="8"/>
       <c r="AP127" s="8"/>
-      <c r="AQ127" s="8"/>
+      <c r="AQ127" s="8">
+        <v>4066</v>
+      </c>
       <c r="AR127" s="8"/>
     </row>
+    <row r="128" customHeight="1" spans="1:44">
+      <c r="A128" s="14">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I128" s="5"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
+      <c r="U128" s="8"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="8"/>
+      <c r="X128" s="8"/>
+      <c r="Y128" s="8"/>
+      <c r="Z128" s="8"/>
+      <c r="AA128" s="8"/>
+      <c r="AB128" s="8"/>
+      <c r="AC128" s="8"/>
+      <c r="AD128" s="8"/>
+      <c r="AE128" s="8"/>
+      <c r="AF128" s="8"/>
+      <c r="AG128" s="8"/>
+      <c r="AH128" s="8"/>
+      <c r="AI128" s="8"/>
+      <c r="AJ128" s="8"/>
+      <c r="AK128" s="8"/>
+      <c r="AL128" s="8"/>
+      <c r="AM128" s="8"/>
+      <c r="AN128" s="8"/>
+      <c r="AO128" s="8"/>
+      <c r="AP128" s="8"/>
+      <c r="AQ128" s="8"/>
+      <c r="AR128" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AH127">
-    <sortState ref="A2:AH127">
+  <autoFilter ref="A2:AH128">
+    <sortState ref="A2:AH128">
       <sortCondition ref="C2:C26"/>
     </sortState>
     <extLst/>
@@ -15307,7 +15392,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -15331,22 +15416,22 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:8">
@@ -15354,25 +15439,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
@@ -15380,17 +15465,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
@@ -15398,7 +15483,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
@@ -15406,16 +15491,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
@@ -15424,7 +15509,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
@@ -15432,16 +15517,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>43</v>
@@ -15450,7 +15535,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
@@ -15458,16 +15543,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>43</v>
@@ -15476,7 +15561,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
@@ -15484,16 +15569,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>43</v>
@@ -15502,7 +15587,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
@@ -15510,17 +15595,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
@@ -15528,7 +15613,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
@@ -15536,17 +15621,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
@@ -15554,7 +15639,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" ht="27.6" spans="1:8">
@@ -15562,17 +15647,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
@@ -15580,7 +15665,7 @@
         <v>43</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:8">
@@ -15588,25 +15673,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -15614,16 +15699,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
@@ -15632,7 +15717,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" ht="41.4" spans="1:8">
@@ -15640,17 +15725,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
@@ -15658,7 +15743,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -15666,16 +15751,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>43</v>
@@ -15684,7 +15769,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
@@ -15692,16 +15777,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>43</v>
@@ -15710,7 +15795,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -15718,16 +15803,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>43</v>
@@ -15736,7 +15821,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" ht="41.4" spans="1:8">
@@ -15744,17 +15829,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
@@ -15762,7 +15847,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
@@ -15770,17 +15855,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
@@ -15788,7 +15873,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">
@@ -15796,25 +15881,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="20" ht="27.6" spans="1:8">
@@ -15822,19 +15907,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -1595,7 +1595,7 @@
     <t>plugins_4004_GF1_PMS</t>
   </si>
   <si>
-    <t>plugins_4004_GF1A_PMS</t>
+    <t>plugins_4004_GF1_PMSA</t>
   </si>
   <si>
     <t>GF-2</t>
@@ -2427,20 +2427,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2448,21 +2434,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2495,7 +2472,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2510,15 +2502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2547,8 +2531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2565,6 +2550,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2671,25 +2671,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2701,43 +2707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2749,7 +2719,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2767,19 +2767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2791,7 +2785,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2803,19 +2809,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2827,31 +2851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,17 +2917,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2939,30 +2942,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2991,11 +2970,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3022,10 +3022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3034,109 +3034,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3145,26 +3157,14 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3271,9 +3271,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3615,11 +3612,11 @@
   <dimension ref="A1:AR128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="F1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K125" sqref="K125"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.8333333333333" defaultRowHeight="20" customHeight="1"/>
@@ -9366,7 +9363,7 @@
       <c r="AI68" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="AJ68" s="39" t="s">
+      <c r="AJ68" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK68" s="14" t="s">
@@ -9400,7 +9397,7 @@
         <v>37</v>
       </c>
       <c r="C69" s="15" t="str">
-        <f>AL69</f>
+        <f t="shared" si="0"/>
         <v>光学</v>
       </c>
       <c r="D69" s="15" t="s">
@@ -9471,7 +9468,7 @@
       <c r="AI69" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="AJ69" s="39" t="s">
+      <c r="AJ69" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK69" s="14" t="s">
@@ -9996,7 +9993,7 @@
       <c r="AI74" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AJ74" s="39" t="s">
+      <c r="AJ74" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK74" s="14" t="s">
@@ -10030,7 +10027,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="15" t="str">
-        <f t="shared" ref="C75:C95" si="1">AL75</f>
+        <f t="shared" ref="C75:C100" si="1">AL75</f>
         <v>光学</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -10101,7 +10098,7 @@
       <c r="AI75" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AJ75" s="39" t="s">
+      <c r="AJ75" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK75" s="14" t="s">
@@ -10206,7 +10203,7 @@
       <c r="AI76" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AJ76" s="39" t="s">
+      <c r="AJ76" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK76" s="14" t="s">
@@ -10626,7 +10623,7 @@
       <c r="AI80" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="AJ80" s="39" t="s">
+      <c r="AJ80" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK80" s="14" t="s">
@@ -10941,7 +10938,7 @@
       <c r="AI83" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AJ83" s="39" t="s">
+      <c r="AJ83" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK83" s="14" t="s">
@@ -11046,7 +11043,7 @@
       <c r="AI84" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AJ84" s="39" t="s">
+      <c r="AJ84" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK84" s="14" t="s">
@@ -11361,7 +11358,7 @@
       <c r="AI87" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="AJ87" s="39" t="s">
+      <c r="AJ87" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
@@ -11466,7 +11463,7 @@
       <c r="AI88" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="AJ88" s="39" t="s">
+      <c r="AJ88" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
@@ -11490,7 +11487,7 @@
       <c r="AQ88" s="8">
         <v>4027</v>
       </c>
-      <c r="AR88" s="39" t="s">
+      <c r="AR88" s="38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11573,7 +11570,7 @@
       <c r="AI89" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="AJ89" s="39" t="s">
+      <c r="AJ89" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK89" s="14" t="s">
@@ -11597,7 +11594,7 @@
       <c r="AQ89" s="8">
         <v>4028</v>
       </c>
-      <c r="AR89" s="39"/>
+      <c r="AR89" s="38"/>
     </row>
     <row r="90" customHeight="1" spans="1:44">
       <c r="A90" s="14">
@@ -11607,7 +11604,7 @@
         <v>37</v>
       </c>
       <c r="C90" s="15" t="str">
-        <f>AL90</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D90" s="15" t="s">
@@ -11676,7 +11673,7 @@
       <c r="AI90" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="AJ90" s="39" t="s">
+      <c r="AJ90" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK90" s="14"/>
@@ -11775,7 +11772,7 @@
       <c r="AI91" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="AJ91" s="39" t="s">
+      <c r="AJ91" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK91" s="14"/>
@@ -11795,7 +11792,7 @@
       <c r="AQ91" s="8">
         <v>4030</v>
       </c>
-      <c r="AR91" s="39" t="s">
+      <c r="AR91" s="38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11878,7 +11875,7 @@
       <c r="AI92" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="AJ92" s="39" t="s">
+      <c r="AJ92" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
@@ -11983,7 +11980,7 @@
       <c r="AI93" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="AJ93" s="39" t="s">
+      <c r="AJ93" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK93" s="14" t="s">
@@ -12017,7 +12014,7 @@
         <v>37</v>
       </c>
       <c r="C94" s="15" t="str">
-        <f>AL94</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D94" s="15" t="s">
@@ -12088,7 +12085,7 @@
       <c r="AI94" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="AJ94" s="39" t="s">
+      <c r="AJ94" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
@@ -12193,7 +12190,7 @@
       <c r="AI95" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="AJ95" s="39" t="s">
+      <c r="AJ95" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
@@ -12225,7 +12222,7 @@
         <v>37</v>
       </c>
       <c r="C96" s="15" t="str">
-        <f>AL96</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D96" s="15" t="s">
@@ -12237,7 +12234,7 @@
       <c r="F96" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="G96" s="37" t="s">
+      <c r="G96" s="36" t="s">
         <v>271</v>
       </c>
       <c r="H96" s="10" t="s">
@@ -12272,7 +12269,7 @@
       <c r="AI96" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="AJ96" s="39" t="s">
+      <c r="AJ96" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK96" s="14" t="s">
@@ -12287,7 +12284,7 @@
       <c r="AN96" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AO96" s="38"/>
+      <c r="AO96" s="37"/>
       <c r="AP96" s="34" t="s">
         <v>273</v>
       </c>
@@ -12304,7 +12301,7 @@
         <v>37</v>
       </c>
       <c r="C97" s="15" t="str">
-        <f>AL97</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D97" s="15" t="s">
@@ -12316,7 +12313,7 @@
       <c r="F97" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="37" t="s">
+      <c r="G97" s="36" t="s">
         <v>275</v>
       </c>
       <c r="H97" s="10" t="s">
@@ -12375,7 +12372,7 @@
       <c r="AI97" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="AJ97" s="39" t="s">
+      <c r="AJ97" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK97" s="14" t="s">
@@ -12409,7 +12406,7 @@
         <v>37</v>
       </c>
       <c r="C98" s="15" t="str">
-        <f>AL98</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D98" s="15" t="s">
@@ -12456,7 +12453,7 @@
       <c r="AI98" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="AJ98" s="39" t="s">
+      <c r="AJ98" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK98" s="14" t="s">
@@ -12484,7 +12481,7 @@
         <v>37</v>
       </c>
       <c r="C99" s="15" t="str">
-        <f>AL99</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D99" s="15" t="s">
@@ -12552,10 +12549,10 @@
       <c r="AF99" s="15"/>
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
-      <c r="AI99" s="38" t="s">
+      <c r="AI99" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="AJ99" s="40" t="s">
+      <c r="AJ99" s="39" t="s">
         <v>43</v>
       </c>
       <c r="AK99" s="14" t="s">
@@ -12589,7 +12586,7 @@
         <v>37</v>
       </c>
       <c r="C100" s="15" t="str">
-        <f>AL100</f>
+        <f t="shared" si="1"/>
         <v>光学</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -12657,10 +12654,10 @@
       <c r="AF100" s="15"/>
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
-      <c r="AI100" s="38" t="s">
+      <c r="AI100" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="AJ100" s="39" t="s">
+      <c r="AJ100" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK100" s="14" t="s">
@@ -12703,7 +12700,7 @@
       <c r="E101" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F101" s="38" t="s">
+      <c r="F101" s="37" t="s">
         <v>289</v>
       </c>
       <c r="G101" s="36" t="s">
@@ -12738,10 +12735,10 @@
       <c r="AF101" s="15"/>
       <c r="AG101" s="15"/>
       <c r="AH101" s="15"/>
-      <c r="AI101" s="38" t="s">
+      <c r="AI101" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AJ101" s="39"/>
+      <c r="AJ101" s="38"/>
       <c r="AK101" s="14" t="s">
         <v>289</v>
       </c>
@@ -12767,7 +12764,7 @@
         <v>37</v>
       </c>
       <c r="C102" s="15" t="str">
-        <f t="shared" ref="C102:C109" si="2">AL102</f>
+        <f t="shared" ref="C102:C111" si="2">AL102</f>
         <v>光学</v>
       </c>
       <c r="D102" s="15" t="s">
@@ -12838,7 +12835,7 @@
       <c r="AI102" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AJ102" s="39" t="s">
+      <c r="AJ102" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
@@ -12943,7 +12940,7 @@
       <c r="AI103" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="AJ103" s="39" t="s">
+      <c r="AJ103" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
@@ -13048,7 +13045,7 @@
       <c r="AI104" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="AJ104" s="39" t="s">
+      <c r="AJ104" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
@@ -13153,7 +13150,7 @@
       <c r="AI105" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="AJ105" s="39" t="s">
+      <c r="AJ105" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
@@ -13258,7 +13255,7 @@
       <c r="AI106" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="AJ106" s="39" t="s">
+      <c r="AJ106" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK106" s="14" t="s">
@@ -13361,7 +13358,7 @@
       <c r="AI107" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="AJ107" s="39" t="s">
+      <c r="AJ107" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
@@ -13462,7 +13459,7 @@
       <c r="AI108" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="AJ108" s="39" t="s">
+      <c r="AJ108" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK108" s="14" t="s">
@@ -13565,7 +13562,7 @@
       <c r="AI109" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="AJ109" s="40" t="s">
+      <c r="AJ109" s="39" t="s">
         <v>43</v>
       </c>
       <c r="AK109" s="14" t="s">
@@ -13599,7 +13596,7 @@
         <v>37</v>
       </c>
       <c r="C110" s="15" t="str">
-        <f>AL110</f>
+        <f t="shared" si="2"/>
         <v>光学</v>
       </c>
       <c r="D110" s="15" t="s">
@@ -13646,7 +13643,7 @@
       <c r="AI110" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="AJ110" s="39" t="s">
+      <c r="AJ110" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK110" s="14" t="s">
@@ -13674,7 +13671,7 @@
         <v>37</v>
       </c>
       <c r="C111" s="15" t="str">
-        <f>AL111</f>
+        <f t="shared" si="2"/>
         <v>光学</v>
       </c>
       <c r="D111" s="15" t="s">
@@ -13721,7 +13718,7 @@
       <c r="AI111" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="AJ111" s="39" t="s">
+      <c r="AJ111" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
@@ -13749,7 +13746,7 @@
         <v>37</v>
       </c>
       <c r="C112" s="15" t="str">
-        <f t="shared" ref="C112:C126" si="3">AL112</f>
+        <f t="shared" ref="C112:C127" si="3">AL112</f>
         <v>光学</v>
       </c>
       <c r="D112" s="15" t="s">
@@ -13820,7 +13817,7 @@
       <c r="AI112" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="AJ112" s="39" t="s">
+      <c r="AJ112" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
@@ -13925,7 +13922,7 @@
       <c r="AI113" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="AJ113" s="39" t="s">
+      <c r="AJ113" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
@@ -14028,7 +14025,7 @@
       <c r="AI114" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="AJ114" s="39" t="s">
+      <c r="AJ114" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
@@ -14133,7 +14130,7 @@
       <c r="AI115" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="AJ115" s="39" t="s">
+      <c r="AJ115" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
@@ -14238,7 +14235,7 @@
       <c r="AI116" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="AJ116" s="39" t="s">
+      <c r="AJ116" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK116" s="14" t="s">
@@ -14343,7 +14340,7 @@
       <c r="AI117" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="AJ117" s="39" t="s">
+      <c r="AJ117" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
@@ -14448,7 +14445,7 @@
       <c r="AI118" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="AJ118" s="39" t="s">
+      <c r="AJ118" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK118" s="14" t="s">
@@ -14553,7 +14550,7 @@
       <c r="AI119" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="AJ119" s="39" t="s">
+      <c r="AJ119" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK119" s="14" t="s">
@@ -14656,10 +14653,10 @@
       <c r="AI120" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="AJ120" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK120" s="38"/>
+      <c r="AJ120" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK120" s="37"/>
       <c r="AL120" s="33" t="s">
         <v>156</v>
       </c>
@@ -14669,7 +14666,7 @@
       <c r="AN120" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AO120" s="38"/>
+      <c r="AO120" s="37"/>
       <c r="AP120" s="34" t="s">
         <v>250</v>
       </c>
@@ -14686,7 +14683,7 @@
         <v>37</v>
       </c>
       <c r="C121" s="15" t="str">
-        <f>AL121</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D121" s="15" t="s">
@@ -14755,10 +14752,10 @@
       <c r="AI121" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="AJ121" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK121" s="38"/>
+      <c r="AJ121" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK121" s="37"/>
       <c r="AL121" s="33" t="s">
         <v>156</v>
       </c>
@@ -14768,7 +14765,7 @@
       <c r="AN121" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="AO121" s="38"/>
+      <c r="AO121" s="37"/>
       <c r="AP121" s="34" t="s">
         <v>250</v>
       </c>
@@ -14785,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="C122" s="15" t="str">
-        <f>AL122</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D122" s="15" t="s">
@@ -14854,7 +14851,7 @@
       <c r="AI122" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="AJ122" s="39" t="s">
+      <c r="AJ122" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK122" s="33"/>
@@ -14884,7 +14881,7 @@
         <v>37</v>
       </c>
       <c r="C123" s="15" t="str">
-        <f>AL123</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D123" s="15" t="s">
@@ -14955,7 +14952,7 @@
       <c r="AI123" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="AJ123" s="39" t="s">
+      <c r="AJ123" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK123" s="14" t="s">
@@ -14966,7 +14963,7 @@
       </c>
       <c r="AM123" s="8"/>
       <c r="AN123" s="8"/>
-      <c r="AO123" s="41"/>
+      <c r="AO123" s="40"/>
       <c r="AP123" s="34" t="s">
         <v>358</v>
       </c>
@@ -14983,7 +14980,7 @@
         <v>37</v>
       </c>
       <c r="C124" s="15" t="str">
-        <f>AL124</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D124" s="15" t="s">
@@ -15030,7 +15027,7 @@
       <c r="AI124" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="AJ124" s="39" t="s">
+      <c r="AJ124" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
@@ -15041,7 +15038,7 @@
       </c>
       <c r="AM124" s="8"/>
       <c r="AN124" s="8"/>
-      <c r="AO124" s="41"/>
+      <c r="AO124" s="40"/>
       <c r="AP124" s="34" t="s">
         <v>358</v>
       </c>
@@ -15058,7 +15055,7 @@
         <v>37</v>
       </c>
       <c r="C125" s="15" t="str">
-        <f>AL125</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D125" s="15" t="s">
@@ -15105,7 +15102,7 @@
       <c r="AI125" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="AJ125" s="39" t="s">
+      <c r="AJ125" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK125" s="14" t="s">
@@ -15116,7 +15113,7 @@
       </c>
       <c r="AM125" s="8"/>
       <c r="AN125" s="8"/>
-      <c r="AO125" s="41"/>
+      <c r="AO125" s="40"/>
       <c r="AP125" s="34" t="s">
         <v>358</v>
       </c>
@@ -15133,7 +15130,7 @@
         <v>37</v>
       </c>
       <c r="C126" s="15" t="str">
-        <f>AL126</f>
+        <f t="shared" si="3"/>
         <v>雷达卫星</v>
       </c>
       <c r="D126" s="15" t="s">
@@ -15202,7 +15199,7 @@
       <c r="AI126" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="AJ126" s="39" t="s">
+      <c r="AJ126" s="38" t="s">
         <v>55</v>
       </c>
       <c r="AK126" s="8"/>
@@ -15226,7 +15223,7 @@
         <v>37</v>
       </c>
       <c r="C127" s="15" t="str">
-        <f>AL127</f>
+        <f t="shared" si="3"/>
         <v>雷达卫星</v>
       </c>
       <c r="D127" s="15" t="s">

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E43281B-5398-49DD-B44D-4932EA3F9022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B15D9F-4FF3-4A7A-89CB-2C5EE651C450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="427">
   <si>
     <t>插件</t>
   </si>
@@ -2336,13 +2336,21 @@
   </si>
   <si>
     <t>数据没找到对象类型时候的默认同步类</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2482,6 +2490,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2599,7 +2630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2730,6 +2761,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3013,10 +3056,10 @@
   <dimension ref="A1:AR128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W66" sqref="W66"/>
+      <selection pane="bottomRight" activeCell="V72" sqref="V72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8639,8 +8682,8 @@
       <c r="V67" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="10" t="s">
-        <v>55</v>
+      <c r="W67" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="X67" s="17" t="s">
         <v>43</v>
@@ -8954,8 +8997,8 @@
       <c r="V70" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W70" s="10" t="s">
-        <v>55</v>
+      <c r="W70" s="46" t="s">
+        <v>426</v>
       </c>
       <c r="X70" s="17" t="s">
         <v>43</v>
@@ -9059,8 +9102,8 @@
       <c r="V71" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W71" s="10" t="s">
-        <v>55</v>
+      <c r="W71" s="46" t="s">
+        <v>426</v>
       </c>
       <c r="X71" s="17" t="s">
         <v>43</v>
@@ -9140,35 +9183,35 @@
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
-      <c r="O72" s="18" t="s">
-        <v>43</v>
+      <c r="O72" s="47" t="s">
+        <v>425</v>
       </c>
       <c r="P72" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q72" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="R72" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S72" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="T72" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="U72" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="V72" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="W72" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X72" s="17" t="s">
-        <v>43</v>
+      <c r="Q72" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="R72" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="S72" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="T72" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="U72" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="V72" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="W72" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X72" s="44" t="s">
+        <v>425</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
@@ -9183,8 +9226,8 @@
       <c r="AI72" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="AJ72" s="17" t="s">
-        <v>43</v>
+      <c r="AJ72" s="45" t="s">
+        <v>425</v>
       </c>
       <c r="AK72" s="14" t="s">
         <v>190</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B15D9F-4FF3-4A7A-89CB-2C5EE651C450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB5080-AD75-4DFC-8217-4E9D61D4F9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,9 +1520,6 @@
     <t>TripleSat</t>
   </si>
   <si>
-    <t>plugins_4001_TripleSat_PMS</t>
-  </si>
-  <si>
     <t>北京二号</t>
   </si>
   <si>
@@ -2343,6 +2340,10 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4001_TripleSat_PMS</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2739,6 +2740,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2761,18 +2774,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3056,10 +3057,10 @@
   <dimension ref="A1:AR128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V72" sqref="V72"/>
+      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3080,60 +3081,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="42" t="s">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
     </row>
     <row r="2" spans="1:44" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -8118,7 +8119,7 @@
         <v>153</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>154</v>
+        <v>426</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>55</v>
@@ -8133,35 +8134,35 @@
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
-      <c r="O62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W62" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X62" s="22" t="s">
-        <v>55</v>
+      <c r="O62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R62" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X62" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
@@ -8180,22 +8181,22 @@
         <v>43</v>
       </c>
       <c r="AK62" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL62" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AL62" s="28" t="s">
+      <c r="AM62" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="AM62" s="28" t="s">
+      <c r="AN62" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="AN62" s="28" t="s">
+      <c r="AO62" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AO62" s="14" t="s">
+      <c r="AP62" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="AP62" s="29" t="s">
-        <v>160</v>
       </c>
       <c r="AQ62" s="8">
         <v>4001</v>
@@ -8220,10 +8221,10 @@
         <v>152</v>
       </c>
       <c r="F63" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>55</v>
@@ -8279,28 +8280,28 @@
       <c r="AG63" s="26"/>
       <c r="AH63" s="26"/>
       <c r="AI63" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ63" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK63" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL63" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM63" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="AL63" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM63" s="28" t="s">
+      <c r="AN63" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AN63" s="28" t="s">
+      <c r="AO63" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AO63" s="14" t="s">
+      <c r="AP63" s="29" t="s">
         <v>166</v>
-      </c>
-      <c r="AP63" s="29" t="s">
-        <v>167</v>
       </c>
       <c r="AQ63" s="8">
         <v>4002</v>
@@ -8325,10 +8326,10 @@
         <v>152</v>
       </c>
       <c r="F64" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>169</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>55</v>
@@ -8384,28 +8385,28 @@
       <c r="AG64" s="26"/>
       <c r="AH64" s="26"/>
       <c r="AI64" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ64" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK64" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL64" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM64" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN64" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="AL64" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM64" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN64" s="28" t="s">
+      <c r="AO64" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP64" s="29" t="s">
         <v>171</v>
-      </c>
-      <c r="AO64" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP64" s="29" t="s">
-        <v>172</v>
       </c>
       <c r="AQ64" s="8">
         <v>4003</v>
@@ -8430,10 +8431,10 @@
         <v>152</v>
       </c>
       <c r="F65" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="30" t="s">
         <v>173</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>174</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>55</v>
@@ -8489,28 +8490,28 @@
       <c r="AG65" s="26"/>
       <c r="AH65" s="26"/>
       <c r="AI65" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ65" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK65" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="AJ65" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK65" s="14" t="s">
+      <c r="AL65" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM65" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="AL65" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM65" s="28" t="s">
+      <c r="AN65" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO65" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="AN65" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO65" s="14" t="s">
+      <c r="AP65" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="AP65" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="AQ65" s="8">
         <v>4004</v>
@@ -8535,10 +8536,10 @@
         <v>152</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>55</v>
@@ -8594,28 +8595,28 @@
       <c r="AG66" s="26"/>
       <c r="AH66" s="26"/>
       <c r="AI66" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ66" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK66" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="AJ66" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK66" s="14" t="s">
+      <c r="AL66" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM66" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="AL66" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM66" s="28" t="s">
-        <v>177</v>
-      </c>
       <c r="AN66" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO66" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AO66" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="AP66" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AQ66" s="8">
         <v>4005</v>
@@ -8640,10 +8641,10 @@
         <v>152</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>55</v>
@@ -8699,28 +8700,28 @@
       <c r="AG67" s="26"/>
       <c r="AH67" s="26"/>
       <c r="AI67" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ67" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK67" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="AJ67" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK67" s="14" t="s">
+      <c r="AL67" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM67" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="AL67" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM67" s="28" t="s">
-        <v>177</v>
-      </c>
       <c r="AN67" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO67" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AO67" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="AP67" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AQ67" s="8">
         <v>4006</v>
@@ -8745,10 +8746,10 @@
         <v>152</v>
       </c>
       <c r="F68" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>55</v>
@@ -8804,28 +8805,28 @@
       <c r="AG68" s="26"/>
       <c r="AH68" s="26"/>
       <c r="AI68" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ68" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK68" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL68" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM68" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN68" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO68" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP68" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="AL68" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM68" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN68" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO68" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP68" s="29" t="s">
-        <v>185</v>
       </c>
       <c r="AQ68" s="8">
         <v>4007</v>
@@ -8850,10 +8851,10 @@
         <v>152</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>55</v>
@@ -8909,28 +8910,28 @@
       <c r="AG69" s="26"/>
       <c r="AH69" s="26"/>
       <c r="AI69" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ69" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK69" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL69" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM69" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN69" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO69" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP69" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="AL69" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM69" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN69" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO69" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP69" s="29" t="s">
-        <v>185</v>
       </c>
       <c r="AQ69" s="8">
         <v>4008</v>
@@ -8955,10 +8956,10 @@
         <v>152</v>
       </c>
       <c r="F70" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G70" s="30" t="s">
         <v>187</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>188</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>55</v>
@@ -8997,8 +8998,8 @@
       <c r="V70" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W70" s="46" t="s">
-        <v>426</v>
+      <c r="W70" s="38" t="s">
+        <v>425</v>
       </c>
       <c r="X70" s="17" t="s">
         <v>43</v>
@@ -9014,28 +9015,28 @@
       <c r="AG70" s="26"/>
       <c r="AH70" s="26"/>
       <c r="AI70" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ70" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK70" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="AJ70" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK70" s="14" t="s">
+      <c r="AL70" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="AL70" s="28" t="s">
+      <c r="AM70" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN70" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO70" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="AM70" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN70" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO70" s="14" t="s">
+      <c r="AP70" s="29" t="s">
         <v>192</v>
-      </c>
-      <c r="AP70" s="29" t="s">
-        <v>193</v>
       </c>
       <c r="AQ70" s="8">
         <v>4009</v>
@@ -9060,10 +9061,10 @@
         <v>152</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>55</v>
@@ -9102,8 +9103,8 @@
       <c r="V71" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W71" s="46" t="s">
-        <v>426</v>
+      <c r="W71" s="38" t="s">
+        <v>425</v>
       </c>
       <c r="X71" s="17" t="s">
         <v>43</v>
@@ -9119,28 +9120,28 @@
       <c r="AG71" s="26"/>
       <c r="AH71" s="26"/>
       <c r="AI71" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ71" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK71" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="AJ71" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK71" s="14" t="s">
+      <c r="AL71" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="AL71" s="28" t="s">
+      <c r="AM71" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN71" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO71" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="AM71" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN71" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO71" s="14" t="s">
+      <c r="AP71" s="29" t="s">
         <v>192</v>
-      </c>
-      <c r="AP71" s="29" t="s">
-        <v>193</v>
       </c>
       <c r="AQ71" s="8">
         <v>4010</v>
@@ -9165,10 +9166,10 @@
         <v>152</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>55</v>
@@ -9183,35 +9184,35 @@
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
-      <c r="O72" s="47" t="s">
-        <v>425</v>
+      <c r="O72" s="39" t="s">
+        <v>424</v>
       </c>
       <c r="P72" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q72" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="R72" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="S72" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="T72" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="U72" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="V72" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="W72" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="X72" s="44" t="s">
-        <v>425</v>
+      <c r="Q72" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="T72" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="U72" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="V72" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="W72" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="X72" s="36" t="s">
+        <v>424</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
@@ -9224,28 +9225,28 @@
       <c r="AG72" s="26"/>
       <c r="AH72" s="26"/>
       <c r="AI72" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ72" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK72" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="AJ72" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="AK72" s="14" t="s">
+      <c r="AL72" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="AL72" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="AM72" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN72" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO72" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP72" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ72" s="8">
         <v>4011</v>
@@ -9270,10 +9271,10 @@
         <v>152</v>
       </c>
       <c r="F73" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73" s="30" t="s">
         <v>197</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>198</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>55</v>
@@ -9329,28 +9330,28 @@
       <c r="AG73" s="26"/>
       <c r="AH73" s="26"/>
       <c r="AI73" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ73" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK73" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="AJ73" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK73" s="14" t="s">
+      <c r="AL73" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM73" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN73" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO73" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="AL73" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM73" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN73" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO73" s="14" t="s">
+      <c r="AP73" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="AP73" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="AQ73" s="8">
         <v>4012</v>
@@ -9375,10 +9376,10 @@
         <v>152</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>55</v>
@@ -9434,28 +9435,28 @@
       <c r="AG74" s="26"/>
       <c r="AH74" s="26"/>
       <c r="AI74" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ74" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK74" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="AJ74" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK74" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="AL74" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM74" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN74" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO74" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AO74" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="AP74" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ74" s="8">
         <v>4013</v>
@@ -9480,10 +9481,10 @@
         <v>152</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>55</v>
@@ -9539,28 +9540,28 @@
       <c r="AG75" s="26"/>
       <c r="AH75" s="26"/>
       <c r="AI75" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ75" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK75" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="AJ75" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK75" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="AL75" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM75" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN75" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO75" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP75" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ75" s="8">
         <v>4014</v>
@@ -9585,10 +9586,10 @@
         <v>152</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>55</v>
@@ -9644,28 +9645,28 @@
       <c r="AG76" s="26"/>
       <c r="AH76" s="26"/>
       <c r="AI76" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ76" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK76" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="AJ76" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK76" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="AL76" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM76" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN76" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO76" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP76" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ76" s="8">
         <v>4015</v>
@@ -9690,10 +9691,10 @@
         <v>152</v>
       </c>
       <c r="F77" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>55</v>
@@ -9749,28 +9750,28 @@
       <c r="AG77" s="26"/>
       <c r="AH77" s="26"/>
       <c r="AI77" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ77" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK77" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL77" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM77" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN77" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO77" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="AL77" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM77" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN77" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO77" s="14" t="s">
+      <c r="AP77" s="29" t="s">
         <v>211</v>
-      </c>
-      <c r="AP77" s="29" t="s">
-        <v>212</v>
       </c>
       <c r="AQ77" s="8">
         <v>4016</v>
@@ -9795,10 +9796,10 @@
         <v>152</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>55</v>
@@ -9854,28 +9855,28 @@
       <c r="AG78" s="26"/>
       <c r="AH78" s="26"/>
       <c r="AI78" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ78" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK78" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL78" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM78" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN78" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO78" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP78" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ78" s="8">
         <v>4017</v>
@@ -9900,10 +9901,10 @@
         <v>152</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>55</v>
@@ -9959,28 +9960,28 @@
       <c r="AG79" s="26"/>
       <c r="AH79" s="26"/>
       <c r="AI79" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ79" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK79" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL79" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM79" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN79" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO79" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP79" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ79" s="8">
         <v>4018</v>
@@ -10005,10 +10006,10 @@
         <v>152</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>55</v>
@@ -10064,28 +10065,28 @@
       <c r="AG80" s="26"/>
       <c r="AH80" s="26"/>
       <c r="AI80" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ80" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK80" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL80" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM80" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN80" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO80" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP80" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ80" s="8">
         <v>4019</v>
@@ -10110,10 +10111,10 @@
         <v>152</v>
       </c>
       <c r="F81" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>55</v>
@@ -10169,28 +10170,28 @@
       <c r="AG81" s="26"/>
       <c r="AH81" s="26"/>
       <c r="AI81" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ81" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK81" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL81" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM81" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN81" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO81" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP81" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="AL81" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM81" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN81" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO81" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP81" s="29" t="s">
-        <v>221</v>
       </c>
       <c r="AQ81" s="8">
         <v>4020</v>
@@ -10215,10 +10216,10 @@
         <v>152</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>55</v>
@@ -10274,28 +10275,28 @@
       <c r="AG82" s="15"/>
       <c r="AH82" s="15"/>
       <c r="AI82" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ82" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK82" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL82" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM82" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN82" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO82" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP82" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="AL82" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM82" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN82" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO82" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP82" s="29" t="s">
-        <v>221</v>
       </c>
       <c r="AQ82" s="8">
         <v>4021</v>
@@ -10320,10 +10321,10 @@
         <v>152</v>
       </c>
       <c r="F83" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>55</v>
@@ -10379,28 +10380,28 @@
       <c r="AG83" s="15"/>
       <c r="AH83" s="15"/>
       <c r="AI83" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ83" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK83" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL83" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM83" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN83" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO83" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP83" s="29" t="s">
         <v>225</v>
-      </c>
-      <c r="AL83" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM83" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN83" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO83" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP83" s="29" t="s">
-        <v>226</v>
       </c>
       <c r="AQ83" s="8">
         <v>4022</v>
@@ -10425,10 +10426,10 @@
         <v>152</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>55</v>
@@ -10484,28 +10485,28 @@
       <c r="AG84" s="15"/>
       <c r="AH84" s="15"/>
       <c r="AI84" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ84" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK84" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL84" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM84" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN84" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO84" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP84" s="29" t="s">
         <v>225</v>
-      </c>
-      <c r="AL84" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM84" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN84" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO84" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP84" s="29" t="s">
-        <v>226</v>
       </c>
       <c r="AQ84" s="8">
         <v>4023</v>
@@ -10530,10 +10531,10 @@
         <v>152</v>
       </c>
       <c r="F85" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G85" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>55</v>
@@ -10589,28 +10590,28 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ85" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK85" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL85" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM85" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN85" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO85" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="AL85" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM85" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN85" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO85" s="14" t="s">
+      <c r="AP85" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="AP85" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="AQ85" s="8">
         <v>4024</v>
@@ -10635,10 +10636,10 @@
         <v>152</v>
       </c>
       <c r="F86" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>55</v>
@@ -10694,28 +10695,28 @@
       <c r="AG86" s="15"/>
       <c r="AH86" s="15"/>
       <c r="AI86" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ86" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK86" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL86" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM86" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN86" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO86" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP86" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="AL86" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM86" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN86" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO86" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP86" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="AQ86" s="8">
         <v>4025</v>
@@ -10740,10 +10741,10 @@
         <v>152</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>55</v>
@@ -10799,28 +10800,28 @@
       <c r="AG87" s="15"/>
       <c r="AH87" s="15"/>
       <c r="AI87" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ87" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL87" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM87" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN87" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO87" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP87" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="AL87" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM87" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN87" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO87" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP87" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="AQ87" s="8">
         <v>4026</v>
@@ -10845,10 +10846,10 @@
         <v>152</v>
       </c>
       <c r="F88" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>238</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>239</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>55</v>
@@ -10904,28 +10905,28 @@
       <c r="AG88" s="15"/>
       <c r="AH88" s="15"/>
       <c r="AI88" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ88" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL88" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM88" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN88" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="AL88" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM88" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN88" s="28" t="s">
+      <c r="AO88" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="AO88" s="14" t="s">
+      <c r="AP88" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="AP88" s="29" t="s">
-        <v>243</v>
       </c>
       <c r="AQ88" s="8">
         <v>4027</v>
@@ -10952,10 +10953,10 @@
         <v>152</v>
       </c>
       <c r="F89" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>245</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>55</v>
@@ -11011,28 +11012,28 @@
       <c r="AG89" s="15"/>
       <c r="AH89" s="15"/>
       <c r="AI89" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ89" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK89" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL89" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM89" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN89" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO89" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP89" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="AL89" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM89" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN89" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO89" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP89" s="29" t="s">
-        <v>247</v>
       </c>
       <c r="AQ89" s="8">
         <v>4028</v>
@@ -11057,10 +11058,10 @@
         <v>152</v>
       </c>
       <c r="F90" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G90" s="31" t="s">
         <v>248</v>
-      </c>
-      <c r="G90" s="31" t="s">
-        <v>249</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>55</v>
@@ -11114,24 +11115,24 @@
       <c r="AG90" s="15"/>
       <c r="AH90" s="15"/>
       <c r="AI90" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ90" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK90" s="14"/>
       <c r="AL90" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM90" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN90" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AO90" s="14"/>
       <c r="AP90" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ90" s="8">
         <v>4029</v>
@@ -11156,10 +11157,10 @@
         <v>152</v>
       </c>
       <c r="F91" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G91" s="31" t="s">
         <v>251</v>
-      </c>
-      <c r="G91" s="31" t="s">
-        <v>252</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>55</v>
@@ -11213,24 +11214,24 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ91" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK91" s="14"/>
       <c r="AL91" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM91" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN91" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO91" s="14"/>
       <c r="AP91" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ91" s="8">
         <v>4030</v>
@@ -11257,10 +11258,10 @@
         <v>152</v>
       </c>
       <c r="F92" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G92" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>255</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>55</v>
@@ -11316,28 +11317,28 @@
       <c r="AG92" s="15"/>
       <c r="AH92" s="15"/>
       <c r="AI92" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ92" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL92" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM92" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN92" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO92" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="AL92" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM92" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN92" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO92" s="14" t="s">
+      <c r="AP92" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="AP92" s="29" t="s">
-        <v>258</v>
       </c>
       <c r="AQ92" s="8">
         <v>4031</v>
@@ -11362,10 +11363,10 @@
         <v>152</v>
       </c>
       <c r="F93" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>55</v>
@@ -11421,28 +11422,28 @@
       <c r="AG93" s="15"/>
       <c r="AH93" s="15"/>
       <c r="AI93" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ93" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK93" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL93" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM93" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN93" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO93" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="AL93" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM93" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN93" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO93" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="AP93" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ93" s="8">
         <v>4032</v>
@@ -11467,10 +11468,10 @@
         <v>152</v>
       </c>
       <c r="F94" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G94" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>55</v>
@@ -11526,28 +11527,28 @@
       <c r="AG94" s="15"/>
       <c r="AH94" s="15"/>
       <c r="AI94" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ94" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL94" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM94" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN94" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="AL94" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM94" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN94" s="28" t="s">
+      <c r="AO94" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP94" s="29" t="s">
         <v>266</v>
-      </c>
-      <c r="AO94" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP94" s="29" t="s">
-        <v>267</v>
       </c>
       <c r="AQ94" s="8">
         <v>4033</v>
@@ -11572,10 +11573,10 @@
         <v>152</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>55</v>
@@ -11631,25 +11632,25 @@
       <c r="AG95" s="15"/>
       <c r="AH95" s="15"/>
       <c r="AI95" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ95" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL95" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM95" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN95" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AO95" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AP95" s="29"/>
       <c r="AQ95" s="8">
@@ -11675,10 +11676,10 @@
         <v>152</v>
       </c>
       <c r="F96" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" s="31" t="s">
         <v>270</v>
-      </c>
-      <c r="G96" s="31" t="s">
-        <v>271</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>55</v>
@@ -11710,26 +11711,26 @@
       <c r="AG96" s="15"/>
       <c r="AH96" s="15"/>
       <c r="AI96" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ96" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK96" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL96" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM96" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN96" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO96" s="32"/>
       <c r="AP96" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ96" s="8">
         <v>4035</v>
@@ -11754,10 +11755,10 @@
         <v>152</v>
       </c>
       <c r="F97" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G97" s="31" t="s">
         <v>274</v>
-      </c>
-      <c r="G97" s="31" t="s">
-        <v>275</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>55</v>
@@ -11813,28 +11814,28 @@
       <c r="AG97" s="15"/>
       <c r="AH97" s="15"/>
       <c r="AI97" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AJ97" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK97" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL97" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM97" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN97" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO97" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="AO97" s="14" t="s">
+      <c r="AP97" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="AP97" s="29" t="s">
-        <v>278</v>
       </c>
       <c r="AQ97" s="8">
         <v>4036</v>
@@ -11859,10 +11860,10 @@
         <v>152</v>
       </c>
       <c r="F98" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G98" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="G98" s="31" t="s">
-        <v>280</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>55</v>
@@ -11894,22 +11895,22 @@
       <c r="AG98" s="15"/>
       <c r="AH98" s="15"/>
       <c r="AI98" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AJ98" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK98" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL98" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM98" s="8"/>
       <c r="AN98" s="8"/>
       <c r="AO98" s="8"/>
       <c r="AP98" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ98" s="8">
         <v>4037</v>
@@ -11934,10 +11935,10 @@
         <v>152</v>
       </c>
       <c r="F99" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G99" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>284</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>55</v>
@@ -11993,28 +11994,28 @@
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
       <c r="AI99" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AJ99" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AK99" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL99" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM99" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN99" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO99" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP99" s="29" t="s">
         <v>285</v>
-      </c>
-      <c r="AL99" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM99" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN99" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO99" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP99" s="29" t="s">
-        <v>286</v>
       </c>
       <c r="AQ99" s="8">
         <v>4038</v>
@@ -12039,10 +12040,10 @@
         <v>152</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>55</v>
@@ -12098,28 +12099,28 @@
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
       <c r="AI100" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AJ100" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK100" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL100" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM100" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN100" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO100" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP100" s="29" t="s">
         <v>285</v>
-      </c>
-      <c r="AL100" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM100" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN100" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO100" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP100" s="29" t="s">
-        <v>286</v>
       </c>
       <c r="AQ100" s="8">
         <v>4039</v>
@@ -12144,10 +12145,10 @@
         <v>152</v>
       </c>
       <c r="F101" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G101" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="G101" s="31" t="s">
-        <v>290</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>55</v>
@@ -12179,20 +12180,20 @@
       <c r="AG101" s="15"/>
       <c r="AH101" s="15"/>
       <c r="AI101" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AJ101" s="33"/>
       <c r="AK101" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL101" s="28"/>
       <c r="AM101" s="28"/>
       <c r="AN101" s="28"/>
       <c r="AO101" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AP101" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AQ101" s="8">
         <v>4040</v>
@@ -12217,10 +12218,10 @@
         <v>152</v>
       </c>
       <c r="F102" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="G102" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>55</v>
@@ -12276,28 +12277,28 @@
       <c r="AG102" s="15"/>
       <c r="AH102" s="15"/>
       <c r="AI102" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ102" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL102" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM102" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN102" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO102" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP102" s="29" t="s">
         <v>294</v>
-      </c>
-      <c r="AL102" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM102" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN102" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO102" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP102" s="29" t="s">
-        <v>295</v>
       </c>
       <c r="AQ102" s="8">
         <v>4041</v>
@@ -12322,10 +12323,10 @@
         <v>152</v>
       </c>
       <c r="F103" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G103" s="16" t="s">
         <v>296</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>297</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>55</v>
@@ -12381,28 +12382,28 @@
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AJ103" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL103" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM103" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN103" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO103" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="AL103" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM103" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN103" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO103" s="14" t="s">
+      <c r="AP103" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="AP103" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="AQ103" s="8">
         <v>4042</v>
@@ -12427,10 +12428,10 @@
         <v>152</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>55</v>
@@ -12486,28 +12487,28 @@
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AJ104" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL104" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM104" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN104" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO104" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AP104" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AQ104" s="8">
         <v>4043</v>
@@ -12532,10 +12533,10 @@
         <v>152</v>
       </c>
       <c r="F105" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G105" s="16" t="s">
         <v>303</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>304</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>55</v>
@@ -12591,28 +12592,28 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ105" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL105" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM105" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN105" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP105" s="29" t="s">
         <v>305</v>
-      </c>
-      <c r="AL105" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM105" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN105" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO105" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP105" s="29" t="s">
-        <v>306</v>
       </c>
       <c r="AQ105" s="8">
         <v>4044</v>
@@ -12637,10 +12638,10 @@
         <v>152</v>
       </c>
       <c r="F106" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G106" s="31" t="s">
         <v>307</v>
-      </c>
-      <c r="G106" s="31" t="s">
-        <v>308</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>55</v>
@@ -12696,25 +12697,25 @@
       <c r="AG106" s="8"/>
       <c r="AH106" s="8"/>
       <c r="AI106" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ106" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK106" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL106" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM106" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN106" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO106" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AP106" s="29"/>
       <c r="AQ106" s="8">
@@ -12740,10 +12741,10 @@
         <v>152</v>
       </c>
       <c r="F107" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G107" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="G107" s="31" t="s">
-        <v>311</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>55</v>
@@ -12799,25 +12800,25 @@
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
       <c r="AI107" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ107" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AL107" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM107" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN107" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO107" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AP107" s="29"/>
       <c r="AQ107" s="8">
@@ -12843,10 +12844,10 @@
         <v>152</v>
       </c>
       <c r="F108" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="G108" s="31" t="s">
         <v>313</v>
-      </c>
-      <c r="G108" s="31" t="s">
-        <v>314</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>55</v>
@@ -12900,26 +12901,26 @@
       <c r="AG108" s="8"/>
       <c r="AH108" s="8"/>
       <c r="AI108" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AJ108" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK108" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL108" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM108" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN108" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO108" s="14"/>
       <c r="AP108" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ108" s="8">
         <v>4047</v>
@@ -12944,10 +12945,10 @@
         <v>152</v>
       </c>
       <c r="F109" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G109" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>55</v>
@@ -13003,28 +13004,28 @@
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
       <c r="AI109" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AJ109" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AK109" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="AL109" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM109" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN109" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO109" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AL109" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM109" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN109" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO109" s="14" t="s">
+      <c r="AP109" s="29" t="s">
         <v>319</v>
-      </c>
-      <c r="AP109" s="29" t="s">
-        <v>320</v>
       </c>
       <c r="AQ109" s="8">
         <v>4048</v>
@@ -13049,10 +13050,10 @@
         <v>152</v>
       </c>
       <c r="F110" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="G110" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>322</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>55</v>
@@ -13084,22 +13085,22 @@
       <c r="AG110" s="8"/>
       <c r="AH110" s="8"/>
       <c r="AI110" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ110" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK110" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL110" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM110" s="8"/>
       <c r="AN110" s="8"/>
       <c r="AO110" s="8"/>
       <c r="AP110" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AQ110" s="8">
         <v>4049</v>
@@ -13124,10 +13125,10 @@
         <v>152</v>
       </c>
       <c r="F111" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>55</v>
@@ -13159,22 +13160,22 @@
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ111" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL111" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM111" s="8"/>
       <c r="AN111" s="8"/>
       <c r="AO111" s="8"/>
       <c r="AP111" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AQ111" s="8">
         <v>4050</v>
@@ -13199,10 +13200,10 @@
         <v>152</v>
       </c>
       <c r="F112" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G112" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>55</v>
@@ -13258,28 +13259,28 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ112" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL112" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM112" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN112" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO112" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP112" s="29" t="s">
         <v>328</v>
-      </c>
-      <c r="AL112" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM112" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN112" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO112" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP112" s="29" t="s">
-        <v>329</v>
       </c>
       <c r="AQ112" s="8">
         <v>4051</v>
@@ -13304,10 +13305,10 @@
         <v>152</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>55</v>
@@ -13363,25 +13364,25 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ113" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL113" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM113" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN113" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO113" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AP113" s="29"/>
       <c r="AQ113" s="8">
@@ -13407,10 +13408,10 @@
         <v>152</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>55</v>
@@ -13466,28 +13467,28 @@
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ114" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL114" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM114" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN114" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO114" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP114" s="29" t="s">
         <v>328</v>
-      </c>
-      <c r="AL114" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM114" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN114" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO114" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="AP114" s="29" t="s">
-        <v>329</v>
       </c>
       <c r="AQ114" s="8">
         <v>4053</v>
@@ -13512,10 +13513,10 @@
         <v>152</v>
       </c>
       <c r="F115" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G115" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>55</v>
@@ -13571,28 +13572,28 @@
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ115" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL115" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM115" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN115" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO115" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="AL115" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM115" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN115" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO115" s="14" t="s">
+      <c r="AP115" s="29" t="s">
         <v>337</v>
-      </c>
-      <c r="AP115" s="29" t="s">
-        <v>338</v>
       </c>
       <c r="AQ115" s="8">
         <v>4054</v>
@@ -13617,10 +13618,10 @@
         <v>152</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>55</v>
@@ -13676,28 +13677,28 @@
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ116" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK116" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL116" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM116" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN116" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO116" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AP116" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AQ116" s="8">
         <v>4055</v>
@@ -13722,10 +13723,10 @@
         <v>152</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>55</v>
@@ -13781,28 +13782,28 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ117" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL117" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM117" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN117" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO117" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AP117" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AQ117" s="8">
         <v>4056</v>
@@ -13827,10 +13828,10 @@
         <v>152</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>55</v>
@@ -13886,28 +13887,28 @@
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ118" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK118" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL118" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM118" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN118" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO118" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP118" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AQ118" s="8">
         <v>4057</v>
@@ -13932,10 +13933,10 @@
         <v>152</v>
       </c>
       <c r="F119" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G119" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>55</v>
@@ -13991,28 +13992,28 @@
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
       <c r="AI119" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AJ119" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK119" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AL119" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM119" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN119" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO119" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP119" s="29" t="s">
         <v>337</v>
-      </c>
-      <c r="AP119" s="29" t="s">
-        <v>338</v>
       </c>
       <c r="AQ119" s="8">
         <v>4058</v>
@@ -14037,10 +14038,10 @@
         <v>152</v>
       </c>
       <c r="F120" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G120" s="31" t="s">
         <v>348</v>
-      </c>
-      <c r="G120" s="31" t="s">
-        <v>349</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>55</v>
@@ -14094,24 +14095,24 @@
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
       <c r="AI120" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AJ120" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK120" s="32"/>
       <c r="AL120" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM120" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN120" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO120" s="32"/>
       <c r="AP120" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ120" s="8">
         <v>4059</v>
@@ -14136,10 +14137,10 @@
         <v>152</v>
       </c>
       <c r="F121" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G121" s="31" t="s">
         <v>350</v>
-      </c>
-      <c r="G121" s="31" t="s">
-        <v>351</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>55</v>
@@ -14193,24 +14194,24 @@
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
       <c r="AI121" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AJ121" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK121" s="32"/>
       <c r="AL121" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM121" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN121" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO121" s="32"/>
       <c r="AP121" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ121" s="8">
         <v>4060</v>
@@ -14235,10 +14236,10 @@
         <v>152</v>
       </c>
       <c r="F122" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G122" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="G122" s="31" t="s">
-        <v>353</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>55</v>
@@ -14292,24 +14293,24 @@
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
       <c r="AI122" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AJ122" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK122" s="28"/>
       <c r="AL122" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM122" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN122" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO122" s="28"/>
       <c r="AP122" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ122" s="8">
         <v>4061</v>
@@ -14334,10 +14335,10 @@
         <v>152</v>
       </c>
       <c r="F123" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G123" s="31" t="s">
         <v>355</v>
-      </c>
-      <c r="G123" s="31" t="s">
-        <v>356</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>55</v>
@@ -14393,22 +14394,22 @@
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
       <c r="AI123" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ123" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK123" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL123" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM123" s="8"/>
       <c r="AN123" s="8"/>
       <c r="AO123" s="35"/>
       <c r="AP123" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AQ123" s="8">
         <v>4062</v>
@@ -14433,10 +14434,10 @@
         <v>152</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>55</v>
@@ -14468,22 +14469,22 @@
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
       <c r="AI124" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ124" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL124" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM124" s="8"/>
       <c r="AN124" s="8"/>
       <c r="AO124" s="35"/>
       <c r="AP124" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AQ124" s="8">
         <v>4063</v>
@@ -14508,10 +14509,10 @@
         <v>152</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>55</v>
@@ -14543,22 +14544,22 @@
       <c r="AG125" s="8"/>
       <c r="AH125" s="8"/>
       <c r="AI125" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ125" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK125" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL125" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM125" s="8"/>
       <c r="AN125" s="8"/>
       <c r="AO125" s="35"/>
       <c r="AP125" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AQ125" s="8">
         <v>4064</v>
@@ -14577,16 +14578,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F126" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G126" s="16" t="s">
         <v>361</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>362</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>55</v>
@@ -14640,14 +14641,14 @@
       <c r="AG126" s="8"/>
       <c r="AH126" s="8"/>
       <c r="AI126" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ126" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK126" s="8"/>
       <c r="AL126" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM126" s="8"/>
       <c r="AN126" s="8"/>
@@ -14670,16 +14671,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F127" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G127" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>365</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>55</v>
@@ -14733,14 +14734,14 @@
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
       <c r="AI127" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AJ127" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AK127" s="8"/>
       <c r="AL127" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM127" s="8"/>
       <c r="AN127" s="8"/>
@@ -14854,22 +14855,22 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14877,25 +14878,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14903,17 +14904,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
@@ -14921,7 +14922,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14929,16 +14930,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
@@ -14947,7 +14948,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14955,16 +14956,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>43</v>
@@ -14973,7 +14974,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14981,16 +14982,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>43</v>
@@ -14999,7 +15000,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15007,16 +15008,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>43</v>
@@ -15025,7 +15026,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15033,17 +15034,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
@@ -15051,7 +15052,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15059,17 +15060,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
@@ -15077,7 +15078,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15085,17 +15086,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
@@ -15103,7 +15104,7 @@
         <v>43</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15111,25 +15112,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15137,16 +15138,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
@@ -15155,7 +15156,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15163,17 +15164,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
@@ -15181,7 +15182,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15189,16 +15190,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>43</v>
@@ -15207,7 +15208,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15215,16 +15216,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>43</v>
@@ -15233,7 +15234,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15241,16 +15242,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>43</v>
@@ -15259,7 +15260,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15267,17 +15268,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
@@ -15285,7 +15286,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15293,17 +15294,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
@@ -15311,7 +15312,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15319,25 +15320,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15345,19 +15346,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB5080-AD75-4DFC-8217-4E9D61D4F9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E656B1-AB27-4A05-BD99-B6DF44F7AF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,12 +1541,6 @@
     <t>CB04</t>
   </si>
   <si>
-    <t>plugins_4002_CB04_P10</t>
-  </si>
-  <si>
-    <t>中巴地球资源卫星04星</t>
-  </si>
-  <si>
     <t>国外商业</t>
   </si>
   <si>
@@ -1554,9 +1548,6 @@
   </si>
   <si>
     <t>P10</t>
-  </si>
-  <si>
-    <t>NDI_CB04</t>
   </si>
   <si>
     <t>DE2</t>
@@ -2344,6 +2335,18 @@
   </si>
   <si>
     <t>plugins_4001_TripleSat_PMS</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4002_CB04_P10</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>中巴地球资源卫星04星</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDI_CB04</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -3057,10 +3060,10 @@
   <dimension ref="A1:AR128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
+      <selection pane="bottomRight" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8119,10 +8122,10 @@
         <v>153</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>55</v>
+        <v>423</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>43</v>
@@ -8224,10 +8227,10 @@
         <v>160</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>55</v>
+        <v>424</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>43</v>
@@ -8239,35 +8242,35 @@
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
       <c r="N63" s="21"/>
-      <c r="O63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X63" s="22" t="s">
-        <v>55</v>
+      <c r="O63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R63" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X63" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
@@ -8286,22 +8289,22 @@
         <v>43</v>
       </c>
       <c r="AK63" s="14" t="s">
-        <v>162</v>
+        <v>425</v>
       </c>
       <c r="AL63" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM63" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN63" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO63" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="AN63" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO63" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="AP63" s="29" t="s">
-        <v>166</v>
+        <v>426</v>
       </c>
       <c r="AQ63" s="8">
         <v>4002</v>
@@ -8326,10 +8329,10 @@
         <v>152</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>55</v>
@@ -8385,28 +8388,28 @@
       <c r="AG64" s="26"/>
       <c r="AH64" s="26"/>
       <c r="AI64" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AJ64" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK64" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AL64" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM64" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN64" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AO64" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP64" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AQ64" s="8">
         <v>4003</v>
@@ -8431,13 +8434,13 @@
         <v>152</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>55</v>
+        <v>170</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I65" s="17" t="s">
         <v>43</v>
@@ -8490,28 +8493,28 @@
       <c r="AG65" s="26"/>
       <c r="AH65" s="26"/>
       <c r="AI65" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AJ65" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK65" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AL65" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM65" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN65" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO65" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AP65" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AQ65" s="8">
         <v>4004</v>
@@ -8536,13 +8539,13 @@
         <v>152</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>55</v>
+        <v>176</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>43</v>
@@ -8595,19 +8598,19 @@
       <c r="AG66" s="26"/>
       <c r="AH66" s="26"/>
       <c r="AI66" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AJ66" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK66" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AL66" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM66" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN66" s="28" t="s">
         <v>157</v>
@@ -8616,7 +8619,7 @@
         <v>158</v>
       </c>
       <c r="AP66" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AQ66" s="8">
         <v>4005</v>
@@ -8641,13 +8644,13 @@
         <v>152</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>55</v>
+        <v>177</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>43</v>
@@ -8700,19 +8703,19 @@
       <c r="AG67" s="26"/>
       <c r="AH67" s="26"/>
       <c r="AI67" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AJ67" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK67" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AL67" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM67" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN67" s="28" t="s">
         <v>157</v>
@@ -8721,7 +8724,7 @@
         <v>158</v>
       </c>
       <c r="AP67" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AQ67" s="8">
         <v>4006</v>
@@ -8746,10 +8749,10 @@
         <v>152</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>55</v>
@@ -8805,19 +8808,19 @@
       <c r="AG68" s="26"/>
       <c r="AH68" s="26"/>
       <c r="AI68" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AJ68" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK68" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AL68" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM68" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN68" s="28" t="s">
         <v>157</v>
@@ -8826,7 +8829,7 @@
         <v>158</v>
       </c>
       <c r="AP68" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AQ68" s="8">
         <v>4007</v>
@@ -8851,10 +8854,10 @@
         <v>152</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>55</v>
@@ -8910,28 +8913,28 @@
       <c r="AG69" s="26"/>
       <c r="AH69" s="26"/>
       <c r="AI69" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AJ69" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK69" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AL69" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM69" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN69" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO69" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AP69" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AQ69" s="8">
         <v>4008</v>
@@ -8956,13 +8959,13 @@
         <v>152</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>55</v>
+        <v>184</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>43</v>
@@ -8999,7 +9002,7 @@
         <v>43</v>
       </c>
       <c r="W70" s="38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="X70" s="17" t="s">
         <v>43</v>
@@ -9015,28 +9018,28 @@
       <c r="AG70" s="26"/>
       <c r="AH70" s="26"/>
       <c r="AI70" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AJ70" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK70" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL70" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AM70" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN70" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO70" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AP70" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AQ70" s="8">
         <v>4009</v>
@@ -9061,13 +9064,13 @@
         <v>152</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>55</v>
+        <v>190</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>43</v>
@@ -9104,7 +9107,7 @@
         <v>43</v>
       </c>
       <c r="W71" s="38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="X71" s="17" t="s">
         <v>43</v>
@@ -9120,28 +9123,28 @@
       <c r="AG71" s="26"/>
       <c r="AH71" s="26"/>
       <c r="AI71" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AJ71" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK71" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL71" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AM71" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN71" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO71" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AP71" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AQ71" s="8">
         <v>4010</v>
@@ -9166,10 +9169,10 @@
         <v>152</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>55</v>
@@ -9185,34 +9188,34 @@
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
       <c r="O72" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P72" s="18" t="s">
         <v>44</v>
       </c>
       <c r="Q72" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="R72" s="36" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="S72" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T72" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="U72" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="V72" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="W72" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="X72" s="36" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
@@ -9225,28 +9228,28 @@
       <c r="AG72" s="26"/>
       <c r="AH72" s="26"/>
       <c r="AI72" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AJ72" s="37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AK72" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL72" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AM72" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN72" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO72" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AP72" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AQ72" s="8">
         <v>4011</v>
@@ -9271,13 +9274,13 @@
         <v>152</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>55</v>
+        <v>194</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>43</v>
@@ -9330,28 +9333,28 @@
       <c r="AG73" s="26"/>
       <c r="AH73" s="26"/>
       <c r="AI73" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AJ73" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK73" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AL73" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM73" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN73" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO73" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AP73" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AQ73" s="8">
         <v>4012</v>
@@ -9376,10 +9379,10 @@
         <v>152</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>55</v>
@@ -9435,19 +9438,19 @@
       <c r="AG74" s="26"/>
       <c r="AH74" s="26"/>
       <c r="AI74" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AJ74" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK74" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AL74" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM74" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN74" s="28" t="s">
         <v>157</v>
@@ -9456,7 +9459,7 @@
         <v>158</v>
       </c>
       <c r="AP74" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AQ74" s="8">
         <v>4013</v>
@@ -9481,10 +9484,10 @@
         <v>152</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>55</v>
@@ -9540,28 +9543,28 @@
       <c r="AG75" s="26"/>
       <c r="AH75" s="26"/>
       <c r="AI75" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AJ75" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK75" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AL75" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM75" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN75" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO75" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AP75" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AQ75" s="8">
         <v>4014</v>
@@ -9586,10 +9589,10 @@
         <v>152</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>55</v>
@@ -9645,28 +9648,28 @@
       <c r="AG76" s="26"/>
       <c r="AH76" s="26"/>
       <c r="AI76" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AJ76" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK76" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AL76" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM76" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN76" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO76" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AP76" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AQ76" s="8">
         <v>4015</v>
@@ -9691,10 +9694,10 @@
         <v>152</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>55</v>
@@ -9750,28 +9753,28 @@
       <c r="AG77" s="26"/>
       <c r="AH77" s="26"/>
       <c r="AI77" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AJ77" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK77" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL77" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM77" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN77" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO77" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AP77" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ77" s="8">
         <v>4016</v>
@@ -9796,10 +9799,10 @@
         <v>152</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>55</v>
@@ -9855,28 +9858,28 @@
       <c r="AG78" s="26"/>
       <c r="AH78" s="26"/>
       <c r="AI78" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AJ78" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK78" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL78" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM78" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN78" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO78" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AP78" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ78" s="8">
         <v>4017</v>
@@ -9901,10 +9904,10 @@
         <v>152</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>55</v>
@@ -9960,28 +9963,28 @@
       <c r="AG79" s="26"/>
       <c r="AH79" s="26"/>
       <c r="AI79" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AJ79" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK79" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL79" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM79" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN79" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO79" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AP79" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ79" s="8">
         <v>4018</v>
@@ -10006,10 +10009,10 @@
         <v>152</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>55</v>
@@ -10065,28 +10068,28 @@
       <c r="AG80" s="26"/>
       <c r="AH80" s="26"/>
       <c r="AI80" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AJ80" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK80" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL80" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM80" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN80" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO80" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AP80" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ80" s="8">
         <v>4019</v>
@@ -10111,10 +10114,10 @@
         <v>152</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>55</v>
@@ -10170,19 +10173,19 @@
       <c r="AG81" s="26"/>
       <c r="AH81" s="26"/>
       <c r="AI81" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AJ81" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK81" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AL81" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM81" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN81" s="28" t="s">
         <v>157</v>
@@ -10191,7 +10194,7 @@
         <v>158</v>
       </c>
       <c r="AP81" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ81" s="8">
         <v>4020</v>
@@ -10216,10 +10219,10 @@
         <v>152</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>55</v>
@@ -10275,28 +10278,28 @@
       <c r="AG82" s="15"/>
       <c r="AH82" s="15"/>
       <c r="AI82" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AJ82" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AK82" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AL82" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM82" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN82" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO82" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AP82" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ82" s="8">
         <v>4021</v>
@@ -10321,10 +10324,10 @@
         <v>152</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>55</v>
@@ -10380,19 +10383,19 @@
       <c r="AG83" s="15"/>
       <c r="AH83" s="15"/>
       <c r="AI83" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AJ83" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK83" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AL83" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM83" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN83" s="28" t="s">
         <v>157</v>
@@ -10401,7 +10404,7 @@
         <v>158</v>
       </c>
       <c r="AP83" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AQ83" s="8">
         <v>4022</v>
@@ -10426,10 +10429,10 @@
         <v>152</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>55</v>
@@ -10485,28 +10488,28 @@
       <c r="AG84" s="15"/>
       <c r="AH84" s="15"/>
       <c r="AI84" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AJ84" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK84" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AL84" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM84" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN84" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO84" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AP84" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AQ84" s="8">
         <v>4023</v>
@@ -10531,10 +10534,10 @@
         <v>152</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>55</v>
@@ -10590,28 +10593,28 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AJ85" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK85" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AL85" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM85" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN85" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO85" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AP85" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AQ85" s="8">
         <v>4024</v>
@@ -10636,10 +10639,10 @@
         <v>152</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>55</v>
@@ -10695,13 +10698,13 @@
       <c r="AG86" s="15"/>
       <c r="AH86" s="15"/>
       <c r="AI86" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AJ86" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK86" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AL86" s="28" t="s">
         <v>155</v>
@@ -10716,7 +10719,7 @@
         <v>158</v>
       </c>
       <c r="AP86" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AQ86" s="8">
         <v>4025</v>
@@ -10741,10 +10744,10 @@
         <v>152</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>55</v>
@@ -10800,13 +10803,13 @@
       <c r="AG87" s="15"/>
       <c r="AH87" s="15"/>
       <c r="AI87" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AJ87" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AL87" s="28" t="s">
         <v>155</v>
@@ -10821,7 +10824,7 @@
         <v>158</v>
       </c>
       <c r="AP87" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AQ87" s="8">
         <v>4026</v>
@@ -10846,10 +10849,10 @@
         <v>152</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>55</v>
@@ -10905,28 +10908,28 @@
       <c r="AG88" s="15"/>
       <c r="AH88" s="15"/>
       <c r="AI88" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AJ88" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AL88" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM88" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN88" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AO88" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AP88" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AQ88" s="8">
         <v>4027</v>
@@ -10953,10 +10956,10 @@
         <v>152</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>55</v>
@@ -11012,28 +11015,28 @@
       <c r="AG89" s="15"/>
       <c r="AH89" s="15"/>
       <c r="AI89" s="27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AJ89" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK89" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL89" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM89" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN89" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AO89" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP89" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ89" s="8">
         <v>4028</v>
@@ -11058,10 +11061,10 @@
         <v>152</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>55</v>
@@ -11115,7 +11118,7 @@
       <c r="AG90" s="15"/>
       <c r="AH90" s="15"/>
       <c r="AI90" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AJ90" s="33" t="s">
         <v>55</v>
@@ -11125,14 +11128,14 @@
         <v>155</v>
       </c>
       <c r="AM90" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN90" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AO90" s="14"/>
       <c r="AP90" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ90" s="8">
         <v>4029</v>
@@ -11157,10 +11160,10 @@
         <v>152</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>55</v>
@@ -11214,7 +11217,7 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="27" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ91" s="33" t="s">
         <v>55</v>
@@ -11224,14 +11227,14 @@
         <v>155</v>
       </c>
       <c r="AM91" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN91" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO91" s="14"/>
       <c r="AP91" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ91" s="8">
         <v>4030</v>
@@ -11258,10 +11261,10 @@
         <v>152</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>55</v>
@@ -11317,28 +11320,28 @@
       <c r="AG92" s="15"/>
       <c r="AH92" s="15"/>
       <c r="AI92" s="27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AJ92" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL92" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM92" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN92" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO92" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AP92" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AQ92" s="8">
         <v>4031</v>
@@ -11363,10 +11366,10 @@
         <v>152</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>55</v>
@@ -11422,28 +11425,28 @@
       <c r="AG93" s="15"/>
       <c r="AH93" s="15"/>
       <c r="AI93" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AJ93" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK93" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AL93" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM93" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN93" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO93" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AP93" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AQ93" s="8">
         <v>4032</v>
@@ -11468,10 +11471,10 @@
         <v>152</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>55</v>
@@ -11527,28 +11530,28 @@
       <c r="AG94" s="15"/>
       <c r="AH94" s="15"/>
       <c r="AI94" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AJ94" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL94" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM94" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN94" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AO94" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP94" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AQ94" s="8">
         <v>4033</v>
@@ -11573,10 +11576,10 @@
         <v>152</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>55</v>
@@ -11632,22 +11635,22 @@
       <c r="AG95" s="15"/>
       <c r="AH95" s="15"/>
       <c r="AI95" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AJ95" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL95" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM95" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN95" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AO95" s="14" t="s">
         <v>158</v>
@@ -11676,10 +11679,10 @@
         <v>152</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>55</v>
@@ -11711,26 +11714,26 @@
       <c r="AG96" s="15"/>
       <c r="AH96" s="15"/>
       <c r="AI96" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AJ96" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK96" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL96" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM96" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN96" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO96" s="32"/>
       <c r="AP96" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AQ96" s="8">
         <v>4035</v>
@@ -11755,10 +11758,10 @@
         <v>152</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>55</v>
@@ -11814,28 +11817,28 @@
       <c r="AG97" s="15"/>
       <c r="AH97" s="15"/>
       <c r="AI97" s="27" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AJ97" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK97" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AL97" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM97" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN97" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AO97" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AP97" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AQ97" s="8">
         <v>4036</v>
@@ -11860,10 +11863,10 @@
         <v>152</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>55</v>
@@ -11895,13 +11898,13 @@
       <c r="AG98" s="15"/>
       <c r="AH98" s="15"/>
       <c r="AI98" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AJ98" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK98" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AL98" s="28" t="s">
         <v>155</v>
@@ -11910,7 +11913,7 @@
       <c r="AN98" s="8"/>
       <c r="AO98" s="8"/>
       <c r="AP98" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AQ98" s="8">
         <v>4037</v>
@@ -11935,10 +11938,10 @@
         <v>152</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>55</v>
@@ -11994,19 +11997,19 @@
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
       <c r="AI99" s="32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AJ99" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AK99" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AL99" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM99" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN99" s="28" t="s">
         <v>157</v>
@@ -12015,7 +12018,7 @@
         <v>158</v>
       </c>
       <c r="AP99" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AQ99" s="8">
         <v>4038</v>
@@ -12040,10 +12043,10 @@
         <v>152</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>55</v>
@@ -12099,28 +12102,28 @@
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
       <c r="AI100" s="32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AJ100" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK100" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AL100" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM100" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN100" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO100" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP100" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AQ100" s="8">
         <v>4039</v>
@@ -12145,10 +12148,10 @@
         <v>152</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>55</v>
@@ -12180,20 +12183,20 @@
       <c r="AG101" s="15"/>
       <c r="AH101" s="15"/>
       <c r="AI101" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AJ101" s="33"/>
       <c r="AK101" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AL101" s="28"/>
       <c r="AM101" s="28"/>
       <c r="AN101" s="28"/>
       <c r="AO101" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AP101" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AQ101" s="8">
         <v>4040</v>
@@ -12218,10 +12221,10 @@
         <v>152</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>55</v>
@@ -12277,13 +12280,13 @@
       <c r="AG102" s="15"/>
       <c r="AH102" s="15"/>
       <c r="AI102" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AJ102" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AL102" s="28" t="s">
         <v>155</v>
@@ -12298,7 +12301,7 @@
         <v>158</v>
       </c>
       <c r="AP102" s="29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AQ102" s="8">
         <v>4041</v>
@@ -12323,10 +12326,10 @@
         <v>152</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>55</v>
@@ -12382,28 +12385,28 @@
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AJ103" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AL103" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM103" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN103" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO103" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AP103" s="29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AQ103" s="8">
         <v>4042</v>
@@ -12428,10 +12431,10 @@
         <v>152</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>55</v>
@@ -12487,28 +12490,28 @@
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AJ104" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AL104" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM104" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN104" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO104" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AP104" s="29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AQ104" s="8">
         <v>4043</v>
@@ -12533,10 +12536,10 @@
         <v>152</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>55</v>
@@ -12592,28 +12595,28 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AJ105" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AL105" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM105" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN105" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO105" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP105" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AQ105" s="8">
         <v>4044</v>
@@ -12638,10 +12641,10 @@
         <v>152</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>55</v>
@@ -12697,22 +12700,22 @@
       <c r="AG106" s="8"/>
       <c r="AH106" s="8"/>
       <c r="AI106" s="27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AJ106" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK106" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AL106" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM106" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN106" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO106" s="14" t="s">
         <v>158</v>
@@ -12741,10 +12744,10 @@
         <v>152</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>55</v>
@@ -12800,22 +12803,22 @@
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
       <c r="AI107" s="27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AJ107" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AL107" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM107" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN107" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO107" s="14" t="s">
         <v>158</v>
@@ -12844,10 +12847,10 @@
         <v>152</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>55</v>
@@ -12901,26 +12904,26 @@
       <c r="AG108" s="8"/>
       <c r="AH108" s="8"/>
       <c r="AI108" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AJ108" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK108" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AL108" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM108" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN108" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO108" s="14"/>
       <c r="AP108" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ108" s="8">
         <v>4047</v>
@@ -12945,10 +12948,10 @@
         <v>152</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>55</v>
@@ -13004,28 +13007,28 @@
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
       <c r="AI109" s="27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AJ109" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AK109" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AL109" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM109" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN109" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO109" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AP109" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AQ109" s="8">
         <v>4048</v>
@@ -13050,10 +13053,10 @@
         <v>152</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>55</v>
@@ -13085,13 +13088,13 @@
       <c r="AG110" s="8"/>
       <c r="AH110" s="8"/>
       <c r="AI110" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AJ110" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK110" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL110" s="28" t="s">
         <v>155</v>
@@ -13100,7 +13103,7 @@
       <c r="AN110" s="8"/>
       <c r="AO110" s="8"/>
       <c r="AP110" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AQ110" s="8">
         <v>4049</v>
@@ -13125,10 +13128,10 @@
         <v>152</v>
       </c>
       <c r="F111" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>55</v>
@@ -13160,13 +13163,13 @@
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AJ111" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL111" s="28" t="s">
         <v>155</v>
@@ -13175,7 +13178,7 @@
       <c r="AN111" s="8"/>
       <c r="AO111" s="8"/>
       <c r="AP111" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AQ111" s="8">
         <v>4050</v>
@@ -13200,10 +13203,10 @@
         <v>152</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>55</v>
@@ -13259,19 +13262,19 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AJ112" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AL112" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM112" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN112" s="28" t="s">
         <v>157</v>
@@ -13280,7 +13283,7 @@
         <v>158</v>
       </c>
       <c r="AP112" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AQ112" s="8">
         <v>4051</v>
@@ -13305,10 +13308,10 @@
         <v>152</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>55</v>
@@ -13364,25 +13367,25 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AJ113" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AL113" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM113" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN113" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO113" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AP113" s="29"/>
       <c r="AQ113" s="8">
@@ -13408,10 +13411,10 @@
         <v>152</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>55</v>
@@ -13467,28 +13470,28 @@
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AJ114" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AL114" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM114" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN114" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO114" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AP114" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AQ114" s="8">
         <v>4053</v>
@@ -13513,10 +13516,10 @@
         <v>152</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>55</v>
@@ -13572,28 +13575,28 @@
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AJ115" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AL115" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM115" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN115" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO115" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AP115" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AQ115" s="8">
         <v>4054</v>
@@ -13618,10 +13621,10 @@
         <v>152</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>55</v>
@@ -13677,28 +13680,28 @@
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AJ116" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK116" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AL116" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM116" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN116" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO116" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AP116" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AQ116" s="8">
         <v>4055</v>
@@ -13723,10 +13726,10 @@
         <v>152</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>55</v>
@@ -13782,28 +13785,28 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AJ117" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AL117" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM117" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN117" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO117" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AP117" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AQ117" s="8">
         <v>4056</v>
@@ -13828,10 +13831,10 @@
         <v>152</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>55</v>
@@ -13887,28 +13890,28 @@
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AJ118" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK118" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AL118" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM118" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN118" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO118" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AP118" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AQ118" s="8">
         <v>4057</v>
@@ -13933,10 +13936,10 @@
         <v>152</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>55</v>
@@ -13992,28 +13995,28 @@
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
       <c r="AI119" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ119" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK119" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AL119" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM119" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN119" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO119" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AP119" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AQ119" s="8">
         <v>4058</v>
@@ -14038,10 +14041,10 @@
         <v>152</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G120" s="31" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>55</v>
@@ -14095,7 +14098,7 @@
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
       <c r="AI120" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AJ120" s="33" t="s">
         <v>55</v>
@@ -14105,14 +14108,14 @@
         <v>155</v>
       </c>
       <c r="AM120" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN120" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO120" s="32"/>
       <c r="AP120" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ120" s="8">
         <v>4059</v>
@@ -14137,10 +14140,10 @@
         <v>152</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G121" s="31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>55</v>
@@ -14194,7 +14197,7 @@
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
       <c r="AI121" s="27" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AJ121" s="33" t="s">
         <v>55</v>
@@ -14204,14 +14207,14 @@
         <v>155</v>
       </c>
       <c r="AM121" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN121" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AO121" s="32"/>
       <c r="AP121" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ121" s="8">
         <v>4060</v>
@@ -14236,10 +14239,10 @@
         <v>152</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G122" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>55</v>
@@ -14293,7 +14296,7 @@
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
       <c r="AI122" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AJ122" s="33" t="s">
         <v>55</v>
@@ -14303,14 +14306,14 @@
         <v>155</v>
       </c>
       <c r="AM122" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN122" s="28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO122" s="28"/>
       <c r="AP122" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AQ122" s="8">
         <v>4061</v>
@@ -14335,10 +14338,10 @@
         <v>152</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>55</v>
@@ -14394,13 +14397,13 @@
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
       <c r="AI123" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AJ123" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK123" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AL123" s="28" t="s">
         <v>155</v>
@@ -14409,7 +14412,7 @@
       <c r="AN123" s="8"/>
       <c r="AO123" s="35"/>
       <c r="AP123" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AQ123" s="8">
         <v>4062</v>
@@ -14434,10 +14437,10 @@
         <v>152</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>55</v>
@@ -14469,13 +14472,13 @@
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
       <c r="AI124" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AJ124" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AL124" s="28" t="s">
         <v>155</v>
@@ -14484,7 +14487,7 @@
       <c r="AN124" s="8"/>
       <c r="AO124" s="35"/>
       <c r="AP124" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AQ124" s="8">
         <v>4063</v>
@@ -14509,10 +14512,10 @@
         <v>152</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>55</v>
@@ -14544,13 +14547,13 @@
       <c r="AG125" s="8"/>
       <c r="AH125" s="8"/>
       <c r="AI125" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AJ125" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK125" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AL125" s="28" t="s">
         <v>155</v>
@@ -14559,7 +14562,7 @@
       <c r="AN125" s="8"/>
       <c r="AO125" s="35"/>
       <c r="AP125" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AQ125" s="8">
         <v>4064</v>
@@ -14578,16 +14581,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>55</v>
@@ -14641,14 +14644,14 @@
       <c r="AG126" s="8"/>
       <c r="AH126" s="8"/>
       <c r="AI126" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AJ126" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK126" s="8"/>
       <c r="AL126" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM126" s="8"/>
       <c r="AN126" s="8"/>
@@ -14671,16 +14674,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>55</v>
@@ -14734,14 +14737,14 @@
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
       <c r="AI127" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AJ127" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AK127" s="8"/>
       <c r="AL127" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM127" s="8"/>
       <c r="AN127" s="8"/>
@@ -14855,22 +14858,22 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14878,16 +14881,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>43</v>
@@ -14896,7 +14899,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14904,25 +14907,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14930,16 +14933,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
@@ -14948,7 +14951,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14956,16 +14959,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>43</v>
@@ -14974,7 +14977,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14982,16 +14985,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>43</v>
@@ -15000,7 +15003,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15008,16 +15011,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>43</v>
@@ -15026,7 +15029,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15034,25 +15037,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15060,25 +15063,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15086,25 +15089,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15112,25 +15115,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15138,16 +15141,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
@@ -15156,7 +15159,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15164,16 +15167,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
@@ -15182,7 +15185,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15190,16 +15193,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>43</v>
@@ -15208,7 +15211,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15216,16 +15219,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>43</v>
@@ -15234,7 +15237,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15242,16 +15245,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>43</v>
@@ -15260,7 +15263,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15268,16 +15271,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>43</v>
@@ -15286,7 +15289,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15294,16 +15297,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>43</v>
@@ -15312,7 +15315,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15320,16 +15323,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>55</v>
@@ -15338,7 +15341,7 @@
         <v>55</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15346,19 +15349,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E656B1-AB27-4A05-BD99-B6DF44F7AF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF79494-D549-4B7A-B44D-03A5E4690D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3060,10 +3060,10 @@
   <dimension ref="A1:AR128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O72" sqref="O72"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9316,8 +9316,8 @@
       <c r="V73" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W73" s="10" t="s">
-        <v>55</v>
+      <c r="W73" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="X73" s="17" t="s">
         <v>43</v>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF79494-D549-4B7A-B44D-03A5E4690D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB85035-1BA6-4598-9740-7EABABBAD0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="428">
   <si>
     <t>插件</t>
   </si>
@@ -1731,15 +1731,6 @@
   </si>
   <si>
     <t>HJ-1A</t>
-  </si>
-  <si>
-    <t>plugins_4011_HJ</t>
-  </si>
-  <si>
-    <t>环境一号A/B/C星</t>
-  </si>
-  <si>
-    <t>CCD1/CCD2</t>
   </si>
   <si>
     <t>NDI_HJ</t>
@@ -2347,6 +2338,22 @@
   </si>
   <si>
     <t>NDI_CB04</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4011_HJ</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境一号A/B/C星</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD1/CCD2</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-1A/B/C</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -3060,10 +3067,10 @@
   <dimension ref="A1:AR128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="O85" sqref="O85:X85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8122,7 +8129,7 @@
         <v>153</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>43</v>
@@ -8227,7 +8234,7 @@
         <v>160</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H63" s="17" t="s">
         <v>43</v>
@@ -8289,7 +8296,7 @@
         <v>43</v>
       </c>
       <c r="AK63" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AL63" s="28" t="s">
         <v>155</v>
@@ -8304,7 +8311,7 @@
         <v>163</v>
       </c>
       <c r="AP63" s="29" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AQ63" s="8">
         <v>4002</v>
@@ -8334,8 +8341,8 @@
       <c r="G64" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>55</v>
+      <c r="H64" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I64" s="17" t="s">
         <v>43</v>
@@ -8347,35 +8354,35 @@
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
       <c r="N64" s="21"/>
-      <c r="O64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W64" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X64" s="22" t="s">
-        <v>55</v>
+      <c r="O64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X64" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
@@ -9002,7 +9009,7 @@
         <v>43</v>
       </c>
       <c r="W70" s="38" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="X70" s="17" t="s">
         <v>43</v>
@@ -9107,7 +9114,7 @@
         <v>43</v>
       </c>
       <c r="W71" s="38" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="X71" s="17" t="s">
         <v>43</v>
@@ -9188,34 +9195,34 @@
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
       <c r="O72" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P72" s="18" t="s">
         <v>44</v>
       </c>
       <c r="Q72" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="R72" s="36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="S72" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="T72" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="U72" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="V72" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="W72" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="X72" s="36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
@@ -9231,7 +9238,7 @@
         <v>185</v>
       </c>
       <c r="AJ72" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AK72" s="14" t="s">
         <v>186</v>
@@ -10537,10 +10544,10 @@
         <v>224</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>55</v>
+        <v>424</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>43</v>
@@ -10552,35 +10559,35 @@
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
-      <c r="O85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X85" s="22" t="s">
-        <v>55</v>
+      <c r="O85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X85" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
@@ -10593,13 +10600,13 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="27" t="s">
-        <v>224</v>
+        <v>427</v>
       </c>
       <c r="AJ85" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK85" s="14" t="s">
-        <v>226</v>
+        <v>425</v>
       </c>
       <c r="AL85" s="28" t="s">
         <v>155</v>
@@ -10611,10 +10618,10 @@
         <v>157</v>
       </c>
       <c r="AO85" s="14" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
       <c r="AP85" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AQ85" s="8">
         <v>4024</v>
@@ -10639,10 +10646,10 @@
         <v>152</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>55</v>
@@ -10698,13 +10705,13 @@
       <c r="AG86" s="15"/>
       <c r="AH86" s="15"/>
       <c r="AI86" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AJ86" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK86" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AL86" s="28" t="s">
         <v>155</v>
@@ -10719,7 +10726,7 @@
         <v>158</v>
       </c>
       <c r="AP86" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AQ86" s="8">
         <v>4025</v>
@@ -10744,10 +10751,10 @@
         <v>152</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>55</v>
@@ -10803,13 +10810,13 @@
       <c r="AG87" s="15"/>
       <c r="AH87" s="15"/>
       <c r="AI87" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AJ87" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AL87" s="28" t="s">
         <v>155</v>
@@ -10824,7 +10831,7 @@
         <v>158</v>
       </c>
       <c r="AP87" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AQ87" s="8">
         <v>4026</v>
@@ -10849,10 +10856,10 @@
         <v>152</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>55</v>
@@ -10908,13 +10915,13 @@
       <c r="AG88" s="15"/>
       <c r="AH88" s="15"/>
       <c r="AI88" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AJ88" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AL88" s="28" t="s">
         <v>155</v>
@@ -10923,13 +10930,13 @@
         <v>161</v>
       </c>
       <c r="AN88" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AO88" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AP88" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AQ88" s="8">
         <v>4027</v>
@@ -10956,10 +10963,10 @@
         <v>152</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>55</v>
@@ -11015,13 +11022,13 @@
       <c r="AG89" s="15"/>
       <c r="AH89" s="15"/>
       <c r="AI89" s="27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AJ89" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK89" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AL89" s="28" t="s">
         <v>155</v>
@@ -11030,13 +11037,13 @@
         <v>161</v>
       </c>
       <c r="AN89" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AO89" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP89" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AQ89" s="8">
         <v>4028</v>
@@ -11061,10 +11068,10 @@
         <v>152</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>55</v>
@@ -11118,7 +11125,7 @@
       <c r="AG90" s="15"/>
       <c r="AH90" s="15"/>
       <c r="AI90" s="27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AJ90" s="33" t="s">
         <v>55</v>
@@ -11131,11 +11138,11 @@
         <v>161</v>
       </c>
       <c r="AN90" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AO90" s="14"/>
       <c r="AP90" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ90" s="8">
         <v>4029</v>
@@ -11160,10 +11167,10 @@
         <v>152</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>55</v>
@@ -11217,7 +11224,7 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AJ91" s="33" t="s">
         <v>55</v>
@@ -11230,11 +11237,11 @@
         <v>161</v>
       </c>
       <c r="AN91" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO91" s="14"/>
       <c r="AP91" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ91" s="8">
         <v>4030</v>
@@ -11261,10 +11268,10 @@
         <v>152</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>55</v>
@@ -11320,13 +11327,13 @@
       <c r="AG92" s="15"/>
       <c r="AH92" s="15"/>
       <c r="AI92" s="27" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ92" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL92" s="28" t="s">
         <v>155</v>
@@ -11335,13 +11342,13 @@
         <v>161</v>
       </c>
       <c r="AN92" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO92" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AP92" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AQ92" s="8">
         <v>4031</v>
@@ -11366,10 +11373,10 @@
         <v>152</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>55</v>
@@ -11425,13 +11432,13 @@
       <c r="AG93" s="15"/>
       <c r="AH93" s="15"/>
       <c r="AI93" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AJ93" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK93" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AL93" s="28" t="s">
         <v>155</v>
@@ -11440,13 +11447,13 @@
         <v>161</v>
       </c>
       <c r="AN93" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO93" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AP93" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AQ93" s="8">
         <v>4032</v>
@@ -11471,10 +11478,10 @@
         <v>152</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>55</v>
@@ -11530,13 +11537,13 @@
       <c r="AG94" s="15"/>
       <c r="AH94" s="15"/>
       <c r="AI94" s="27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AJ94" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL94" s="28" t="s">
         <v>155</v>
@@ -11545,13 +11552,13 @@
         <v>161</v>
       </c>
       <c r="AN94" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO94" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP94" s="29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AQ94" s="8">
         <v>4033</v>
@@ -11576,10 +11583,10 @@
         <v>152</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>55</v>
@@ -11635,13 +11642,13 @@
       <c r="AG95" s="15"/>
       <c r="AH95" s="15"/>
       <c r="AI95" s="27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AJ95" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AL95" s="28" t="s">
         <v>155</v>
@@ -11650,7 +11657,7 @@
         <v>161</v>
       </c>
       <c r="AN95" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO95" s="14" t="s">
         <v>158</v>
@@ -11679,10 +11686,10 @@
         <v>152</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>55</v>
@@ -11714,13 +11721,13 @@
       <c r="AG96" s="15"/>
       <c r="AH96" s="15"/>
       <c r="AI96" s="27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AJ96" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK96" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL96" s="28" t="s">
         <v>155</v>
@@ -11729,11 +11736,11 @@
         <v>161</v>
       </c>
       <c r="AN96" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO96" s="32"/>
       <c r="AP96" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AQ96" s="8">
         <v>4035</v>
@@ -11758,10 +11765,10 @@
         <v>152</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>55</v>
@@ -11817,13 +11824,13 @@
       <c r="AG97" s="15"/>
       <c r="AH97" s="15"/>
       <c r="AI97" s="27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AJ97" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK97" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AL97" s="28" t="s">
         <v>155</v>
@@ -11832,13 +11839,13 @@
         <v>161</v>
       </c>
       <c r="AN97" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AO97" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AP97" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AQ97" s="8">
         <v>4036</v>
@@ -11863,10 +11870,10 @@
         <v>152</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>55</v>
@@ -11898,13 +11905,13 @@
       <c r="AG98" s="15"/>
       <c r="AH98" s="15"/>
       <c r="AI98" s="27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AJ98" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK98" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AL98" s="28" t="s">
         <v>155</v>
@@ -11913,7 +11920,7 @@
       <c r="AN98" s="8"/>
       <c r="AO98" s="8"/>
       <c r="AP98" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AQ98" s="8">
         <v>4037</v>
@@ -11938,10 +11945,10 @@
         <v>152</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>55</v>
@@ -11997,13 +12004,13 @@
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
       <c r="AI99" s="32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AJ99" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AK99" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AL99" s="28" t="s">
         <v>155</v>
@@ -12018,7 +12025,7 @@
         <v>158</v>
       </c>
       <c r="AP99" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AQ99" s="8">
         <v>4038</v>
@@ -12043,10 +12050,10 @@
         <v>152</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>55</v>
@@ -12102,13 +12109,13 @@
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
       <c r="AI100" s="32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AJ100" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK100" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AL100" s="28" t="s">
         <v>155</v>
@@ -12120,10 +12127,10 @@
         <v>157</v>
       </c>
       <c r="AO100" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AP100" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AQ100" s="8">
         <v>4039</v>
@@ -12148,10 +12155,10 @@
         <v>152</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>55</v>
@@ -12183,20 +12190,20 @@
       <c r="AG101" s="15"/>
       <c r="AH101" s="15"/>
       <c r="AI101" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AJ101" s="33"/>
       <c r="AK101" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL101" s="28"/>
       <c r="AM101" s="28"/>
       <c r="AN101" s="28"/>
       <c r="AO101" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AP101" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AQ101" s="8">
         <v>4040</v>
@@ -12221,10 +12228,10 @@
         <v>152</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>55</v>
@@ -12280,13 +12287,13 @@
       <c r="AG102" s="15"/>
       <c r="AH102" s="15"/>
       <c r="AI102" s="27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AJ102" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AL102" s="28" t="s">
         <v>155</v>
@@ -12301,7 +12308,7 @@
         <v>158</v>
       </c>
       <c r="AP102" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AQ102" s="8">
         <v>4041</v>
@@ -12326,10 +12333,10 @@
         <v>152</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>55</v>
@@ -12385,13 +12392,13 @@
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AJ103" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AL103" s="28" t="s">
         <v>155</v>
@@ -12403,10 +12410,10 @@
         <v>157</v>
       </c>
       <c r="AO103" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AP103" s="29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AQ103" s="8">
         <v>4042</v>
@@ -12431,10 +12438,10 @@
         <v>152</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>55</v>
@@ -12490,13 +12497,13 @@
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AJ104" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AL104" s="28" t="s">
         <v>155</v>
@@ -12508,10 +12515,10 @@
         <v>157</v>
       </c>
       <c r="AO104" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AP104" s="29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AQ104" s="8">
         <v>4043</v>
@@ -12536,10 +12543,10 @@
         <v>152</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>55</v>
@@ -12595,13 +12602,13 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AJ105" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AL105" s="28" t="s">
         <v>155</v>
@@ -12610,13 +12617,13 @@
         <v>161</v>
       </c>
       <c r="AN105" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO105" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP105" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AQ105" s="8">
         <v>4044</v>
@@ -12641,10 +12648,10 @@
         <v>152</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>55</v>
@@ -12700,13 +12707,13 @@
       <c r="AG106" s="8"/>
       <c r="AH106" s="8"/>
       <c r="AI106" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AJ106" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK106" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AL106" s="28" t="s">
         <v>155</v>
@@ -12715,7 +12722,7 @@
         <v>161</v>
       </c>
       <c r="AN106" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO106" s="14" t="s">
         <v>158</v>
@@ -12744,10 +12751,10 @@
         <v>152</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>55</v>
@@ -12803,13 +12810,13 @@
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
       <c r="AI107" s="27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AJ107" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AL107" s="28" t="s">
         <v>155</v>
@@ -12818,7 +12825,7 @@
         <v>161</v>
       </c>
       <c r="AN107" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO107" s="14" t="s">
         <v>158</v>
@@ -12847,10 +12854,10 @@
         <v>152</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>55</v>
@@ -12904,13 +12911,13 @@
       <c r="AG108" s="8"/>
       <c r="AH108" s="8"/>
       <c r="AI108" s="27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AJ108" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK108" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AL108" s="28" t="s">
         <v>155</v>
@@ -12919,11 +12926,11 @@
         <v>161</v>
       </c>
       <c r="AN108" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO108" s="14"/>
       <c r="AP108" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ108" s="8">
         <v>4047</v>
@@ -12948,10 +12955,10 @@
         <v>152</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>55</v>
@@ -13007,13 +13014,13 @@
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
       <c r="AI109" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AJ109" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AK109" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AL109" s="28" t="s">
         <v>155</v>
@@ -13025,10 +13032,10 @@
         <v>157</v>
       </c>
       <c r="AO109" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AP109" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AQ109" s="8">
         <v>4048</v>
@@ -13053,10 +13060,10 @@
         <v>152</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>55</v>
@@ -13088,13 +13095,13 @@
       <c r="AG110" s="8"/>
       <c r="AH110" s="8"/>
       <c r="AI110" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AJ110" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK110" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AL110" s="28" t="s">
         <v>155</v>
@@ -13103,7 +13110,7 @@
       <c r="AN110" s="8"/>
       <c r="AO110" s="8"/>
       <c r="AP110" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AQ110" s="8">
         <v>4049</v>
@@ -13128,10 +13135,10 @@
         <v>152</v>
       </c>
       <c r="F111" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>55</v>
@@ -13163,13 +13170,13 @@
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AJ111" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AL111" s="28" t="s">
         <v>155</v>
@@ -13178,7 +13185,7 @@
       <c r="AN111" s="8"/>
       <c r="AO111" s="8"/>
       <c r="AP111" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AQ111" s="8">
         <v>4050</v>
@@ -13203,10 +13210,10 @@
         <v>152</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>55</v>
@@ -13262,13 +13269,13 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AJ112" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL112" s="28" t="s">
         <v>155</v>
@@ -13283,7 +13290,7 @@
         <v>158</v>
       </c>
       <c r="AP112" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AQ112" s="8">
         <v>4051</v>
@@ -13308,10 +13315,10 @@
         <v>152</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>55</v>
@@ -13367,13 +13374,13 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AJ113" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL113" s="28" t="s">
         <v>155</v>
@@ -13385,7 +13392,7 @@
         <v>157</v>
       </c>
       <c r="AO113" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AP113" s="29"/>
       <c r="AQ113" s="8">
@@ -13411,10 +13418,10 @@
         <v>152</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>55</v>
@@ -13470,13 +13477,13 @@
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AJ114" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL114" s="28" t="s">
         <v>155</v>
@@ -13488,10 +13495,10 @@
         <v>157</v>
       </c>
       <c r="AO114" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AP114" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AQ114" s="8">
         <v>4053</v>
@@ -13516,10 +13523,10 @@
         <v>152</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>55</v>
@@ -13575,13 +13582,13 @@
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ115" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AL115" s="28" t="s">
         <v>155</v>
@@ -13593,10 +13600,10 @@
         <v>157</v>
       </c>
       <c r="AO115" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AP115" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ115" s="8">
         <v>4054</v>
@@ -13621,10 +13628,10 @@
         <v>152</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>55</v>
@@ -13680,13 +13687,13 @@
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ116" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK116" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AL116" s="28" t="s">
         <v>155</v>
@@ -13698,10 +13705,10 @@
         <v>157</v>
       </c>
       <c r="AO116" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AP116" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ116" s="8">
         <v>4055</v>
@@ -13726,10 +13733,10 @@
         <v>152</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>55</v>
@@ -13785,13 +13792,13 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ117" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AL117" s="28" t="s">
         <v>155</v>
@@ -13803,10 +13810,10 @@
         <v>157</v>
       </c>
       <c r="AO117" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AP117" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ117" s="8">
         <v>4056</v>
@@ -13831,10 +13838,10 @@
         <v>152</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>55</v>
@@ -13890,13 +13897,13 @@
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ118" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK118" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AL118" s="28" t="s">
         <v>155</v>
@@ -13908,10 +13915,10 @@
         <v>157</v>
       </c>
       <c r="AO118" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AP118" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ118" s="8">
         <v>4057</v>
@@ -13936,10 +13943,10 @@
         <v>152</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>55</v>
@@ -13995,13 +14002,13 @@
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
       <c r="AI119" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AJ119" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK119" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AL119" s="28" t="s">
         <v>155</v>
@@ -14013,10 +14020,10 @@
         <v>157</v>
       </c>
       <c r="AO119" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AP119" s="29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AQ119" s="8">
         <v>4058</v>
@@ -14041,10 +14048,10 @@
         <v>152</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G120" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>55</v>
@@ -14098,7 +14105,7 @@
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
       <c r="AI120" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ120" s="33" t="s">
         <v>55</v>
@@ -14111,11 +14118,11 @@
         <v>161</v>
       </c>
       <c r="AN120" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO120" s="32"/>
       <c r="AP120" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ120" s="8">
         <v>4059</v>
@@ -14140,10 +14147,10 @@
         <v>152</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G121" s="31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>55</v>
@@ -14197,7 +14204,7 @@
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
       <c r="AI121" s="27" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AJ121" s="33" t="s">
         <v>55</v>
@@ -14210,11 +14217,11 @@
         <v>161</v>
       </c>
       <c r="AN121" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AO121" s="32"/>
       <c r="AP121" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ121" s="8">
         <v>4060</v>
@@ -14239,10 +14246,10 @@
         <v>152</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G122" s="31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>55</v>
@@ -14296,7 +14303,7 @@
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
       <c r="AI122" s="27" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AJ122" s="33" t="s">
         <v>55</v>
@@ -14309,11 +14316,11 @@
         <v>161</v>
       </c>
       <c r="AN122" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO122" s="28"/>
       <c r="AP122" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ122" s="8">
         <v>4061</v>
@@ -14338,10 +14345,10 @@
         <v>152</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>55</v>
@@ -14397,13 +14404,13 @@
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
       <c r="AI123" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AJ123" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK123" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AL123" s="28" t="s">
         <v>155</v>
@@ -14412,7 +14419,7 @@
       <c r="AN123" s="8"/>
       <c r="AO123" s="35"/>
       <c r="AP123" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AQ123" s="8">
         <v>4062</v>
@@ -14437,10 +14444,10 @@
         <v>152</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>55</v>
@@ -14472,13 +14479,13 @@
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
       <c r="AI124" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AJ124" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AL124" s="28" t="s">
         <v>155</v>
@@ -14487,7 +14494,7 @@
       <c r="AN124" s="8"/>
       <c r="AO124" s="35"/>
       <c r="AP124" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AQ124" s="8">
         <v>4063</v>
@@ -14512,10 +14519,10 @@
         <v>152</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>55</v>
@@ -14547,13 +14554,13 @@
       <c r="AG125" s="8"/>
       <c r="AH125" s="8"/>
       <c r="AI125" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AJ125" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK125" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AL125" s="28" t="s">
         <v>155</v>
@@ -14562,7 +14569,7 @@
       <c r="AN125" s="8"/>
       <c r="AO125" s="35"/>
       <c r="AP125" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AQ125" s="8">
         <v>4064</v>
@@ -14581,16 +14588,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>55</v>
@@ -14644,14 +14651,14 @@
       <c r="AG126" s="8"/>
       <c r="AH126" s="8"/>
       <c r="AI126" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AJ126" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK126" s="8"/>
       <c r="AL126" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AM126" s="8"/>
       <c r="AN126" s="8"/>
@@ -14674,16 +14681,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>55</v>
@@ -14737,14 +14744,14 @@
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
       <c r="AI127" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AJ127" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AK127" s="8"/>
       <c r="AL127" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AM127" s="8"/>
       <c r="AN127" s="8"/>
@@ -14858,22 +14865,22 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14881,16 +14888,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>43</v>
@@ -14899,7 +14906,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14907,25 +14914,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14933,16 +14940,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
@@ -14951,7 +14958,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14959,16 +14966,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>43</v>
@@ -14977,7 +14984,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14985,16 +14992,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>43</v>
@@ -15003,7 +15010,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15011,16 +15018,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>43</v>
@@ -15029,7 +15036,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15037,25 +15044,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15063,25 +15070,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15089,25 +15096,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15115,25 +15122,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15141,16 +15148,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
@@ -15159,7 +15166,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15167,16 +15174,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>399</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
@@ -15185,7 +15192,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15193,16 +15200,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>43</v>
@@ -15211,7 +15218,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15219,16 +15226,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>43</v>
@@ -15237,7 +15244,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15245,16 +15252,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>43</v>
@@ -15263,7 +15270,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15271,16 +15278,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>43</v>
@@ -15289,7 +15296,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15297,16 +15304,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>43</v>
@@ -15315,7 +15322,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15323,16 +15330,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>55</v>
@@ -15341,7 +15348,7 @@
         <v>55</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15349,19 +15356,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB85035-1BA6-4598-9740-7EABABBAD0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A48F5-53F6-48C6-83CC-EA581BD4A3C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="同步插件-即时服务" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'插件列表-识别质检'!$A$2:$AH$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'插件列表-识别质检'!$A$2:$AH$127</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -908,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="AR87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -930,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="G89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -952,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="AO91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -974,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="G97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="427">
   <si>
     <t>插件</t>
   </si>
@@ -1746,9 +1746,6 @@
   </si>
   <si>
     <t>NDI_JL1</t>
-  </si>
-  <si>
-    <t>plugins_4012_JL-1_PMS1</t>
   </si>
   <si>
     <t>KOMPSAT-2</t>
@@ -3064,13 +3061,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79973754081850645"/>
   </sheetPr>
-  <dimension ref="A1:AR128"/>
+  <dimension ref="A1:AR127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O85" sqref="O85:X85"/>
+      <selection pane="bottomRight" activeCell="X86" sqref="O86:X86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8129,7 +8126,7 @@
         <v>153</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>43</v>
@@ -8234,7 +8231,7 @@
         <v>160</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H63" s="17" t="s">
         <v>43</v>
@@ -8296,7 +8293,7 @@
         <v>43</v>
       </c>
       <c r="AK63" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL63" s="28" t="s">
         <v>155</v>
@@ -8311,7 +8308,7 @@
         <v>163</v>
       </c>
       <c r="AP63" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ63" s="8">
         <v>4002</v>
@@ -9009,7 +9006,7 @@
         <v>43</v>
       </c>
       <c r="W70" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X70" s="17" t="s">
         <v>43</v>
@@ -9114,7 +9111,7 @@
         <v>43</v>
       </c>
       <c r="W71" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X71" s="17" t="s">
         <v>43</v>
@@ -9195,34 +9192,34 @@
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
       <c r="O72" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P72" s="18" t="s">
         <v>44</v>
       </c>
       <c r="Q72" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R72" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S72" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T72" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U72" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V72" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W72" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X72" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
@@ -9238,7 +9235,7 @@
         <v>185</v>
       </c>
       <c r="AJ72" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK72" s="14" t="s">
         <v>186</v>
@@ -9481,7 +9478,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="15" t="str">
-        <f t="shared" ref="C75:C100" si="1">AL75</f>
+        <f t="shared" ref="C75:C99" si="1">AL75</f>
         <v>光学</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -10544,7 +10541,7 @@
         <v>224</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H85" s="17" t="s">
         <v>43</v>
@@ -10600,13 +10597,13 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AJ85" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK85" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL85" s="28" t="s">
         <v>155</v>
@@ -10618,7 +10615,7 @@
         <v>157</v>
       </c>
       <c r="AO85" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AP85" s="29" t="s">
         <v>225</v>
@@ -10664,35 +10661,35 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X86" s="22" t="s">
-        <v>55</v>
+      <c r="O86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X86" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
@@ -10735,7 +10732,7 @@
     </row>
     <row r="87" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>37</v>
@@ -10751,10 +10748,10 @@
         <v>152</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>55</v>
@@ -10810,37 +10807,39 @@
       <c r="AG87" s="15"/>
       <c r="AH87" s="15"/>
       <c r="AI87" s="27" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AJ87" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AL87" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM87" s="28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AN87" s="28" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="AO87" s="14" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="AP87" s="29" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AQ87" s="8">
         <v>4026</v>
       </c>
-      <c r="AR87" s="8"/>
+      <c r="AR87" s="33" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="88" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>37</v>
@@ -10856,10 +10855,10 @@
         <v>152</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>55</v>
@@ -10915,13 +10914,13 @@
       <c r="AG88" s="15"/>
       <c r="AH88" s="15"/>
       <c r="AI88" s="27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AJ88" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AL88" s="28" t="s">
         <v>155</v>
@@ -10930,24 +10929,22 @@
         <v>161</v>
       </c>
       <c r="AN88" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AO88" s="14" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="AP88" s="29" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AQ88" s="8">
         <v>4027</v>
       </c>
-      <c r="AR88" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="AR88" s="33"/>
     </row>
     <row r="89" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>37</v>
@@ -10963,17 +10960,15 @@
         <v>152</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I89" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I89" s="15"/>
       <c r="J89" s="15"/>
       <c r="K89" s="18" t="s">
         <v>43</v>
@@ -11022,14 +11017,12 @@
       <c r="AG89" s="15"/>
       <c r="AH89" s="15"/>
       <c r="AI89" s="27" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AJ89" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AK89" s="14" t="s">
-        <v>239</v>
-      </c>
+      <c r="AK89" s="14"/>
       <c r="AL89" s="28" t="s">
         <v>155</v>
       </c>
@@ -11037,22 +11030,20 @@
         <v>161</v>
       </c>
       <c r="AN89" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO89" s="14" t="s">
-        <v>158</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AO89" s="14"/>
       <c r="AP89" s="29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AQ89" s="8">
         <v>4028</v>
       </c>
-      <c r="AR89" s="33"/>
+      <c r="AR89" s="8"/>
     </row>
     <row r="90" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>37</v>
@@ -11068,10 +11059,10 @@
         <v>152</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>55</v>
@@ -11125,7 +11116,7 @@
       <c r="AG90" s="15"/>
       <c r="AH90" s="15"/>
       <c r="AI90" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AJ90" s="33" t="s">
         <v>55</v>
@@ -11138,20 +11129,22 @@
         <v>161</v>
       </c>
       <c r="AN90" s="28" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AO90" s="14"/>
       <c r="AP90" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ90" s="8">
         <v>4029</v>
       </c>
-      <c r="AR90" s="8"/>
+      <c r="AR90" s="33" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="91" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>37</v>
@@ -11167,15 +11160,17 @@
         <v>152</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="G91" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="15"/>
+      <c r="I91" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J91" s="15"/>
       <c r="K91" s="18" t="s">
         <v>43</v>
@@ -11224,12 +11219,14 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AJ91" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AK91" s="14"/>
+      <c r="AK91" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="AL91" s="28" t="s">
         <v>155</v>
       </c>
@@ -11237,22 +11234,22 @@
         <v>161</v>
       </c>
       <c r="AN91" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO91" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="AO91" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="AP91" s="29" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AQ91" s="8">
         <v>4030</v>
       </c>
-      <c r="AR91" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="AR91" s="8"/>
     </row>
     <row r="92" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>37</v>
@@ -11268,10 +11265,10 @@
         <v>152</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>55</v>
@@ -11327,13 +11324,13 @@
       <c r="AG92" s="15"/>
       <c r="AH92" s="15"/>
       <c r="AI92" s="27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AJ92" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AL92" s="28" t="s">
         <v>155</v>
@@ -11342,13 +11339,13 @@
         <v>161</v>
       </c>
       <c r="AN92" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO92" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP92" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="AP92" s="29" t="s">
-        <v>251</v>
       </c>
       <c r="AQ92" s="8">
         <v>4031</v>
@@ -11357,7 +11354,7 @@
     </row>
     <row r="93" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>37</v>
@@ -11373,10 +11370,10 @@
         <v>152</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>55</v>
@@ -11432,13 +11429,13 @@
       <c r="AG93" s="15"/>
       <c r="AH93" s="15"/>
       <c r="AI93" s="27" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AJ93" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK93" s="14" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AL93" s="28" t="s">
         <v>155</v>
@@ -11447,13 +11444,13 @@
         <v>161</v>
       </c>
       <c r="AN93" s="28" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AO93" s="14" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="AP93" s="29" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AQ93" s="8">
         <v>4032</v>
@@ -11462,7 +11459,7 @@
     </row>
     <row r="94" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>37</v>
@@ -11478,10 +11475,10 @@
         <v>152</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>260</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>55</v>
@@ -11537,13 +11534,13 @@
       <c r="AG94" s="15"/>
       <c r="AH94" s="15"/>
       <c r="AI94" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ94" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL94" s="28" t="s">
         <v>155</v>
@@ -11552,14 +11549,12 @@
         <v>161</v>
       </c>
       <c r="AN94" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AO94" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AP94" s="29" t="s">
-        <v>260</v>
-      </c>
+      <c r="AP94" s="29"/>
       <c r="AQ94" s="8">
         <v>4033</v>
       </c>
@@ -11567,7 +11562,7 @@
     </row>
     <row r="95" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>37</v>
@@ -11582,55 +11577,31 @@
       <c r="E95" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F95" s="16" t="s">
-        <v>256</v>
+      <c r="F95" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I95" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I95" s="17"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K95" s="18"/>
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X95" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="22"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="22"/>
+      <c r="X95" s="22"/>
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
       <c r="AA95" s="15"/>
@@ -11642,13 +11613,13 @@
       <c r="AG95" s="15"/>
       <c r="AH95" s="15"/>
       <c r="AI95" s="27" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AJ95" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL95" s="28" t="s">
         <v>155</v>
@@ -11657,12 +11628,12 @@
         <v>161</v>
       </c>
       <c r="AN95" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO95" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP95" s="29"/>
+        <v>245</v>
+      </c>
+      <c r="AO95" s="32"/>
+      <c r="AP95" s="29" t="s">
+        <v>265</v>
+      </c>
       <c r="AQ95" s="8">
         <v>4034</v>
       </c>
@@ -11670,7 +11641,7 @@
     </row>
     <row r="96" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>37</v>
@@ -11685,31 +11656,55 @@
       <c r="E96" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F96" s="27" t="s">
-        <v>263</v>
+      <c r="F96" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="17"/>
+      <c r="I96" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J96" s="15"/>
-      <c r="K96" s="18"/>
+      <c r="K96" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
+      <c r="O96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X96" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
       <c r="AA96" s="15"/>
@@ -11721,13 +11716,13 @@
       <c r="AG96" s="15"/>
       <c r="AH96" s="15"/>
       <c r="AI96" s="27" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AJ96" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK96" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL96" s="28" t="s">
         <v>155</v>
@@ -11736,11 +11731,13 @@
         <v>161</v>
       </c>
       <c r="AN96" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO96" s="32"/>
+        <v>268</v>
+      </c>
+      <c r="AO96" s="14" t="s">
+        <v>269</v>
+      </c>
       <c r="AP96" s="29" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AQ96" s="8">
         <v>4035</v>
@@ -11749,7 +11746,7 @@
     </row>
     <row r="97" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>37</v>
@@ -11765,54 +11762,30 @@
         <v>152</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I97" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I97" s="17"/>
       <c r="J97" s="15"/>
-      <c r="K97" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K97" s="18"/>
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X97" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+      <c r="X97" s="22"/>
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
       <c r="AA97" s="15"/>
@@ -11824,28 +11797,22 @@
       <c r="AG97" s="15"/>
       <c r="AH97" s="15"/>
       <c r="AI97" s="27" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AJ97" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK97" s="14" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AL97" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM97" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN97" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO97" s="14" t="s">
-        <v>270</v>
-      </c>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="8"/>
       <c r="AP97" s="29" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AQ97" s="8">
         <v>4036</v>
@@ -11854,7 +11821,7 @@
     </row>
     <row r="98" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>37</v>
@@ -11870,30 +11837,54 @@
         <v>152</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="G98" s="31" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I98" s="17"/>
+      <c r="I98" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J98" s="15"/>
-      <c r="K98" s="18"/>
+      <c r="K98" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
-      <c r="T98" s="22"/>
-      <c r="U98" s="22"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
+      <c r="O98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W98" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X98" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
       <c r="AA98" s="15"/>
@@ -11904,23 +11895,29 @@
       <c r="AF98" s="15"/>
       <c r="AG98" s="15"/>
       <c r="AH98" s="15"/>
-      <c r="AI98" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ98" s="33" t="s">
-        <v>55</v>
+      <c r="AI98" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ98" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="AK98" s="14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AL98" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM98" s="8"/>
-      <c r="AN98" s="8"/>
-      <c r="AO98" s="8"/>
+      <c r="AM98" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN98" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO98" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="AP98" s="29" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ98" s="8">
         <v>4037</v>
@@ -11929,7 +11926,7 @@
     </row>
     <row r="99" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>37</v>
@@ -11945,10 +11942,10 @@
         <v>152</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>55</v>
@@ -12004,13 +12001,13 @@
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
       <c r="AI99" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ99" s="34" t="s">
-        <v>43</v>
+        <v>275</v>
+      </c>
+      <c r="AJ99" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="AK99" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL99" s="28" t="s">
         <v>155</v>
@@ -12022,10 +12019,10 @@
         <v>157</v>
       </c>
       <c r="AO99" s="14" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="AP99" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ99" s="8">
         <v>4038</v>
@@ -12034,13 +12031,13 @@
     </row>
     <row r="100" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C100" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>C69</f>
         <v>光学</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -12049,55 +12046,31 @@
       <c r="E100" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F100" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>280</v>
+      <c r="F100" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>282</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I100" s="17"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K100" s="18"/>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
-      <c r="O100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X100" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
       <c r="Y100" s="15"/>
       <c r="Z100" s="15"/>
       <c r="AA100" s="15"/>
@@ -12109,28 +12082,20 @@
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
       <c r="AI100" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ100" s="33" t="s">
-        <v>55</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AJ100" s="33"/>
       <c r="AK100" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL100" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM100" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN100" s="28" t="s">
-        <v>157</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AL100" s="28"/>
+      <c r="AM100" s="28"/>
+      <c r="AN100" s="28"/>
       <c r="AO100" s="14" t="s">
         <v>281</v>
       </c>
       <c r="AP100" s="29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AQ100" s="8">
         <v>4039</v>
@@ -12139,13 +12104,13 @@
     </row>
     <row r="101" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C101" s="15" t="str">
-        <f>C69</f>
+        <f t="shared" ref="C101:C110" si="2">AL101</f>
         <v>光学</v>
       </c>
       <c r="D101" s="15" t="s">
@@ -12154,31 +12119,55 @@
       <c r="E101" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F101" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="G101" s="31" t="s">
-        <v>283</v>
+      <c r="F101" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I101" s="17"/>
+      <c r="I101" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J101" s="15"/>
-      <c r="K101" s="18"/>
+      <c r="K101" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
+      <c r="O101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X101" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y101" s="15"/>
       <c r="Z101" s="15"/>
       <c r="AA101" s="15"/>
@@ -12189,21 +12178,29 @@
       <c r="AF101" s="15"/>
       <c r="AG101" s="15"/>
       <c r="AH101" s="15"/>
-      <c r="AI101" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ101" s="33"/>
+      <c r="AI101" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ101" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="AK101" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL101" s="28"/>
-      <c r="AM101" s="28"/>
-      <c r="AN101" s="28"/>
+        <v>286</v>
+      </c>
+      <c r="AL101" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM101" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN101" s="28" t="s">
+        <v>157</v>
+      </c>
       <c r="AO101" s="14" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="AP101" s="29" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AQ101" s="8">
         <v>4040</v>
@@ -12212,13 +12209,13 @@
     </row>
     <row r="102" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="15" t="str">
-        <f t="shared" ref="C102:C111" si="2">AL102</f>
+        <f t="shared" si="2"/>
         <v>光学</v>
       </c>
       <c r="D102" s="15" t="s">
@@ -12228,10 +12225,10 @@
         <v>152</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>55</v>
@@ -12239,13 +12236,13 @@
       <c r="I102" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J102" s="15"/>
+      <c r="J102" s="8"/>
       <c r="K102" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
       <c r="O102" s="22" t="s">
         <v>55</v>
       </c>
@@ -12276,39 +12273,39 @@
       <c r="X102" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
-      <c r="AA102" s="15"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="15"/>
-      <c r="AD102" s="15"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15"/>
-      <c r="AH102" s="15"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+      <c r="AB102" s="8"/>
+      <c r="AC102" s="8"/>
+      <c r="AD102" s="8"/>
+      <c r="AE102" s="8"/>
+      <c r="AF102" s="8"/>
+      <c r="AG102" s="8"/>
+      <c r="AH102" s="8"/>
       <c r="AI102" s="27" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AJ102" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AL102" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM102" s="28" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AN102" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO102" s="14" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="AP102" s="29" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AQ102" s="8">
         <v>4041</v>
@@ -12317,7 +12314,7 @@
     </row>
     <row r="103" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>37</v>
@@ -12333,10 +12330,10 @@
         <v>152</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>55</v>
@@ -12392,13 +12389,13 @@
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AJ103" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL103" s="28" t="s">
         <v>155</v>
@@ -12410,10 +12407,10 @@
         <v>157</v>
       </c>
       <c r="AO103" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP103" s="29" t="s">
         <v>292</v>
-      </c>
-      <c r="AP103" s="29" t="s">
-        <v>293</v>
       </c>
       <c r="AQ103" s="8">
         <v>4042</v>
@@ -12422,7 +12419,7 @@
     </row>
     <row r="104" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>37</v>
@@ -12438,10 +12435,10 @@
         <v>152</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>55</v>
@@ -12497,28 +12494,28 @@
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="27" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AJ104" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL104" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM104" s="28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AN104" s="28" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="AO104" s="14" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="AP104" s="29" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AQ104" s="8">
         <v>4043</v>
@@ -12527,7 +12524,7 @@
     </row>
     <row r="105" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>37</v>
@@ -12543,10 +12540,10 @@
         <v>152</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>300</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>55</v>
@@ -12602,13 +12599,13 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="27" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AJ105" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL105" s="28" t="s">
         <v>155</v>
@@ -12617,14 +12614,12 @@
         <v>161</v>
       </c>
       <c r="AN105" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO105" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AP105" s="29" t="s">
-        <v>299</v>
-      </c>
+      <c r="AP105" s="29"/>
       <c r="AQ105" s="8">
         <v>4044</v>
       </c>
@@ -12632,7 +12627,7 @@
     </row>
     <row r="106" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>37</v>
@@ -12648,10 +12643,10 @@
         <v>152</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>55</v>
@@ -12707,13 +12702,13 @@
       <c r="AG106" s="8"/>
       <c r="AH106" s="8"/>
       <c r="AI106" s="27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AJ106" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK106" s="14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL106" s="28" t="s">
         <v>155</v>
@@ -12722,7 +12717,7 @@
         <v>161</v>
       </c>
       <c r="AN106" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO106" s="14" t="s">
         <v>158</v>
@@ -12735,7 +12730,7 @@
     </row>
     <row r="107" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>37</v>
@@ -12751,17 +12746,15 @@
         <v>152</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I107" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I107" s="5"/>
       <c r="J107" s="8"/>
       <c r="K107" s="18" t="s">
         <v>43</v>
@@ -12810,13 +12803,13 @@
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
       <c r="AI107" s="27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AJ107" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL107" s="28" t="s">
         <v>155</v>
@@ -12825,12 +12818,12 @@
         <v>161</v>
       </c>
       <c r="AN107" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO107" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP107" s="29"/>
+        <v>245</v>
+      </c>
+      <c r="AO107" s="14"/>
+      <c r="AP107" s="29" t="s">
+        <v>242</v>
+      </c>
       <c r="AQ107" s="8">
         <v>4046</v>
       </c>
@@ -12838,7 +12831,7 @@
     </row>
     <row r="108" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>37</v>
@@ -12854,15 +12847,17 @@
         <v>152</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G108" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I108" s="5"/>
+      <c r="I108" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J108" s="8"/>
       <c r="K108" s="18" t="s">
         <v>43</v>
@@ -12911,26 +12906,28 @@
       <c r="AG108" s="8"/>
       <c r="AH108" s="8"/>
       <c r="AI108" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ108" s="33" t="s">
-        <v>55</v>
+        <v>308</v>
+      </c>
+      <c r="AJ108" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="AK108" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL108" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM108" s="28" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AN108" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO108" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="AO108" s="14" t="s">
+        <v>311</v>
+      </c>
       <c r="AP108" s="29" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="AQ108" s="8">
         <v>4047</v>
@@ -12939,7 +12936,7 @@
     </row>
     <row r="109" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>37</v>
@@ -12954,55 +12951,31 @@
       <c r="E109" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F109" s="16" t="s">
-        <v>309</v>
+      <c r="F109" s="27" t="s">
+        <v>313</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I109" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I109" s="17"/>
       <c r="J109" s="8"/>
-      <c r="K109" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K109" s="18"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
-      <c r="O109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X109" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="22"/>
+      <c r="X109" s="22"/>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8"/>
@@ -13014,28 +12987,22 @@
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
       <c r="AI109" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="AJ109" s="34" t="s">
-        <v>43</v>
+        <v>313</v>
+      </c>
+      <c r="AJ109" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="AK109" s="14" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AL109" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM109" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN109" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO109" s="14" t="s">
-        <v>312</v>
-      </c>
+      <c r="AM109" s="8"/>
+      <c r="AN109" s="8"/>
+      <c r="AO109" s="8"/>
       <c r="AP109" s="29" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AQ109" s="8">
         <v>4048</v>
@@ -13044,7 +13011,7 @@
     </row>
     <row r="110" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>37</v>
@@ -13060,10 +13027,10 @@
         <v>152</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>55</v>
@@ -13095,13 +13062,13 @@
       <c r="AG110" s="8"/>
       <c r="AH110" s="8"/>
       <c r="AI110" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ110" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK110" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL110" s="28" t="s">
         <v>155</v>
@@ -13110,7 +13077,7 @@
       <c r="AN110" s="8"/>
       <c r="AO110" s="8"/>
       <c r="AP110" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AQ110" s="8">
         <v>4049</v>
@@ -13119,13 +13086,13 @@
     </row>
     <row r="111" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C111" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C111:C126" si="3">AL111</f>
         <v>光学</v>
       </c>
       <c r="D111" s="15" t="s">
@@ -13134,31 +13101,55 @@
       <c r="E111" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F111" s="27" t="s">
-        <v>314</v>
+      <c r="F111" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I111" s="17"/>
+      <c r="I111" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J111" s="8"/>
-      <c r="K111" s="18"/>
+      <c r="K111" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
+      <c r="O111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X111" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
       <c r="AA111" s="8"/>
@@ -13170,22 +13161,28 @@
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="27" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AJ111" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL111" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM111" s="8"/>
-      <c r="AN111" s="8"/>
-      <c r="AO111" s="8"/>
+      <c r="AM111" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN111" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO111" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="AP111" s="29" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AQ111" s="8">
         <v>4050</v>
@@ -13194,13 +13191,13 @@
     </row>
     <row r="112" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C112" s="15" t="str">
-        <f t="shared" ref="C112:C127" si="3">AL112</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D112" s="15" t="s">
@@ -13210,10 +13207,10 @@
         <v>152</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>322</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>55</v>
@@ -13269,13 +13266,13 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AJ112" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL112" s="28" t="s">
         <v>155</v>
@@ -13287,11 +13284,9 @@
         <v>157</v>
       </c>
       <c r="AO112" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP112" s="29" t="s">
-        <v>322</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AP112" s="29"/>
       <c r="AQ112" s="8">
         <v>4051</v>
       </c>
@@ -13299,7 +13294,7 @@
     </row>
     <row r="113" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>37</v>
@@ -13315,10 +13310,10 @@
         <v>152</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="G113" s="31" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>55</v>
@@ -13374,13 +13369,13 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AJ113" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL113" s="28" t="s">
         <v>155</v>
@@ -13392,9 +13387,11 @@
         <v>157</v>
       </c>
       <c r="AO113" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="AP113" s="29"/>
+        <v>325</v>
+      </c>
+      <c r="AP113" s="29" t="s">
+        <v>321</v>
+      </c>
       <c r="AQ113" s="8">
         <v>4052</v>
       </c>
@@ -13402,7 +13399,7 @@
     </row>
     <row r="114" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>37</v>
@@ -13418,10 +13415,10 @@
         <v>152</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>55</v>
@@ -13477,13 +13474,13 @@
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="27" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AJ114" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AL114" s="28" t="s">
         <v>155</v>
@@ -13495,10 +13492,10 @@
         <v>157</v>
       </c>
       <c r="AO114" s="14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AP114" s="29" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AQ114" s="8">
         <v>4053</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="115" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>37</v>
@@ -13523,10 +13520,10 @@
         <v>152</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>55</v>
@@ -13582,13 +13579,13 @@
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AJ115" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL115" s="28" t="s">
         <v>155</v>
@@ -13600,10 +13597,10 @@
         <v>157</v>
       </c>
       <c r="AO115" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP115" s="29" t="s">
         <v>330</v>
-      </c>
-      <c r="AP115" s="29" t="s">
-        <v>331</v>
       </c>
       <c r="AQ115" s="8">
         <v>4054</v>
@@ -13612,7 +13609,7 @@
     </row>
     <row r="116" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>37</v>
@@ -13628,10 +13625,10 @@
         <v>152</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>55</v>
@@ -13687,13 +13684,13 @@
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AJ116" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK116" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL116" s="28" t="s">
         <v>155</v>
@@ -13705,10 +13702,10 @@
         <v>157</v>
       </c>
       <c r="AO116" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP116" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AQ116" s="8">
         <v>4055</v>
@@ -13717,7 +13714,7 @@
     </row>
     <row r="117" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>37</v>
@@ -13733,10 +13730,10 @@
         <v>152</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>55</v>
@@ -13792,13 +13789,13 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AJ117" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL117" s="28" t="s">
         <v>155</v>
@@ -13810,10 +13807,10 @@
         <v>157</v>
       </c>
       <c r="AO117" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP117" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AQ117" s="8">
         <v>4056</v>
@@ -13822,7 +13819,7 @@
     </row>
     <row r="118" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>37</v>
@@ -13838,10 +13835,10 @@
         <v>152</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>55</v>
@@ -13897,13 +13894,13 @@
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="27" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AJ118" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK118" s="14" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AL118" s="28" t="s">
         <v>155</v>
@@ -13915,10 +13912,10 @@
         <v>157</v>
       </c>
       <c r="AO118" s="14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AP118" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AQ118" s="8">
         <v>4057</v>
@@ -13927,7 +13924,7 @@
     </row>
     <row r="119" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>37</v>
@@ -13943,17 +13940,15 @@
         <v>152</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>341</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I119" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I119" s="5"/>
       <c r="J119" s="8"/>
       <c r="K119" s="18" t="s">
         <v>43</v>
@@ -14002,28 +13997,24 @@
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
       <c r="AI119" s="27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AJ119" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AK119" s="14" t="s">
-        <v>340</v>
-      </c>
+      <c r="AK119" s="32"/>
       <c r="AL119" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM119" s="28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AN119" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO119" s="14" t="s">
-        <v>330</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AO119" s="32"/>
       <c r="AP119" s="29" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="AQ119" s="8">
         <v>4058</v>
@@ -14032,7 +14023,7 @@
     </row>
     <row r="120" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>37</v>
@@ -14048,10 +14039,10 @@
         <v>152</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G120" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>55</v>
@@ -14105,7 +14096,7 @@
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
       <c r="AI120" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ120" s="33" t="s">
         <v>55</v>
@@ -14118,11 +14109,11 @@
         <v>161</v>
       </c>
       <c r="AN120" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO120" s="32"/>
       <c r="AP120" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ120" s="8">
         <v>4059</v>
@@ -14131,7 +14122,7 @@
     </row>
     <row r="121" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>37</v>
@@ -14147,10 +14138,10 @@
         <v>152</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G121" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>55</v>
@@ -14204,12 +14195,12 @@
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
       <c r="AI121" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ121" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AK121" s="32"/>
+      <c r="AK121" s="28"/>
       <c r="AL121" s="28" t="s">
         <v>155</v>
       </c>
@@ -14217,11 +14208,11 @@
         <v>161</v>
       </c>
       <c r="AN121" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO121" s="32"/>
+        <v>346</v>
+      </c>
+      <c r="AO121" s="28"/>
       <c r="AP121" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ121" s="8">
         <v>4060</v>
@@ -14230,7 +14221,7 @@
     </row>
     <row r="122" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>37</v>
@@ -14246,15 +14237,17 @@
         <v>152</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G122" s="31" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I122" s="5"/>
+      <c r="I122" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J122" s="8"/>
       <c r="K122" s="18" t="s">
         <v>43</v>
@@ -14303,24 +14296,22 @@
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
       <c r="AI122" s="27" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AJ122" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AK122" s="28"/>
+      <c r="AK122" s="14" t="s">
+        <v>349</v>
+      </c>
       <c r="AL122" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM122" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN122" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="AO122" s="28"/>
+      <c r="AM122" s="8"/>
+      <c r="AN122" s="8"/>
+      <c r="AO122" s="35"/>
       <c r="AP122" s="29" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="AQ122" s="8">
         <v>4061</v>
@@ -14329,7 +14320,7 @@
     </row>
     <row r="123" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>37</v>
@@ -14344,55 +14335,31 @@
       <c r="E123" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F123" s="16" t="s">
-        <v>348</v>
+      <c r="F123" s="27" t="s">
+        <v>347</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I123" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I123" s="17"/>
       <c r="J123" s="8"/>
-      <c r="K123" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K123" s="18"/>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
-      <c r="O123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X123" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22"/>
+      <c r="S123" s="22"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="22"/>
+      <c r="V123" s="22"/>
+      <c r="W123" s="22"/>
+      <c r="X123" s="22"/>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
       <c r="AA123" s="8"/>
@@ -14404,13 +14371,13 @@
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
       <c r="AI123" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AJ123" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK123" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL123" s="28" t="s">
         <v>155</v>
@@ -14419,7 +14386,7 @@
       <c r="AN123" s="8"/>
       <c r="AO123" s="35"/>
       <c r="AP123" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AQ123" s="8">
         <v>4062</v>
@@ -14428,7 +14395,7 @@
     </row>
     <row r="124" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>37</v>
@@ -14444,10 +14411,10 @@
         <v>152</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>55</v>
@@ -14479,13 +14446,13 @@
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
       <c r="AI124" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AJ124" s="33" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL124" s="28" t="s">
         <v>155</v>
@@ -14494,7 +14461,7 @@
       <c r="AN124" s="8"/>
       <c r="AO124" s="35"/>
       <c r="AP124" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AQ124" s="8">
         <v>4063</v>
@@ -14503,46 +14470,68 @@
     </row>
     <row r="125" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C125" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>光学</v>
+        <v>雷达卫星</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F125" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="G125" s="31" t="s">
-        <v>352</v>
+      <c r="F125" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I125" s="17"/>
+      <c r="I125" s="5"/>
       <c r="J125" s="8"/>
-      <c r="K125" s="18"/>
+      <c r="K125" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
-      <c r="O125" s="22"/>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22"/>
-      <c r="R125" s="22"/>
-      <c r="S125" s="22"/>
-      <c r="T125" s="22"/>
-      <c r="U125" s="22"/>
-      <c r="V125" s="22"/>
-      <c r="W125" s="22"/>
-      <c r="X125" s="22"/>
+      <c r="O125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W125" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X125" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
       <c r="AA125" s="8"/>
@@ -14553,24 +14542,20 @@
       <c r="AF125" s="8"/>
       <c r="AG125" s="8"/>
       <c r="AH125" s="8"/>
-      <c r="AI125" s="27" t="s">
-        <v>348</v>
+      <c r="AI125" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="AJ125" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AK125" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL125" s="28" t="s">
-        <v>155</v>
+      <c r="AK125" s="8"/>
+      <c r="AL125" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="AM125" s="8"/>
       <c r="AN125" s="8"/>
-      <c r="AO125" s="35"/>
-      <c r="AP125" s="29" t="s">
-        <v>351</v>
-      </c>
+      <c r="AO125" s="8"/>
+      <c r="AP125" s="8"/>
       <c r="AQ125" s="8">
         <v>4064</v>
       </c>
@@ -14578,7 +14563,7 @@
     </row>
     <row r="126" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>37</v>
@@ -14588,16 +14573,16 @@
         <v>雷达卫星</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>55</v>
@@ -14651,14 +14636,14 @@
       <c r="AG126" s="8"/>
       <c r="AH126" s="8"/>
       <c r="AI126" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="AJ126" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ126" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AK126" s="8"/>
       <c r="AL126" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM126" s="8"/>
       <c r="AN126" s="8"/>
@@ -14671,68 +14656,33 @@
     </row>
     <row r="127" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
-        <v>125</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>雷达卫星</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>358</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="6"/>
       <c r="H127" s="10" t="s">
         <v>55</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="8"/>
-      <c r="K127" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
-      <c r="O127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W127" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X127" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
       <c r="AA127" s="8"/>
@@ -14743,78 +14693,20 @@
       <c r="AF127" s="8"/>
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
-      <c r="AI127" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="AJ127" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="AI127" s="8"/>
+      <c r="AJ127" s="8"/>
       <c r="AK127" s="8"/>
-      <c r="AL127" s="15" t="s">
-        <v>356</v>
-      </c>
+      <c r="AL127" s="8"/>
       <c r="AM127" s="8"/>
       <c r="AN127" s="8"/>
       <c r="AO127" s="8"/>
       <c r="AP127" s="8"/>
-      <c r="AQ127" s="8">
-        <v>4066</v>
-      </c>
+      <c r="AQ127" s="8"/>
       <c r="AR127" s="8"/>
     </row>
-    <row r="128" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
-        <v>126</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I128" s="5"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="11"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="8"/>
-      <c r="X128" s="8"/>
-      <c r="Y128" s="8"/>
-      <c r="Z128" s="8"/>
-      <c r="AA128" s="8"/>
-      <c r="AB128" s="8"/>
-      <c r="AC128" s="8"/>
-      <c r="AD128" s="8"/>
-      <c r="AE128" s="8"/>
-      <c r="AF128" s="8"/>
-      <c r="AG128" s="8"/>
-      <c r="AH128" s="8"/>
-      <c r="AI128" s="8"/>
-      <c r="AJ128" s="8"/>
-      <c r="AK128" s="8"/>
-      <c r="AL128" s="8"/>
-      <c r="AM128" s="8"/>
-      <c r="AN128" s="8"/>
-      <c r="AO128" s="8"/>
-      <c r="AP128" s="8"/>
-      <c r="AQ128" s="8"/>
-      <c r="AR128" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AH128" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:AH128">
+  <autoFilter ref="A2:AH127" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:AH127">
       <sortCondition ref="C2:C26"/>
     </sortState>
   </autoFilter>
@@ -14865,22 +14757,22 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14888,25 +14780,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14914,17 +14806,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
@@ -14932,7 +14824,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14940,16 +14832,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
@@ -14958,7 +14850,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14966,16 +14858,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>43</v>
@@ -14984,7 +14876,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14992,16 +14884,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>43</v>
@@ -15010,7 +14902,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15018,16 +14910,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>43</v>
@@ -15036,7 +14928,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15044,17 +14936,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
@@ -15062,7 +14954,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15070,17 +14962,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
@@ -15088,7 +14980,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15096,17 +14988,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
@@ -15114,7 +15006,7 @@
         <v>43</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15122,25 +15014,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15148,16 +15040,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
@@ -15166,7 +15058,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15174,17 +15066,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
@@ -15192,7 +15084,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15200,16 +15092,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>43</v>
@@ -15218,7 +15110,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15226,16 +15118,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>43</v>
@@ -15244,7 +15136,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15252,16 +15144,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>43</v>
@@ -15270,7 +15162,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -15278,17 +15170,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
@@ -15296,7 +15188,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15304,17 +15196,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
@@ -15322,7 +15214,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15330,25 +15222,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -15356,19 +15248,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A48F5-53F6-48C6-83CC-EA581BD4A3C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7423AE4B-9608-4419-A4AD-84AF8CD7468B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9370" uniqueCount="427">
   <si>
     <t>插件</t>
   </si>
@@ -2522,7 +2522,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2568,6 +2568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2638,7 +2644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2729,9 +2735,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2747,16 +2750,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2782,6 +2779,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3064,10 +3067,10 @@
   <dimension ref="A1:AR127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X86" sqref="O86:X86"/>
+      <selection pane="bottomRight" activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3088,60 +3091,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="45" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
     </row>
     <row r="2" spans="1:44" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -8230,7 +8233,7 @@
       <c r="F63" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="46" t="s">
         <v>420</v>
       </c>
       <c r="H63" s="17" t="s">
@@ -8335,7 +8338,7 @@
       <c r="F64" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="46" t="s">
         <v>165</v>
       </c>
       <c r="H64" s="17" t="s">
@@ -8354,8 +8357,8 @@
       <c r="O64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="P64" s="17" t="s">
-        <v>43</v>
+      <c r="P64" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="Q64" s="17" t="s">
         <v>43</v>
@@ -8440,7 +8443,7 @@
       <c r="F65" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="46" t="s">
         <v>170</v>
       </c>
       <c r="H65" s="17" t="s">
@@ -8545,7 +8548,7 @@
       <c r="F66" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="G66" s="46" t="s">
         <v>176</v>
       </c>
       <c r="H66" s="17" t="s">
@@ -8650,7 +8653,7 @@
       <c r="F67" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="30" t="s">
+      <c r="G67" s="46" t="s">
         <v>177</v>
       </c>
       <c r="H67" s="17" t="s">
@@ -8755,7 +8758,7 @@
       <c r="F68" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="46" t="s">
         <v>179</v>
       </c>
       <c r="H68" s="10" t="s">
@@ -8771,35 +8774,35 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
-      <c r="O68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X68" s="22" t="s">
-        <v>55</v>
+      <c r="O68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P68" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W68" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X68" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
@@ -8814,7 +8817,7 @@
       <c r="AI68" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="AJ68" s="33" t="s">
+      <c r="AJ68" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK68" s="14" t="s">
@@ -8860,7 +8863,7 @@
       <c r="F69" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="46" t="s">
         <v>182</v>
       </c>
       <c r="H69" s="10" t="s">
@@ -8876,35 +8879,35 @@
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
       <c r="N69" s="21"/>
-      <c r="O69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X69" s="22" t="s">
-        <v>55</v>
+      <c r="O69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W69" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
@@ -8919,7 +8922,7 @@
       <c r="AI69" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="AJ69" s="33" t="s">
+      <c r="AJ69" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK69" s="14" t="s">
@@ -8965,7 +8968,7 @@
       <c r="F70" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G70" s="30" t="s">
+      <c r="G70" s="46" t="s">
         <v>184</v>
       </c>
       <c r="H70" s="17" t="s">
@@ -9005,7 +9008,7 @@
       <c r="V70" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W70" s="38" t="s">
+      <c r="W70" s="36" t="s">
         <v>418</v>
       </c>
       <c r="X70" s="17" t="s">
@@ -9070,7 +9073,7 @@
       <c r="F71" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G71" s="30" t="s">
+      <c r="G71" s="46" t="s">
         <v>190</v>
       </c>
       <c r="H71" s="17" t="s">
@@ -9110,7 +9113,7 @@
       <c r="V71" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W71" s="38" t="s">
+      <c r="W71" s="36" t="s">
         <v>418</v>
       </c>
       <c r="X71" s="17" t="s">
@@ -9175,7 +9178,7 @@
       <c r="F72" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G72" s="30" t="s">
+      <c r="G72" s="46" t="s">
         <v>191</v>
       </c>
       <c r="H72" s="10" t="s">
@@ -9191,35 +9194,35 @@
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
-      <c r="O72" s="39" t="s">
-        <v>417</v>
+      <c r="O72" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="P72" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q72" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="R72" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="S72" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="T72" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="U72" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="V72" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="W72" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="X72" s="36" t="s">
-        <v>417</v>
+      <c r="Q72" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R72" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T72" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U72" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V72" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W72" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X72" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
@@ -9234,7 +9237,7 @@
       <c r="AI72" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="AJ72" s="37" t="s">
+      <c r="AJ72" s="35" t="s">
         <v>417</v>
       </c>
       <c r="AK72" s="14" t="s">
@@ -9280,7 +9283,7 @@
       <c r="F73" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="30" t="s">
+      <c r="G73" s="46" t="s">
         <v>194</v>
       </c>
       <c r="H73" s="17" t="s">
@@ -9385,7 +9388,7 @@
       <c r="F74" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="46" t="s">
         <v>199</v>
       </c>
       <c r="H74" s="10" t="s">
@@ -9401,35 +9404,35 @@
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
       <c r="N74" s="21"/>
-      <c r="O74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X74" s="22" t="s">
-        <v>55</v>
+      <c r="O74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X74" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
@@ -9444,7 +9447,7 @@
       <c r="AI74" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="AJ74" s="33" t="s">
+      <c r="AJ74" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK74" s="14" t="s">
@@ -9506,35 +9509,35 @@
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
-      <c r="O75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W75" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X75" s="22" t="s">
-        <v>55</v>
+      <c r="O75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P75" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W75" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X75" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
@@ -9549,7 +9552,7 @@
       <c r="AI75" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="AJ75" s="33" t="s">
+      <c r="AJ75" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK75" s="14" t="s">
@@ -9611,35 +9614,35 @@
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
       <c r="N76" s="21"/>
-      <c r="O76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W76" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X76" s="22" t="s">
-        <v>55</v>
+      <c r="O76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P76" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W76" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X76" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
@@ -9654,7 +9657,7 @@
       <c r="AI76" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="AJ76" s="33" t="s">
+      <c r="AJ76" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK76" s="14" t="s">
@@ -9716,35 +9719,35 @@
       <c r="L77" s="21"/>
       <c r="M77" s="21"/>
       <c r="N77" s="21"/>
-      <c r="O77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W77" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X77" s="22" t="s">
-        <v>55</v>
+      <c r="O77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P77" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X77" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
@@ -9821,35 +9824,35 @@
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
       <c r="N78" s="21"/>
-      <c r="O78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X78" s="22" t="s">
-        <v>55</v>
+      <c r="O78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P78" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X78" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
@@ -9926,35 +9929,35 @@
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
       <c r="N79" s="21"/>
-      <c r="O79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X79" s="22" t="s">
-        <v>55</v>
+      <c r="O79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P79" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X79" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
@@ -10031,35 +10034,35 @@
       <c r="L80" s="21"/>
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
-      <c r="O80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W80" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X80" s="22" t="s">
-        <v>55</v>
+      <c r="O80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P80" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W80" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X80" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
@@ -10074,7 +10077,7 @@
       <c r="AI80" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="AJ80" s="33" t="s">
+      <c r="AJ80" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK80" s="14" t="s">
@@ -10136,35 +10139,35 @@
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
       <c r="N81" s="21"/>
-      <c r="O81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W81" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X81" s="22" t="s">
-        <v>55</v>
+      <c r="O81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P81" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X81" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
@@ -10241,35 +10244,35 @@
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
-      <c r="O82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X82" s="22" t="s">
-        <v>55</v>
+      <c r="O82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P82" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X82" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
@@ -10346,35 +10349,35 @@
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
-      <c r="O83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W83" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X83" s="22" t="s">
-        <v>55</v>
+      <c r="O83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P83" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W83" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X83" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
@@ -10389,7 +10392,7 @@
       <c r="AI83" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="AJ83" s="33" t="s">
+      <c r="AJ83" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK83" s="14" t="s">
@@ -10451,35 +10454,35 @@
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
-      <c r="O84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W84" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X84" s="22" t="s">
-        <v>55</v>
+      <c r="O84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P84" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W84" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X84" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
@@ -10494,7 +10497,7 @@
       <c r="AI84" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="AJ84" s="33" t="s">
+      <c r="AJ84" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK84" s="14" t="s">
@@ -10648,8 +10651,8 @@
       <c r="G86" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="H86" s="10" t="s">
-        <v>55</v>
+      <c r="H86" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>43</v>
@@ -10809,7 +10812,7 @@
       <c r="AI87" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="AJ87" s="33" t="s">
+      <c r="AJ87" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK87" s="14" t="s">
@@ -10833,7 +10836,7 @@
       <c r="AQ87" s="8">
         <v>4026</v>
       </c>
-      <c r="AR87" s="33" t="s">
+      <c r="AR87" s="32" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10873,35 +10876,35 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W88" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X88" s="22" t="s">
-        <v>55</v>
+      <c r="O88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P88" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="R88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="W88" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="X88" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
@@ -10916,7 +10919,7 @@
       <c r="AI88" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="AJ88" s="33" t="s">
+      <c r="AJ88" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
@@ -10940,7 +10943,7 @@
       <c r="AQ88" s="8">
         <v>4027</v>
       </c>
-      <c r="AR88" s="33"/>
+      <c r="AR88" s="32"/>
     </row>
     <row r="89" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
@@ -10962,7 +10965,7 @@
       <c r="F89" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="G89" s="31" t="s">
+      <c r="G89" s="30" t="s">
         <v>241</v>
       </c>
       <c r="H89" s="10" t="s">
@@ -11019,7 +11022,7 @@
       <c r="AI89" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="AJ89" s="33" t="s">
+      <c r="AJ89" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK89" s="14"/>
@@ -11061,7 +11064,7 @@
       <c r="F90" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="G90" s="31" t="s">
+      <c r="G90" s="30" t="s">
         <v>244</v>
       </c>
       <c r="H90" s="10" t="s">
@@ -11118,7 +11121,7 @@
       <c r="AI90" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="AJ90" s="33" t="s">
+      <c r="AJ90" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK90" s="14"/>
@@ -11138,7 +11141,7 @@
       <c r="AQ90" s="8">
         <v>4029</v>
       </c>
-      <c r="AR90" s="33" t="s">
+      <c r="AR90" s="32" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11221,7 +11224,7 @@
       <c r="AI91" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="AJ91" s="33" t="s">
+      <c r="AJ91" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK91" s="14" t="s">
@@ -11326,7 +11329,7 @@
       <c r="AI92" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="AJ92" s="33" t="s">
+      <c r="AJ92" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
@@ -11431,7 +11434,7 @@
       <c r="AI93" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="AJ93" s="33" t="s">
+      <c r="AJ93" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK93" s="14" t="s">
@@ -11477,7 +11480,7 @@
       <c r="F94" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="G94" s="31" t="s">
+      <c r="G94" s="30" t="s">
         <v>260</v>
       </c>
       <c r="H94" s="10" t="s">
@@ -11536,7 +11539,7 @@
       <c r="AI94" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="AJ94" s="33" t="s">
+      <c r="AJ94" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
@@ -11580,7 +11583,7 @@
       <c r="F95" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="G95" s="30" t="s">
         <v>263</v>
       </c>
       <c r="H95" s="10" t="s">
@@ -11615,7 +11618,7 @@
       <c r="AI95" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="AJ95" s="33" t="s">
+      <c r="AJ95" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
@@ -11630,7 +11633,7 @@
       <c r="AN95" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="AO95" s="32"/>
+      <c r="AO95" s="31"/>
       <c r="AP95" s="29" t="s">
         <v>265</v>
       </c>
@@ -11659,7 +11662,7 @@
       <c r="F96" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G96" s="31" t="s">
+      <c r="G96" s="30" t="s">
         <v>267</v>
       </c>
       <c r="H96" s="10" t="s">
@@ -11718,7 +11721,7 @@
       <c r="AI96" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="AJ96" s="33" t="s">
+      <c r="AJ96" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK96" s="14" t="s">
@@ -11764,7 +11767,7 @@
       <c r="F97" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G97" s="31" t="s">
+      <c r="G97" s="30" t="s">
         <v>272</v>
       </c>
       <c r="H97" s="10" t="s">
@@ -11799,7 +11802,7 @@
       <c r="AI97" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="AJ97" s="33" t="s">
+      <c r="AJ97" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK97" s="14" t="s">
@@ -11895,10 +11898,10 @@
       <c r="AF98" s="15"/>
       <c r="AG98" s="15"/>
       <c r="AH98" s="15"/>
-      <c r="AI98" s="32" t="s">
+      <c r="AI98" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="AJ98" s="34" t="s">
+      <c r="AJ98" s="33" t="s">
         <v>43</v>
       </c>
       <c r="AK98" s="14" t="s">
@@ -12000,10 +12003,10 @@
       <c r="AF99" s="15"/>
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
-      <c r="AI99" s="32" t="s">
+      <c r="AI99" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="AJ99" s="33" t="s">
+      <c r="AJ99" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK99" s="14" t="s">
@@ -12046,10 +12049,10 @@
       <c r="E100" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F100" s="32" t="s">
+      <c r="F100" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="G100" s="31" t="s">
+      <c r="G100" s="30" t="s">
         <v>282</v>
       </c>
       <c r="H100" s="10" t="s">
@@ -12081,10 +12084,10 @@
       <c r="AF100" s="15"/>
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
-      <c r="AI100" s="32" t="s">
+      <c r="AI100" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="AJ100" s="33"/>
+      <c r="AJ100" s="32"/>
       <c r="AK100" s="14" t="s">
         <v>281</v>
       </c>
@@ -12181,7 +12184,7 @@
       <c r="AI101" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="AJ101" s="33" t="s">
+      <c r="AJ101" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK101" s="14" t="s">
@@ -12286,7 +12289,7 @@
       <c r="AI102" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AJ102" s="33" t="s">
+      <c r="AJ102" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
@@ -12391,7 +12394,7 @@
       <c r="AI103" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AJ103" s="33" t="s">
+      <c r="AJ103" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
@@ -12496,7 +12499,7 @@
       <c r="AI104" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="AJ104" s="33" t="s">
+      <c r="AJ104" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
@@ -12542,7 +12545,7 @@
       <c r="F105" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="G105" s="31" t="s">
+      <c r="G105" s="30" t="s">
         <v>300</v>
       </c>
       <c r="H105" s="10" t="s">
@@ -12601,7 +12604,7 @@
       <c r="AI105" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="AJ105" s="33" t="s">
+      <c r="AJ105" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK105" s="14" t="s">
@@ -12645,7 +12648,7 @@
       <c r="F106" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G106" s="31" t="s">
+      <c r="G106" s="30" t="s">
         <v>303</v>
       </c>
       <c r="H106" s="10" t="s">
@@ -12704,7 +12707,7 @@
       <c r="AI106" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="AJ106" s="33" t="s">
+      <c r="AJ106" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK106" s="14" t="s">
@@ -12748,7 +12751,7 @@
       <c r="F107" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G107" s="31" t="s">
+      <c r="G107" s="30" t="s">
         <v>306</v>
       </c>
       <c r="H107" s="10" t="s">
@@ -12805,7 +12808,7 @@
       <c r="AI107" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="AJ107" s="33" t="s">
+      <c r="AJ107" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK107" s="14" t="s">
@@ -12908,7 +12911,7 @@
       <c r="AI108" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="AJ108" s="34" t="s">
+      <c r="AJ108" s="33" t="s">
         <v>43</v>
       </c>
       <c r="AK108" s="14" t="s">
@@ -12989,7 +12992,7 @@
       <c r="AI109" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="AJ109" s="33" t="s">
+      <c r="AJ109" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK109" s="14" t="s">
@@ -13064,7 +13067,7 @@
       <c r="AI110" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="AJ110" s="33" t="s">
+      <c r="AJ110" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK110" s="14" t="s">
@@ -13163,7 +13166,7 @@
       <c r="AI111" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="AJ111" s="33" t="s">
+      <c r="AJ111" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
@@ -13209,7 +13212,7 @@
       <c r="F112" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="G112" s="31" t="s">
+      <c r="G112" s="30" t="s">
         <v>322</v>
       </c>
       <c r="H112" s="10" t="s">
@@ -13268,7 +13271,7 @@
       <c r="AI112" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="AJ112" s="33" t="s">
+      <c r="AJ112" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
@@ -13371,7 +13374,7 @@
       <c r="AI113" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="AJ113" s="33" t="s">
+      <c r="AJ113" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
@@ -13476,7 +13479,7 @@
       <c r="AI114" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="AJ114" s="33" t="s">
+      <c r="AJ114" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
@@ -13581,7 +13584,7 @@
       <c r="AI115" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="AJ115" s="33" t="s">
+      <c r="AJ115" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
@@ -13686,7 +13689,7 @@
       <c r="AI116" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="AJ116" s="33" t="s">
+      <c r="AJ116" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK116" s="14" t="s">
@@ -13791,7 +13794,7 @@
       <c r="AI117" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="AJ117" s="33" t="s">
+      <c r="AJ117" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
@@ -13896,7 +13899,7 @@
       <c r="AI118" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="AJ118" s="33" t="s">
+      <c r="AJ118" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK118" s="14" t="s">
@@ -13942,7 +13945,7 @@
       <c r="F119" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="G119" s="31" t="s">
+      <c r="G119" s="30" t="s">
         <v>341</v>
       </c>
       <c r="H119" s="10" t="s">
@@ -13999,10 +14002,10 @@
       <c r="AI119" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="AJ119" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK119" s="32"/>
+      <c r="AJ119" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK119" s="31"/>
       <c r="AL119" s="28" t="s">
         <v>155</v>
       </c>
@@ -14012,7 +14015,7 @@
       <c r="AN119" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="AO119" s="32"/>
+      <c r="AO119" s="31"/>
       <c r="AP119" s="29" t="s">
         <v>242</v>
       </c>
@@ -14041,7 +14044,7 @@
       <c r="F120" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="G120" s="31" t="s">
+      <c r="G120" s="30" t="s">
         <v>343</v>
       </c>
       <c r="H120" s="10" t="s">
@@ -14098,10 +14101,10 @@
       <c r="AI120" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="AJ120" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK120" s="32"/>
+      <c r="AJ120" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK120" s="31"/>
       <c r="AL120" s="28" t="s">
         <v>155</v>
       </c>
@@ -14111,7 +14114,7 @@
       <c r="AN120" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="AO120" s="32"/>
+      <c r="AO120" s="31"/>
       <c r="AP120" s="29" t="s">
         <v>242</v>
       </c>
@@ -14140,7 +14143,7 @@
       <c r="F121" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="G121" s="31" t="s">
+      <c r="G121" s="30" t="s">
         <v>345</v>
       </c>
       <c r="H121" s="10" t="s">
@@ -14197,7 +14200,7 @@
       <c r="AI121" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="AJ121" s="33" t="s">
+      <c r="AJ121" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK121" s="28"/>
@@ -14239,7 +14242,7 @@
       <c r="F122" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="G122" s="31" t="s">
+      <c r="G122" s="30" t="s">
         <v>348</v>
       </c>
       <c r="H122" s="10" t="s">
@@ -14298,7 +14301,7 @@
       <c r="AI122" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="AJ122" s="33" t="s">
+      <c r="AJ122" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK122" s="14" t="s">
@@ -14309,7 +14312,7 @@
       </c>
       <c r="AM122" s="8"/>
       <c r="AN122" s="8"/>
-      <c r="AO122" s="35"/>
+      <c r="AO122" s="34"/>
       <c r="AP122" s="29" t="s">
         <v>350</v>
       </c>
@@ -14338,7 +14341,7 @@
       <c r="F123" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="G123" s="31" t="s">
+      <c r="G123" s="30" t="s">
         <v>351</v>
       </c>
       <c r="H123" s="10" t="s">
@@ -14373,7 +14376,7 @@
       <c r="AI123" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="AJ123" s="33" t="s">
+      <c r="AJ123" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK123" s="14" t="s">
@@ -14384,7 +14387,7 @@
       </c>
       <c r="AM123" s="8"/>
       <c r="AN123" s="8"/>
-      <c r="AO123" s="35"/>
+      <c r="AO123" s="34"/>
       <c r="AP123" s="29" t="s">
         <v>350</v>
       </c>
@@ -14413,7 +14416,7 @@
       <c r="F124" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="G124" s="31" t="s">
+      <c r="G124" s="30" t="s">
         <v>351</v>
       </c>
       <c r="H124" s="10" t="s">
@@ -14448,7 +14451,7 @@
       <c r="AI124" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="AJ124" s="33" t="s">
+      <c r="AJ124" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK124" s="14" t="s">
@@ -14459,7 +14462,7 @@
       </c>
       <c r="AM124" s="8"/>
       <c r="AN124" s="8"/>
-      <c r="AO124" s="35"/>
+      <c r="AO124" s="34"/>
       <c r="AP124" s="29" t="s">
         <v>350</v>
       </c>
@@ -14545,7 +14548,7 @@
       <c r="AI125" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="AJ125" s="33" t="s">
+      <c r="AJ125" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK125" s="8"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7423AE4B-9608-4419-A4AD-84AF8CD7468B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8631D7A-C3EC-4F96-A2D5-5A28ECD95500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9370" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="427">
   <si>
     <t>插件</t>
   </si>
@@ -2756,6 +2756,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2779,12 +2785,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3067,10 +3067,10 @@
   <dimension ref="A1:AR127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N67" sqref="N67"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3091,60 +3091,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
     </row>
     <row r="2" spans="1:44" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -8233,7 +8233,7 @@
       <c r="F63" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="46" t="s">
+      <c r="G63" s="38" t="s">
         <v>420</v>
       </c>
       <c r="H63" s="17" t="s">
@@ -8338,7 +8338,7 @@
       <c r="F64" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="46" t="s">
+      <c r="G64" s="38" t="s">
         <v>165</v>
       </c>
       <c r="H64" s="17" t="s">
@@ -8443,7 +8443,7 @@
       <c r="F65" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G65" s="46" t="s">
+      <c r="G65" s="38" t="s">
         <v>170</v>
       </c>
       <c r="H65" s="17" t="s">
@@ -8548,7 +8548,7 @@
       <c r="F66" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="G66" s="38" t="s">
         <v>176</v>
       </c>
       <c r="H66" s="17" t="s">
@@ -8653,7 +8653,7 @@
       <c r="F67" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="46" t="s">
+      <c r="G67" s="38" t="s">
         <v>177</v>
       </c>
       <c r="H67" s="17" t="s">
@@ -8758,7 +8758,7 @@
       <c r="F68" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="38" t="s">
         <v>179</v>
       </c>
       <c r="H68" s="10" t="s">
@@ -8774,34 +8774,34 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
-      <c r="O68" s="45" t="s">
+      <c r="O68" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P68" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q68" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R68" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S68" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T68" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U68" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V68" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W68" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X68" s="45" t="s">
+      <c r="Q68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X68" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y68" s="18"/>
@@ -8863,7 +8863,7 @@
       <c r="F69" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G69" s="38" t="s">
         <v>182</v>
       </c>
       <c r="H69" s="10" t="s">
@@ -8879,34 +8879,34 @@
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
       <c r="N69" s="21"/>
-      <c r="O69" s="45" t="s">
+      <c r="O69" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P69" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q69" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R69" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S69" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T69" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U69" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V69" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W69" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X69" s="45" t="s">
+      <c r="Q69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W69" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y69" s="18"/>
@@ -8968,7 +8968,7 @@
       <c r="F70" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="38" t="s">
         <v>184</v>
       </c>
       <c r="H70" s="17" t="s">
@@ -9073,7 +9073,7 @@
       <c r="F71" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G71" s="46" t="s">
+      <c r="G71" s="38" t="s">
         <v>190</v>
       </c>
       <c r="H71" s="17" t="s">
@@ -9178,7 +9178,7 @@
       <c r="F72" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G72" s="46" t="s">
+      <c r="G72" s="38" t="s">
         <v>191</v>
       </c>
       <c r="H72" s="10" t="s">
@@ -9194,34 +9194,34 @@
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
-      <c r="O72" s="45" t="s">
+      <c r="O72" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P72" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q72" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R72" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S72" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T72" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U72" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V72" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W72" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X72" s="45" t="s">
+      <c r="Q72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X72" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y72" s="18"/>
@@ -9283,7 +9283,7 @@
       <c r="F73" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="46" t="s">
+      <c r="G73" s="38" t="s">
         <v>194</v>
       </c>
       <c r="H73" s="17" t="s">
@@ -9388,7 +9388,7 @@
       <c r="F74" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G74" s="46" t="s">
+      <c r="G74" s="38" t="s">
         <v>199</v>
       </c>
       <c r="H74" s="10" t="s">
@@ -9404,34 +9404,34 @@
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
       <c r="N74" s="21"/>
-      <c r="O74" s="45" t="s">
+      <c r="O74" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P74" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q74" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R74" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S74" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T74" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U74" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V74" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W74" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X74" s="45" t="s">
+      <c r="Q74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X74" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y74" s="18"/>
@@ -9509,34 +9509,34 @@
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
-      <c r="O75" s="45" t="s">
+      <c r="O75" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P75" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q75" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R75" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S75" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T75" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U75" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V75" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W75" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X75" s="45" t="s">
+      <c r="Q75" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R75" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S75" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T75" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U75" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V75" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W75" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X75" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y75" s="18"/>
@@ -9614,34 +9614,34 @@
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
       <c r="N76" s="21"/>
-      <c r="O76" s="45" t="s">
+      <c r="O76" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P76" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q76" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R76" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S76" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T76" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U76" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V76" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W76" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X76" s="45" t="s">
+      <c r="Q76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W76" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X76" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y76" s="18"/>
@@ -9706,8 +9706,8 @@
       <c r="G77" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H77" s="10" t="s">
-        <v>55</v>
+      <c r="H77" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I77" s="17" t="s">
         <v>43</v>
@@ -9811,8 +9811,8 @@
       <c r="G78" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H78" s="10" t="s">
-        <v>55</v>
+      <c r="H78" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I78" s="17" t="s">
         <v>43</v>
@@ -9916,8 +9916,8 @@
       <c r="G79" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>55</v>
+      <c r="H79" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I79" s="17" t="s">
         <v>43</v>
@@ -10034,34 +10034,34 @@
       <c r="L80" s="21"/>
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
-      <c r="O80" s="45" t="s">
+      <c r="O80" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P80" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q80" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R80" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S80" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T80" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U80" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V80" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W80" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X80" s="45" t="s">
+      <c r="Q80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X80" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y80" s="18"/>
@@ -10126,8 +10126,8 @@
       <c r="G81" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>55</v>
+      <c r="H81" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I81" s="17" t="s">
         <v>43</v>
@@ -10231,8 +10231,8 @@
       <c r="G82" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>55</v>
+      <c r="H82" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="I82" s="17" t="s">
         <v>43</v>
@@ -10349,34 +10349,34 @@
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
-      <c r="O83" s="45" t="s">
+      <c r="O83" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P83" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X83" s="45" t="s">
+      <c r="Q83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X83" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y83" s="15"/>
@@ -10454,34 +10454,34 @@
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
-      <c r="O84" s="45" t="s">
+      <c r="O84" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P84" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q84" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R84" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S84" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T84" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U84" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V84" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W84" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X84" s="45" t="s">
+      <c r="Q84" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R84" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S84" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T84" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U84" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V84" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W84" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X84" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y84" s="15"/>
@@ -10562,8 +10562,8 @@
       <c r="O85" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="P85" s="17" t="s">
-        <v>43</v>
+      <c r="P85" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="Q85" s="17" t="s">
         <v>43</v>
@@ -10667,8 +10667,8 @@
       <c r="O86" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="P86" s="17" t="s">
-        <v>43</v>
+      <c r="P86" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="Q86" s="17" t="s">
         <v>43</v>
@@ -10876,34 +10876,34 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="45" t="s">
+      <c r="O88" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P88" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q88" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="R88" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S88" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T88" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="U88" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="V88" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W88" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X88" s="45" t="s">
+      <c r="Q88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X88" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y88" s="15"/>

--- a/docs/插件列表.xlsx
+++ b/docs/插件列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python_workspace\imetadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8631D7A-C3EC-4F96-A2D5-5A28ECD95500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588805F2-F66F-4DE9-B694-2E2E77750785}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="同步插件-即时服务" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'插件列表-识别质检'!$A$2:$AH$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'插件列表-识别质检'!$A$2:$AH$126</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -974,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="425">
   <si>
     <t>插件</t>
   </si>
@@ -1769,9 +1769,6 @@
     <t>KOMPSAT-3</t>
   </si>
   <si>
-    <t>plugins_4013_K3_PMS</t>
-  </si>
-  <si>
     <t>Kompsat-3</t>
   </si>
   <si>
@@ -1826,22 +1823,10 @@
     <t>Pleiades</t>
   </si>
   <si>
-    <t>plugins_4015_PL</t>
-  </si>
-  <si>
-    <t>Pleiades1A</t>
-  </si>
-  <si>
     <t>法国</t>
   </si>
   <si>
     <t>NDI_PL</t>
-  </si>
-  <si>
-    <t>plugins_4015_pleiades1b_PMS</t>
-  </si>
-  <si>
-    <t>Pleiades1B</t>
   </si>
   <si>
     <t>Planet Lab</t>
@@ -2351,6 +2336,18 @@
   </si>
   <si>
     <t>HJ-1A/B/C</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4013_K3_PMS</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>plugins_4015_pleiades</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pleiades1A/1B</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2358,7 +2355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2521,6 +2518,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2644,7 +2654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2784,6 +2794,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3064,13 +3080,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79973754081850645"/>
   </sheetPr>
-  <dimension ref="A1:AR127"/>
+  <dimension ref="A1:AR126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AH78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomRight" activeCell="AK93" sqref="AK93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8129,7 +8145,7 @@
         <v>153</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>43</v>
@@ -8234,7 +8250,7 @@
         <v>160</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H63" s="17" t="s">
         <v>43</v>
@@ -8296,7 +8312,7 @@
         <v>43</v>
       </c>
       <c r="AK63" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AL63" s="28" t="s">
         <v>155</v>
@@ -8311,7 +8327,7 @@
         <v>163</v>
       </c>
       <c r="AP63" s="29" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AQ63" s="8">
         <v>4002</v>
@@ -9009,7 +9025,7 @@
         <v>43</v>
       </c>
       <c r="W70" s="36" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="X70" s="17" t="s">
         <v>43</v>
@@ -9114,7 +9130,7 @@
         <v>43</v>
       </c>
       <c r="W71" s="36" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="X71" s="17" t="s">
         <v>43</v>
@@ -9238,7 +9254,7 @@
         <v>185</v>
       </c>
       <c r="AJ72" s="35" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AK72" s="14" t="s">
         <v>186</v>
@@ -9481,7 +9497,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="15" t="str">
-        <f t="shared" ref="C75:C99" si="1">AL75</f>
+        <f t="shared" ref="C75:C98" si="1">AL75</f>
         <v>光学</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -10544,7 +10560,7 @@
         <v>224</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H85" s="17" t="s">
         <v>43</v>
@@ -10600,13 +10616,13 @@
       <c r="AG85" s="15"/>
       <c r="AH85" s="15"/>
       <c r="AI85" s="27" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AJ85" s="26" t="s">
         <v>43</v>
       </c>
       <c r="AK85" s="14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AL85" s="28" t="s">
         <v>155</v>
@@ -10618,7 +10634,7 @@
         <v>157</v>
       </c>
       <c r="AO85" s="14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AP85" s="29" t="s">
         <v>225</v>
@@ -10861,7 +10877,7 @@
         <v>236</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>237</v>
+        <v>422</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>55</v>
@@ -10923,7 +10939,7 @@
         <v>55</v>
       </c>
       <c r="AK88" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL88" s="28" t="s">
         <v>155</v>
@@ -10938,7 +10954,7 @@
         <v>158</v>
       </c>
       <c r="AP88" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AQ88" s="8">
         <v>4027</v>
@@ -10963,10 +10979,10 @@
         <v>152</v>
       </c>
       <c r="F89" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G89" s="30" t="s">
         <v>240</v>
-      </c>
-      <c r="G89" s="30" t="s">
-        <v>241</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>55</v>
@@ -11020,7 +11036,7 @@
       <c r="AG89" s="15"/>
       <c r="AH89" s="15"/>
       <c r="AI89" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ89" s="32" t="s">
         <v>55</v>
@@ -11037,7 +11053,7 @@
       </c>
       <c r="AO89" s="14"/>
       <c r="AP89" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ89" s="8">
         <v>4028</v>
@@ -11062,10 +11078,10 @@
         <v>152</v>
       </c>
       <c r="F90" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G90" s="30" t="s">
         <v>243</v>
-      </c>
-      <c r="G90" s="30" t="s">
-        <v>244</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>55</v>
@@ -11119,7 +11135,7 @@
       <c r="AG90" s="15"/>
       <c r="AH90" s="15"/>
       <c r="AI90" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AJ90" s="32" t="s">
         <v>55</v>
@@ -11132,11 +11148,11 @@
         <v>161</v>
       </c>
       <c r="AN90" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO90" s="14"/>
       <c r="AP90" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ90" s="8">
         <v>4029</v>
@@ -11163,10 +11179,10 @@
         <v>152</v>
       </c>
       <c r="F91" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G91" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>55</v>
@@ -11222,13 +11238,13 @@
       <c r="AG91" s="15"/>
       <c r="AH91" s="15"/>
       <c r="AI91" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AJ91" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK91" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL91" s="28" t="s">
         <v>155</v>
@@ -11237,13 +11253,13 @@
         <v>161</v>
       </c>
       <c r="AN91" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO91" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP91" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="AP91" s="29" t="s">
-        <v>250</v>
       </c>
       <c r="AQ91" s="8">
         <v>4030</v>
@@ -11268,10 +11284,10 @@
         <v>152</v>
       </c>
       <c r="F92" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G92" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>55</v>
@@ -11327,13 +11343,13 @@
       <c r="AG92" s="15"/>
       <c r="AH92" s="15"/>
       <c r="AI92" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ92" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK92" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AL92" s="28" t="s">
         <v>155</v>
@@ -11342,13 +11358,13 @@
         <v>161</v>
       </c>
       <c r="AN92" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO92" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP92" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ92" s="8">
         <v>4031</v>
@@ -11373,10 +11389,10 @@
         <v>152</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="G93" s="47" t="s">
+        <v>423</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>55</v>
@@ -11432,13 +11448,13 @@
       <c r="AG93" s="15"/>
       <c r="AH93" s="15"/>
       <c r="AI93" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ93" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK93" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="AJ93" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK93" s="48" t="s">
+        <v>424</v>
       </c>
       <c r="AL93" s="28" t="s">
         <v>155</v>
@@ -11447,13 +11463,13 @@
         <v>161</v>
       </c>
       <c r="AN93" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AO93" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP93" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AQ93" s="8">
         <v>4032</v>
@@ -11462,7 +11478,7 @@
     </row>
     <row r="94" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>37</v>
@@ -11477,55 +11493,31 @@
       <c r="E94" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>255</v>
+      <c r="F94" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I94" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I94" s="17"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K94" s="18"/>
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W94" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X94" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="22"/>
+      <c r="X94" s="22"/>
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
       <c r="AA94" s="15"/>
@@ -11537,13 +11529,13 @@
       <c r="AG94" s="15"/>
       <c r="AH94" s="15"/>
       <c r="AI94" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AJ94" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK94" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AL94" s="28" t="s">
         <v>155</v>
@@ -11552,20 +11544,20 @@
         <v>161</v>
       </c>
       <c r="AN94" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="AO94" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP94" s="29"/>
+        <v>244</v>
+      </c>
+      <c r="AO94" s="31"/>
+      <c r="AP94" s="29" t="s">
+        <v>260</v>
+      </c>
       <c r="AQ94" s="8">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="AR94" s="8"/>
     </row>
     <row r="95" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>37</v>
@@ -11580,31 +11572,55 @@
       <c r="E95" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G95" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="G95" s="30" t="s">
-        <v>263</v>
-      </c>
       <c r="H95" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I95" s="17"/>
+      <c r="I95" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J95" s="15"/>
-      <c r="K95" s="18"/>
+      <c r="K95" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
-      <c r="T95" s="22"/>
-      <c r="U95" s="22"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="22"/>
-      <c r="X95" s="22"/>
+      <c r="O95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X95" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
       <c r="AA95" s="15"/>
@@ -11616,13 +11632,13 @@
       <c r="AG95" s="15"/>
       <c r="AH95" s="15"/>
       <c r="AI95" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AJ95" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK95" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL95" s="28" t="s">
         <v>155</v>
@@ -11631,20 +11647,22 @@
         <v>161</v>
       </c>
       <c r="AN95" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO95" s="31"/>
+        <v>263</v>
+      </c>
+      <c r="AO95" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="AP95" s="29" t="s">
         <v>265</v>
       </c>
       <c r="AQ95" s="8">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="AR95" s="8"/>
     </row>
     <row r="96" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>37</v>
@@ -11668,46 +11686,22 @@
       <c r="H96" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I96" s="17"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K96" s="18"/>
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X96" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+      <c r="V96" s="22"/>
+      <c r="W96" s="22"/>
+      <c r="X96" s="22"/>
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
       <c r="AA96" s="15"/>
@@ -11725,31 +11719,25 @@
         <v>55</v>
       </c>
       <c r="AK96" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL96" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM96" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN96" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO96" s="14" t="s">
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="8"/>
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="AP96" s="29" t="s">
-        <v>270</v>
-      </c>
       <c r="AQ96" s="8">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="AR96" s="8"/>
     </row>
     <row r="97" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>37</v>
@@ -11765,30 +11753,54 @@
         <v>152</v>
       </c>
       <c r="F97" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G97" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G97" s="30" t="s">
-        <v>272</v>
-      </c>
       <c r="H97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I97" s="17"/>
+      <c r="I97" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J97" s="15"/>
-      <c r="K97" s="18"/>
+      <c r="K97" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
+      <c r="O97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X97" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
       <c r="AA97" s="15"/>
@@ -11799,32 +11811,38 @@
       <c r="AF97" s="15"/>
       <c r="AG97" s="15"/>
       <c r="AH97" s="15"/>
-      <c r="AI97" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ97" s="32" t="s">
-        <v>55</v>
+      <c r="AI97" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ97" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="AK97" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL97" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM97" s="8"/>
-      <c r="AN97" s="8"/>
-      <c r="AO97" s="8"/>
+      <c r="AM97" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN97" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO97" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="AP97" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ97" s="8">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="AR97" s="8"/>
     </row>
     <row r="98" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>37</v>
@@ -11840,10 +11858,10 @@
         <v>152</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>55</v>
@@ -11899,13 +11917,13 @@
       <c r="AG98" s="15"/>
       <c r="AH98" s="15"/>
       <c r="AI98" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ98" s="33" t="s">
-        <v>43</v>
+        <v>270</v>
+      </c>
+      <c r="AJ98" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="AK98" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AL98" s="28" t="s">
         <v>155</v>
@@ -11917,25 +11935,25 @@
         <v>157</v>
       </c>
       <c r="AO98" s="14" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="AP98" s="29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AQ98" s="8">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="AR98" s="8"/>
     </row>
     <row r="99" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C99" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f>C69</f>
         <v>光学</v>
       </c>
       <c r="D99" s="15" t="s">
@@ -11944,55 +11962,31 @@
       <c r="E99" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>279</v>
+      <c r="F99" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>277</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I99" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I99" s="17"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K99" s="18"/>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
-      <c r="O99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W99" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X99" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
       <c r="Y99" s="15"/>
       <c r="Z99" s="15"/>
       <c r="AA99" s="15"/>
@@ -12004,43 +11998,35 @@
       <c r="AG99" s="15"/>
       <c r="AH99" s="15"/>
       <c r="AI99" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ99" s="32" t="s">
-        <v>55</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="AJ99" s="32"/>
       <c r="AK99" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL99" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM99" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN99" s="28" t="s">
-        <v>157</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="AL99" s="28"/>
+      <c r="AM99" s="28"/>
+      <c r="AN99" s="28"/>
       <c r="AO99" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AP99" s="29" t="s">
         <v>278</v>
       </c>
       <c r="AQ99" s="8">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="AR99" s="8"/>
     </row>
     <row r="100" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C100" s="15" t="str">
-        <f>C69</f>
+        <f t="shared" ref="C100:C109" si="2">AL100</f>
         <v>光学</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -12049,31 +12035,55 @@
       <c r="E100" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F100" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>282</v>
+      <c r="F100" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="17"/>
+      <c r="I100" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J100" s="15"/>
-      <c r="K100" s="18"/>
+      <c r="K100" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
+      <c r="O100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X100" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y100" s="15"/>
       <c r="Z100" s="15"/>
       <c r="AA100" s="15"/>
@@ -12084,36 +12094,44 @@
       <c r="AF100" s="15"/>
       <c r="AG100" s="15"/>
       <c r="AH100" s="15"/>
-      <c r="AI100" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ100" s="32"/>
+      <c r="AI100" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ100" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="AK100" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="AL100" s="28"/>
-      <c r="AM100" s="28"/>
-      <c r="AN100" s="28"/>
+      <c r="AL100" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM100" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN100" s="28" t="s">
+        <v>157</v>
+      </c>
       <c r="AO100" s="14" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="AP100" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AQ100" s="8">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="AR100" s="8"/>
     </row>
     <row r="101" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C101" s="15" t="str">
-        <f t="shared" ref="C101:C110" si="2">AL101</f>
+        <f t="shared" si="2"/>
         <v>光学</v>
       </c>
       <c r="D101" s="15" t="s">
@@ -12123,96 +12141,96 @@
         <v>152</v>
       </c>
       <c r="F101" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G101" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="H101" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J101" s="8"/>
+      <c r="K101" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X101" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+      <c r="AB101" s="8"/>
+      <c r="AC101" s="8"/>
+      <c r="AD101" s="8"/>
+      <c r="AE101" s="8"/>
+      <c r="AF101" s="8"/>
+      <c r="AG101" s="8"/>
+      <c r="AH101" s="8"/>
+      <c r="AI101" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ101" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK101" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J101" s="15"/>
-      <c r="K101" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
-      <c r="AA101" s="15"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="15"/>
-      <c r="AD101" s="15"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ101" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK101" s="14" t="s">
-        <v>286</v>
       </c>
       <c r="AL101" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM101" s="28" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AN101" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AO101" s="14" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="AP101" s="29" t="s">
         <v>287</v>
       </c>
       <c r="AQ101" s="8">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="AR101" s="8"/>
     </row>
     <row r="102" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>37</v>
@@ -12228,10 +12246,10 @@
         <v>152</v>
       </c>
       <c r="F102" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G102" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>289</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>55</v>
@@ -12287,13 +12305,13 @@
       <c r="AG102" s="8"/>
       <c r="AH102" s="8"/>
       <c r="AI102" s="27" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AJ102" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK102" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AL102" s="28" t="s">
         <v>155</v>
@@ -12305,19 +12323,19 @@
         <v>157</v>
       </c>
       <c r="AO102" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AP102" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AQ102" s="8">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="AR102" s="8"/>
     </row>
     <row r="103" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>37</v>
@@ -12333,10 +12351,10 @@
         <v>152</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>55</v>
@@ -12392,37 +12410,37 @@
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AJ103" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK103" s="14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL103" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM103" s="28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AN103" s="28" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="AO103" s="14" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="AP103" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ103" s="8">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="AR103" s="8"/>
     </row>
     <row r="104" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>37</v>
@@ -12438,10 +12456,10 @@
         <v>152</v>
       </c>
       <c r="F104" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G104" s="30" t="s">
         <v>295</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>296</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>55</v>
@@ -12497,13 +12515,13 @@
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ104" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK104" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL104" s="28" t="s">
         <v>155</v>
@@ -12512,22 +12530,20 @@
         <v>161</v>
       </c>
       <c r="AN104" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO104" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AP104" s="29" t="s">
-        <v>298</v>
-      </c>
+      <c r="AP104" s="29"/>
       <c r="AQ104" s="8">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="AR104" s="8"/>
     </row>
     <row r="105" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>37</v>
@@ -12543,10 +12559,10 @@
         <v>152</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>55</v>
@@ -12602,13 +12618,13 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ105" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK105" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="AJ105" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK105" s="14" t="s">
-        <v>301</v>
       </c>
       <c r="AL105" s="28" t="s">
         <v>155</v>
@@ -12617,20 +12633,20 @@
         <v>161</v>
       </c>
       <c r="AN105" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO105" s="14" t="s">
         <v>158</v>
       </c>
       <c r="AP105" s="29"/>
       <c r="AQ105" s="8">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="AR105" s="8"/>
     </row>
     <row r="106" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>37</v>
@@ -12646,17 +12662,15 @@
         <v>152</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I106" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I106" s="5"/>
       <c r="J106" s="8"/>
       <c r="K106" s="18" t="s">
         <v>43</v>
@@ -12705,13 +12719,13 @@
       <c r="AG106" s="8"/>
       <c r="AH106" s="8"/>
       <c r="AI106" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ106" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK106" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="AJ106" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK106" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="AL106" s="28" t="s">
         <v>155</v>
@@ -12720,20 +12734,20 @@
         <v>161</v>
       </c>
       <c r="AN106" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO106" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP106" s="29"/>
+        <v>244</v>
+      </c>
+      <c r="AO106" s="14"/>
+      <c r="AP106" s="29" t="s">
+        <v>241</v>
+      </c>
       <c r="AQ106" s="8">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="AR106" s="8"/>
     </row>
     <row r="107" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>37</v>
@@ -12749,15 +12763,17 @@
         <v>152</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G107" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I107" s="5"/>
+      <c r="I107" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J107" s="8"/>
       <c r="K107" s="18" t="s">
         <v>43</v>
@@ -12806,35 +12822,37 @@
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
       <c r="AI107" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ107" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK107" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="AJ107" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK107" s="14" t="s">
-        <v>307</v>
       </c>
       <c r="AL107" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM107" s="28" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AN107" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO107" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="AO107" s="14" t="s">
+        <v>306</v>
+      </c>
       <c r="AP107" s="29" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="AQ107" s="8">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="AR107" s="8"/>
     </row>
     <row r="108" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>37</v>
@@ -12849,7 +12867,7 @@
       <c r="E108" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="27" t="s">
         <v>308</v>
       </c>
       <c r="G108" s="16" t="s">
@@ -12858,46 +12876,22 @@
       <c r="H108" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I108" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I108" s="17"/>
       <c r="J108" s="8"/>
-      <c r="K108" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="K108" s="18"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
-      <c r="O108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W108" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X108" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8"/>
@@ -12911,8 +12905,8 @@
       <c r="AI108" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="AJ108" s="33" t="s">
-        <v>43</v>
+      <c r="AJ108" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="AK108" s="14" t="s">
         <v>310</v>
@@ -12920,26 +12914,20 @@
       <c r="AL108" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM108" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN108" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO108" s="14" t="s">
+      <c r="AM108" s="8"/>
+      <c r="AN108" s="8"/>
+      <c r="AO108" s="8"/>
+      <c r="AP108" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="AP108" s="29" t="s">
-        <v>312</v>
-      </c>
       <c r="AQ108" s="8">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="AR108" s="8"/>
     </row>
     <row r="109" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>37</v>
@@ -12955,10 +12943,10 @@
         <v>152</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>55</v>
@@ -12990,13 +12978,13 @@
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
       <c r="AI109" s="27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AJ109" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK109" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AL109" s="28" t="s">
         <v>155</v>
@@ -13005,22 +12993,22 @@
       <c r="AN109" s="8"/>
       <c r="AO109" s="8"/>
       <c r="AP109" s="29" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AQ109" s="8">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="AR109" s="8"/>
     </row>
     <row r="110" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C110" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C110:C125" si="3">AL110</f>
         <v>光学</v>
       </c>
       <c r="D110" s="15" t="s">
@@ -13029,31 +13017,55 @@
       <c r="E110" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F110" s="27" t="s">
+      <c r="F110" s="16" t="s">
         <v>313</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I110" s="17"/>
+      <c r="I110" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J110" s="8"/>
-      <c r="K110" s="18"/>
+      <c r="K110" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
+      <c r="O110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W110" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X110" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
       <c r="AA110" s="8"/>
@@ -13076,26 +13088,32 @@
       <c r="AL110" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM110" s="8"/>
-      <c r="AN110" s="8"/>
-      <c r="AO110" s="8"/>
+      <c r="AM110" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN110" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO110" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="AP110" s="29" t="s">
         <v>316</v>
       </c>
       <c r="AQ110" s="8">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="AR110" s="8"/>
     </row>
     <row r="111" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C111" s="15" t="str">
-        <f t="shared" ref="C111:C126" si="3">AL111</f>
+        <f t="shared" si="3"/>
         <v>光学</v>
       </c>
       <c r="D111" s="15" t="s">
@@ -13105,10 +13123,10 @@
         <v>152</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>55</v>
@@ -13164,13 +13182,13 @@
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AJ111" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK111" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AL111" s="28" t="s">
         <v>155</v>
@@ -13182,19 +13200,17 @@
         <v>157</v>
       </c>
       <c r="AO111" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP111" s="29" t="s">
-        <v>321</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="AP111" s="29"/>
       <c r="AQ111" s="8">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="AR111" s="8"/>
     </row>
     <row r="112" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>37</v>
@@ -13210,10 +13226,10 @@
         <v>152</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G112" s="30" t="s">
-        <v>322</v>
+        <v>313</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>55</v>
@@ -13269,13 +13285,13 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AJ112" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK112" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AL112" s="28" t="s">
         <v>155</v>
@@ -13287,17 +13303,19 @@
         <v>157</v>
       </c>
       <c r="AO112" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP112" s="29"/>
+        <v>320</v>
+      </c>
+      <c r="AP112" s="29" t="s">
+        <v>316</v>
+      </c>
       <c r="AQ112" s="8">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="AR112" s="8"/>
     </row>
     <row r="113" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>37</v>
@@ -13313,10 +13331,10 @@
         <v>152</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>55</v>
@@ -13372,13 +13390,13 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="27" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AJ113" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK113" s="14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL113" s="28" t="s">
         <v>155</v>
@@ -13390,19 +13408,19 @@
         <v>157</v>
       </c>
       <c r="AO113" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP113" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="AP113" s="29" t="s">
-        <v>321</v>
-      </c>
       <c r="AQ113" s="8">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="AR113" s="8"/>
     </row>
     <row r="114" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>37</v>
@@ -13418,10 +13436,10 @@
         <v>152</v>
       </c>
       <c r="F114" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G114" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>55</v>
@@ -13477,13 +13495,13 @@
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="27" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AJ114" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK114" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AL114" s="28" t="s">
         <v>155</v>
@@ -13495,19 +13513,19 @@
         <v>157</v>
       </c>
       <c r="AO114" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AP114" s="29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AQ114" s="8">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="AR114" s="8"/>
     </row>
     <row r="115" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>37</v>
@@ -13523,10 +13541,10 @@
         <v>152</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>55</v>
@@ -13582,13 +13600,13 @@
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="27" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AJ115" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK115" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AL115" s="28" t="s">
         <v>155</v>
@@ -13600,19 +13618,19 @@
         <v>157</v>
       </c>
       <c r="AO115" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AP115" s="29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AQ115" s="8">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="AR115" s="8"/>
     </row>
     <row r="116" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>37</v>
@@ -13628,10 +13646,10 @@
         <v>152</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>55</v>
@@ -13687,13 +13705,13 @@
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="27" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AJ116" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK116" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AL116" s="28" t="s">
         <v>155</v>
@@ -13705,19 +13723,19 @@
         <v>157</v>
       </c>
       <c r="AO116" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AP116" s="29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AQ116" s="8">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="AR116" s="8"/>
     </row>
     <row r="117" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>37</v>
@@ -13733,10 +13751,10 @@
         <v>152</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>55</v>
@@ -13792,13 +13810,13 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="27" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AJ117" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AK117" s="14" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AL117" s="28" t="s">
         <v>155</v>
@@ -13810,19 +13828,19 @@
         <v>157</v>
       </c>
       <c r="AO117" s="14" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AP117" s="29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AQ117" s="8">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="AR117" s="8"/>
     </row>
     <row r="118" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>37</v>
@@ -13838,17 +13856,15 @@
         <v>152</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="G118" s="30" t="s">
+        <v>336</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I118" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="I118" s="5"/>
       <c r="J118" s="8"/>
       <c r="K118" s="18" t="s">
         <v>43</v>
@@ -13897,37 +13913,33 @@
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ118" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AK118" s="14" t="s">
-        <v>339</v>
-      </c>
+      <c r="AK118" s="31"/>
       <c r="AL118" s="28" t="s">
         <v>155</v>
       </c>
       <c r="AM118" s="28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AN118" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO118" s="14" t="s">
-        <v>329</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AO118" s="31"/>
       <c r="AP118" s="29" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="AQ118" s="8">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="AR118" s="8"/>
     </row>
     <row r="119" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>37</v>
@@ -13943,10 +13955,10 @@
         <v>152</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>55</v>
@@ -14000,7 +14012,7 @@
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
       <c r="AI119" s="27" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AJ119" s="32" t="s">
         <v>55</v>
@@ -14013,20 +14025,20 @@
         <v>161</v>
       </c>
       <c r="AN119" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO119" s="31"/>
       <c r="AP119" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ119" s="8">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="AR119" s="8"/>
     </row>
     <row r="120" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>37</v>
@@ -14042,10 +14054,10 @@
         <v>152</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>55</v>
@@ -14099,12 +14111,12 @@
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
       <c r="AI120" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AJ120" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AK120" s="31"/>
+      <c r="AK120" s="28"/>
       <c r="AL120" s="28" t="s">
         <v>155</v>
       </c>
@@ -14112,20 +14124,20 @@
         <v>161</v>
       </c>
       <c r="AN120" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO120" s="31"/>
+        <v>341</v>
+      </c>
+      <c r="AO120" s="28"/>
       <c r="AP120" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ120" s="8">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="AR120" s="8"/>
     </row>
     <row r="121" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>37</v>
@@ -14141,15 +14153,17 @@
         <v>152</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I121" s="5"/>
+      <c r="I121" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J121" s="8"/>
       <c r="K121" s="18" t="s">
         <v>43</v>
@@ -14198,33 +14212,31 @@
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
       <c r="AI121" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ121" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK121" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="AJ121" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK121" s="28"/>
       <c r="AL121" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AM121" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN121" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="AO121" s="28"/>
+      <c r="AM121" s="8"/>
+      <c r="AN121" s="8"/>
+      <c r="AO121" s="34"/>
       <c r="AP121" s="29" t="s">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="AQ121" s="8">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="AR121" s="8"/>
     </row>
     <row r="122" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>37</v>
@@ -14239,55 +14251,31 @@
       <c r="E122" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F122" s="16" t="s">
-        <v>347</v>
+      <c r="F122" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="